--- a/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="180" windowWidth="15405" windowHeight="6780" tabRatio="570"/>
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1012</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$1010</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7200" uniqueCount="2298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7181" uniqueCount="2292">
   <si>
     <t>Req ID</t>
   </si>
@@ -7137,29 +7137,11 @@
   <si>
     <t>MS-OXCPRPT_R467</t>
   </si>
-  <si>
-    <t>MS-OXCPRPT_R466001</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXCPRPT_R466001</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] When this is the first ROP RopGetPropertiesAll in the request buffer, and the maximum size of a ROP response buffer is used, and the serialized response would not fit, the implementation does fail the EcDoRpcExt2 method with a return value of 0x0000047D. &lt;5&gt; Section 3.2.5.2:  Exchange 2010 fails the EcDoRpcExt2 method with a return value of 0x0000047D.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] When this is the first ROP RopGetPropertiesAll in the request buffer, and the maximum size of a ROP response buffer is used, and the serialized response would not fit, the implementation does fail the EcDoRpcExt2 method with a return value of 0x000003F0. (Exchange 2007, Exchange 2013, Exchange 2016 follow this behavior).</t>
-  </si>
-  <si>
-    <t>MS-OXCPRPT_R466002</t>
-  </si>
-  <si>
-    <t>MS-OXCPRPT_R466:I, MS-OXCPRPT_R1:i</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -7441,21 +7423,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7480,621 +7447,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="137">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <font>
         <b val="0"/>
@@ -8433,6 +7805,228 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8562,34 +8156,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1012" tableType="xml" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135" connectionId="1">
-  <autoFilter ref="A19:I1012"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1010" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I1010"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="134">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="133">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="132">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="131">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="130">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="129">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="128">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="127">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="126">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8598,12 +8192,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122" totalsRowBorderDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="120"/>
-    <tableColumn id="2" name="Test" dataDxfId="119"/>
-    <tableColumn id="3" name="Description" dataDxfId="118"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8652,7 +8246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8685,9 +8279,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8720,6 +8331,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8897,15 +8525,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L1014"/>
+  <dimension ref="A1:L1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A923" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I928" sqref="I928"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
@@ -8954,127 +8580,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -9087,12 +8713,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -9105,12 +8731,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -9123,12 +8749,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -9141,60 +8767,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -25872,11 +25498,9 @@
         <v>15</v>
       </c>
       <c r="H679" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I679" s="31" t="s">
-        <v>2293</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I679" s="20"/>
     </row>
     <row r="680" spans="1:9" ht="45">
       <c r="A680" s="29" t="s">
@@ -25899,7 +25523,7 @@
         <v>15</v>
       </c>
       <c r="H680" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I680" s="31"/>
     </row>
@@ -32161,18 +31785,18 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="927" spans="1:9" ht="75">
+    <row r="927" spans="1:9" ht="45">
       <c r="A927" s="29" t="s">
-        <v>2292</v>
+        <v>949</v>
       </c>
       <c r="B927" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C927" s="31" t="s">
-        <v>2294</v>
+        <v>2045</v>
       </c>
       <c r="D927" s="29" t="s">
-        <v>2297</v>
+        <v>2162</v>
       </c>
       <c r="E927" s="29" t="s">
         <v>22</v>
@@ -32190,18 +31814,18 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="928" spans="1:9" ht="60">
+    <row r="928" spans="1:9" ht="45">
       <c r="A928" s="29" t="s">
-        <v>2296</v>
+        <v>950</v>
       </c>
       <c r="B928" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C928" s="31" t="s">
-        <v>2295</v>
+        <v>2269</v>
       </c>
       <c r="D928" s="29" t="s">
-        <v>2297</v>
+        <v>2162</v>
       </c>
       <c r="E928" s="29" t="s">
         <v>22</v>
@@ -32221,16 +31845,16 @@
     </row>
     <row r="929" spans="1:9" ht="45">
       <c r="A929" s="29" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B929" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C929" s="31" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="D929" s="29" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="E929" s="29" t="s">
         <v>22</v>
@@ -32250,16 +31874,16 @@
     </row>
     <row r="930" spans="1:9" ht="45">
       <c r="A930" s="29" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B930" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C930" s="31" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="D930" s="29" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="E930" s="29" t="s">
         <v>22</v>
@@ -32279,16 +31903,16 @@
     </row>
     <row r="931" spans="1:9" ht="45">
       <c r="A931" s="29" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B931" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C931" s="31" t="s">
-        <v>2046</v>
+        <v>2271</v>
       </c>
       <c r="D931" s="29" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="E931" s="29" t="s">
         <v>22</v>
@@ -32308,16 +31932,16 @@
     </row>
     <row r="932" spans="1:9" ht="45">
       <c r="A932" s="29" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B932" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C932" s="31" t="s">
-        <v>2270</v>
+        <v>2047</v>
       </c>
       <c r="D932" s="29" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="E932" s="29" t="s">
         <v>22</v>
@@ -32329,24 +31953,24 @@
         <v>15</v>
       </c>
       <c r="H932" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I932" s="31" t="s">
         <v>2236</v>
       </c>
     </row>
-    <row r="933" spans="1:9" ht="45">
+    <row r="933" spans="1:9" ht="60">
       <c r="A933" s="29" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B933" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C933" s="31" t="s">
-        <v>2271</v>
+        <v>2048</v>
       </c>
       <c r="D933" s="29" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="E933" s="29" t="s">
         <v>22</v>
@@ -32358,7 +31982,7 @@
         <v>15</v>
       </c>
       <c r="H933" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I933" s="31" t="s">
         <v>2236</v>
@@ -32366,16 +31990,16 @@
     </row>
     <row r="934" spans="1:9" ht="45">
       <c r="A934" s="29" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B934" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C934" s="31" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="D934" s="29" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="E934" s="29" t="s">
         <v>22</v>
@@ -32393,18 +32017,18 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="935" spans="1:9" ht="60">
+    <row r="935" spans="1:9" ht="45">
       <c r="A935" s="29" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B935" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C935" s="31" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="D935" s="29" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="E935" s="29" t="s">
         <v>22</v>
@@ -32424,16 +32048,16 @@
     </row>
     <row r="936" spans="1:9" ht="45">
       <c r="A936" s="29" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B936" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C936" s="31" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="D936" s="29" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="E936" s="29" t="s">
         <v>22</v>
@@ -32451,18 +32075,18 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="937" spans="1:9" ht="45">
+    <row r="937" spans="1:9" ht="75">
       <c r="A937" s="29" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B937" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C937" s="31" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="D937" s="29" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="E937" s="29" t="s">
         <v>22</v>
@@ -32482,16 +32106,16 @@
     </row>
     <row r="938" spans="1:9" ht="45">
       <c r="A938" s="29" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B938" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C938" s="31" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="D938" s="29" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="E938" s="29" t="s">
         <v>22</v>
@@ -32503,24 +32127,24 @@
         <v>15</v>
       </c>
       <c r="H938" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I938" s="31" t="s">
         <v>2236</v>
       </c>
     </row>
-    <row r="939" spans="1:9" ht="75">
+    <row r="939" spans="1:9" ht="45">
       <c r="A939" s="29" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B939" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C939" s="31" t="s">
-        <v>2052</v>
+        <v>2272</v>
       </c>
       <c r="D939" s="29" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="E939" s="29" t="s">
         <v>22</v>
@@ -32532,24 +32156,24 @@
         <v>15</v>
       </c>
       <c r="H939" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I939" s="31" t="s">
         <v>2236</v>
       </c>
     </row>
-    <row r="940" spans="1:9" ht="45">
+    <row r="940" spans="1:9" ht="60">
       <c r="A940" s="29" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B940" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C940" s="31" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="D940" s="29" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="E940" s="29" t="s">
         <v>22</v>
@@ -32561,7 +32185,7 @@
         <v>15</v>
       </c>
       <c r="H940" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I940" s="31" t="s">
         <v>2236</v>
@@ -32569,16 +32193,16 @@
     </row>
     <row r="941" spans="1:9" ht="45">
       <c r="A941" s="29" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B941" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C941" s="31" t="s">
-        <v>2272</v>
+        <v>2055</v>
       </c>
       <c r="D941" s="29" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="E941" s="29" t="s">
         <v>22</v>
@@ -32596,18 +32220,18 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="942" spans="1:9" ht="60">
+    <row r="942" spans="1:9" ht="45">
       <c r="A942" s="29" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B942" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C942" s="31" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="D942" s="29" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="E942" s="29" t="s">
         <v>22</v>
@@ -32627,28 +32251,28 @@
     </row>
     <row r="943" spans="1:9" ht="45">
       <c r="A943" s="29" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B943" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C943" s="31" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="D943" s="29" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="E943" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F943" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G943" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H943" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I943" s="31" t="s">
         <v>2236</v>
@@ -32656,16 +32280,16 @@
     </row>
     <row r="944" spans="1:9" ht="45">
       <c r="A944" s="29" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B944" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C944" s="31" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="D944" s="29" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="E944" s="29" t="s">
         <v>22</v>
@@ -32677,7 +32301,7 @@
         <v>15</v>
       </c>
       <c r="H944" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I944" s="31" t="s">
         <v>2236</v>
@@ -32685,45 +32309,43 @@
     </row>
     <row r="945" spans="1:9" ht="45">
       <c r="A945" s="29" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B945" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C945" s="31" t="s">
-        <v>2057</v>
+        <v>2273</v>
       </c>
       <c r="D945" s="29" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="E945" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F945" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G945" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H945" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I945" s="31" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="946" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I945" s="31"/>
+    </row>
+    <row r="946" spans="1:9" ht="60">
       <c r="A946" s="29" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B946" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C946" s="31" t="s">
-        <v>2058</v>
+        <v>2274</v>
       </c>
       <c r="D946" s="29" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="E946" s="29" t="s">
         <v>22</v>
@@ -32735,7 +32357,7 @@
         <v>15</v>
       </c>
       <c r="H946" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I946" s="31" t="s">
         <v>2236</v>
@@ -32743,13 +32365,13 @@
     </row>
     <row r="947" spans="1:9" ht="45">
       <c r="A947" s="29" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B947" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C947" s="31" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="D947" s="29" t="s">
         <v>2176</v>
@@ -32764,22 +32386,24 @@
         <v>15</v>
       </c>
       <c r="H947" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I947" s="31"/>
-    </row>
-    <row r="948" spans="1:9" ht="60">
+        <v>21</v>
+      </c>
+      <c r="I947" s="31" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9" ht="45">
       <c r="A948" s="29" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B948" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C948" s="31" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="D948" s="29" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="E948" s="29" t="s">
         <v>22</v>
@@ -32791,24 +32415,22 @@
         <v>15</v>
       </c>
       <c r="H948" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I948" s="31" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="949" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I948" s="31"/>
+    </row>
+    <row r="949" spans="1:9" ht="60">
       <c r="A949" s="29" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B949" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C949" s="31" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="D949" s="29" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="E949" s="29" t="s">
         <v>22</v>
@@ -32820,21 +32442,19 @@
         <v>15</v>
       </c>
       <c r="H949" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I949" s="31" t="s">
-        <v>2236</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I949" s="31"/>
     </row>
     <row r="950" spans="1:9" ht="45">
       <c r="A950" s="29" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B950" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C950" s="31" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="D950" s="29" t="s">
         <v>2177</v>
@@ -32853,18 +32473,18 @@
       </c>
       <c r="I950" s="31"/>
     </row>
-    <row r="951" spans="1:9" ht="60">
+    <row r="951" spans="1:9" ht="45">
       <c r="A951" s="29" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B951" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C951" s="31" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="D951" s="29" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="E951" s="29" t="s">
         <v>22</v>
@@ -32876,22 +32496,24 @@
         <v>15</v>
       </c>
       <c r="H951" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I951" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I951" s="31" t="s">
+        <v>2236</v>
+      </c>
     </row>
     <row r="952" spans="1:9" ht="45">
       <c r="A952" s="29" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B952" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C952" s="31" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="D952" s="29" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="E952" s="29" t="s">
         <v>22</v>
@@ -32909,16 +32531,16 @@
     </row>
     <row r="953" spans="1:9" ht="45">
       <c r="A953" s="29" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B953" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C953" s="31" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="D953" s="29" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="E953" s="29" t="s">
         <v>22</v>
@@ -32938,17 +32560,15 @@
     </row>
     <row r="954" spans="1:9" ht="45">
       <c r="A954" s="29" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B954" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C954" s="31" t="s">
-        <v>2280</v>
-      </c>
-      <c r="D954" s="29" t="s">
-        <v>2178</v>
-      </c>
+        <v>2282</v>
+      </c>
+      <c r="D954" s="29"/>
       <c r="E954" s="29" t="s">
         <v>22</v>
       </c>
@@ -32959,22 +32579,22 @@
         <v>15</v>
       </c>
       <c r="H954" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I954" s="31"/>
     </row>
     <row r="955" spans="1:9" ht="45">
       <c r="A955" s="29" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B955" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C955" s="31" t="s">
-        <v>2281</v>
+        <v>2059</v>
       </c>
       <c r="D955" s="29" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="E955" s="29" t="s">
         <v>22</v>
@@ -32986,7 +32606,7 @@
         <v>15</v>
       </c>
       <c r="H955" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I955" s="31" t="s">
         <v>2236</v>
@@ -32994,15 +32614,17 @@
     </row>
     <row r="956" spans="1:9" ht="45">
       <c r="A956" s="29" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B956" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C956" s="31" t="s">
-        <v>2282</v>
-      </c>
-      <c r="D956" s="29"/>
+        <v>2060</v>
+      </c>
+      <c r="D956" s="29" t="s">
+        <v>2180</v>
+      </c>
       <c r="E956" s="29" t="s">
         <v>22</v>
       </c>
@@ -33013,22 +32635,24 @@
         <v>15</v>
       </c>
       <c r="H956" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I956" s="31"/>
+        <v>21</v>
+      </c>
+      <c r="I956" s="31" t="s">
+        <v>2236</v>
+      </c>
     </row>
     <row r="957" spans="1:9" ht="45">
       <c r="A957" s="29" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B957" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C957" s="31" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="D957" s="29" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="E957" s="29" t="s">
         <v>22</v>
@@ -33048,16 +32672,16 @@
     </row>
     <row r="958" spans="1:9" ht="45">
       <c r="A958" s="29" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B958" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C958" s="31" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="D958" s="29" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="E958" s="29" t="s">
         <v>22</v>
@@ -33069,24 +32693,22 @@
         <v>15</v>
       </c>
       <c r="H958" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I958" s="31" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="959" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I958" s="31"/>
+    </row>
+    <row r="959" spans="1:9" ht="30">
       <c r="A959" s="29" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B959" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C959" s="31" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="D959" s="29" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="E959" s="29" t="s">
         <v>22</v>
@@ -33098,24 +32720,22 @@
         <v>15</v>
       </c>
       <c r="H959" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I959" s="31" t="s">
-        <v>2236</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I959" s="31"/>
     </row>
     <row r="960" spans="1:9" ht="45">
       <c r="A960" s="29" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B960" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C960" s="31" t="s">
-        <v>2062</v>
+        <v>2283</v>
       </c>
       <c r="D960" s="29" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="E960" s="29" t="s">
         <v>22</v>
@@ -33127,22 +32747,24 @@
         <v>15</v>
       </c>
       <c r="H960" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I960" s="31"/>
+        <v>21</v>
+      </c>
+      <c r="I960" s="31" t="s">
+        <v>2236</v>
+      </c>
     </row>
     <row r="961" spans="1:10" ht="30">
       <c r="A961" s="29" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B961" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C961" s="31" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="D961" s="29" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="E961" s="29" t="s">
         <v>22</v>
@@ -33160,16 +32782,16 @@
     </row>
     <row r="962" spans="1:10" ht="45">
       <c r="A962" s="29" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B962" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C962" s="31" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="D962" s="29" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="E962" s="29" t="s">
         <v>22</v>
@@ -33189,16 +32811,16 @@
     </row>
     <row r="963" spans="1:10" ht="30">
       <c r="A963" s="29" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B963" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C963" s="31" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="D963" s="29" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="E963" s="29" t="s">
         <v>22</v>
@@ -33216,16 +32838,16 @@
     </row>
     <row r="964" spans="1:10" ht="45">
       <c r="A964" s="29" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B964" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C964" s="31" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="D964" s="29" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="E964" s="29" t="s">
         <v>22</v>
@@ -33245,16 +32867,16 @@
     </row>
     <row r="965" spans="1:10" ht="30">
       <c r="A965" s="29" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B965" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C965" s="31" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="D965" s="29" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="E965" s="29" t="s">
         <v>22</v>
@@ -33272,16 +32894,16 @@
     </row>
     <row r="966" spans="1:10" ht="45">
       <c r="A966" s="29" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B966" s="30" t="s">
         <v>1150</v>
       </c>
       <c r="C966" s="31" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="D966" s="29" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="E966" s="29" t="s">
         <v>22</v>
@@ -33299,51 +32921,50 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="967" spans="1:10" ht="30">
-      <c r="A967" s="29" t="s">
-        <v>987</v>
-      </c>
-      <c r="B967" s="30" t="s">
-        <v>1150</v>
+    <row r="967" spans="1:10" ht="45">
+      <c r="A967" s="30" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B967" s="33">
+        <v>6</v>
       </c>
       <c r="C967" s="31" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D967" s="29" t="s">
-        <v>2186</v>
-      </c>
+        <v>2287</v>
+      </c>
+      <c r="D967" s="29"/>
       <c r="E967" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F967" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G967" s="29" t="s">
+      <c r="G967" s="34" t="s">
         <v>15</v>
       </c>
       <c r="H967" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I967" s="31"/>
-    </row>
-    <row r="968" spans="1:10" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I967" s="35" t="s">
+        <v>2236</v>
+      </c>
+      <c r="J967" s="31"/>
+    </row>
+    <row r="968" spans="1:10" ht="30">
       <c r="A968" s="29" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B968" s="30" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C968" s="31" t="s">
-        <v>2286</v>
-      </c>
-      <c r="D968" s="29" t="s">
-        <v>2186</v>
-      </c>
+        <v>2067</v>
+      </c>
+      <c r="D968" s="29"/>
       <c r="E968" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F968" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G968" s="29" t="s">
         <v>15</v>
@@ -33351,47 +32972,42 @@
       <c r="H968" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I968" s="31" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="969" spans="1:10" ht="45">
-      <c r="A969" s="30" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B969" s="33">
-        <v>6</v>
+      <c r="I968" s="31"/>
+    </row>
+    <row r="969" spans="1:10" ht="30">
+      <c r="A969" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B969" s="30" t="s">
+        <v>1151</v>
       </c>
       <c r="C969" s="31" t="s">
-        <v>2287</v>
+        <v>2068</v>
       </c>
       <c r="D969" s="29"/>
       <c r="E969" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F969" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G969" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G969" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H969" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I969" s="35" t="s">
-        <v>2236</v>
-      </c>
-      <c r="J969" s="31"/>
+      <c r="I969" s="31"/>
     </row>
     <row r="970" spans="1:10" ht="30">
       <c r="A970" s="29" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B970" s="30" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C970" s="31" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="D970" s="29"/>
       <c r="E970" s="29" t="s">
@@ -33408,15 +33024,15 @@
       </c>
       <c r="I970" s="31"/>
     </row>
-    <row r="971" spans="1:10" ht="30">
+    <row r="971" spans="1:10" ht="60">
       <c r="A971" s="29" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B971" s="30" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C971" s="31" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="D971" s="29"/>
       <c r="E971" s="29" t="s">
@@ -33435,13 +33051,13 @@
     </row>
     <row r="972" spans="1:10" ht="30">
       <c r="A972" s="29" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B972" s="30" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C972" s="31" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="D972" s="29"/>
       <c r="E972" s="29" t="s">
@@ -33458,15 +33074,15 @@
       </c>
       <c r="I972" s="31"/>
     </row>
-    <row r="973" spans="1:10" ht="60">
+    <row r="973" spans="1:10" ht="30">
       <c r="A973" s="29" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B973" s="30" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C973" s="31" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="D973" s="29"/>
       <c r="E973" s="29" t="s">
@@ -33485,13 +33101,13 @@
     </row>
     <row r="974" spans="1:10" ht="30">
       <c r="A974" s="29" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B974" s="30" t="s">
         <v>1153</v>
       </c>
       <c r="C974" s="31" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="D974" s="29"/>
       <c r="E974" s="29" t="s">
@@ -33510,13 +33126,13 @@
     </row>
     <row r="975" spans="1:10" ht="30">
       <c r="A975" s="29" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B975" s="30" t="s">
         <v>1153</v>
       </c>
       <c r="C975" s="31" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="D975" s="29"/>
       <c r="E975" s="29" t="s">
@@ -33535,13 +33151,13 @@
     </row>
     <row r="976" spans="1:10" ht="30">
       <c r="A976" s="29" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B976" s="30" t="s">
         <v>1153</v>
       </c>
       <c r="C976" s="31" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="D976" s="29"/>
       <c r="E976" s="29" t="s">
@@ -33558,15 +33174,15 @@
       </c>
       <c r="I976" s="31"/>
     </row>
-    <row r="977" spans="1:9" ht="30">
+    <row r="977" spans="1:9" ht="45">
       <c r="A977" s="29" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B977" s="30" t="s">
         <v>1153</v>
       </c>
       <c r="C977" s="31" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="D977" s="29"/>
       <c r="E977" s="29" t="s">
@@ -33583,15 +33199,15 @@
       </c>
       <c r="I977" s="31"/>
     </row>
-    <row r="978" spans="1:9" ht="30">
+    <row r="978" spans="1:9">
       <c r="A978" s="29" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B978" s="30" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C978" s="31" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="D978" s="29"/>
       <c r="E978" s="29" t="s">
@@ -33608,15 +33224,15 @@
       </c>
       <c r="I978" s="31"/>
     </row>
-    <row r="979" spans="1:9" ht="45">
+    <row r="979" spans="1:9" ht="30">
       <c r="A979" s="29" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B979" s="30" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C979" s="31" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="D979" s="29"/>
       <c r="E979" s="29" t="s">
@@ -33635,13 +33251,13 @@
     </row>
     <row r="980" spans="1:9">
       <c r="A980" s="29" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B980" s="30" t="s">
         <v>1154</v>
       </c>
       <c r="C980" s="31" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="D980" s="29"/>
       <c r="E980" s="29" t="s">
@@ -33658,15 +33274,15 @@
       </c>
       <c r="I980" s="31"/>
     </row>
-    <row r="981" spans="1:9" ht="30">
+    <row r="981" spans="1:9" ht="120">
       <c r="A981" s="29" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B981" s="30" t="s">
         <v>1154</v>
       </c>
       <c r="C981" s="31" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="D981" s="29"/>
       <c r="E981" s="29" t="s">
@@ -33683,22 +33299,22 @@
       </c>
       <c r="I981" s="31"/>
     </row>
-    <row r="982" spans="1:9">
+    <row r="982" spans="1:9" ht="30">
       <c r="A982" s="29" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B982" s="30" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C982" s="31" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="D982" s="29"/>
       <c r="E982" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F982" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G982" s="29" t="s">
         <v>15</v>
@@ -33708,15 +33324,15 @@
       </c>
       <c r="I982" s="31"/>
     </row>
-    <row r="983" spans="1:9" ht="120">
+    <row r="983" spans="1:9" ht="30">
       <c r="A983" s="29" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B983" s="30" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="C983" s="31" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="D983" s="29"/>
       <c r="E983" s="29" t="s">
@@ -33735,20 +33351,20 @@
     </row>
     <row r="984" spans="1:9" ht="30">
       <c r="A984" s="29" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B984" s="30" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C984" s="31" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="D984" s="29"/>
       <c r="E984" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F984" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G984" s="29" t="s">
         <v>15</v>
@@ -33758,15 +33374,15 @@
       </c>
       <c r="I984" s="31"/>
     </row>
-    <row r="985" spans="1:9" ht="30">
+    <row r="985" spans="1:9" ht="45">
       <c r="A985" s="29" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B985" s="30" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C985" s="31" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="D985" s="29"/>
       <c r="E985" s="29" t="s">
@@ -33785,13 +33401,13 @@
     </row>
     <row r="986" spans="1:9" ht="30">
       <c r="A986" s="29" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B986" s="30" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C986" s="31" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="D986" s="29"/>
       <c r="E986" s="29" t="s">
@@ -33808,15 +33424,15 @@
       </c>
       <c r="I986" s="31"/>
     </row>
-    <row r="987" spans="1:9" ht="45">
+    <row r="987" spans="1:9" ht="30">
       <c r="A987" s="29" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B987" s="30" t="s">
         <v>1157</v>
       </c>
       <c r="C987" s="31" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="D987" s="29"/>
       <c r="E987" s="29" t="s">
@@ -33833,15 +33449,15 @@
       </c>
       <c r="I987" s="31"/>
     </row>
-    <row r="988" spans="1:9" ht="30">
+    <row r="988" spans="1:9" ht="60">
       <c r="A988" s="29" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B988" s="30" t="s">
         <v>1157</v>
       </c>
       <c r="C988" s="31" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="D988" s="29"/>
       <c r="E988" s="29" t="s">
@@ -33858,15 +33474,15 @@
       </c>
       <c r="I988" s="31"/>
     </row>
-    <row r="989" spans="1:9" ht="30">
+    <row r="989" spans="1:9" ht="45">
       <c r="A989" s="29" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B989" s="30" t="s">
         <v>1157</v>
       </c>
       <c r="C989" s="31" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="D989" s="29"/>
       <c r="E989" s="29" t="s">
@@ -33883,15 +33499,15 @@
       </c>
       <c r="I989" s="31"/>
     </row>
-    <row r="990" spans="1:9" ht="60">
+    <row r="990" spans="1:9" ht="75">
       <c r="A990" s="29" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B990" s="30" t="s">
         <v>1157</v>
       </c>
       <c r="C990" s="31" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="D990" s="29"/>
       <c r="E990" s="29" t="s">
@@ -33910,13 +33526,13 @@
     </row>
     <row r="991" spans="1:9" ht="45">
       <c r="A991" s="29" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B991" s="30" t="s">
         <v>1157</v>
       </c>
       <c r="C991" s="31" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="D991" s="29"/>
       <c r="E991" s="29" t="s">
@@ -33933,15 +33549,15 @@
       </c>
       <c r="I991" s="31"/>
     </row>
-    <row r="992" spans="1:9" ht="75">
+    <row r="992" spans="1:9" ht="45">
       <c r="A992" s="29" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B992" s="30" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C992" s="31" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="D992" s="29"/>
       <c r="E992" s="29" t="s">
@@ -33958,15 +33574,15 @@
       </c>
       <c r="I992" s="31"/>
     </row>
-    <row r="993" spans="1:9" ht="45">
+    <row r="993" spans="1:9">
       <c r="A993" s="29" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B993" s="30" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C993" s="31" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="D993" s="29"/>
       <c r="E993" s="29" t="s">
@@ -33983,15 +33599,15 @@
       </c>
       <c r="I993" s="31"/>
     </row>
-    <row r="994" spans="1:9" ht="45">
+    <row r="994" spans="1:9">
       <c r="A994" s="29" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B994" s="30" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C994" s="31" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="D994" s="29"/>
       <c r="E994" s="29" t="s">
@@ -34010,13 +33626,13 @@
     </row>
     <row r="995" spans="1:9">
       <c r="A995" s="29" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B995" s="30" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C995" s="31" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="D995" s="29"/>
       <c r="E995" s="29" t="s">
@@ -34035,13 +33651,13 @@
     </row>
     <row r="996" spans="1:9">
       <c r="A996" s="29" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B996" s="30" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C996" s="31" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="D996" s="29"/>
       <c r="E996" s="29" t="s">
@@ -34060,13 +33676,13 @@
     </row>
     <row r="997" spans="1:9">
       <c r="A997" s="29" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B997" s="30" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C997" s="31" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="D997" s="29"/>
       <c r="E997" s="29" t="s">
@@ -34085,13 +33701,13 @@
     </row>
     <row r="998" spans="1:9">
       <c r="A998" s="29" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B998" s="30" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C998" s="31" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D998" s="29"/>
       <c r="E998" s="29" t="s">
@@ -34110,13 +33726,13 @@
     </row>
     <row r="999" spans="1:9">
       <c r="A999" s="29" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B999" s="30" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C999" s="31" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="D999" s="29"/>
       <c r="E999" s="29" t="s">
@@ -34135,13 +33751,13 @@
     </row>
     <row r="1000" spans="1:9">
       <c r="A1000" s="29" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B1000" s="30" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C1000" s="31" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="D1000" s="29"/>
       <c r="E1000" s="29" t="s">
@@ -34160,13 +33776,13 @@
     </row>
     <row r="1001" spans="1:9">
       <c r="A1001" s="29" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B1001" s="30" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C1001" s="31" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="D1001" s="29"/>
       <c r="E1001" s="29" t="s">
@@ -34185,13 +33801,13 @@
     </row>
     <row r="1002" spans="1:9">
       <c r="A1002" s="29" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B1002" s="30" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C1002" s="31" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="D1002" s="29"/>
       <c r="E1002" s="29" t="s">
@@ -34210,13 +33826,13 @@
     </row>
     <row r="1003" spans="1:9">
       <c r="A1003" s="29" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B1003" s="30" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C1003" s="31" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="D1003" s="29"/>
       <c r="E1003" s="29" t="s">
@@ -34235,13 +33851,13 @@
     </row>
     <row r="1004" spans="1:9">
       <c r="A1004" s="29" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B1004" s="30" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C1004" s="31" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="D1004" s="29"/>
       <c r="E1004" s="29" t="s">
@@ -34260,13 +33876,13 @@
     </row>
     <row r="1005" spans="1:9">
       <c r="A1005" s="29" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B1005" s="30" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C1005" s="31" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="D1005" s="29"/>
       <c r="E1005" s="29" t="s">
@@ -34279,19 +33895,19 @@
         <v>15</v>
       </c>
       <c r="H1005" s="29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1005" s="31"/>
     </row>
     <row r="1006" spans="1:9">
       <c r="A1006" s="29" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B1006" s="30" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C1006" s="31" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="D1006" s="29"/>
       <c r="E1006" s="29" t="s">
@@ -34304,19 +33920,19 @@
         <v>15</v>
       </c>
       <c r="H1006" s="29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1006" s="31"/>
     </row>
     <row r="1007" spans="1:9">
       <c r="A1007" s="29" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B1007" s="30" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C1007" s="31" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="D1007" s="29"/>
       <c r="E1007" s="29" t="s">
@@ -34335,13 +33951,13 @@
     </row>
     <row r="1008" spans="1:9">
       <c r="A1008" s="29" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B1008" s="30" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C1008" s="31" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="D1008" s="29"/>
       <c r="E1008" s="29" t="s">
@@ -34360,13 +33976,13 @@
     </row>
     <row r="1009" spans="1:9">
       <c r="A1009" s="29" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B1009" s="30" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C1009" s="31" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="D1009" s="29"/>
       <c r="E1009" s="29" t="s">
@@ -34379,19 +33995,19 @@
         <v>15</v>
       </c>
       <c r="H1009" s="29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1009" s="31"/>
     </row>
     <row r="1010" spans="1:9">
       <c r="A1010" s="29" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B1010" s="30" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C1010" s="31" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="D1010" s="29"/>
       <c r="E1010" s="29" t="s">
@@ -34404,70 +34020,25 @@
         <v>15</v>
       </c>
       <c r="H1010" s="29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1010" s="31"/>
     </row>
     <row r="1011" spans="1:9">
-      <c r="A1011" s="29" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B1011" s="30" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C1011" s="31" t="s">
-        <v>2108</v>
-      </c>
-      <c r="D1011" s="29"/>
-      <c r="E1011" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1011" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1011" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1011" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1011" s="31"/>
+      <c r="A1011" s="3"/>
+      <c r="B1011" s="10"/>
     </row>
     <row r="1012" spans="1:9">
-      <c r="A1012" s="29" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B1012" s="30" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C1012" s="31" t="s">
-        <v>2109</v>
-      </c>
-      <c r="D1012" s="29"/>
-      <c r="E1012" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1012" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1012" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1012" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1012" s="31"/>
-    </row>
-    <row r="1013" spans="1:9">
-      <c r="A1013" s="3"/>
-      <c r="B1013" s="10"/>
-    </row>
-    <row r="1014" spans="1:9">
-      <c r="A1014" s="3"/>
-      <c r="B1014" s="10"/>
+      <c r="A1012" s="3"/>
+      <c r="B1012" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -34475,187 +34046,182 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E34:I397 E924:I924 A970:I1012 E399:I922 A20:H968 E926:I968">
-    <cfRule type="expression" dxfId="117" priority="81">
+  <conditionalFormatting sqref="E34:I397 E924:I924 A968:I1010 E399:I922 A20:H966 E926:I966">
+    <cfRule type="expression" dxfId="60" priority="81">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="82">
+    <cfRule type="expression" dxfId="59" priority="82">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="89">
+    <cfRule type="expression" dxfId="58" priority="89">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:I397 E924:I924 A970:I1012 E399:I922 A20:H968 E926:I968">
-    <cfRule type="expression" dxfId="114" priority="35">
+  <conditionalFormatting sqref="E34:I397 E924:I924 A968:I1010 E399:I922 A20:H966 E926:I966">
+    <cfRule type="expression" dxfId="57" priority="35">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="36">
+    <cfRule type="expression" dxfId="56" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="37">
+    <cfRule type="expression" dxfId="55" priority="37">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F970:F1012 F20:F968">
-    <cfRule type="expression" dxfId="111" priority="41">
+  <conditionalFormatting sqref="F968:F1010 F20:F966">
+    <cfRule type="expression" dxfId="54" priority="41">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="42">
+    <cfRule type="expression" dxfId="53" priority="42">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I397 I924 I970:I1012 I926:I968">
-    <cfRule type="expression" dxfId="109" priority="32">
+  <conditionalFormatting sqref="I20:I397 I924 I968:I1010">
+    <cfRule type="expression" dxfId="52" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="33">
+    <cfRule type="expression" dxfId="51" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="34">
+    <cfRule type="expression" dxfId="50" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I397 I924 I970:I1012 I926:I968">
-    <cfRule type="expression" dxfId="106" priority="29">
+  <conditionalFormatting sqref="I20:I397 I924 I968:I1010">
+    <cfRule type="expression" dxfId="49" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="30">
+    <cfRule type="expression" dxfId="48" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="31">
+    <cfRule type="expression" dxfId="47" priority="31">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A969:D969 J969">
-    <cfRule type="expression" dxfId="103" priority="26">
+  <conditionalFormatting sqref="A967:D967 J967">
+    <cfRule type="expression" dxfId="46" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="27">
+    <cfRule type="expression" dxfId="45" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="28">
+    <cfRule type="expression" dxfId="44" priority="28">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A969:D969 J969">
-    <cfRule type="expression" dxfId="100" priority="23">
+  <conditionalFormatting sqref="A967:D967 J967">
+    <cfRule type="expression" dxfId="43" priority="23">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="24">
+    <cfRule type="expression" dxfId="42" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="25">
+    <cfRule type="expression" dxfId="41" priority="25">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G969:I969 E969">
-    <cfRule type="expression" dxfId="97" priority="20">
+  <conditionalFormatting sqref="G967:I967 E967">
+    <cfRule type="expression" dxfId="40" priority="20">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="21">
+    <cfRule type="expression" dxfId="39" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="22">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G969:I969 E969">
-    <cfRule type="expression" dxfId="94" priority="17">
+  <conditionalFormatting sqref="G967:I967 E967">
+    <cfRule type="expression" dxfId="37" priority="17">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="18">
+    <cfRule type="expression" dxfId="36" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="19">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F969">
-    <cfRule type="expression" dxfId="91" priority="14">
+  <conditionalFormatting sqref="F967">
+    <cfRule type="expression" dxfId="34" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="15">
+    <cfRule type="expression" dxfId="33" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F969">
-    <cfRule type="expression" dxfId="88" priority="9">
+  <conditionalFormatting sqref="F967">
+    <cfRule type="expression" dxfId="31" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="10">
+    <cfRule type="expression" dxfId="30" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="11">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F969">
-    <cfRule type="expression" dxfId="85" priority="12">
-      <formula>NOT(VLOOKUP(F969,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F967">
+    <cfRule type="expression" dxfId="28" priority="12">
+      <formula>NOT(VLOOKUP(F967,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="13">
-      <formula>(VLOOKUP(F969,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="27" priority="13">
+      <formula>(VLOOKUP(F967,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F969">
-    <cfRule type="expression" dxfId="83" priority="6">
+  <conditionalFormatting sqref="F967">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F969">
-    <cfRule type="expression" dxfId="80" priority="1">
+  <conditionalFormatting sqref="F967">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F969">
-    <cfRule type="expression" dxfId="77" priority="4">
-      <formula>NOT(VLOOKUP(F969,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F967">
+    <cfRule type="expression" dxfId="20" priority="4">
+      <formula>NOT(VLOOKUP(F967,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="5">
-      <formula>(VLOOKUP(F969,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="19" priority="5">
+      <formula>(VLOOKUP(F967,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1012">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1010">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1012">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1010">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1012">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1010">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H970:H1012 H20:H968">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H968:H1010 H20:H966">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H969">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H967">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -34665,7 +34231,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B929:B1014 B19:B678 B681:B926" numberStoredAsText="1"/>
+    <ignoredError sqref="B927:B1012 B19:B680 B681:B926 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -34675,21 +34241,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -34738,16 +34289,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34761,16 +34328,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
@@ -7423,6 +7423,21 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7446,21 +7461,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8527,7 +8527,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H405" sqref="H405"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -8580,127 +8582,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8713,12 +8715,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8731,12 +8733,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8749,12 +8751,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -8767,60 +8769,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -18580,7 +18582,7 @@
       <c r="B405" s="30" t="s">
         <v>1080</v>
       </c>
-      <c r="C405" s="31" t="s">
+      <c r="C405" s="20" t="s">
         <v>2257</v>
       </c>
       <c r="D405" s="29"/>
@@ -18594,7 +18596,7 @@
         <v>15</v>
       </c>
       <c r="H405" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I405" s="31"/>
     </row>
@@ -34034,11 +34036,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -34046,6 +34043,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E34:I397 E924:I924 A968:I1010 E399:I922 A20:H966 E926:I966">
@@ -34241,6 +34243,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -34289,15 +34300,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -34305,6 +34307,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34315,14 +34325,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
@@ -7123,9 +7123,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[In RopWriteStreamExtended ROP] The RopWriteStreamExtended ROP ([MS-OXCROPS] section 2.2.9.4) writes the stream of bytes into a Stream object. </t>
-  </si>
-  <si>
     <t xml:space="preserve">[In RopWriteStreamExtended ROP] This operation [RopWriteStreamExtended] is valid only on Stream objects. </t>
   </si>
   <si>
@@ -7150,12 +7147,6 @@
     <t>[In RopWriteStreamExtended ROP Response Buffer] The following descriptions define valid fields for the RopWriteStreamExtended ROP response buffer ([MS-OXCROPS] section 2.2.9.4.2).</t>
   </si>
   <si>
-    <t>[In  RopWriteStreamExtended ROP Response Buffer] WrittenSize (4 bytes):  An integer.</t>
-  </si>
-  <si>
-    <t>[In  RopWriteStreamExtended ROP Response Buffer] WrittenSize (4 bytes):  An integer that specifies the number of bytes actually written to the stream.</t>
-  </si>
-  <si>
     <t>MS-OXCPRPT_R30401001</t>
   </si>
   <si>
@@ -7253,6 +7244,15 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] Implementation does return a NotSupported error (0x80040102) if the RopCopyTo ROP request specifies a public folder as either the source object or the destination object. (&lt;10&gt; Section 3.2.5.8: Exchange 2013 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In RopWriteStreamExtended ROP] The RopWriteStreamExtended ROP ([MS-OXCROPS] section 2.2.9.4) writes the stream of bytes into a Stream object.</t>
+  </si>
+  <si>
+    <t>[In RopWriteStreamExtended ROP Response Buffer] WrittenSize (4 bytes): An integer.</t>
+  </si>
+  <si>
+    <t>[In RopWriteStreamExtended ROP Response Buffer] WrittenSize (4 bytes): An integer that specifies the number of bytes actually written to the stream.</t>
   </si>
 </sst>
 </file>
@@ -7547,6 +7547,30 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7565,1487 +7589,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="307">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <font>
         <b val="0"/>
@@ -9384,6 +7932,228 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -9513,34 +8283,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1022" tableType="xml" totalsRowShown="0" headerRowDxfId="306" dataDxfId="305" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1022" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I1022"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="304">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="303">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="302">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="301">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="300">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="299">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="298">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="297">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="296">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -9549,12 +8319,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="295" dataDxfId="293" headerRowBorderDxfId="294" tableBorderDxfId="292" totalsRowBorderDxfId="291">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="290"/>
-    <tableColumn id="2" name="Test" dataDxfId="289"/>
-    <tableColumn id="3" name="Description" dataDxfId="288"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9850,13 +8620,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A919" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A955" sqref="A955:XFD955"/>
+    <sheetView tabSelected="1" topLeftCell="A456" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C462" sqref="C462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
@@ -9894,7 +8664,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -9905,127 +8675,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -10038,12 +8808,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -10056,12 +8826,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -10074,12 +8844,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -10092,60 +8862,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="101.25" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="45" t="s">
         <v>2277</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -21158,282 +19928,282 @@
     </row>
     <row r="455" spans="1:9" ht="30">
       <c r="A455" s="22" t="s">
-        <v>2289</v>
-      </c>
-      <c r="B455" s="49" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B455" s="38" t="s">
         <v>1088</v>
       </c>
-      <c r="C455" s="50" t="s">
-        <v>2278</v>
-      </c>
-      <c r="D455" s="48"/>
+      <c r="C455" s="39" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D455" s="37"/>
       <c r="E455" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F455" s="48" t="s">
+      <c r="F455" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G455" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H455" s="48" t="s">
+      <c r="G455" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H455" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I455" s="50"/>
+      <c r="I455" s="39"/>
     </row>
     <row r="456" spans="1:9" ht="45">
       <c r="A456" s="22" t="s">
-        <v>2290</v>
-      </c>
-      <c r="B456" s="49" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B456" s="38" t="s">
         <v>1088</v>
       </c>
-      <c r="C456" s="50" t="s">
-        <v>2279</v>
-      </c>
-      <c r="D456" s="48"/>
+      <c r="C456" s="39" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D456" s="37"/>
       <c r="E456" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F456" s="48" t="s">
+      <c r="F456" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G456" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H456" s="48" t="s">
+      <c r="G456" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H456" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I456" s="50" t="s">
-        <v>2300</v>
+      <c r="I456" s="39" t="s">
+        <v>2297</v>
       </c>
     </row>
     <row r="457" spans="1:9" ht="30">
       <c r="A457" s="22" t="s">
-        <v>2291</v>
-      </c>
-      <c r="B457" s="49" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B457" s="38" t="s">
         <v>1088</v>
       </c>
-      <c r="C457" s="50" t="s">
-        <v>2282</v>
-      </c>
-      <c r="D457" s="48" t="s">
-        <v>2301</v>
-      </c>
-      <c r="E457" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F457" s="48" t="s">
+      <c r="C457" s="39" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D457" s="37" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E457" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F457" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G457" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H457" s="48" t="s">
+      <c r="G457" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H457" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I457" s="50"/>
+      <c r="I457" s="39"/>
     </row>
     <row r="458" spans="1:9" ht="30">
       <c r="A458" s="22" t="s">
-        <v>2292</v>
-      </c>
-      <c r="B458" s="49" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B458" s="38" t="s">
         <v>1088</v>
       </c>
-      <c r="C458" s="50" t="s">
-        <v>2280</v>
-      </c>
-      <c r="D458" s="48"/>
+      <c r="C458" s="39" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D458" s="37"/>
       <c r="E458" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F458" s="48" t="s">
+      <c r="F458" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G458" s="48" t="s">
+      <c r="G458" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H458" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I458" s="50"/>
+      <c r="H458" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I458" s="39"/>
     </row>
     <row r="459" spans="1:9" ht="30">
       <c r="A459" s="22" t="s">
-        <v>2293</v>
-      </c>
-      <c r="B459" s="49" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B459" s="38" t="s">
         <v>1088</v>
       </c>
-      <c r="C459" s="50" t="s">
-        <v>2281</v>
-      </c>
-      <c r="D459" s="48"/>
+      <c r="C459" s="39" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D459" s="37"/>
       <c r="E459" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F459" s="48" t="s">
+      <c r="F459" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G459" s="48" t="s">
+      <c r="G459" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H459" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I459" s="50"/>
+      <c r="H459" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I459" s="39"/>
     </row>
     <row r="460" spans="1:9" ht="45">
       <c r="A460" s="22" t="s">
-        <v>2294</v>
-      </c>
-      <c r="B460" s="49" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B460" s="38" t="s">
         <v>1089</v>
       </c>
-      <c r="C460" s="50" t="s">
-        <v>2283</v>
-      </c>
-      <c r="D460" s="48"/>
+      <c r="C460" s="39" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D460" s="37"/>
       <c r="E460" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F460" s="48" t="s">
+      <c r="F460" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G460" s="48" t="s">
+      <c r="G460" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H460" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I460" s="50"/>
+      <c r="H460" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I460" s="39"/>
     </row>
     <row r="461" spans="1:9" ht="30">
       <c r="A461" s="22" t="s">
-        <v>2295</v>
-      </c>
-      <c r="B461" s="49" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B461" s="38" t="s">
         <v>1089</v>
       </c>
-      <c r="C461" s="50" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D461" s="48"/>
+      <c r="C461" s="39" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D461" s="37"/>
       <c r="E461" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F461" s="48" t="s">
+      <c r="F461" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G461" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H461" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I461" s="50"/>
+      <c r="G461" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H461" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I461" s="39"/>
     </row>
     <row r="462" spans="1:9" ht="30">
       <c r="A462" s="22" t="s">
-        <v>2296</v>
-      </c>
-      <c r="B462" s="49" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B462" s="38" t="s">
         <v>1089</v>
       </c>
-      <c r="C462" s="50" t="s">
-        <v>2285</v>
-      </c>
-      <c r="D462" s="48"/>
+      <c r="C462" s="39" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D462" s="37"/>
       <c r="E462" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F462" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G462" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H462" s="48" t="s">
+      <c r="F462" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G462" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H462" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I462" s="50"/>
+      <c r="I462" s="39"/>
     </row>
     <row r="463" spans="1:9" ht="45">
       <c r="A463" s="22" t="s">
-        <v>2297</v>
-      </c>
-      <c r="B463" s="49" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B463" s="38" t="s">
         <v>1090</v>
       </c>
-      <c r="C463" s="50" t="s">
-        <v>2286</v>
-      </c>
-      <c r="D463" s="48"/>
+      <c r="C463" s="39" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D463" s="37"/>
       <c r="E463" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F463" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G463" s="48" t="s">
+      <c r="F463" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G463" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H463" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I463" s="50"/>
+      <c r="H463" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I463" s="39"/>
     </row>
     <row r="464" spans="1:9">
       <c r="A464" s="22" t="s">
-        <v>2298</v>
-      </c>
-      <c r="B464" s="49" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B464" s="38" t="s">
         <v>1090</v>
       </c>
-      <c r="C464" s="50" t="s">
-        <v>2287</v>
-      </c>
-      <c r="D464" s="48"/>
+      <c r="C464" s="39" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D464" s="37"/>
       <c r="E464" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F464" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G464" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H464" s="48" t="s">
+      <c r="F464" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G464" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H464" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I464" s="50"/>
+      <c r="I464" s="39"/>
     </row>
     <row r="465" spans="1:9" ht="30">
       <c r="A465" s="22" t="s">
-        <v>2299</v>
-      </c>
-      <c r="B465" s="49" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B465" s="38" t="s">
         <v>1090</v>
       </c>
-      <c r="C465" s="50" t="s">
-        <v>2288</v>
-      </c>
-      <c r="D465" s="48"/>
+      <c r="C465" s="39" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D465" s="37"/>
       <c r="E465" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F465" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G465" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H465" s="48" t="s">
+      <c r="F465" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G465" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H465" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I465" s="50"/>
+      <c r="I465" s="39"/>
     </row>
     <row r="466" spans="1:9" ht="30">
       <c r="A466" s="29" t="s">
@@ -24246,7 +23016,7 @@
         <v>1113</v>
       </c>
       <c r="C577" s="20" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="D577" s="29"/>
       <c r="E577" s="29" t="s">
@@ -24647,7 +23417,7 @@
         <v>605</v>
       </c>
       <c r="B593" s="24" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="C593" s="31" t="s">
         <v>1711</v>
@@ -24672,7 +23442,7 @@
         <v>606</v>
       </c>
       <c r="B594" s="24" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="C594" s="31" t="s">
         <v>1712</v>
@@ -24697,7 +23467,7 @@
         <v>607</v>
       </c>
       <c r="B595" s="24" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="C595" s="31" t="s">
         <v>1713</v>
@@ -24724,7 +23494,7 @@
         <v>608</v>
       </c>
       <c r="B596" s="24" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="C596" s="31" t="s">
         <v>1714</v>
@@ -24751,7 +23521,7 @@
         <v>609</v>
       </c>
       <c r="B597" s="24" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="C597" s="31" t="s">
         <v>1715</v>
@@ -24776,7 +23546,7 @@
         <v>610</v>
       </c>
       <c r="B598" s="24" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="C598" s="31" t="s">
         <v>1716</v>
@@ -24801,7 +23571,7 @@
         <v>611</v>
       </c>
       <c r="B599" s="24" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="C599" s="31" t="s">
         <v>1717</v>
@@ -24826,7 +23596,7 @@
         <v>612</v>
       </c>
       <c r="B600" s="24" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="C600" s="31" t="s">
         <v>1718</v>
@@ -28853,7 +27623,7 @@
         <v>1132</v>
       </c>
       <c r="C760" s="20" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="D760" s="29"/>
       <c r="E760" s="29" t="s">
@@ -29286,7 +28056,7 @@
         <v>1133</v>
       </c>
       <c r="C777" s="20" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="D777" s="29"/>
       <c r="E777" s="29" t="s">
@@ -31002,28 +29772,28 @@
     </row>
     <row r="845" spans="1:9" ht="60">
       <c r="A845" s="22" t="s">
-        <v>2308</v>
-      </c>
-      <c r="B845" s="49" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B845" s="38" t="s">
         <v>1139</v>
       </c>
-      <c r="C845" s="50" t="s">
-        <v>2309</v>
-      </c>
-      <c r="D845" s="48"/>
-      <c r="E845" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F845" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G845" s="48" t="s">
+      <c r="C845" s="39" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D845" s="37"/>
+      <c r="E845" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F845" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G845" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H845" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I845" s="50"/>
+      <c r="H845" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I845" s="39"/>
     </row>
     <row r="846" spans="1:9" ht="30">
       <c r="A846" s="29" t="s">
@@ -32722,7 +31492,7 @@
         <v>1148</v>
       </c>
       <c r="C913" s="20" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="D913" s="29"/>
       <c r="E913" s="29" t="s">
@@ -32744,7 +31514,7 @@
         <v>923</v>
       </c>
       <c r="B914" s="24" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="C914" s="31" t="s">
         <v>2016</v>
@@ -32769,7 +31539,7 @@
         <v>924</v>
       </c>
       <c r="B915" s="24" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="C915" s="31" t="s">
         <v>2017</v>
@@ -32794,7 +31564,7 @@
         <v>925</v>
       </c>
       <c r="B916" s="24" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="C916" s="31" t="s">
         <v>2018</v>
@@ -32819,7 +31589,7 @@
         <v>926</v>
       </c>
       <c r="B917" s="24" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="C917" s="31" t="s">
         <v>2019</v>
@@ -32844,7 +31614,7 @@
         <v>927</v>
       </c>
       <c r="B918" s="24" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="C918" s="31" t="s">
         <v>2262</v>
@@ -32871,7 +31641,7 @@
         <v>928</v>
       </c>
       <c r="B919" s="24" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="C919" s="31" t="s">
         <v>2020</v>
@@ -32896,7 +31666,7 @@
         <v>929</v>
       </c>
       <c r="B920" s="24" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="C920" s="31" t="s">
         <v>2021</v>
@@ -32921,7 +31691,7 @@
         <v>930</v>
       </c>
       <c r="B921" s="24" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="C921" s="31" t="s">
         <v>2022</v>
@@ -32946,7 +31716,7 @@
         <v>931</v>
       </c>
       <c r="B922" s="24" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="C922" s="31" t="s">
         <v>2023</v>
@@ -34000,7 +32770,7 @@
         <v>1149</v>
       </c>
       <c r="C959" s="20" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="D959" s="29" t="s">
         <v>2171</v>
@@ -34083,7 +32853,7 @@
         <v>1149</v>
       </c>
       <c r="C962" s="20" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="D962" s="29" t="s">
         <v>2172</v>
@@ -34139,7 +32909,7 @@
         <v>1149</v>
       </c>
       <c r="C964" s="20" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="D964" s="29" t="s">
         <v>2173</v>
@@ -34166,7 +32936,7 @@
         <v>1149</v>
       </c>
       <c r="C965" s="20" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="D965" s="29" t="s">
         <v>2173</v>
@@ -34195,7 +32965,7 @@
         <v>1149</v>
       </c>
       <c r="C966" s="20" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="D966" s="29"/>
       <c r="E966" s="29" t="s">
@@ -34361,7 +33131,7 @@
         <v>1149</v>
       </c>
       <c r="C972" s="20" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="D972" s="29" t="s">
         <v>2178</v>
@@ -34417,7 +33187,7 @@
         <v>1149</v>
       </c>
       <c r="C974" s="20" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="D974" s="29" t="s">
         <v>2179</v>
@@ -34473,7 +33243,7 @@
         <v>1149</v>
       </c>
       <c r="C976" s="20" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="D976" s="29" t="s">
         <v>2180</v>
@@ -34529,7 +33299,7 @@
         <v>1149</v>
       </c>
       <c r="C978" s="20" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="D978" s="29" t="s">
         <v>2181</v>
@@ -35663,11 +34433,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -35675,161 +34440,166 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E34:I397 E936:I936 A980:I1022 E938:I978 E399:I934 A20:H978">
-    <cfRule type="expression" dxfId="137" priority="81">
+    <cfRule type="expression" dxfId="60" priority="81">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="82">
+    <cfRule type="expression" dxfId="59" priority="82">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="89">
+    <cfRule type="expression" dxfId="58" priority="89">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:I397 E936:I936 A980:I1022 E938:I978 E399:I934 A20:H978">
-    <cfRule type="expression" dxfId="134" priority="35">
+    <cfRule type="expression" dxfId="57" priority="35">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="36">
+    <cfRule type="expression" dxfId="56" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="37">
+    <cfRule type="expression" dxfId="55" priority="37">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F980:F1022 F20:F978">
-    <cfRule type="expression" dxfId="131" priority="41">
+    <cfRule type="expression" dxfId="54" priority="41">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="42">
+    <cfRule type="expression" dxfId="53" priority="42">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I397 I936 I980:I1022">
-    <cfRule type="expression" dxfId="129" priority="32">
+    <cfRule type="expression" dxfId="52" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="33">
+    <cfRule type="expression" dxfId="51" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="34">
+    <cfRule type="expression" dxfId="50" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I397 I936 I980:I1022">
-    <cfRule type="expression" dxfId="126" priority="29">
+    <cfRule type="expression" dxfId="49" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="30">
+    <cfRule type="expression" dxfId="48" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="31">
+    <cfRule type="expression" dxfId="47" priority="31">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A979:D979 J979">
-    <cfRule type="expression" dxfId="123" priority="26">
+    <cfRule type="expression" dxfId="46" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="27">
+    <cfRule type="expression" dxfId="45" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="28">
+    <cfRule type="expression" dxfId="44" priority="28">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A979:D979 J979">
-    <cfRule type="expression" dxfId="120" priority="23">
+    <cfRule type="expression" dxfId="43" priority="23">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="24">
+    <cfRule type="expression" dxfId="42" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="25">
+    <cfRule type="expression" dxfId="41" priority="25">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G979:I979 E979">
-    <cfRule type="expression" dxfId="117" priority="20">
+    <cfRule type="expression" dxfId="40" priority="20">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="21">
+    <cfRule type="expression" dxfId="39" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="22">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G979:I979 E979">
-    <cfRule type="expression" dxfId="114" priority="17">
+    <cfRule type="expression" dxfId="37" priority="17">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="18">
+    <cfRule type="expression" dxfId="36" priority="18">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="19">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F979">
-    <cfRule type="expression" dxfId="111" priority="14">
+    <cfRule type="expression" dxfId="34" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="15">
+    <cfRule type="expression" dxfId="33" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F979">
-    <cfRule type="expression" dxfId="108" priority="9">
+    <cfRule type="expression" dxfId="31" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="10">
+    <cfRule type="expression" dxfId="30" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="11">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F979">
-    <cfRule type="expression" dxfId="105" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>NOT(VLOOKUP(F979,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="13">
+    <cfRule type="expression" dxfId="27" priority="13">
       <formula>(VLOOKUP(F979,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F979">
-    <cfRule type="expression" dxfId="103" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F979">
-    <cfRule type="expression" dxfId="100" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F979">
-    <cfRule type="expression" dxfId="97" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>NOT(VLOOKUP(F979,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>(VLOOKUP(F979,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35870,21 +34640,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -35933,10 +34688,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35956,16 +34733,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="180" windowWidth="15405" windowHeight="6780" tabRatio="570"/>
@@ -7258,7 +7258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -8373,7 +8373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8408,7 +8408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8620,13 +8620,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C462" sqref="C462"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
@@ -34630,7 +34628,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B923:B1024 B19:B454 B601:B844" numberStoredAsText="1"/>
+    <ignoredError sqref="B922:B1024 B19:B921 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="180" windowWidth="15405" windowHeight="6780" tabRatio="570"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7267" uniqueCount="2322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7268" uniqueCount="2322">
   <si>
     <t>Req ID</t>
   </si>
@@ -7556,21 +7556,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7588,6 +7573,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8406,6 +8406,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8441,6 +8458,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8673,127 +8707,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8806,12 +8840,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8824,12 +8858,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8842,12 +8876,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -8860,60 +8894,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="101.25" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>2277</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -19924,7 +19958,7 @@
       </c>
       <c r="I454" s="31"/>
     </row>
-    <row r="455" spans="1:9" ht="30">
+    <row r="455" spans="1:9" ht="45">
       <c r="A455" s="22" t="s">
         <v>2286</v>
       </c>
@@ -19947,7 +19981,9 @@
       <c r="H455" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I455" s="39"/>
+      <c r="I455" s="20" t="s">
+        <v>2231</v>
+      </c>
     </row>
     <row r="456" spans="1:9" ht="45">
       <c r="A456" s="22" t="s">
@@ -34431,6 +34467,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -34438,11 +34479,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E34:I397 E936:I936 A980:I1022 E938:I978 E399:I934 A20:H978">
@@ -34638,6 +34674,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -34686,12 +34728,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -34702,6 +34738,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34716,20 +34766,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="180" windowWidth="15405" windowHeight="6780" tabRatio="570"/>
@@ -4929,9 +4929,6 @@
     <t>[In RopWriteStream ROP Response Buffer] WrittenSize: An integer that specifies the number of bytes actually written to the stream.</t>
   </si>
   <si>
-    <t>[In RopCommitStream ROP] The RopCommitStream ROP ([MS-OXCROPS] section 2.2.9.4) ensures that any changes made to a Stream object are persisted in storage.</t>
-  </si>
-  <si>
     <t>[In RopCommitStream ROP] This operation is valid only on Stream objects.</t>
   </si>
   <si>
@@ -4944,15 +4941,6 @@
     <t>[In RopCommitStream ROP] This section specifies the syntax and semantics of various fields that are not fully specified in [MS-OXCROPS].</t>
   </si>
   <si>
-    <t>[In  RopCommitStream ROP Request Buffer] This protocol adds no additional field details to the RopCommitStream ROP request buffer ([MS-OXCROPS] section 2.2.9.4.1).</t>
-  </si>
-  <si>
-    <t>[In  RopCommitStream ROP Response Buffer] This protocol adds no additional field details to the RopCommitStream ROP response buffer ([MS-OXCROPS] section 2.2.9.4.2).</t>
-  </si>
-  <si>
-    <t>[In RopGetStreamSize ROP] The RopGetStreamSize ROP ([MS-OXCROPS] section 2.2.9.5) retrieves the size of the stream.</t>
-  </si>
-  <si>
     <t>[In RopGetStreamSize ROP] This operation is valid  only on Stream objects.</t>
   </si>
   <si>
@@ -4965,12 +4953,6 @@
     <t>[In RopGetStreamSize ROP] This section specifies the syntax and semantics of various fields that are not fully specified in [MS-OXCROPS].</t>
   </si>
   <si>
-    <t>[In RopGetStreamSize ROP Request Buffer] This protocol adds no additional field details to the RopGetStreamSize ROP request buffer ([MS-OXCROPS] section 2.2.9.5.1).</t>
-  </si>
-  <si>
-    <t>[In RopGetStreamSize ROP Response Buffer] The following descriptions define valid fields for the RopGetStreamSize ROP response buffer ([MS-OXCROPS] section 2.2.9.5.2).</t>
-  </si>
-  <si>
     <t>[In RopGetStreamSize ROP Response Buffer] StreamSize (4 bytes): An integer .</t>
   </si>
   <si>
@@ -4980,9 +4962,6 @@
     <t>[In RopGetStreamSize ROP Response Buffer] The maximum allowed stream size is 2^31 bytes.</t>
   </si>
   <si>
-    <t>[In RopSetStreamSize ROP] The RopSetStreamSize ROP ([MS-OXCROPS] section 2.2.9.6) sets the size of a stream.</t>
-  </si>
-  <si>
     <t>[In RopSetStreamSize ROP] This operation is valid only on Stream objects.</t>
   </si>
   <si>
@@ -4998,9 +4977,6 @@
     <t>[In RopSetStreamSize ROP] This section specifies the syntax and semantics of various fields that are not fully specified in [MS-OXCROPS].</t>
   </si>
   <si>
-    <t>[In RopSetStreamSize ROP Request Buffer] The following descriptions define valid fields for the RopSetStreamSize ROP request buffer ([MS-OXCROPS] section 2.2.9.6.1).</t>
-  </si>
-  <si>
     <t>[In RopSetStreamSize ROP Request Buffer] StreamSize (8 bytes): An integer.</t>
   </si>
   <si>
@@ -5010,9 +4986,6 @@
     <t>[In RopSetStreamSize ROP Request Buffer] StreamSize: The maximum allowed stream size is 2^31 bytes.</t>
   </si>
   <si>
-    <t>[In RopSetStreamSize ROP Response Buffer] This protocol adds no additional field details to the RopSetStreamSize ROP response buffer ([MS-OXCROPS] section 2.2.9.6.2).</t>
-  </si>
-  <si>
     <t>[In RopSeekStream ROP] RopSeekStream sets the seek pointer to a new location.</t>
   </si>
   <si>
@@ -5032,9 +5005,6 @@
   </si>
   <si>
     <t>[In RopSeekStream ROP] This section specifies the syntax and semantics of various fields that are not fully specified in [MS-OXCROPS].</t>
-  </si>
-  <si>
-    <t>[In  RopSeekStream ROP Request Buffer] The following descriptions define valid fields for the RopSeekStream ROP request buffer ([MS-OXCROPS] section 2.2.9.7.1).</t>
   </si>
   <si>
     <t>[In RopSeekStream ROP Request Buffer] Origin (1 byte).: An integer.</t>
@@ -5070,18 +5040,12 @@
     <t>[In RopSeekStream ROP Request Buffer] Offset: The value can be negative.</t>
   </si>
   <si>
-    <t>[In RopSeekStream ROP Response Buffer] The following descriptions define valid fields for the RopSeekStream ROP response buffer ([MS-OXCROPS] section 2.2.9.7.2).</t>
-  </si>
-  <si>
     <t>[In  RopSeekStream ROP Response Buffer] NewPosition (8 bytes): An integer.</t>
   </si>
   <si>
     <t>[In  RopSeekStream ROP Response Buffer] NewPosition: An integer that specifies the new offset, in bytes, of the seek pointer from the beginning of the stream.</t>
   </si>
   <si>
-    <t>[In RopCopyToStream ROP] The RopCopyToStream ROP ([MS-OXCROPS] section 2.2.9.8) copies a specified number of bytes from the current seek pointer in the source stream to the current seek pointer in the destination stream.</t>
-  </si>
-  <si>
     <t>[In RopCopyToStream ROP] This operation is valid only on Stream objects.</t>
   </si>
   <si>
@@ -5094,18 +5058,12 @@
     <t>[In RopCopyToStream ROP] This section specifies the syntax and semantics of various fields that are not fully specified in [MS-OXCROPS].</t>
   </si>
   <si>
-    <t>[In RopCopyToStream ROP Request Buffer] The following descriptions define valid fields for the RopCopyToStream ROP request buffer ([MS-OXCROPS] section 2.2.9.8.1).</t>
-  </si>
-  <si>
     <t>[In RopCopyToStream ROP Request Buffer] ByteCount: 8 bytes integer.</t>
   </si>
   <si>
     <t>[In RopCopyToStream ROP Request Buffer] ByteCount: An integer that specifies the number of bytes to be copied from the source stream to the destination stream.</t>
   </si>
   <si>
-    <t>[In RopCopyToStream ROP Response Buffer] The following descriptions define valid fields for the RopCopyToStream ROP response buffer ([MS-OXCROPS] section 2.2.9.8.2)..</t>
-  </si>
-  <si>
     <t>[In RopCopyToStream ROP Response Buffer] DestHandleIndex (4 bytes): An integer.</t>
   </si>
   <si>
@@ -5181,9 +5139,6 @@
     <t>[In RopProgress ROP Response Buffer] TotalTaskCount: The value of this field MUST be greater than or equal to the value of the CompletedTaskCount field.</t>
   </si>
   <si>
-    <t>[In RopLockRegionStream ROP] The RopLockRegionStream ROP ([MS-OXCROPS] section 2.2.9.9) is used to lock a specified range of bytes in a Stream object.</t>
-  </si>
-  <si>
     <t>[In RopLockRegionStream ROP] This operation is valid only on Stream objects.</t>
   </si>
   <si>
@@ -5194,9 +5149,6 @@
   </si>
   <si>
     <t>[In RopLockRegionStream ROP] This section specifies the syntax and semantics of various fields that are not fully specified in [MS-OXCROPS].</t>
-  </si>
-  <si>
-    <t>[In RopLockRegionStream ROP Request Buffer] The following descriptions define valid fields for the RopLockRegionStream ROP request buffer ([MS-OXCROPS] section 2.2.9.9.1).</t>
   </si>
   <si>
     <t>[In RopLockRegionStream ROP Request Buffer] RegionOffset (8 bytes): An unsigned 64-bit integer.</t>
@@ -5227,12 +5179,6 @@
 if this lock is granted, reading and writing to the specified range of bytes is prohibited except by the owner that was granted this lock.</t>
   </si>
   <si>
-    <t>[In RopLockRegionStream ROP Response Buffer] This protocol adds no additional field details to the RopLockRegionStream ROP response buffer ([MS-OXCROPS] section 2.2.9.9.2).</t>
-  </si>
-  <si>
-    <t>[In RopUnlockRegionStream ROP] The RopUnlockRegionStream ROP ([MS-OXCROPS] section 2.2.9.10) unlocks a specified range of bytes in a Stream object.</t>
-  </si>
-  <si>
     <t>[In RopUnlockRegionStream ROP] This ROP is valid only on Stream objects.</t>
   </si>
   <si>
@@ -5245,9 +5191,6 @@
     <t>[In RopUnlockRegionStream ROP] This section specifies the syntax and semantics of various fields that are not fully specified in [MS-OXCROPS].</t>
   </si>
   <si>
-    <t>[In RopUnlockRegionStream ROP Request Buffer] The following descriptions define valid fields for the RopUnlockRegionStream ROP request buffer ([MS-OXCROPS] section 2.2.9.10.1).</t>
-  </si>
-  <si>
     <t>[In RopUnlockRegionStream ROP Request Buffer] RegionOffset (8 bytes): An unsigned 64-bit integer.</t>
   </si>
   <si>
@@ -5266,15 +5209,6 @@
     <t>[In RopUnlockRegionStream ROP Request Buffer] LockFlags: A set of bits that control the read/write access to the locked region.</t>
   </si>
   <si>
-    <t>[In RopUnlockRegionStream ROP Request Buffer] LockFlags: In addition, it MUST be set to the same value that was used in the RopLockRegionStream ROP request buffer ([MS-OXCROPS] section 2.2.9.9) that was used to lock the region of bytes.</t>
-  </si>
-  <si>
-    <t>[In RopUnlockRegionStream ROP Response Buffer] This protocol adds no additional field details to the RopUnlockRegionStream ROP response buffer ([MS-OXCROPS] section 2.2.9.10.2).</t>
-  </si>
-  <si>
-    <t>[In RopWriteAndCommitStream ROP] The RopWriteAndCommitStream ROP ([MS-OXCROPS] section 2.2.9.11) is functionally equivalent to RopWriteStream ([MS-OXCROPS] section 2.2.9.3) followed by RopCommitStream ([MS-OXCROPS] section 2.2.9.4).</t>
-  </si>
-  <si>
     <t>[In RopWriteAndCommitStream ROP] This operation is valid only on Stream objects.</t>
   </si>
   <si>
@@ -5290,9 +5224,6 @@
     <t>[In RopWriteAndCommitStream ROP] This section specifies the syntax and semantics of various fields that are not fully specified in [MS-OXCROPS].</t>
   </si>
   <si>
-    <t>[In RopWriteAndCommitStream ROP Request Buffer] The following descriptions define valid fields for the RopWriteAndCommitStream ROP request buffer ([MS-OXCROPS] section 2.2.9.11.1).</t>
-  </si>
-  <si>
     <t>[In RopWriteAndCommitStream ROP Request Buffer] DataSize (2 bytes): An integer.</t>
   </si>
   <si>
@@ -5302,18 +5233,12 @@
     <t>[In RopWriteAndCommitStream ROP Request Buffer] Data (variable):  An array of bytes that constitute the data to be written and committed to the stream.</t>
   </si>
   <si>
-    <t>[In RopWriteAndCommitStream ROP Response Buffer] The following descriptions define valid fields for the RopWriteAndCommitStream ROP response buffer ([MS-OXCROPS] section 2.2.9.11.2).</t>
-  </si>
-  <si>
     <t>[In RopWriteAndCommitStream ROP Response Buffer] WrittenSize (2 bytes): An integer.</t>
   </si>
   <si>
     <t>[In RopWriteAndCommitStream ROP Response Buffer] WrittenSize: An integer that specifies the number of bytes actually written and committed to the stream.</t>
   </si>
   <si>
-    <t>[In RopCloneStream ROP] The RopCloneStream ROP ([MS-OXCROPS] section 2.2.9.12) creates a new Stream object that is a clone of another Stream object.</t>
-  </si>
-  <si>
     <t>[In RopCloneStream ROP] The cloned Stream object allows access to the same bytes but has a separate seek pointer</t>
   </si>
   <si>
@@ -5329,12 +5254,6 @@
     <t>[In RopCloneStream ROP] This section specifies the syntax and semantics of various fields that are not fully specified in [MS-OXCROPS].</t>
   </si>
   <si>
-    <t>[In RopCloneStream ROP Request Buffer] This protocol adds no additional field details to the RopCloneStream ROP request buffer ([MS-OXCROPS] section 2.2.9.12.1).</t>
-  </si>
-  <si>
-    <t>[In RopCloneStream ROP Response Buffer] This protocol adds no additional field details to the RopCloneStream ROP response buffer ([MS-OXCROPS] section 2.2.9.12.2).</t>
-  </si>
-  <si>
     <t>[In Abstract Data Model] This section describes a conceptual model of possible data organization that an implementation maintains to participate in this protocol.</t>
   </si>
   <si>
@@ -5356,9 +5275,6 @@
     <t>[In Abstract Data Model] Changes to a Stream object: There are two different models for persisting the new value of property that is opened as a Stream object to the database.</t>
   </si>
   <si>
-    <t>[In Abstract Data Model] Changes to a Stream object:For a Folder object, the new value of a property that is opened as a Stream object is persisted when the client sends a RopCommitStream ROP request ([MS-OXCROPS] section 2.2.9.4) or the client uses the RopRelease ROP ([MS-OXCROPS] section 2.2.15.3) to close the Stream object.</t>
-  </si>
-  <si>
     <t>[In Abstract Data Model] Changes to a Stream object: For a Message object and an Attachment object, the persistence of the new value is the same as when the property is changed directly.</t>
   </si>
   <si>
@@ -5440,9 +5356,6 @@
     <t>[In Reading a Property as a Stream] To verify that the handle was retrieved, the client checks the ReturnValue field of the ROP response buffer.</t>
   </si>
   <si>
-    <t>[In Reading a Property as a Stream] If it is not necessary for the client to read from the start of the stream, the client uses the RopSeekStream ROP ([MS-OXCROPS] section 2.2.9.7) to set the seek pointer.</t>
-  </si>
-  <si>
     <t>[In Reading a Property as a Stream] The client then reads data from the stream by sending one or more RopReadStream ROP requests ([MS-OXCROPS] section 2.2.9.2).</t>
   </si>
   <si>
@@ -5467,13 +5380,7 @@
     <t>[In Setting a Property with a Stream] To verify that the handle was retrieved, the client checks the ReturnValue field of the ROP response buffer.</t>
   </si>
   <si>
-    <t>[In Setting a Property with a Stream] If it is not necessary for the client to write from the start of the stream, the client sets the seek pointer by using the RopSeekStream ROP ([MS-OXCROPS] section 2.2.9.7).</t>
-  </si>
-  <si>
     <t>[In Setting a Property with a Stream] The client then writes data to the stream by using one or more RopWriteStream ROP requests ([MS-OXCROPS] section 2.2.9.3).</t>
-  </si>
-  <si>
-    <t>[In Setting a Property with a Stream] The client saves the changes to the property of a Folder object by using the RopCommitStream ROP ([MS-OXCROPS] section 2.2.9.4).</t>
   </si>
   <si>
     <t>[In Setting a Property with a Stream] The client saves the changes to the property of a Message object by using the RopSaveChangesMessage ROP ([MS-OXCROPS] section 2.2.6.3).</t>
@@ -6035,18 +5942,12 @@
     <t>[In Processing RopWriteStream] For an Attachment object, the new value is persisted to the database when a successful RopSaveChangesAttachment ROP ([MS-OXCROPS] section 2.2.6.15) followed by a successful RopSaveChangesMessage ROP is issued.</t>
   </si>
   <si>
-    <t>[In Processing RopWriteStream] For a Folder object, the value is persisted when the RopCommitStream ROP ([MS-OXCROPS] section 2.2.9.4) is issued on the Stream object or the Stream object is closed with a RopRelease ROP ([MS-OXCROPS] section 2.2.15.3).</t>
-  </si>
-  <si>
     <t>[In Processing RopWriteStream] When the write will exceed the maximum stream size error code "0x80040305" with name "TooBig" SHOULD be returned.</t>
   </si>
   <si>
     <t>[In Processing RopWriteStream] When Write access is denied error code "0x80030005" with name "StreamAccessDenied" SHOULD be returned.</t>
   </si>
   <si>
-    <t>[In Processing RopCommitStream] When the server receives a RopCommitStream ROP request buffer ([MS-OXCROPS] section 2.2.9.4) from the client, the server parses the buffer.</t>
-  </si>
-  <si>
     <t>[In Processing RopCommitStream] The server responds with a RopCommitStream ROP response buffer.</t>
   </si>
   <si>
@@ -6059,9 +5960,6 @@
     <t>[In Processing RopCommitStream] The server MUST set the property specified in the RopOpenStream ROP request ([MS-OXCROPS] section 2.2.9.1) with the data from the Stream object.</t>
   </si>
   <si>
-    <t>[In Processing RopGetStreamSize] When the server receives a RopGetStreamSize ROP request buffer ([MS-OXCROPS] section 2.2.9.5) from the client, the server parses the buffer.</t>
-  </si>
-  <si>
     <t>[In Processing RopGetStreamSize] The server responds with a RopGetStreamSize ROP response buffer.</t>
   </si>
   <si>
@@ -6074,9 +5972,6 @@
     <t>[In Processing RopGetStreamSize] The server MUST return the current size of the Stream object.</t>
   </si>
   <si>
-    <t>[In Processing RopSetStreamSize] When the server receives a RopSetStreamSize ROP request buffer ([MS-OXCROPS] section 2.2.9.6) from the client, the server parses the buffer.</t>
-  </si>
-  <si>
     <t>[In Processing RopSetStreamSize] The server responds with a RopSetStreamSize ROP response buffer.</t>
   </si>
   <si>
@@ -6095,9 +5990,6 @@
     <t>[In Processing RopSetStreamSize] If the size of the stream is decreased, the server discards the values that are beyond the end of the new size.</t>
   </si>
   <si>
-    <t>[In Processing RopSeekStream] When the server receives a RopSeekStream ROP request buffer ([MS-OXCROPS] section 2.2.9.7) from the client, the server parses the buffer.</t>
-  </si>
-  <si>
     <t>[In Processing RopSeekStream] The server responds with a RopSeekStream ROP response buffer.</t>
   </si>
   <si>
@@ -6122,9 +6014,6 @@
     <t>[In Processing RopSeekStream] When The value of the Origin field is invalid error code "0x80030057" with name "StreamInvalidParam" SHOULD be returned.</t>
   </si>
   <si>
-    <t>[In Processing RopCopyToStream] When the server receives a RopCopyToStream ROP request buffer ([MS-OXCROPS] section 2.2.9.8) from the client, the server parses the buffer.</t>
-  </si>
-  <si>
     <t>[In Processing RopCopyToStream] The server responds with a RopCopyToStream ROP response buffer.</t>
   </si>
   <si>
@@ -6164,9 +6053,6 @@
     <t>[In Processing RopProgress] If the server has aborted the operation, it MUST respond with a ROP response buffer that corresponds to the original ROP request.</t>
   </si>
   <si>
-    <t>[In Processing RopLockRegionStream] When the server receives a RopLockRegionStream ROP request buffer ([MS-OXCROPS] section 2.2.9.9) from the client, the server parses the buffer.</t>
-  </si>
-  <si>
     <t>[In Processing RopLockRegionStream] The server responds with a RopLockRegionStream ROP response buffer.</t>
   </si>
   <si>
@@ -6197,9 +6083,6 @@
     <t>[In Processing RopLockRegionStream] If the server implements this ROP, The server MUST limit access to the locked region by other sessions as indicated by the LockFlags field of the ROP request buffer.</t>
   </si>
   <si>
-    <t>[In Processing RopUnlockRegionStream] When the server receives a RopUnlockRegionStream ROP request buffer ([MS-OXCROPS] section 2.2.9.9) from the client, the server parses the buffer.</t>
-  </si>
-  <si>
     <t>[In Processing RopUnlockRegionStream] The server responds with a RopUnlockRegionStream ROP response buffer.</t>
   </si>
   <si>
@@ -6215,9 +6098,6 @@
     <t>[In Processing RopUnlockRegionStream] If the server implements , if there are previous locks that are not owned by the session calling the ROP[RopUnlockRegionStream], the server MUST leave them unmodified.</t>
   </si>
   <si>
-    <t>[In Processing RopWriteAndCommitStream] When the server receives a RopWriteAndCommitStream ROP request buffer ([MS-OXCROPS] section 2.2.9.11) from the client, the server parses the buffer</t>
-  </si>
-  <si>
     <t>[In Processing RopWriteAndCommitStream] The server responds with a RopWriteAndCommitStream ROP response buffer.</t>
   </si>
   <si>
@@ -6228,9 +6108,6 @@
   </si>
   <si>
     <t>[In Processing RopWriteAndCommitStream] If the server implements this ROP, it MUST first process the ROP request as specified in section 3.2.5.13</t>
-  </si>
-  <si>
-    <t>[In Processing RopCloneStream]When the server receives a RopLockRegionStream ROP request buffer ([MS-OXCROPS] section 2.2.9.9) from the client, the server parses the buffer.</t>
   </si>
   <si>
     <t>[In Processing RopCloneStream] The server responds with a RopCloneStream ROP response buffer.</t>
@@ -7207,18 +7084,12 @@
     <t>MS-OXCPRPT_R900001</t>
   </si>
   <si>
-    <t>[In Processing RopWriteStreamExtended] When the server receives a RopWriteStreamExtended ROP request buffer ([MS-OXCROPS] section 2.2.9.4) from the client, the server should process it the same as it processes RopWriteStream, see section 3.2.5.13.</t>
-  </si>
-  <si>
     <t>3.2.5.24</t>
   </si>
   <si>
     <t>[In Processing RopWriteAndCommitStream] If the server implements this ROP, it MUST then process the ROP process the ROP request as specified in section 3.2.5.15.</t>
   </si>
   <si>
-    <t>12.0</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does not implement the RopCopyToStream ROP. (&lt;13&gt; Section 3.2.5.19: The initial release version of Exchange 2010 does not implement the RopCopyToStream ROP.)</t>
   </si>
   <si>
@@ -7253,6 +7124,135 @@
   </si>
   <si>
     <t>[In RopWriteStreamExtended ROP Response Buffer] WrittenSize (4 bytes): An integer that specifies the number of bytes actually written to the stream.</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>[In RopCommitStream ROP] The RopCommitStream ROP ([MS-OXCROPS] section 2.2.9.5) ensures that any changes made to a Stream object are persisted in storage.</t>
+  </si>
+  <si>
+    <t>[In  RopCommitStream ROP Request Buffer] This protocol adds no additional field details to the RopCommitStream ROP request buffer ([MS-OXCROPS] section 2.2.9.5.1).</t>
+  </si>
+  <si>
+    <t>[In  RopCommitStream ROP Response Buffer] This protocol adds no additional field details to the RopCommitStream ROP response buffer ([MS-OXCROPS] section 2.2.9.5.2).</t>
+  </si>
+  <si>
+    <t>[In RopGetStreamSize ROP] The RopGetStreamSize ROP ([MS-OXCROPS] section 2.2.9.6) retrieves the size of the stream.</t>
+  </si>
+  <si>
+    <t>[In RopGetStreamSize ROP Request Buffer] This protocol adds no additional field details to the RopGetStreamSize ROP request buffer ([MS-OXCROPS] section 2.2.9.6.1).</t>
+  </si>
+  <si>
+    <t>[In RopGetStreamSize ROP Response Buffer] The following descriptions define valid fields for the RopGetStreamSize ROP response buffer ([MS-OXCROPS] section 2.2.9.6.2).</t>
+  </si>
+  <si>
+    <t>[In RopSetStreamSize ROP] The RopSetStreamSize ROP ([MS-OXCROPS] section 2.2.9.7) sets the size of a stream.</t>
+  </si>
+  <si>
+    <t>[In RopSetStreamSize ROP Request Buffer] The following descriptions define valid fields for the RopSetStreamSize ROP request buffer ([MS-OXCROPS] section 2.2.9.7.1).</t>
+  </si>
+  <si>
+    <t>[In RopSetStreamSize ROP Response Buffer] This protocol adds no additional field details to the RopSetStreamSize ROP response buffer ([MS-OXCROPS] section 2.2.9.7.2).</t>
+  </si>
+  <si>
+    <t>[In  RopSeekStream ROP Request Buffer] The following descriptions define valid fields for the RopSeekStream ROP request buffer ([MS-OXCROPS] section 2.2.9.8.1).</t>
+  </si>
+  <si>
+    <t>[In RopSeekStream ROP Response Buffer] The following descriptions define valid fields for the RopSeekStream ROP response buffer ([MS-OXCROPS] section 2.2.9.8.2).</t>
+  </si>
+  <si>
+    <t>[In RopCopyToStream ROP] The RopCopyToStream ROP ([MS-OXCROPS] section 2.2.9.9) copies a specified number of bytes from the current seek pointer in the source stream to the current seek pointer in the destination stream.</t>
+  </si>
+  <si>
+    <t>[In RopCopyToStream ROP Request Buffer] The following descriptions define valid fields for the RopCopyToStream ROP request buffer ([MS-OXCROPS] section 2.2.9.9.1).</t>
+  </si>
+  <si>
+    <t>[In RopCopyToStream ROP Response Buffer] The following descriptions define valid fields for the RopCopyToStream ROP response buffer ([MS-OXCROPS] section 2.2.9.9.2)..</t>
+  </si>
+  <si>
+    <t>[In RopLockRegionStream ROP] The RopLockRegionStream ROP ([MS-OXCROPS] section 2.2.9.10) is used to lock a specified range of bytes in a Stream object.</t>
+  </si>
+  <si>
+    <t>[In RopLockRegionStream ROP Request Buffer] The following descriptions define valid fields for the RopLockRegionStream ROP request buffer ([MS-OXCROPS] section 2.2.9.10.1).</t>
+  </si>
+  <si>
+    <t>[In RopLockRegionStream ROP Response Buffer] This protocol adds no additional field details to the RopLockRegionStream ROP response buffer ([MS-OXCROPS] section 2.2.9.10.2).</t>
+  </si>
+  <si>
+    <t>[In RopUnlockRegionStream ROP] The RopUnlockRegionStream ROP ([MS-OXCROPS] section 2.2.9.11) unlocks a specified range of bytes in a Stream object.</t>
+  </si>
+  <si>
+    <t>[In RopUnlockRegionStream ROP Request Buffer] The following descriptions define valid fields for the RopUnlockRegionStream ROP request buffer ([MS-OXCROPS] section 2.2.9.11.1).</t>
+  </si>
+  <si>
+    <t>[In RopUnlockRegionStream ROP Response Buffer] This protocol adds no additional field details to the RopUnlockRegionStream ROP response buffer ([MS-OXCROPS] section 2.2.9.11.2).</t>
+  </si>
+  <si>
+    <t>[In RopUnlockRegionStream ROP Request Buffer] LockFlags: In addition, it MUST be set to the same value that was used in the RopLockRegionStream ROP request buffer ([MS-OXCROPS] section 2.2.9.10) that was used to lock the region of bytes.</t>
+  </si>
+  <si>
+    <t>[In RopWriteAndCommitStream ROP] The RopWriteAndCommitStream ROP ([MS-OXCROPS] section 2.2.9.12) is functionally equivalent to RopWriteStream ([MS-OXCROPS] section 2.2.9.3) followed by RopCommitStream ([MS-OXCROPS] section 2.2.9.5).</t>
+  </si>
+  <si>
+    <t>[In RopWriteAndCommitStream ROP Request Buffer] The following descriptions define valid fields for the RopWriteAndCommitStream ROP request buffer ([MS-OXCROPS] section 2.2.9.12.1).</t>
+  </si>
+  <si>
+    <t>[In RopWriteAndCommitStream ROP Response Buffer] The following descriptions define valid fields for the RopWriteAndCommitStream ROP response buffer ([MS-OXCROPS] section 2.2.9.12.2).</t>
+  </si>
+  <si>
+    <t>[In RopCloneStream ROP] The RopCloneStream ROP ([MS-OXCROPS] section 2.2.9.13) creates a new Stream object that is a clone of another Stream object.</t>
+  </si>
+  <si>
+    <t>[In RopCloneStream ROP Request Buffer] This protocol adds no additional field details to the RopCloneStream ROP request buffer ([MS-OXCROPS] section 2.2.9.13.1).</t>
+  </si>
+  <si>
+    <t>[In RopCloneStream ROP Response Buffer] This protocol adds no additional field details to the RopCloneStream ROP response buffer ([MS-OXCROPS] section 2.2.9.13.2).</t>
+  </si>
+  <si>
+    <t>[In Abstract Data Model] Changes to a Stream object:For a Folder object, the new value of a property that is opened as a Stream object is persisted when the client sends a RopCommitStream ROP request ([MS-OXCROPS] section 2.2.9.5) or the client uses the RopRelease ROP ([MS-OXCROPS] section 2.2.15.3) to close the Stream object.</t>
+  </si>
+  <si>
+    <t>[In Reading a Property as a Stream] If it is not necessary for the client to read from the start of the stream, the client uses the RopSeekStream ROP ([MS-OXCROPS] section 2.2.9.8) to set the seek pointer.</t>
+  </si>
+  <si>
+    <t>[In Setting a Property with a Stream] If it is not necessary for the client to write from the start of the stream, the client sets the seek pointer by using the RopSeekStream ROP ([MS-OXCROPS] section 2.2.9.8).</t>
+  </si>
+  <si>
+    <t>[In Setting a Property with a Stream] The client saves the changes to the property of a Folder object by using the RopCommitStream ROP ([MS-OXCROPS] section 2.2.9.5).</t>
+  </si>
+  <si>
+    <t>[In Processing RopWriteStream] For a Folder object, the value is persisted when the RopCommitStream ROP ([MS-OXCROPS] section 2.2.9.5) is issued on the Stream object or the Stream object is closed with a RopRelease ROP ([MS-OXCROPS] section 2.2.15.3).</t>
+  </si>
+  <si>
+    <t>[In Processing RopWriteStreamExtended] When the server receives a RopWriteStreamExtended ROP request buffer ([MS-OXCROPS] section 2.2.9.4) from the client, the server SHOULD process it the same as it processes RopWriteStream, see section 3.2.5.13.</t>
+  </si>
+  <si>
+    <t>[In Processing RopCommitStream] When the server receives a RopCommitStream ROP request buffer ([MS-OXCROPS] section 2.2.9.5) from the client, the server parses the buffer.</t>
+  </si>
+  <si>
+    <t>[In Processing RopGetStreamSize] When the server receives a RopGetStreamSize ROP request buffer ([MS-OXCROPS] section 2.2.9.6) from the client, the server parses the buffer.</t>
+  </si>
+  <si>
+    <t>[In Processing RopSetStreamSize] When the server receives a RopSetStreamSize ROP request buffer ([MS-OXCROPS] section 2.2.9.7) from the client, the server parses the buffer.</t>
+  </si>
+  <si>
+    <t>[In Processing RopSeekStream] When the server receives a RopSeekStream ROP request buffer ([MS-OXCROPS] section 2.2.9.8) from the client, the server parses the buffer.</t>
+  </si>
+  <si>
+    <t>[In Processing RopCopyToStream] When the server receives a RopCopyToStream ROP request buffer ([MS-OXCROPS] section 2.2.9.9) from the client, the server parses the buffer.</t>
+  </si>
+  <si>
+    <t>[In Processing RopLockRegionStream] When the server receives a RopLockRegionStream ROP request buffer ([MS-OXCROPS] section 2.2.9.10) from the client, the server parses the buffer.</t>
+  </si>
+  <si>
+    <t>[In Processing RopUnlockRegionStream] When the server receives a RopUnlockRegionStream ROP request buffer ([MS-OXCROPS] section 2.2.9.11) from the client, the server parses the buffer.</t>
+  </si>
+  <si>
+    <t>[In Processing RopWriteAndCommitStream] When the server receives a RopWriteAndCommitStream ROP request buffer ([MS-OXCROPS] section 2.2.9.12) from the client, the server parses the buffer</t>
+  </si>
+  <si>
+    <t>[In Processing RopCloneStream]When the server receives a RopCloneStream ROP request buffer ([MS-OXCROPS] section 2.2.9.13) from the client, the server parses the buffer.</t>
   </si>
 </sst>
 </file>
@@ -7556,6 +7556,21 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7573,21 +7588,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8654,7 +8654,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -8672,7 +8674,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>2232</v>
+        <v>2191</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -8682,7 +8684,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>2233</v>
+        <v>2192</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -8696,138 +8698,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>2309</v>
+        <v>2279</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>42790</v>
+        <v>42997</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8840,12 +8842,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8858,12 +8860,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8876,12 +8878,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -8894,60 +8896,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="101.25" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>2277</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="B17" s="45" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -9280,7 +9282,7 @@
         <v>17</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>2182</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="23" customFormat="1">
@@ -9466,7 +9468,7 @@
         <v>1035</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>2235</v>
+        <v>2194</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29" t="s">
@@ -9491,7 +9493,7 @@
         <v>1035</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>2234</v>
+        <v>2193</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29" t="s">
@@ -9516,7 +9518,7 @@
         <v>1035</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>2236</v>
+        <v>2195</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29" t="s">
@@ -9916,7 +9918,7 @@
         <v>1039</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>2247</v>
+        <v>2206</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="29" t="s">
@@ -10116,7 +10118,7 @@
         <v>1041</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>2248</v>
+        <v>2207</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="29" t="s">
@@ -10441,7 +10443,7 @@
         <v>1042</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>2249</v>
+        <v>2208</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29" t="s">
@@ -10466,7 +10468,7 @@
         <v>1042</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>2237</v>
+        <v>2196</v>
       </c>
       <c r="D79" s="29"/>
       <c r="E79" s="29" t="s">
@@ -10591,7 +10593,7 @@
         <v>1043</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>2250</v>
+        <v>2209</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29" t="s">
@@ -10616,7 +10618,7 @@
         <v>1043</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>2238</v>
+        <v>2197</v>
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="29" t="s">
@@ -10716,7 +10718,7 @@
         <v>1044</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>2239</v>
+        <v>2198</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="29" t="s">
@@ -10957,7 +10959,7 @@
         <v>17</v>
       </c>
       <c r="I98" s="31" t="s">
-        <v>2183</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="30">
@@ -11043,7 +11045,7 @@
         <v>1045</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>2245</v>
+        <v>2204</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="29" t="s">
@@ -11509,7 +11511,7 @@
         <v>17</v>
       </c>
       <c r="I120" s="31" t="s">
-        <v>2184</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="45">
@@ -11745,7 +11747,7 @@
         <v>1049</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>2240</v>
+        <v>2199</v>
       </c>
       <c r="D130" s="29"/>
       <c r="E130" s="29" t="s">
@@ -11770,7 +11772,7 @@
         <v>1049</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>2241</v>
+        <v>2200</v>
       </c>
       <c r="D131" s="29"/>
       <c r="E131" s="29" t="s">
@@ -11795,7 +11797,7 @@
         <v>1050</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>2242</v>
+        <v>2201</v>
       </c>
       <c r="D132" s="29"/>
       <c r="E132" s="29" t="s">
@@ -12670,7 +12672,7 @@
         <v>1055</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>2243</v>
+        <v>2202</v>
       </c>
       <c r="D167" s="29"/>
       <c r="E167" s="29" t="s">
@@ -12698,7 +12700,7 @@
         <v>1300</v>
       </c>
       <c r="D168" s="29" t="s">
-        <v>2105</v>
+        <v>2064</v>
       </c>
       <c r="E168" s="29" t="s">
         <v>19</v>
@@ -12725,7 +12727,7 @@
         <v>1301</v>
       </c>
       <c r="D169" s="29" t="s">
-        <v>2106</v>
+        <v>2065</v>
       </c>
       <c r="E169" s="29" t="s">
         <v>19</v>
@@ -12752,7 +12754,7 @@
         <v>1302</v>
       </c>
       <c r="D170" s="29" t="s">
-        <v>2107</v>
+        <v>2066</v>
       </c>
       <c r="E170" s="29" t="s">
         <v>19</v>
@@ -12779,7 +12781,7 @@
         <v>1303</v>
       </c>
       <c r="D171" s="29" t="s">
-        <v>2108</v>
+        <v>2067</v>
       </c>
       <c r="E171" s="29" t="s">
         <v>19</v>
@@ -12806,7 +12808,7 @@
         <v>1304</v>
       </c>
       <c r="D172" s="29" t="s">
-        <v>2109</v>
+        <v>2068</v>
       </c>
       <c r="E172" s="29" t="s">
         <v>19</v>
@@ -12833,7 +12835,7 @@
         <v>1305</v>
       </c>
       <c r="D173" s="29" t="s">
-        <v>2110</v>
+        <v>2069</v>
       </c>
       <c r="E173" s="29" t="s">
         <v>19</v>
@@ -12860,7 +12862,7 @@
         <v>1306</v>
       </c>
       <c r="D174" s="29" t="s">
-        <v>2111</v>
+        <v>2070</v>
       </c>
       <c r="E174" s="29" t="s">
         <v>19</v>
@@ -12887,7 +12889,7 @@
         <v>1307</v>
       </c>
       <c r="D175" s="29" t="s">
-        <v>2112</v>
+        <v>2071</v>
       </c>
       <c r="E175" s="29" t="s">
         <v>19</v>
@@ -12914,7 +12916,7 @@
         <v>1308</v>
       </c>
       <c r="D176" s="29" t="s">
-        <v>2113</v>
+        <v>2072</v>
       </c>
       <c r="E176" s="29" t="s">
         <v>19</v>
@@ -12941,7 +12943,7 @@
         <v>1309</v>
       </c>
       <c r="D177" s="29" t="s">
-        <v>2114</v>
+        <v>2073</v>
       </c>
       <c r="E177" s="29" t="s">
         <v>19</v>
@@ -12968,7 +12970,7 @@
         <v>1310</v>
       </c>
       <c r="D178" s="29" t="s">
-        <v>2115</v>
+        <v>2074</v>
       </c>
       <c r="E178" s="29" t="s">
         <v>19</v>
@@ -13145,7 +13147,7 @@
         <v>1317</v>
       </c>
       <c r="D185" s="29" t="s">
-        <v>2116</v>
+        <v>2075</v>
       </c>
       <c r="E185" s="29" t="s">
         <v>19</v>
@@ -13172,7 +13174,7 @@
         <v>1318</v>
       </c>
       <c r="D186" s="29" t="s">
-        <v>2117</v>
+        <v>2076</v>
       </c>
       <c r="E186" s="29" t="s">
         <v>19</v>
@@ -13696,7 +13698,7 @@
         <v>1061</v>
       </c>
       <c r="C207" s="31" t="s">
-        <v>2244</v>
+        <v>2203</v>
       </c>
       <c r="D207" s="29"/>
       <c r="E207" s="29" t="s">
@@ -13724,7 +13726,7 @@
         <v>1339</v>
       </c>
       <c r="D208" s="29" t="s">
-        <v>2118</v>
+        <v>2077</v>
       </c>
       <c r="E208" s="29" t="s">
         <v>19</v>
@@ -13751,7 +13753,7 @@
         <v>1340</v>
       </c>
       <c r="D209" s="29" t="s">
-        <v>2119</v>
+        <v>2078</v>
       </c>
       <c r="E209" s="29" t="s">
         <v>19</v>
@@ -13778,7 +13780,7 @@
         <v>1341</v>
       </c>
       <c r="D210" s="29" t="s">
-        <v>2120</v>
+        <v>2079</v>
       </c>
       <c r="E210" s="29" t="s">
         <v>19</v>
@@ -13805,7 +13807,7 @@
         <v>1342</v>
       </c>
       <c r="D211" s="29" t="s">
-        <v>2121</v>
+        <v>2080</v>
       </c>
       <c r="E211" s="29" t="s">
         <v>19</v>
@@ -13832,7 +13834,7 @@
         <v>1343</v>
       </c>
       <c r="D212" s="29" t="s">
-        <v>2121</v>
+        <v>2080</v>
       </c>
       <c r="E212" s="29" t="s">
         <v>19</v>
@@ -13859,7 +13861,7 @@
         <v>1344</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>2122</v>
+        <v>2081</v>
       </c>
       <c r="E213" s="29" t="s">
         <v>19</v>
@@ -13886,7 +13888,7 @@
         <v>1345</v>
       </c>
       <c r="D214" s="29" t="s">
-        <v>2123</v>
+        <v>2082</v>
       </c>
       <c r="E214" s="29" t="s">
         <v>19</v>
@@ -13913,7 +13915,7 @@
         <v>1346</v>
       </c>
       <c r="D215" s="29" t="s">
-        <v>2124</v>
+        <v>2083</v>
       </c>
       <c r="E215" s="29" t="s">
         <v>19</v>
@@ -13940,7 +13942,7 @@
         <v>1347</v>
       </c>
       <c r="D216" s="29" t="s">
-        <v>2125</v>
+        <v>2084</v>
       </c>
       <c r="E216" s="29" t="s">
         <v>19</v>
@@ -13955,7 +13957,7 @@
         <v>20</v>
       </c>
       <c r="I216" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -13969,7 +13971,7 @@
         <v>1348</v>
       </c>
       <c r="D217" s="29" t="s">
-        <v>2126</v>
+        <v>2085</v>
       </c>
       <c r="E217" s="29" t="s">
         <v>19</v>
@@ -13996,7 +13998,7 @@
         <v>1349</v>
       </c>
       <c r="D218" s="29" t="s">
-        <v>2127</v>
+        <v>2086</v>
       </c>
       <c r="E218" s="29" t="s">
         <v>19</v>
@@ -14023,7 +14025,7 @@
         <v>1350</v>
       </c>
       <c r="D219" s="29" t="s">
-        <v>2128</v>
+        <v>2087</v>
       </c>
       <c r="E219" s="29" t="s">
         <v>19</v>
@@ -14050,7 +14052,7 @@
         <v>1351</v>
       </c>
       <c r="D220" s="29" t="s">
-        <v>2129</v>
+        <v>2088</v>
       </c>
       <c r="E220" s="29" t="s">
         <v>19</v>
@@ -14227,7 +14229,7 @@
         <v>1358</v>
       </c>
       <c r="D227" s="29" t="s">
-        <v>2130</v>
+        <v>2089</v>
       </c>
       <c r="E227" s="29" t="s">
         <v>19</v>
@@ -14254,7 +14256,7 @@
         <v>1359</v>
       </c>
       <c r="D228" s="29" t="s">
-        <v>2131</v>
+        <v>2090</v>
       </c>
       <c r="E228" s="29" t="s">
         <v>19</v>
@@ -14281,7 +14283,7 @@
         <v>1360</v>
       </c>
       <c r="D229" s="29" t="s">
-        <v>2132</v>
+        <v>2091</v>
       </c>
       <c r="E229" s="29" t="s">
         <v>19</v>
@@ -14346,7 +14348,7 @@
         <v>17</v>
       </c>
       <c r="I231" s="31" t="s">
-        <v>2185</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -15423,7 +15425,7 @@
         <v>17</v>
       </c>
       <c r="I274" s="31" t="s">
-        <v>2186</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -16400,7 +16402,7 @@
         <v>17</v>
       </c>
       <c r="I313" s="31" t="s">
-        <v>2187</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -16452,7 +16454,7 @@
         <v>17</v>
       </c>
       <c r="I315" s="31" t="s">
-        <v>2188</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="30">
@@ -17204,7 +17206,7 @@
         <v>17</v>
       </c>
       <c r="I345" s="31" t="s">
-        <v>2189</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="45">
@@ -18456,7 +18458,7 @@
         <v>17</v>
       </c>
       <c r="I395" s="31" t="s">
-        <v>2190</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="396" spans="1:9" ht="30">
@@ -18470,7 +18472,7 @@
         <v>1527</v>
       </c>
       <c r="D396" s="29" t="s">
-        <v>2133</v>
+        <v>2092</v>
       </c>
       <c r="E396" s="29" t="s">
         <v>19</v>
@@ -18497,7 +18499,7 @@
         <v>1528</v>
       </c>
       <c r="D397" s="29" t="s">
-        <v>2133</v>
+        <v>2092</v>
       </c>
       <c r="E397" s="29" t="s">
         <v>19</v>
@@ -18524,7 +18526,7 @@
         <v>1529</v>
       </c>
       <c r="D398" s="29" t="s">
-        <v>2133</v>
+        <v>2092</v>
       </c>
       <c r="E398" s="29" t="s">
         <v>19</v>
@@ -18539,7 +18541,7 @@
         <v>20</v>
       </c>
       <c r="I398" s="32" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="399" spans="1:9" ht="30">
@@ -18591,7 +18593,7 @@
         <v>17</v>
       </c>
       <c r="I400" s="31" t="s">
-        <v>2191</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="401" spans="1:9" ht="30">
@@ -18605,7 +18607,7 @@
         <v>1532</v>
       </c>
       <c r="D401" s="29" t="s">
-        <v>2134</v>
+        <v>2093</v>
       </c>
       <c r="E401" s="29" t="s">
         <v>19</v>
@@ -18632,7 +18634,7 @@
         <v>1533</v>
       </c>
       <c r="D402" s="29" t="s">
-        <v>2134</v>
+        <v>2093</v>
       </c>
       <c r="E402" s="29" t="s">
         <v>19</v>
@@ -18659,7 +18661,7 @@
         <v>1534</v>
       </c>
       <c r="D403" s="29" t="s">
-        <v>2134</v>
+        <v>2093</v>
       </c>
       <c r="E403" s="29" t="s">
         <v>19</v>
@@ -18708,7 +18710,7 @@
         <v>1079</v>
       </c>
       <c r="C405" s="20" t="s">
-        <v>2251</v>
+        <v>2210</v>
       </c>
       <c r="D405" s="29"/>
       <c r="E405" s="29" t="s">
@@ -19249,7 +19251,7 @@
         <v>17</v>
       </c>
       <c r="I426" s="31" t="s">
-        <v>2192</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -19263,7 +19265,7 @@
         <v>1557</v>
       </c>
       <c r="D427" s="29" t="s">
-        <v>2135</v>
+        <v>2094</v>
       </c>
       <c r="E427" s="29" t="s">
         <v>19</v>
@@ -19703,7 +19705,7 @@
         <v>17</v>
       </c>
       <c r="I444" s="20" t="s">
-        <v>2193</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="445" spans="1:9">
@@ -19717,7 +19719,7 @@
         <v>1575</v>
       </c>
       <c r="D445" s="29" t="s">
-        <v>2136</v>
+        <v>2095</v>
       </c>
       <c r="E445" s="29" t="s">
         <v>19</v>
@@ -19960,13 +19962,13 @@
     </row>
     <row r="455" spans="1:9" ht="45">
       <c r="A455" s="22" t="s">
-        <v>2286</v>
+        <v>2245</v>
       </c>
       <c r="B455" s="38" t="s">
         <v>1088</v>
       </c>
       <c r="C455" s="39" t="s">
-        <v>2319</v>
+        <v>2276</v>
       </c>
       <c r="D455" s="37"/>
       <c r="E455" s="29" t="s">
@@ -19982,18 +19984,18 @@
         <v>21</v>
       </c>
       <c r="I455" s="20" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="456" spans="1:9" ht="45">
       <c r="A456" s="22" t="s">
-        <v>2287</v>
+        <v>2246</v>
       </c>
       <c r="B456" s="38" t="s">
         <v>1088</v>
       </c>
       <c r="C456" s="39" t="s">
-        <v>2278</v>
+        <v>2237</v>
       </c>
       <c r="D456" s="37"/>
       <c r="E456" s="29" t="s">
@@ -20009,21 +20011,21 @@
         <v>17</v>
       </c>
       <c r="I456" s="39" t="s">
-        <v>2297</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="457" spans="1:9" ht="30">
       <c r="A457" s="22" t="s">
-        <v>2288</v>
+        <v>2247</v>
       </c>
       <c r="B457" s="38" t="s">
         <v>1088</v>
       </c>
       <c r="C457" s="39" t="s">
-        <v>2281</v>
+        <v>2240</v>
       </c>
       <c r="D457" s="37" t="s">
-        <v>2298</v>
+        <v>2257</v>
       </c>
       <c r="E457" s="37" t="s">
         <v>19</v>
@@ -20041,13 +20043,13 @@
     </row>
     <row r="458" spans="1:9" ht="30">
       <c r="A458" s="22" t="s">
-        <v>2289</v>
+        <v>2248</v>
       </c>
       <c r="B458" s="38" t="s">
         <v>1088</v>
       </c>
       <c r="C458" s="39" t="s">
-        <v>2279</v>
+        <v>2238</v>
       </c>
       <c r="D458" s="37"/>
       <c r="E458" s="29" t="s">
@@ -20066,13 +20068,13 @@
     </row>
     <row r="459" spans="1:9" ht="30">
       <c r="A459" s="22" t="s">
-        <v>2290</v>
+        <v>2249</v>
       </c>
       <c r="B459" s="38" t="s">
         <v>1088</v>
       </c>
       <c r="C459" s="39" t="s">
-        <v>2280</v>
+        <v>2239</v>
       </c>
       <c r="D459" s="37"/>
       <c r="E459" s="29" t="s">
@@ -20091,13 +20093,13 @@
     </row>
     <row r="460" spans="1:9" ht="45">
       <c r="A460" s="22" t="s">
-        <v>2291</v>
+        <v>2250</v>
       </c>
       <c r="B460" s="38" t="s">
         <v>1089</v>
       </c>
       <c r="C460" s="39" t="s">
-        <v>2282</v>
+        <v>2241</v>
       </c>
       <c r="D460" s="37"/>
       <c r="E460" s="29" t="s">
@@ -20116,13 +20118,13 @@
     </row>
     <row r="461" spans="1:9" ht="30">
       <c r="A461" s="22" t="s">
-        <v>2292</v>
+        <v>2251</v>
       </c>
       <c r="B461" s="38" t="s">
         <v>1089</v>
       </c>
       <c r="C461" s="39" t="s">
-        <v>2283</v>
+        <v>2242</v>
       </c>
       <c r="D461" s="37"/>
       <c r="E461" s="29" t="s">
@@ -20141,13 +20143,13 @@
     </row>
     <row r="462" spans="1:9" ht="30">
       <c r="A462" s="22" t="s">
-        <v>2293</v>
+        <v>2252</v>
       </c>
       <c r="B462" s="38" t="s">
         <v>1089</v>
       </c>
       <c r="C462" s="39" t="s">
-        <v>2284</v>
+        <v>2243</v>
       </c>
       <c r="D462" s="37"/>
       <c r="E462" s="29" t="s">
@@ -20166,13 +20168,13 @@
     </row>
     <row r="463" spans="1:9" ht="45">
       <c r="A463" s="22" t="s">
-        <v>2294</v>
+        <v>2253</v>
       </c>
       <c r="B463" s="38" t="s">
         <v>1090</v>
       </c>
       <c r="C463" s="39" t="s">
-        <v>2285</v>
+        <v>2244</v>
       </c>
       <c r="D463" s="37"/>
       <c r="E463" s="29" t="s">
@@ -20191,13 +20193,13 @@
     </row>
     <row r="464" spans="1:9">
       <c r="A464" s="22" t="s">
-        <v>2295</v>
+        <v>2254</v>
       </c>
       <c r="B464" s="38" t="s">
         <v>1090</v>
       </c>
       <c r="C464" s="39" t="s">
-        <v>2320</v>
+        <v>2277</v>
       </c>
       <c r="D464" s="37"/>
       <c r="E464" s="29" t="s">
@@ -20216,13 +20218,13 @@
     </row>
     <row r="465" spans="1:9" ht="30">
       <c r="A465" s="22" t="s">
-        <v>2296</v>
+        <v>2255</v>
       </c>
       <c r="B465" s="38" t="s">
         <v>1090</v>
       </c>
       <c r="C465" s="39" t="s">
-        <v>2321</v>
+        <v>2278</v>
       </c>
       <c r="D465" s="37"/>
       <c r="E465" s="29" t="s">
@@ -20246,8 +20248,8 @@
       <c r="B466" s="24" t="s">
         <v>1091</v>
       </c>
-      <c r="C466" s="31" t="s">
-        <v>1585</v>
+      <c r="C466" s="20" t="s">
+        <v>2280</v>
       </c>
       <c r="D466" s="29"/>
       <c r="E466" s="29" t="s">
@@ -20272,7 +20274,7 @@
         <v>1091</v>
       </c>
       <c r="C467" s="31" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D467" s="29"/>
       <c r="E467" s="29" t="s">
@@ -20288,7 +20290,7 @@
         <v>17</v>
       </c>
       <c r="I467" s="31" t="s">
-        <v>2194</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="468" spans="1:9">
@@ -20299,10 +20301,10 @@
         <v>1091</v>
       </c>
       <c r="C468" s="31" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D468" s="29" t="s">
-        <v>2137</v>
+        <v>2096</v>
       </c>
       <c r="E468" s="29" t="s">
         <v>19</v>
@@ -20326,7 +20328,7 @@
         <v>1091</v>
       </c>
       <c r="C469" s="31" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D469" s="29"/>
       <c r="E469" s="29" t="s">
@@ -20351,7 +20353,7 @@
         <v>1091</v>
       </c>
       <c r="C470" s="31" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D470" s="29"/>
       <c r="E470" s="29" t="s">
@@ -20375,8 +20377,8 @@
       <c r="B471" s="24" t="s">
         <v>1092</v>
       </c>
-      <c r="C471" s="31" t="s">
-        <v>1590</v>
+      <c r="C471" s="20" t="s">
+        <v>2281</v>
       </c>
       <c r="D471" s="29"/>
       <c r="E471" s="29" t="s">
@@ -20400,8 +20402,8 @@
       <c r="B472" s="24" t="s">
         <v>1093</v>
       </c>
-      <c r="C472" s="31" t="s">
-        <v>1591</v>
+      <c r="C472" s="20" t="s">
+        <v>2282</v>
       </c>
       <c r="D472" s="29"/>
       <c r="E472" s="29" t="s">
@@ -20425,8 +20427,8 @@
       <c r="B473" s="24" t="s">
         <v>1094</v>
       </c>
-      <c r="C473" s="31" t="s">
-        <v>1592</v>
+      <c r="C473" s="20" t="s">
+        <v>2283</v>
       </c>
       <c r="D473" s="29"/>
       <c r="E473" s="29" t="s">
@@ -20451,7 +20453,7 @@
         <v>1094</v>
       </c>
       <c r="C474" s="31" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="D474" s="29"/>
       <c r="E474" s="29" t="s">
@@ -20467,7 +20469,7 @@
         <v>17</v>
       </c>
       <c r="I474" s="31" t="s">
-        <v>2195</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="475" spans="1:9">
@@ -20478,10 +20480,10 @@
         <v>1094</v>
       </c>
       <c r="C475" s="31" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="D475" s="29" t="s">
-        <v>2138</v>
+        <v>2097</v>
       </c>
       <c r="E475" s="29" t="s">
         <v>19</v>
@@ -20505,7 +20507,7 @@
         <v>1094</v>
       </c>
       <c r="C476" s="31" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="D476" s="29"/>
       <c r="E476" s="29" t="s">
@@ -20530,7 +20532,7 @@
         <v>1094</v>
       </c>
       <c r="C477" s="31" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="D477" s="29"/>
       <c r="E477" s="29" t="s">
@@ -20554,8 +20556,8 @@
       <c r="B478" s="24" t="s">
         <v>1095</v>
       </c>
-      <c r="C478" s="31" t="s">
-        <v>1597</v>
+      <c r="C478" s="20" t="s">
+        <v>2284</v>
       </c>
       <c r="D478" s="29"/>
       <c r="E478" s="29" t="s">
@@ -20579,8 +20581,8 @@
       <c r="B479" s="24" t="s">
         <v>1096</v>
       </c>
-      <c r="C479" s="31" t="s">
-        <v>1598</v>
+      <c r="C479" s="20" t="s">
+        <v>2285</v>
       </c>
       <c r="D479" s="29"/>
       <c r="E479" s="29" t="s">
@@ -20605,7 +20607,7 @@
         <v>1096</v>
       </c>
       <c r="C480" s="31" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="D480" s="29"/>
       <c r="E480" s="29" t="s">
@@ -20630,7 +20632,7 @@
         <v>1096</v>
       </c>
       <c r="C481" s="31" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="D481" s="29"/>
       <c r="E481" s="29" t="s">
@@ -20655,7 +20657,7 @@
         <v>1096</v>
       </c>
       <c r="C482" s="31" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="D482" s="29"/>
       <c r="E482" s="29" t="s">
@@ -20679,8 +20681,8 @@
       <c r="B483" s="24" t="s">
         <v>1097</v>
       </c>
-      <c r="C483" s="31" t="s">
-        <v>1602</v>
+      <c r="C483" s="20" t="s">
+        <v>2286</v>
       </c>
       <c r="D483" s="29"/>
       <c r="E483" s="29" t="s">
@@ -20705,7 +20707,7 @@
         <v>1097</v>
       </c>
       <c r="C484" s="31" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="D484" s="29"/>
       <c r="E484" s="29" t="s">
@@ -20721,7 +20723,7 @@
         <v>17</v>
       </c>
       <c r="I484" s="31" t="s">
-        <v>2196</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="485" spans="1:9">
@@ -20732,10 +20734,10 @@
         <v>1097</v>
       </c>
       <c r="C485" s="31" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="D485" s="29" t="s">
-        <v>2139</v>
+        <v>2098</v>
       </c>
       <c r="E485" s="29" t="s">
         <v>19</v>
@@ -20759,7 +20761,7 @@
         <v>1097</v>
       </c>
       <c r="C486" s="31" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="D486" s="29"/>
       <c r="E486" s="29" t="s">
@@ -20784,7 +20786,7 @@
         <v>1097</v>
       </c>
       <c r="C487" s="31" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="D487" s="29"/>
       <c r="E487" s="29" t="s">
@@ -20809,7 +20811,7 @@
         <v>1097</v>
       </c>
       <c r="C488" s="31" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="D488" s="29"/>
       <c r="E488" s="29" t="s">
@@ -20833,8 +20835,8 @@
       <c r="B489" s="24" t="s">
         <v>1098</v>
       </c>
-      <c r="C489" s="31" t="s">
-        <v>1608</v>
+      <c r="C489" s="20" t="s">
+        <v>2287</v>
       </c>
       <c r="D489" s="29"/>
       <c r="E489" s="29" t="s">
@@ -20859,7 +20861,7 @@
         <v>1098</v>
       </c>
       <c r="C490" s="31" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="D490" s="29"/>
       <c r="E490" s="29" t="s">
@@ -20884,7 +20886,7 @@
         <v>1098</v>
       </c>
       <c r="C491" s="31" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="D491" s="29"/>
       <c r="E491" s="29" t="s">
@@ -20909,7 +20911,7 @@
         <v>1098</v>
       </c>
       <c r="C492" s="31" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="D492" s="29"/>
       <c r="E492" s="29" t="s">
@@ -20933,8 +20935,8 @@
       <c r="B493" s="24" t="s">
         <v>1099</v>
       </c>
-      <c r="C493" s="31" t="s">
-        <v>1612</v>
+      <c r="C493" s="20" t="s">
+        <v>2288</v>
       </c>
       <c r="D493" s="29"/>
       <c r="E493" s="29" t="s">
@@ -20959,7 +20961,7 @@
         <v>1100</v>
       </c>
       <c r="C494" s="31" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
       <c r="D494" s="29"/>
       <c r="E494" s="29" t="s">
@@ -20984,7 +20986,7 @@
         <v>1100</v>
       </c>
       <c r="C495" s="31" t="s">
-        <v>1614</v>
+        <v>1605</v>
       </c>
       <c r="D495" s="29"/>
       <c r="E495" s="29" t="s">
@@ -21009,7 +21011,7 @@
         <v>1100</v>
       </c>
       <c r="C496" s="31" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="D496" s="29"/>
       <c r="E496" s="29" t="s">
@@ -21034,7 +21036,7 @@
         <v>1100</v>
       </c>
       <c r="C497" s="31" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="D497" s="29"/>
       <c r="E497" s="29" t="s">
@@ -21050,7 +21052,7 @@
         <v>17</v>
       </c>
       <c r="I497" s="31" t="s">
-        <v>2197</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="498" spans="1:9">
@@ -21061,10 +21063,10 @@
         <v>1100</v>
       </c>
       <c r="C498" s="31" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
       <c r="D498" s="29" t="s">
-        <v>2140</v>
+        <v>2099</v>
       </c>
       <c r="E498" s="29" t="s">
         <v>19</v>
@@ -21088,7 +21090,7 @@
         <v>1100</v>
       </c>
       <c r="C499" s="31" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="D499" s="29"/>
       <c r="E499" s="29" t="s">
@@ -21113,7 +21115,7 @@
         <v>1100</v>
       </c>
       <c r="C500" s="31" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="D500" s="29"/>
       <c r="E500" s="29" t="s">
@@ -21137,8 +21139,8 @@
       <c r="B501" s="24" t="s">
         <v>1101</v>
       </c>
-      <c r="C501" s="31" t="s">
-        <v>1620</v>
+      <c r="C501" s="20" t="s">
+        <v>2289</v>
       </c>
       <c r="D501" s="29"/>
       <c r="E501" s="29" t="s">
@@ -21163,7 +21165,7 @@
         <v>1101</v>
       </c>
       <c r="C502" s="31" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="D502" s="29"/>
       <c r="E502" s="29" t="s">
@@ -21188,7 +21190,7 @@
         <v>1101</v>
       </c>
       <c r="C503" s="31" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="D503" s="29"/>
       <c r="E503" s="29" t="s">
@@ -21212,8 +21214,8 @@
       <c r="B504" s="24" t="s">
         <v>1101</v>
       </c>
-      <c r="C504" s="31" t="s">
-        <v>1623</v>
+      <c r="C504" s="20" t="s">
+        <v>1613</v>
       </c>
       <c r="D504" s="29"/>
       <c r="E504" s="29" t="s">
@@ -21238,7 +21240,7 @@
         <v>1101</v>
       </c>
       <c r="C505" s="31" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
       <c r="D505" s="29"/>
       <c r="E505" s="29" t="s">
@@ -21263,7 +21265,7 @@
         <v>1101</v>
       </c>
       <c r="C506" s="31" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="D506" s="29"/>
       <c r="E506" s="29" t="s">
@@ -21288,7 +21290,7 @@
         <v>1101</v>
       </c>
       <c r="C507" s="31" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
       <c r="D507" s="29"/>
       <c r="E507" s="29" t="s">
@@ -21313,7 +21315,7 @@
         <v>1101</v>
       </c>
       <c r="C508" s="31" t="s">
-        <v>1627</v>
+        <v>1617</v>
       </c>
       <c r="D508" s="29"/>
       <c r="E508" s="29" t="s">
@@ -21338,7 +21340,7 @@
         <v>1101</v>
       </c>
       <c r="C509" s="31" t="s">
-        <v>1628</v>
+        <v>1618</v>
       </c>
       <c r="D509" s="29"/>
       <c r="E509" s="29" t="s">
@@ -21363,7 +21365,7 @@
         <v>1101</v>
       </c>
       <c r="C510" s="31" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="D510" s="29"/>
       <c r="E510" s="29" t="s">
@@ -21388,7 +21390,7 @@
         <v>1101</v>
       </c>
       <c r="C511" s="31" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
       <c r="D511" s="29"/>
       <c r="E511" s="29" t="s">
@@ -21412,8 +21414,8 @@
       <c r="B512" s="24" t="s">
         <v>1102</v>
       </c>
-      <c r="C512" s="31" t="s">
-        <v>1631</v>
+      <c r="C512" s="20" t="s">
+        <v>2290</v>
       </c>
       <c r="D512" s="29"/>
       <c r="E512" s="29" t="s">
@@ -21438,7 +21440,7 @@
         <v>1102</v>
       </c>
       <c r="C513" s="31" t="s">
-        <v>1632</v>
+        <v>1621</v>
       </c>
       <c r="D513" s="29"/>
       <c r="E513" s="29" t="s">
@@ -21463,7 +21465,7 @@
         <v>1102</v>
       </c>
       <c r="C514" s="31" t="s">
-        <v>1633</v>
+        <v>1622</v>
       </c>
       <c r="D514" s="29"/>
       <c r="E514" s="29" t="s">
@@ -21487,8 +21489,8 @@
       <c r="B515" s="24" t="s">
         <v>1103</v>
       </c>
-      <c r="C515" s="31" t="s">
-        <v>1634</v>
+      <c r="C515" s="20" t="s">
+        <v>2291</v>
       </c>
       <c r="D515" s="29"/>
       <c r="E515" s="29" t="s">
@@ -21513,7 +21515,7 @@
         <v>1103</v>
       </c>
       <c r="C516" s="31" t="s">
-        <v>1635</v>
+        <v>1623</v>
       </c>
       <c r="D516" s="29"/>
       <c r="E516" s="29" t="s">
@@ -21529,7 +21531,7 @@
         <v>17</v>
       </c>
       <c r="I516" s="31" t="s">
-        <v>2198</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="517" spans="1:9">
@@ -21540,10 +21542,10 @@
         <v>1103</v>
       </c>
       <c r="C517" s="31" t="s">
-        <v>1636</v>
+        <v>1624</v>
       </c>
       <c r="D517" s="29" t="s">
-        <v>2141</v>
+        <v>2100</v>
       </c>
       <c r="E517" s="29" t="s">
         <v>19</v>
@@ -21567,7 +21569,7 @@
         <v>1103</v>
       </c>
       <c r="C518" s="31" t="s">
-        <v>1637</v>
+        <v>1625</v>
       </c>
       <c r="D518" s="29"/>
       <c r="E518" s="29" t="s">
@@ -21592,7 +21594,7 @@
         <v>1103</v>
       </c>
       <c r="C519" s="31" t="s">
-        <v>1638</v>
+        <v>1626</v>
       </c>
       <c r="D519" s="29"/>
       <c r="E519" s="29" t="s">
@@ -21616,8 +21618,8 @@
       <c r="B520" s="24" t="s">
         <v>1104</v>
       </c>
-      <c r="C520" s="31" t="s">
-        <v>1639</v>
+      <c r="C520" s="20" t="s">
+        <v>2292</v>
       </c>
       <c r="D520" s="29"/>
       <c r="E520" s="29" t="s">
@@ -21642,7 +21644,7 @@
         <v>1104</v>
       </c>
       <c r="C521" s="31" t="s">
-        <v>1640</v>
+        <v>1627</v>
       </c>
       <c r="D521" s="29"/>
       <c r="E521" s="29" t="s">
@@ -21667,7 +21669,7 @@
         <v>1104</v>
       </c>
       <c r="C522" s="31" t="s">
-        <v>1641</v>
+        <v>1628</v>
       </c>
       <c r="D522" s="29"/>
       <c r="E522" s="29" t="s">
@@ -21691,8 +21693,8 @@
       <c r="B523" s="24" t="s">
         <v>1105</v>
       </c>
-      <c r="C523" s="31" t="s">
-        <v>1642</v>
+      <c r="C523" s="20" t="s">
+        <v>2293</v>
       </c>
       <c r="D523" s="29"/>
       <c r="E523" s="29" t="s">
@@ -21717,7 +21719,7 @@
         <v>1105</v>
       </c>
       <c r="C524" s="31" t="s">
-        <v>1643</v>
+        <v>1629</v>
       </c>
       <c r="D524" s="29"/>
       <c r="E524" s="29" t="s">
@@ -21742,7 +21744,7 @@
         <v>1105</v>
       </c>
       <c r="C525" s="31" t="s">
-        <v>1644</v>
+        <v>1630</v>
       </c>
       <c r="D525" s="29"/>
       <c r="E525" s="29" t="s">
@@ -21767,7 +21769,7 @@
         <v>1105</v>
       </c>
       <c r="C526" s="31" t="s">
-        <v>1645</v>
+        <v>1631</v>
       </c>
       <c r="D526" s="29"/>
       <c r="E526" s="29" t="s">
@@ -21792,7 +21794,7 @@
         <v>1105</v>
       </c>
       <c r="C527" s="31" t="s">
-        <v>1646</v>
+        <v>1632</v>
       </c>
       <c r="D527" s="29"/>
       <c r="E527" s="29" t="s">
@@ -21817,7 +21819,7 @@
         <v>1105</v>
       </c>
       <c r="C528" s="31" t="s">
-        <v>1647</v>
+        <v>1633</v>
       </c>
       <c r="D528" s="29"/>
       <c r="E528" s="29" t="s">
@@ -21842,7 +21844,7 @@
         <v>1105</v>
       </c>
       <c r="C529" s="31" t="s">
-        <v>1648</v>
+        <v>1634</v>
       </c>
       <c r="D529" s="29"/>
       <c r="E529" s="29" t="s">
@@ -21867,7 +21869,7 @@
         <v>1105</v>
       </c>
       <c r="C530" s="31" t="s">
-        <v>1649</v>
+        <v>1635</v>
       </c>
       <c r="D530" s="29"/>
       <c r="E530" s="29" t="s">
@@ -21892,7 +21894,7 @@
         <v>1105</v>
       </c>
       <c r="C531" s="31" t="s">
-        <v>1650</v>
+        <v>1636</v>
       </c>
       <c r="D531" s="29"/>
       <c r="E531" s="29" t="s">
@@ -21917,7 +21919,7 @@
         <v>1105</v>
       </c>
       <c r="C532" s="31" t="s">
-        <v>1651</v>
+        <v>1637</v>
       </c>
       <c r="D532" s="29"/>
       <c r="E532" s="29" t="s">
@@ -21942,7 +21944,7 @@
         <v>1105</v>
       </c>
       <c r="C533" s="31" t="s">
-        <v>1652</v>
+        <v>1638</v>
       </c>
       <c r="D533" s="29"/>
       <c r="E533" s="29" t="s">
@@ -21967,7 +21969,7 @@
         <v>1106</v>
       </c>
       <c r="C534" s="31" t="s">
-        <v>1653</v>
+        <v>1639</v>
       </c>
       <c r="D534" s="29"/>
       <c r="E534" s="29" t="s">
@@ -21992,7 +21994,7 @@
         <v>1106</v>
       </c>
       <c r="C535" s="31" t="s">
-        <v>1654</v>
+        <v>1640</v>
       </c>
       <c r="D535" s="29"/>
       <c r="E535" s="29" t="s">
@@ -22017,7 +22019,7 @@
         <v>1106</v>
       </c>
       <c r="C536" s="31" t="s">
-        <v>1655</v>
+        <v>1641</v>
       </c>
       <c r="D536" s="29"/>
       <c r="E536" s="29" t="s">
@@ -22042,7 +22044,7 @@
         <v>1106</v>
       </c>
       <c r="C537" s="31" t="s">
-        <v>1656</v>
+        <v>1642</v>
       </c>
       <c r="D537" s="29"/>
       <c r="E537" s="29" t="s">
@@ -22067,7 +22069,7 @@
         <v>1106</v>
       </c>
       <c r="C538" s="31" t="s">
-        <v>1657</v>
+        <v>1643</v>
       </c>
       <c r="D538" s="29"/>
       <c r="E538" s="29" t="s">
@@ -22092,7 +22094,7 @@
         <v>1107</v>
       </c>
       <c r="C539" s="31" t="s">
-        <v>1658</v>
+        <v>1644</v>
       </c>
       <c r="D539" s="29"/>
       <c r="E539" s="29" t="s">
@@ -22117,7 +22119,7 @@
         <v>1107</v>
       </c>
       <c r="C540" s="31" t="s">
-        <v>1659</v>
+        <v>1645</v>
       </c>
       <c r="D540" s="29"/>
       <c r="E540" s="29" t="s">
@@ -22142,7 +22144,7 @@
         <v>1107</v>
       </c>
       <c r="C541" s="31" t="s">
-        <v>1660</v>
+        <v>1646</v>
       </c>
       <c r="D541" s="29"/>
       <c r="E541" s="29" t="s">
@@ -22167,7 +22169,7 @@
         <v>1107</v>
       </c>
       <c r="C542" s="31" t="s">
-        <v>1661</v>
+        <v>1647</v>
       </c>
       <c r="D542" s="29"/>
       <c r="E542" s="29" t="s">
@@ -22192,7 +22194,7 @@
         <v>1108</v>
       </c>
       <c r="C543" s="31" t="s">
-        <v>1662</v>
+        <v>1648</v>
       </c>
       <c r="D543" s="29"/>
       <c r="E543" s="29" t="s">
@@ -22217,7 +22219,7 @@
         <v>1108</v>
       </c>
       <c r="C544" s="31" t="s">
-        <v>1663</v>
+        <v>1649</v>
       </c>
       <c r="D544" s="29"/>
       <c r="E544" s="29" t="s">
@@ -22242,7 +22244,7 @@
         <v>1108</v>
       </c>
       <c r="C545" s="31" t="s">
-        <v>1664</v>
+        <v>1650</v>
       </c>
       <c r="D545" s="29"/>
       <c r="E545" s="29" t="s">
@@ -22267,7 +22269,7 @@
         <v>1108</v>
       </c>
       <c r="C546" s="31" t="s">
-        <v>1665</v>
+        <v>1651</v>
       </c>
       <c r="D546" s="29"/>
       <c r="E546" s="29" t="s">
@@ -22292,7 +22294,7 @@
         <v>1108</v>
       </c>
       <c r="C547" s="31" t="s">
-        <v>1666</v>
+        <v>1652</v>
       </c>
       <c r="D547" s="29"/>
       <c r="E547" s="29" t="s">
@@ -22317,7 +22319,7 @@
         <v>1108</v>
       </c>
       <c r="C548" s="31" t="s">
-        <v>1667</v>
+        <v>1653</v>
       </c>
       <c r="D548" s="29"/>
       <c r="E548" s="29" t="s">
@@ -22341,8 +22343,8 @@
       <c r="B549" s="24" t="s">
         <v>1109</v>
       </c>
-      <c r="C549" s="31" t="s">
-        <v>1668</v>
+      <c r="C549" s="20" t="s">
+        <v>2294</v>
       </c>
       <c r="D549" s="29"/>
       <c r="E549" s="29" t="s">
@@ -22367,7 +22369,7 @@
         <v>1109</v>
       </c>
       <c r="C550" s="31" t="s">
-        <v>1669</v>
+        <v>1654</v>
       </c>
       <c r="D550" s="29"/>
       <c r="E550" s="29" t="s">
@@ -22383,7 +22385,7 @@
         <v>17</v>
       </c>
       <c r="I550" s="31" t="s">
-        <v>2199</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="551" spans="1:9">
@@ -22394,10 +22396,10 @@
         <v>1109</v>
       </c>
       <c r="C551" s="31" t="s">
-        <v>1670</v>
+        <v>1655</v>
       </c>
       <c r="D551" s="29" t="s">
-        <v>2142</v>
+        <v>2101</v>
       </c>
       <c r="E551" s="29" t="s">
         <v>19</v>
@@ -22421,7 +22423,7 @@
         <v>1109</v>
       </c>
       <c r="C552" s="31" t="s">
-        <v>1671</v>
+        <v>1656</v>
       </c>
       <c r="D552" s="29"/>
       <c r="E552" s="29" t="s">
@@ -22446,7 +22448,7 @@
         <v>1109</v>
       </c>
       <c r="C553" s="31" t="s">
-        <v>1672</v>
+        <v>1657</v>
       </c>
       <c r="D553" s="29"/>
       <c r="E553" s="29" t="s">
@@ -22470,8 +22472,8 @@
       <c r="B554" s="24" t="s">
         <v>1110</v>
       </c>
-      <c r="C554" s="31" t="s">
-        <v>1673</v>
+      <c r="C554" s="20" t="s">
+        <v>2295</v>
       </c>
       <c r="D554" s="29"/>
       <c r="E554" s="29" t="s">
@@ -22496,7 +22498,7 @@
         <v>1110</v>
       </c>
       <c r="C555" s="31" t="s">
-        <v>1674</v>
+        <v>1658</v>
       </c>
       <c r="D555" s="29"/>
       <c r="E555" s="29" t="s">
@@ -22521,7 +22523,7 @@
         <v>1110</v>
       </c>
       <c r="C556" s="31" t="s">
-        <v>1675</v>
+        <v>1659</v>
       </c>
       <c r="D556" s="29"/>
       <c r="E556" s="29" t="s">
@@ -22546,7 +22548,7 @@
         <v>1110</v>
       </c>
       <c r="C557" s="31" t="s">
-        <v>1676</v>
+        <v>1660</v>
       </c>
       <c r="D557" s="29"/>
       <c r="E557" s="29" t="s">
@@ -22571,7 +22573,7 @@
         <v>1110</v>
       </c>
       <c r="C558" s="31" t="s">
-        <v>1677</v>
+        <v>1661</v>
       </c>
       <c r="D558" s="29"/>
       <c r="E558" s="29" t="s">
@@ -22596,7 +22598,7 @@
         <v>1110</v>
       </c>
       <c r="C559" s="31" t="s">
-        <v>1678</v>
+        <v>1662</v>
       </c>
       <c r="D559" s="29"/>
       <c r="E559" s="29" t="s">
@@ -22621,7 +22623,7 @@
         <v>1110</v>
       </c>
       <c r="C560" s="31" t="s">
-        <v>1679</v>
+        <v>1663</v>
       </c>
       <c r="D560" s="29"/>
       <c r="E560" s="29" t="s">
@@ -22646,7 +22648,7 @@
         <v>1110</v>
       </c>
       <c r="C561" s="31" t="s">
-        <v>1680</v>
+        <v>1664</v>
       </c>
       <c r="D561" s="29"/>
       <c r="E561" s="29" t="s">
@@ -22671,7 +22673,7 @@
         <v>1110</v>
       </c>
       <c r="C562" s="31" t="s">
-        <v>1681</v>
+        <v>1665</v>
       </c>
       <c r="D562" s="29"/>
       <c r="E562" s="29" t="s">
@@ -22696,7 +22698,7 @@
         <v>1110</v>
       </c>
       <c r="C563" s="31" t="s">
-        <v>1682</v>
+        <v>1666</v>
       </c>
       <c r="D563" s="29"/>
       <c r="E563" s="29" t="s">
@@ -22713,15 +22715,15 @@
       </c>
       <c r="I563" s="31"/>
     </row>
-    <row r="564" spans="1:9" ht="30">
+    <row r="564" spans="1:9" ht="45">
       <c r="A564" s="29" t="s">
         <v>576</v>
       </c>
       <c r="B564" s="24" t="s">
         <v>1111</v>
       </c>
-      <c r="C564" s="31" t="s">
-        <v>1683</v>
+      <c r="C564" s="20" t="s">
+        <v>2296</v>
       </c>
       <c r="D564" s="29"/>
       <c r="E564" s="29" t="s">
@@ -22745,8 +22747,8 @@
       <c r="B565" s="24" t="s">
         <v>1112</v>
       </c>
-      <c r="C565" s="31" t="s">
-        <v>1684</v>
+      <c r="C565" s="20" t="s">
+        <v>2297</v>
       </c>
       <c r="D565" s="29"/>
       <c r="E565" s="29" t="s">
@@ -22771,7 +22773,7 @@
         <v>1112</v>
       </c>
       <c r="C566" s="31" t="s">
-        <v>1685</v>
+        <v>1667</v>
       </c>
       <c r="D566" s="29"/>
       <c r="E566" s="29" t="s">
@@ -22787,7 +22789,7 @@
         <v>17</v>
       </c>
       <c r="I566" s="31" t="s">
-        <v>2200</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="567" spans="1:9">
@@ -22798,10 +22800,10 @@
         <v>1112</v>
       </c>
       <c r="C567" s="31" t="s">
-        <v>1686</v>
+        <v>1668</v>
       </c>
       <c r="D567" s="29" t="s">
-        <v>2143</v>
+        <v>2102</v>
       </c>
       <c r="E567" s="29" t="s">
         <v>19</v>
@@ -22825,7 +22827,7 @@
         <v>1112</v>
       </c>
       <c r="C568" s="31" t="s">
-        <v>1687</v>
+        <v>1669</v>
       </c>
       <c r="D568" s="29"/>
       <c r="E568" s="29" t="s">
@@ -22850,7 +22852,7 @@
         <v>1112</v>
       </c>
       <c r="C569" s="31" t="s">
-        <v>1688</v>
+        <v>1670</v>
       </c>
       <c r="D569" s="29"/>
       <c r="E569" s="29" t="s">
@@ -22874,8 +22876,8 @@
       <c r="B570" s="24" t="s">
         <v>1113</v>
       </c>
-      <c r="C570" s="31" t="s">
-        <v>1689</v>
+      <c r="C570" s="20" t="s">
+        <v>2298</v>
       </c>
       <c r="D570" s="29"/>
       <c r="E570" s="29" t="s">
@@ -22900,7 +22902,7 @@
         <v>1113</v>
       </c>
       <c r="C571" s="31" t="s">
-        <v>1690</v>
+        <v>1671</v>
       </c>
       <c r="D571" s="29"/>
       <c r="E571" s="29" t="s">
@@ -22925,7 +22927,7 @@
         <v>1113</v>
       </c>
       <c r="C572" s="31" t="s">
-        <v>1691</v>
+        <v>1672</v>
       </c>
       <c r="D572" s="29"/>
       <c r="E572" s="29" t="s">
@@ -22950,7 +22952,7 @@
         <v>1113</v>
       </c>
       <c r="C573" s="31" t="s">
-        <v>1692</v>
+        <v>1673</v>
       </c>
       <c r="D573" s="29"/>
       <c r="E573" s="29" t="s">
@@ -22975,7 +22977,7 @@
         <v>1113</v>
       </c>
       <c r="C574" s="31" t="s">
-        <v>1693</v>
+        <v>1674</v>
       </c>
       <c r="D574" s="29"/>
       <c r="E574" s="29" t="s">
@@ -23000,7 +23002,7 @@
         <v>1113</v>
       </c>
       <c r="C575" s="31" t="s">
-        <v>1694</v>
+        <v>1675</v>
       </c>
       <c r="D575" s="29"/>
       <c r="E575" s="29" t="s">
@@ -23025,7 +23027,7 @@
         <v>1113</v>
       </c>
       <c r="C576" s="31" t="s">
-        <v>1695</v>
+        <v>1676</v>
       </c>
       <c r="D576" s="29"/>
       <c r="E576" s="29" t="s">
@@ -23050,7 +23052,7 @@
         <v>1113</v>
       </c>
       <c r="C577" s="20" t="s">
-        <v>2302</v>
+        <v>2261</v>
       </c>
       <c r="D577" s="29"/>
       <c r="E577" s="29" t="s">
@@ -23074,8 +23076,8 @@
       <c r="B578" s="24" t="s">
         <v>1113</v>
       </c>
-      <c r="C578" s="31" t="s">
-        <v>1696</v>
+      <c r="C578" s="20" t="s">
+        <v>2300</v>
       </c>
       <c r="D578" s="29"/>
       <c r="E578" s="29" t="s">
@@ -23099,8 +23101,8 @@
       <c r="B579" s="24" t="s">
         <v>1114</v>
       </c>
-      <c r="C579" s="31" t="s">
-        <v>1697</v>
+      <c r="C579" s="20" t="s">
+        <v>2299</v>
       </c>
       <c r="D579" s="29"/>
       <c r="E579" s="29" t="s">
@@ -23124,8 +23126,8 @@
       <c r="B580" s="24" t="s">
         <v>1115</v>
       </c>
-      <c r="C580" s="31" t="s">
-        <v>1698</v>
+      <c r="C580" s="20" t="s">
+        <v>2301</v>
       </c>
       <c r="D580" s="29"/>
       <c r="E580" s="29" t="s">
@@ -23150,7 +23152,7 @@
         <v>1115</v>
       </c>
       <c r="C581" s="31" t="s">
-        <v>1699</v>
+        <v>1677</v>
       </c>
       <c r="D581" s="29"/>
       <c r="E581" s="29" t="s">
@@ -23166,7 +23168,7 @@
         <v>17</v>
       </c>
       <c r="I581" s="31" t="s">
-        <v>2201</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="582" spans="1:9">
@@ -23177,10 +23179,10 @@
         <v>1115</v>
       </c>
       <c r="C582" s="31" t="s">
-        <v>1700</v>
+        <v>1678</v>
       </c>
       <c r="D582" s="29" t="s">
-        <v>2144</v>
+        <v>2103</v>
       </c>
       <c r="E582" s="29" t="s">
         <v>19</v>
@@ -23204,7 +23206,7 @@
         <v>1115</v>
       </c>
       <c r="C583" s="31" t="s">
-        <v>1701</v>
+        <v>1679</v>
       </c>
       <c r="D583" s="29"/>
       <c r="E583" s="29" t="s">
@@ -23229,7 +23231,7 @@
         <v>1115</v>
       </c>
       <c r="C584" s="31" t="s">
-        <v>1702</v>
+        <v>1680</v>
       </c>
       <c r="D584" s="29"/>
       <c r="E584" s="29" t="s">
@@ -23254,7 +23256,7 @@
         <v>1115</v>
       </c>
       <c r="C585" s="31" t="s">
-        <v>1703</v>
+        <v>1681</v>
       </c>
       <c r="D585" s="29"/>
       <c r="E585" s="29" t="s">
@@ -23278,8 +23280,8 @@
       <c r="B586" s="24" t="s">
         <v>1116</v>
       </c>
-      <c r="C586" s="31" t="s">
-        <v>1704</v>
+      <c r="C586" s="20" t="s">
+        <v>2302</v>
       </c>
       <c r="D586" s="29"/>
       <c r="E586" s="29" t="s">
@@ -23304,7 +23306,7 @@
         <v>1116</v>
       </c>
       <c r="C587" s="31" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="D587" s="29"/>
       <c r="E587" s="29" t="s">
@@ -23329,7 +23331,7 @@
         <v>1116</v>
       </c>
       <c r="C588" s="31" t="s">
-        <v>1706</v>
+        <v>1683</v>
       </c>
       <c r="D588" s="29"/>
       <c r="E588" s="29" t="s">
@@ -23354,7 +23356,7 @@
         <v>1116</v>
       </c>
       <c r="C589" s="31" t="s">
-        <v>1707</v>
+        <v>1684</v>
       </c>
       <c r="D589" s="29"/>
       <c r="E589" s="29" t="s">
@@ -23378,8 +23380,8 @@
       <c r="B590" s="24" t="s">
         <v>1117</v>
       </c>
-      <c r="C590" s="31" t="s">
-        <v>1708</v>
+      <c r="C590" s="20" t="s">
+        <v>2303</v>
       </c>
       <c r="D590" s="29"/>
       <c r="E590" s="29" t="s">
@@ -23404,7 +23406,7 @@
         <v>1117</v>
       </c>
       <c r="C591" s="31" t="s">
-        <v>1709</v>
+        <v>1685</v>
       </c>
       <c r="D591" s="29"/>
       <c r="E591" s="29" t="s">
@@ -23429,7 +23431,7 @@
         <v>1117</v>
       </c>
       <c r="C592" s="31" t="s">
-        <v>1710</v>
+        <v>1686</v>
       </c>
       <c r="D592" s="29"/>
       <c r="E592" s="29" t="s">
@@ -23451,10 +23453,10 @@
         <v>605</v>
       </c>
       <c r="B593" s="24" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C593" s="31" t="s">
-        <v>1711</v>
+        <v>2258</v>
+      </c>
+      <c r="C593" s="20" t="s">
+        <v>2304</v>
       </c>
       <c r="D593" s="29"/>
       <c r="E593" s="29" t="s">
@@ -23476,10 +23478,10 @@
         <v>606</v>
       </c>
       <c r="B594" s="24" t="s">
-        <v>2299</v>
+        <v>2258</v>
       </c>
       <c r="C594" s="31" t="s">
-        <v>1712</v>
+        <v>1687</v>
       </c>
       <c r="D594" s="29"/>
       <c r="E594" s="29" t="s">
@@ -23501,10 +23503,10 @@
         <v>607</v>
       </c>
       <c r="B595" s="24" t="s">
-        <v>2299</v>
+        <v>2258</v>
       </c>
       <c r="C595" s="31" t="s">
-        <v>1713</v>
+        <v>1688</v>
       </c>
       <c r="D595" s="29"/>
       <c r="E595" s="29" t="s">
@@ -23520,7 +23522,7 @@
         <v>17</v>
       </c>
       <c r="I595" s="31" t="s">
-        <v>2202</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="596" spans="1:9">
@@ -23528,13 +23530,13 @@
         <v>608</v>
       </c>
       <c r="B596" s="24" t="s">
-        <v>2299</v>
+        <v>2258</v>
       </c>
       <c r="C596" s="31" t="s">
-        <v>1714</v>
+        <v>1689</v>
       </c>
       <c r="D596" s="29" t="s">
-        <v>2145</v>
+        <v>2104</v>
       </c>
       <c r="E596" s="29" t="s">
         <v>19</v>
@@ -23555,10 +23557,10 @@
         <v>609</v>
       </c>
       <c r="B597" s="24" t="s">
-        <v>2299</v>
+        <v>2258</v>
       </c>
       <c r="C597" s="31" t="s">
-        <v>1715</v>
+        <v>1690</v>
       </c>
       <c r="D597" s="29"/>
       <c r="E597" s="29" t="s">
@@ -23580,10 +23582,10 @@
         <v>610</v>
       </c>
       <c r="B598" s="24" t="s">
-        <v>2299</v>
+        <v>2258</v>
       </c>
       <c r="C598" s="31" t="s">
-        <v>1716</v>
+        <v>1691</v>
       </c>
       <c r="D598" s="29"/>
       <c r="E598" s="29" t="s">
@@ -23605,10 +23607,10 @@
         <v>611</v>
       </c>
       <c r="B599" s="24" t="s">
-        <v>2300</v>
-      </c>
-      <c r="C599" s="31" t="s">
-        <v>1717</v>
+        <v>2259</v>
+      </c>
+      <c r="C599" s="20" t="s">
+        <v>2305</v>
       </c>
       <c r="D599" s="29"/>
       <c r="E599" s="29" t="s">
@@ -23630,10 +23632,10 @@
         <v>612</v>
       </c>
       <c r="B600" s="24" t="s">
-        <v>2301</v>
-      </c>
-      <c r="C600" s="31" t="s">
-        <v>1718</v>
+        <v>2260</v>
+      </c>
+      <c r="C600" s="20" t="s">
+        <v>2306</v>
       </c>
       <c r="D600" s="29"/>
       <c r="E600" s="29" t="s">
@@ -23658,7 +23660,7 @@
         <v>1118</v>
       </c>
       <c r="C601" s="31" t="s">
-        <v>1719</v>
+        <v>1692</v>
       </c>
       <c r="D601" s="29"/>
       <c r="E601" s="29" t="s">
@@ -23683,7 +23685,7 @@
         <v>1118</v>
       </c>
       <c r="C602" s="31" t="s">
-        <v>1720</v>
+        <v>1693</v>
       </c>
       <c r="D602" s="29"/>
       <c r="E602" s="29" t="s">
@@ -23708,7 +23710,7 @@
         <v>1118</v>
       </c>
       <c r="C603" s="31" t="s">
-        <v>1721</v>
+        <v>1694</v>
       </c>
       <c r="D603" s="29"/>
       <c r="E603" s="29" t="s">
@@ -23733,7 +23735,7 @@
         <v>1118</v>
       </c>
       <c r="C604" s="31" t="s">
-        <v>1722</v>
+        <v>1695</v>
       </c>
       <c r="D604" s="29"/>
       <c r="E604" s="29" t="s">
@@ -23758,7 +23760,7 @@
         <v>1118</v>
       </c>
       <c r="C605" s="31" t="s">
-        <v>1723</v>
+        <v>1696</v>
       </c>
       <c r="D605" s="29"/>
       <c r="E605" s="29" t="s">
@@ -23783,7 +23785,7 @@
         <v>1118</v>
       </c>
       <c r="C606" s="31" t="s">
-        <v>1724</v>
+        <v>1697</v>
       </c>
       <c r="D606" s="29"/>
       <c r="E606" s="29" t="s">
@@ -23808,7 +23810,7 @@
         <v>1118</v>
       </c>
       <c r="C607" s="31" t="s">
-        <v>1725</v>
+        <v>1698</v>
       </c>
       <c r="D607" s="29"/>
       <c r="E607" s="29" t="s">
@@ -23832,8 +23834,8 @@
       <c r="B608" s="30" t="s">
         <v>1118</v>
       </c>
-      <c r="C608" s="31" t="s">
-        <v>1726</v>
+      <c r="C608" s="20" t="s">
+        <v>2307</v>
       </c>
       <c r="D608" s="29"/>
       <c r="E608" s="29" t="s">
@@ -23858,7 +23860,7 @@
         <v>1118</v>
       </c>
       <c r="C609" s="31" t="s">
-        <v>1727</v>
+        <v>1699</v>
       </c>
       <c r="D609" s="29"/>
       <c r="E609" s="29" t="s">
@@ -23883,7 +23885,7 @@
         <v>1118</v>
       </c>
       <c r="C610" s="31" t="s">
-        <v>1728</v>
+        <v>1700</v>
       </c>
       <c r="D610" s="29"/>
       <c r="E610" s="29" t="s">
@@ -23908,7 +23910,7 @@
         <v>1118</v>
       </c>
       <c r="C611" s="31" t="s">
-        <v>1729</v>
+        <v>1701</v>
       </c>
       <c r="D611" s="29"/>
       <c r="E611" s="29" t="s">
@@ -23933,7 +23935,7 @@
         <v>1118</v>
       </c>
       <c r="C612" s="31" t="s">
-        <v>1730</v>
+        <v>1702</v>
       </c>
       <c r="D612" s="29"/>
       <c r="E612" s="29" t="s">
@@ -23958,7 +23960,7 @@
         <v>1119</v>
       </c>
       <c r="C613" s="31" t="s">
-        <v>1731</v>
+        <v>1703</v>
       </c>
       <c r="D613" s="29"/>
       <c r="E613" s="29" t="s">
@@ -23983,7 +23985,7 @@
         <v>1119</v>
       </c>
       <c r="C614" s="31" t="s">
-        <v>1732</v>
+        <v>1704</v>
       </c>
       <c r="D614" s="29"/>
       <c r="E614" s="29" t="s">
@@ -24008,7 +24010,7 @@
         <v>33</v>
       </c>
       <c r="C615" s="31" t="s">
-        <v>1733</v>
+        <v>1705</v>
       </c>
       <c r="D615" s="29"/>
       <c r="E615" s="29" t="s">
@@ -24033,7 +24035,7 @@
         <v>33</v>
       </c>
       <c r="C616" s="31" t="s">
-        <v>1734</v>
+        <v>1706</v>
       </c>
       <c r="D616" s="29"/>
       <c r="E616" s="29" t="s">
@@ -24058,7 +24060,7 @@
         <v>33</v>
       </c>
       <c r="C617" s="31" t="s">
-        <v>1735</v>
+        <v>1707</v>
       </c>
       <c r="D617" s="29"/>
       <c r="E617" s="29" t="s">
@@ -24083,7 +24085,7 @@
         <v>33</v>
       </c>
       <c r="C618" s="31" t="s">
-        <v>1736</v>
+        <v>1708</v>
       </c>
       <c r="D618" s="29"/>
       <c r="E618" s="29" t="s">
@@ -24108,7 +24110,7 @@
         <v>33</v>
       </c>
       <c r="C619" s="31" t="s">
-        <v>1737</v>
+        <v>1709</v>
       </c>
       <c r="D619" s="29"/>
       <c r="E619" s="29" t="s">
@@ -24133,7 +24135,7 @@
         <v>33</v>
       </c>
       <c r="C620" s="31" t="s">
-        <v>1738</v>
+        <v>1710</v>
       </c>
       <c r="D620" s="29"/>
       <c r="E620" s="29" t="s">
@@ -24158,7 +24160,7 @@
         <v>34</v>
       </c>
       <c r="C621" s="31" t="s">
-        <v>1739</v>
+        <v>1711</v>
       </c>
       <c r="D621" s="29"/>
       <c r="E621" s="29" t="s">
@@ -24183,7 +24185,7 @@
         <v>34</v>
       </c>
       <c r="C622" s="31" t="s">
-        <v>1740</v>
+        <v>1712</v>
       </c>
       <c r="D622" s="29"/>
       <c r="E622" s="29" t="s">
@@ -24208,7 +24210,7 @@
         <v>34</v>
       </c>
       <c r="C623" s="31" t="s">
-        <v>1741</v>
+        <v>1713</v>
       </c>
       <c r="D623" s="29"/>
       <c r="E623" s="29" t="s">
@@ -24233,7 +24235,7 @@
         <v>1120</v>
       </c>
       <c r="C624" s="31" t="s">
-        <v>1742</v>
+        <v>1714</v>
       </c>
       <c r="D624" s="29"/>
       <c r="E624" s="29" t="s">
@@ -24258,7 +24260,7 @@
         <v>1120</v>
       </c>
       <c r="C625" s="31" t="s">
-        <v>1743</v>
+        <v>1715</v>
       </c>
       <c r="D625" s="29"/>
       <c r="E625" s="29" t="s">
@@ -24283,7 +24285,7 @@
         <v>1120</v>
       </c>
       <c r="C626" s="31" t="s">
-        <v>1744</v>
+        <v>1716</v>
       </c>
       <c r="D626" s="29"/>
       <c r="E626" s="29" t="s">
@@ -24308,7 +24310,7 @@
         <v>1120</v>
       </c>
       <c r="C627" s="31" t="s">
-        <v>1745</v>
+        <v>1717</v>
       </c>
       <c r="D627" s="29"/>
       <c r="E627" s="29" t="s">
@@ -24333,7 +24335,7 @@
         <v>1121</v>
       </c>
       <c r="C628" s="31" t="s">
-        <v>1746</v>
+        <v>1718</v>
       </c>
       <c r="D628" s="29"/>
       <c r="E628" s="29" t="s">
@@ -24358,7 +24360,7 @@
         <v>1121</v>
       </c>
       <c r="C629" s="31" t="s">
-        <v>1747</v>
+        <v>1719</v>
       </c>
       <c r="D629" s="29"/>
       <c r="E629" s="29" t="s">
@@ -24383,7 +24385,7 @@
         <v>1121</v>
       </c>
       <c r="C630" s="31" t="s">
-        <v>1748</v>
+        <v>1720</v>
       </c>
       <c r="D630" s="29"/>
       <c r="E630" s="29" t="s">
@@ -24408,7 +24410,7 @@
         <v>1122</v>
       </c>
       <c r="C631" s="31" t="s">
-        <v>1749</v>
+        <v>1721</v>
       </c>
       <c r="D631" s="29"/>
       <c r="E631" s="29" t="s">
@@ -24433,7 +24435,7 @@
         <v>1122</v>
       </c>
       <c r="C632" s="31" t="s">
-        <v>1750</v>
+        <v>1722</v>
       </c>
       <c r="D632" s="29"/>
       <c r="E632" s="29" t="s">
@@ -24458,7 +24460,7 @@
         <v>1122</v>
       </c>
       <c r="C633" s="31" t="s">
-        <v>1751</v>
+        <v>1723</v>
       </c>
       <c r="D633" s="29"/>
       <c r="E633" s="29" t="s">
@@ -24483,7 +24485,7 @@
         <v>1122</v>
       </c>
       <c r="C634" s="31" t="s">
-        <v>1752</v>
+        <v>1724</v>
       </c>
       <c r="D634" s="29"/>
       <c r="E634" s="29" t="s">
@@ -24508,7 +24510,7 @@
         <v>1122</v>
       </c>
       <c r="C635" s="31" t="s">
-        <v>1753</v>
+        <v>1725</v>
       </c>
       <c r="D635" s="29"/>
       <c r="E635" s="29" t="s">
@@ -24532,8 +24534,8 @@
       <c r="B636" s="30" t="s">
         <v>1122</v>
       </c>
-      <c r="C636" s="31" t="s">
-        <v>1754</v>
+      <c r="C636" s="20" t="s">
+        <v>2308</v>
       </c>
       <c r="D636" s="29"/>
       <c r="E636" s="29" t="s">
@@ -24558,7 +24560,7 @@
         <v>1122</v>
       </c>
       <c r="C637" s="31" t="s">
-        <v>1755</v>
+        <v>1726</v>
       </c>
       <c r="D637" s="29"/>
       <c r="E637" s="29" t="s">
@@ -24583,7 +24585,7 @@
         <v>1122</v>
       </c>
       <c r="C638" s="31" t="s">
-        <v>1756</v>
+        <v>1727</v>
       </c>
       <c r="D638" s="29"/>
       <c r="E638" s="29" t="s">
@@ -24608,7 +24610,7 @@
         <v>1122</v>
       </c>
       <c r="C639" s="31" t="s">
-        <v>1757</v>
+        <v>1728</v>
       </c>
       <c r="D639" s="29"/>
       <c r="E639" s="29" t="s">
@@ -24633,7 +24635,7 @@
         <v>1122</v>
       </c>
       <c r="C640" s="31" t="s">
-        <v>1758</v>
+        <v>1729</v>
       </c>
       <c r="D640" s="29"/>
       <c r="E640" s="29" t="s">
@@ -24658,7 +24660,7 @@
         <v>1123</v>
       </c>
       <c r="C641" s="31" t="s">
-        <v>1759</v>
+        <v>1730</v>
       </c>
       <c r="D641" s="29"/>
       <c r="E641" s="29" t="s">
@@ -24683,7 +24685,7 @@
         <v>1123</v>
       </c>
       <c r="C642" s="31" t="s">
-        <v>1760</v>
+        <v>1731</v>
       </c>
       <c r="D642" s="29"/>
       <c r="E642" s="29" t="s">
@@ -24708,7 +24710,7 @@
         <v>1123</v>
       </c>
       <c r="C643" s="31" t="s">
-        <v>1761</v>
+        <v>1732</v>
       </c>
       <c r="D643" s="29"/>
       <c r="E643" s="29" t="s">
@@ -24733,7 +24735,7 @@
         <v>1123</v>
       </c>
       <c r="C644" s="31" t="s">
-        <v>1762</v>
+        <v>1733</v>
       </c>
       <c r="D644" s="29"/>
       <c r="E644" s="29" t="s">
@@ -24757,8 +24759,8 @@
       <c r="B645" s="30" t="s">
         <v>1123</v>
       </c>
-      <c r="C645" s="31" t="s">
-        <v>1763</v>
+      <c r="C645" s="20" t="s">
+        <v>2309</v>
       </c>
       <c r="D645" s="29"/>
       <c r="E645" s="29" t="s">
@@ -24783,7 +24785,7 @@
         <v>1123</v>
       </c>
       <c r="C646" s="31" t="s">
-        <v>1764</v>
+        <v>1734</v>
       </c>
       <c r="D646" s="29"/>
       <c r="E646" s="29" t="s">
@@ -24807,8 +24809,8 @@
       <c r="B647" s="30" t="s">
         <v>1123</v>
       </c>
-      <c r="C647" s="31" t="s">
-        <v>1765</v>
+      <c r="C647" s="20" t="s">
+        <v>2310</v>
       </c>
       <c r="D647" s="29"/>
       <c r="E647" s="29" t="s">
@@ -24833,7 +24835,7 @@
         <v>1123</v>
       </c>
       <c r="C648" s="31" t="s">
-        <v>1766</v>
+        <v>1735</v>
       </c>
       <c r="D648" s="29"/>
       <c r="E648" s="29" t="s">
@@ -24858,7 +24860,7 @@
         <v>1123</v>
       </c>
       <c r="C649" s="31" t="s">
-        <v>1767</v>
+        <v>1736</v>
       </c>
       <c r="D649" s="29"/>
       <c r="E649" s="29" t="s">
@@ -24883,7 +24885,7 @@
         <v>1123</v>
       </c>
       <c r="C650" s="31" t="s">
-        <v>1768</v>
+        <v>1737</v>
       </c>
       <c r="D650" s="29"/>
       <c r="E650" s="29" t="s">
@@ -24908,7 +24910,7 @@
         <v>1124</v>
       </c>
       <c r="C651" s="31" t="s">
-        <v>1769</v>
+        <v>1738</v>
       </c>
       <c r="D651" s="29"/>
       <c r="E651" s="29" t="s">
@@ -24933,7 +24935,7 @@
         <v>1124</v>
       </c>
       <c r="C652" s="31" t="s">
-        <v>1770</v>
+        <v>1739</v>
       </c>
       <c r="D652" s="29"/>
       <c r="E652" s="29" t="s">
@@ -24958,7 +24960,7 @@
         <v>1124</v>
       </c>
       <c r="C653" s="31" t="s">
-        <v>1771</v>
+        <v>1740</v>
       </c>
       <c r="D653" s="29"/>
       <c r="E653" s="29" t="s">
@@ -24983,7 +24985,7 @@
         <v>1124</v>
       </c>
       <c r="C654" s="31" t="s">
-        <v>1772</v>
+        <v>1741</v>
       </c>
       <c r="D654" s="29"/>
       <c r="E654" s="29" t="s">
@@ -25008,7 +25010,7 @@
         <v>1124</v>
       </c>
       <c r="C655" s="31" t="s">
-        <v>1773</v>
+        <v>1742</v>
       </c>
       <c r="D655" s="29"/>
       <c r="E655" s="29" t="s">
@@ -25033,7 +25035,7 @@
         <v>1124</v>
       </c>
       <c r="C656" s="31" t="s">
-        <v>1774</v>
+        <v>1743</v>
       </c>
       <c r="D656" s="29"/>
       <c r="E656" s="29" t="s">
@@ -25058,7 +25060,7 @@
         <v>1124</v>
       </c>
       <c r="C657" s="31" t="s">
-        <v>1775</v>
+        <v>1744</v>
       </c>
       <c r="D657" s="29"/>
       <c r="E657" s="29" t="s">
@@ -25083,7 +25085,7 @@
         <v>1124</v>
       </c>
       <c r="C658" s="31" t="s">
-        <v>1776</v>
+        <v>1745</v>
       </c>
       <c r="D658" s="29"/>
       <c r="E658" s="29" t="s">
@@ -25108,7 +25110,7 @@
         <v>1124</v>
       </c>
       <c r="C659" s="31" t="s">
-        <v>1777</v>
+        <v>1746</v>
       </c>
       <c r="D659" s="29"/>
       <c r="E659" s="29" t="s">
@@ -25133,7 +25135,7 @@
         <v>1124</v>
       </c>
       <c r="C660" s="31" t="s">
-        <v>1778</v>
+        <v>1747</v>
       </c>
       <c r="D660" s="29"/>
       <c r="E660" s="29" t="s">
@@ -25158,7 +25160,7 @@
         <v>1124</v>
       </c>
       <c r="C661" s="31" t="s">
-        <v>1779</v>
+        <v>1748</v>
       </c>
       <c r="D661" s="29"/>
       <c r="E661" s="29" t="s">
@@ -25183,7 +25185,7 @@
         <v>1124</v>
       </c>
       <c r="C662" s="31" t="s">
-        <v>1780</v>
+        <v>1749</v>
       </c>
       <c r="D662" s="29"/>
       <c r="E662" s="29" t="s">
@@ -25208,7 +25210,7 @@
         <v>1124</v>
       </c>
       <c r="C663" s="31" t="s">
-        <v>1781</v>
+        <v>1750</v>
       </c>
       <c r="D663" s="29"/>
       <c r="E663" s="29" t="s">
@@ -25233,7 +25235,7 @@
         <v>1124</v>
       </c>
       <c r="C664" s="31" t="s">
-        <v>1782</v>
+        <v>1751</v>
       </c>
       <c r="D664" s="29"/>
       <c r="E664" s="29" t="s">
@@ -25258,7 +25260,7 @@
         <v>1124</v>
       </c>
       <c r="C665" s="31" t="s">
-        <v>1783</v>
+        <v>1752</v>
       </c>
       <c r="D665" s="29"/>
       <c r="E665" s="29" t="s">
@@ -25283,7 +25285,7 @@
         <v>1124</v>
       </c>
       <c r="C666" s="31" t="s">
-        <v>1784</v>
+        <v>1753</v>
       </c>
       <c r="D666" s="29"/>
       <c r="E666" s="29" t="s">
@@ -25308,7 +25310,7 @@
         <v>1124</v>
       </c>
       <c r="C667" s="31" t="s">
-        <v>1785</v>
+        <v>1754</v>
       </c>
       <c r="D667" s="29"/>
       <c r="E667" s="29" t="s">
@@ -25333,7 +25335,7 @@
         <v>1125</v>
       </c>
       <c r="C668" s="31" t="s">
-        <v>1786</v>
+        <v>1755</v>
       </c>
       <c r="D668" s="29"/>
       <c r="E668" s="29" t="s">
@@ -25358,7 +25360,7 @@
         <v>1126</v>
       </c>
       <c r="C669" s="31" t="s">
-        <v>1787</v>
+        <v>1756</v>
       </c>
       <c r="D669" s="29"/>
       <c r="E669" s="29" t="s">
@@ -25383,7 +25385,7 @@
         <v>1126</v>
       </c>
       <c r="C670" s="31" t="s">
-        <v>1788</v>
+        <v>1757</v>
       </c>
       <c r="D670" s="29"/>
       <c r="E670" s="29" t="s">
@@ -25408,7 +25410,7 @@
         <v>1126</v>
       </c>
       <c r="C671" s="31" t="s">
-        <v>1789</v>
+        <v>1758</v>
       </c>
       <c r="D671" s="29"/>
       <c r="E671" s="29" t="s">
@@ -25433,7 +25435,7 @@
         <v>1126</v>
       </c>
       <c r="C672" s="31" t="s">
-        <v>1790</v>
+        <v>1759</v>
       </c>
       <c r="D672" s="29"/>
       <c r="E672" s="29" t="s">
@@ -25458,7 +25460,7 @@
         <v>1126</v>
       </c>
       <c r="C673" s="31" t="s">
-        <v>1791</v>
+        <v>1760</v>
       </c>
       <c r="D673" s="29"/>
       <c r="E673" s="29" t="s">
@@ -25483,10 +25485,10 @@
         <v>1126</v>
       </c>
       <c r="C674" s="31" t="s">
-        <v>1792</v>
+        <v>1761</v>
       </c>
       <c r="D674" s="29" t="s">
-        <v>2146</v>
+        <v>2105</v>
       </c>
       <c r="E674" s="29" t="s">
         <v>19</v>
@@ -25510,10 +25512,10 @@
         <v>1126</v>
       </c>
       <c r="C675" s="31" t="s">
-        <v>1793</v>
+        <v>1762</v>
       </c>
       <c r="D675" s="29" t="s">
-        <v>2146</v>
+        <v>2105</v>
       </c>
       <c r="E675" s="29" t="s">
         <v>19</v>
@@ -25537,10 +25539,10 @@
         <v>1126</v>
       </c>
       <c r="C676" s="31" t="s">
-        <v>1794</v>
+        <v>1763</v>
       </c>
       <c r="D676" s="29" t="s">
-        <v>2146</v>
+        <v>2105</v>
       </c>
       <c r="E676" s="29" t="s">
         <v>19</v>
@@ -25555,7 +25557,7 @@
         <v>21</v>
       </c>
       <c r="I676" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="677" spans="1:9" ht="30">
@@ -25566,7 +25568,7 @@
         <v>1126</v>
       </c>
       <c r="C677" s="31" t="s">
-        <v>1795</v>
+        <v>1764</v>
       </c>
       <c r="D677" s="29"/>
       <c r="E677" s="29" t="s">
@@ -25591,7 +25593,7 @@
         <v>1126</v>
       </c>
       <c r="C678" s="31" t="s">
-        <v>1796</v>
+        <v>1765</v>
       </c>
       <c r="D678" s="29"/>
       <c r="E678" s="29" t="s">
@@ -25616,7 +25618,7 @@
         <v>1126</v>
       </c>
       <c r="C679" s="31" t="s">
-        <v>1797</v>
+        <v>1766</v>
       </c>
       <c r="D679" s="29"/>
       <c r="E679" s="29" t="s">
@@ -25641,7 +25643,7 @@
         <v>1126</v>
       </c>
       <c r="C680" s="31" t="s">
-        <v>1798</v>
+        <v>1767</v>
       </c>
       <c r="D680" s="29"/>
       <c r="E680" s="29" t="s">
@@ -25666,7 +25668,7 @@
         <v>1126</v>
       </c>
       <c r="C681" s="31" t="s">
-        <v>1799</v>
+        <v>1768</v>
       </c>
       <c r="D681" s="29"/>
       <c r="E681" s="29" t="s">
@@ -25691,7 +25693,7 @@
         <v>1126</v>
       </c>
       <c r="C682" s="31" t="s">
-        <v>1800</v>
+        <v>1769</v>
       </c>
       <c r="D682" s="29"/>
       <c r="E682" s="29" t="s">
@@ -25716,7 +25718,7 @@
         <v>1126</v>
       </c>
       <c r="C683" s="31" t="s">
-        <v>1801</v>
+        <v>1770</v>
       </c>
       <c r="D683" s="29"/>
       <c r="E683" s="29" t="s">
@@ -25741,7 +25743,7 @@
         <v>1126</v>
       </c>
       <c r="C684" s="31" t="s">
-        <v>1802</v>
+        <v>1771</v>
       </c>
       <c r="D684" s="29"/>
       <c r="E684" s="29" t="s">
@@ -25766,7 +25768,7 @@
         <v>1126</v>
       </c>
       <c r="C685" s="31" t="s">
-        <v>1803</v>
+        <v>1772</v>
       </c>
       <c r="D685" s="29"/>
       <c r="E685" s="29" t="s">
@@ -25791,7 +25793,7 @@
         <v>1126</v>
       </c>
       <c r="C686" s="31" t="s">
-        <v>1804</v>
+        <v>1773</v>
       </c>
       <c r="D686" s="29"/>
       <c r="E686" s="29" t="s">
@@ -25816,7 +25818,7 @@
         <v>1126</v>
       </c>
       <c r="C687" s="31" t="s">
-        <v>1805</v>
+        <v>1774</v>
       </c>
       <c r="D687" s="29"/>
       <c r="E687" s="29" t="s">
@@ -25832,7 +25834,7 @@
         <v>17</v>
       </c>
       <c r="I687" s="31" t="s">
-        <v>2203</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="688" spans="1:9" ht="30">
@@ -25843,7 +25845,7 @@
         <v>1127</v>
       </c>
       <c r="C688" s="31" t="s">
-        <v>1806</v>
+        <v>1775</v>
       </c>
       <c r="D688" s="29"/>
       <c r="E688" s="29" t="s">
@@ -25868,7 +25870,7 @@
         <v>1127</v>
       </c>
       <c r="C689" s="31" t="s">
-        <v>1807</v>
+        <v>1776</v>
       </c>
       <c r="D689" s="29"/>
       <c r="E689" s="29" t="s">
@@ -25887,13 +25889,13 @@
     </row>
     <row r="690" spans="1:9" ht="45">
       <c r="A690" s="29" t="s">
-        <v>2275</v>
+        <v>2234</v>
       </c>
       <c r="B690" s="30" t="s">
         <v>1127</v>
       </c>
       <c r="C690" s="31" t="s">
-        <v>2273</v>
+        <v>2232</v>
       </c>
       <c r="D690" s="29"/>
       <c r="E690" s="29" t="s">
@@ -25912,13 +25914,13 @@
     </row>
     <row r="691" spans="1:9" ht="45">
       <c r="A691" s="29" t="s">
-        <v>2276</v>
+        <v>2235</v>
       </c>
       <c r="B691" s="30" t="s">
         <v>1127</v>
       </c>
       <c r="C691" s="31" t="s">
-        <v>2274</v>
+        <v>2233</v>
       </c>
       <c r="D691" s="29"/>
       <c r="E691" s="29" t="s">
@@ -25943,7 +25945,7 @@
         <v>1127</v>
       </c>
       <c r="C692" s="31" t="s">
-        <v>1808</v>
+        <v>1777</v>
       </c>
       <c r="D692" s="29"/>
       <c r="E692" s="29" t="s">
@@ -25968,7 +25970,7 @@
         <v>1127</v>
       </c>
       <c r="C693" s="31" t="s">
-        <v>1809</v>
+        <v>1778</v>
       </c>
       <c r="D693" s="29"/>
       <c r="E693" s="29" t="s">
@@ -25993,7 +25995,7 @@
         <v>1127</v>
       </c>
       <c r="C694" s="31" t="s">
-        <v>1810</v>
+        <v>1779</v>
       </c>
       <c r="D694" s="29"/>
       <c r="E694" s="29" t="s">
@@ -26018,7 +26020,7 @@
         <v>1127</v>
       </c>
       <c r="C695" s="31" t="s">
-        <v>1811</v>
+        <v>1780</v>
       </c>
       <c r="D695" s="29"/>
       <c r="E695" s="29" t="s">
@@ -26043,7 +26045,7 @@
         <v>1128</v>
       </c>
       <c r="C696" s="31" t="s">
-        <v>1812</v>
+        <v>1781</v>
       </c>
       <c r="D696" s="29"/>
       <c r="E696" s="29" t="s">
@@ -26068,7 +26070,7 @@
         <v>1128</v>
       </c>
       <c r="C697" s="31" t="s">
-        <v>1813</v>
+        <v>1782</v>
       </c>
       <c r="D697" s="29"/>
       <c r="E697" s="29" t="s">
@@ -26093,7 +26095,7 @@
         <v>1128</v>
       </c>
       <c r="C698" s="31" t="s">
-        <v>1814</v>
+        <v>1783</v>
       </c>
       <c r="D698" s="29"/>
       <c r="E698" s="29" t="s">
@@ -26118,7 +26120,7 @@
         <v>1128</v>
       </c>
       <c r="C699" s="31" t="s">
-        <v>1815</v>
+        <v>1784</v>
       </c>
       <c r="D699" s="29"/>
       <c r="E699" s="29" t="s">
@@ -26143,7 +26145,7 @@
         <v>1128</v>
       </c>
       <c r="C700" s="31" t="s">
-        <v>1816</v>
+        <v>1785</v>
       </c>
       <c r="D700" s="29"/>
       <c r="E700" s="29" t="s">
@@ -26168,7 +26170,7 @@
         <v>1129</v>
       </c>
       <c r="C701" s="31" t="s">
-        <v>1817</v>
+        <v>1786</v>
       </c>
       <c r="D701" s="29"/>
       <c r="E701" s="29" t="s">
@@ -26193,7 +26195,7 @@
         <v>1129</v>
       </c>
       <c r="C702" s="31" t="s">
-        <v>1818</v>
+        <v>1787</v>
       </c>
       <c r="D702" s="29"/>
       <c r="E702" s="29" t="s">
@@ -26218,7 +26220,7 @@
         <v>1129</v>
       </c>
       <c r="C703" s="31" t="s">
-        <v>1819</v>
+        <v>1788</v>
       </c>
       <c r="D703" s="29"/>
       <c r="E703" s="29" t="s">
@@ -26243,7 +26245,7 @@
         <v>1129</v>
       </c>
       <c r="C704" s="31" t="s">
-        <v>1820</v>
+        <v>1789</v>
       </c>
       <c r="D704" s="29"/>
       <c r="E704" s="29" t="s">
@@ -26268,7 +26270,7 @@
         <v>1129</v>
       </c>
       <c r="C705" s="31" t="s">
-        <v>1821</v>
+        <v>1790</v>
       </c>
       <c r="D705" s="29"/>
       <c r="E705" s="29" t="s">
@@ -26293,7 +26295,7 @@
         <v>1129</v>
       </c>
       <c r="C706" s="31" t="s">
-        <v>1822</v>
+        <v>1791</v>
       </c>
       <c r="D706" s="29"/>
       <c r="E706" s="29" t="s">
@@ -26318,7 +26320,7 @@
         <v>1129</v>
       </c>
       <c r="C707" s="31" t="s">
-        <v>1823</v>
+        <v>1792</v>
       </c>
       <c r="D707" s="29"/>
       <c r="E707" s="29" t="s">
@@ -26343,7 +26345,7 @@
         <v>1129</v>
       </c>
       <c r="C708" s="31" t="s">
-        <v>1824</v>
+        <v>1793</v>
       </c>
       <c r="D708" s="29"/>
       <c r="E708" s="29" t="s">
@@ -26368,7 +26370,7 @@
         <v>1129</v>
       </c>
       <c r="C709" s="31" t="s">
-        <v>1825</v>
+        <v>1794</v>
       </c>
       <c r="D709" s="29"/>
       <c r="E709" s="29" t="s">
@@ -26393,7 +26395,7 @@
         <v>1129</v>
       </c>
       <c r="C710" s="31" t="s">
-        <v>1826</v>
+        <v>1795</v>
       </c>
       <c r="D710" s="29"/>
       <c r="E710" s="29" t="s">
@@ -26418,7 +26420,7 @@
         <v>1129</v>
       </c>
       <c r="C711" s="31" t="s">
-        <v>1827</v>
+        <v>1796</v>
       </c>
       <c r="D711" s="29"/>
       <c r="E711" s="29" t="s">
@@ -26443,7 +26445,7 @@
         <v>1129</v>
       </c>
       <c r="C712" s="31" t="s">
-        <v>1828</v>
+        <v>1797</v>
       </c>
       <c r="D712" s="29"/>
       <c r="E712" s="29" t="s">
@@ -26468,7 +26470,7 @@
         <v>1129</v>
       </c>
       <c r="C713" s="31" t="s">
-        <v>1829</v>
+        <v>1798</v>
       </c>
       <c r="D713" s="29"/>
       <c r="E713" s="29" t="s">
@@ -26493,7 +26495,7 @@
         <v>1129</v>
       </c>
       <c r="C714" s="31" t="s">
-        <v>1830</v>
+        <v>1799</v>
       </c>
       <c r="D714" s="29"/>
       <c r="E714" s="29" t="s">
@@ -26518,7 +26520,7 @@
         <v>1129</v>
       </c>
       <c r="C715" s="31" t="s">
-        <v>1831</v>
+        <v>1800</v>
       </c>
       <c r="D715" s="29"/>
       <c r="E715" s="29" t="s">
@@ -26543,7 +26545,7 @@
         <v>1129</v>
       </c>
       <c r="C716" s="31" t="s">
-        <v>1832</v>
+        <v>1801</v>
       </c>
       <c r="D716" s="29"/>
       <c r="E716" s="29" t="s">
@@ -26568,7 +26570,7 @@
         <v>1129</v>
       </c>
       <c r="C717" s="31" t="s">
-        <v>1833</v>
+        <v>1802</v>
       </c>
       <c r="D717" s="29"/>
       <c r="E717" s="29" t="s">
@@ -26593,7 +26595,7 @@
         <v>1129</v>
       </c>
       <c r="C718" s="31" t="s">
-        <v>1834</v>
+        <v>1803</v>
       </c>
       <c r="D718" s="29"/>
       <c r="E718" s="29" t="s">
@@ -26618,7 +26620,7 @@
         <v>1130</v>
       </c>
       <c r="C719" s="31" t="s">
-        <v>1835</v>
+        <v>1804</v>
       </c>
       <c r="D719" s="29"/>
       <c r="E719" s="29" t="s">
@@ -26643,7 +26645,7 @@
         <v>1130</v>
       </c>
       <c r="C720" s="31" t="s">
-        <v>1836</v>
+        <v>1805</v>
       </c>
       <c r="D720" s="29"/>
       <c r="E720" s="29" t="s">
@@ -26668,7 +26670,7 @@
         <v>1130</v>
       </c>
       <c r="C721" s="31" t="s">
-        <v>1837</v>
+        <v>1806</v>
       </c>
       <c r="D721" s="29"/>
       <c r="E721" s="29" t="s">
@@ -26693,7 +26695,7 @@
         <v>1130</v>
       </c>
       <c r="C722" s="31" t="s">
-        <v>1838</v>
+        <v>1807</v>
       </c>
       <c r="D722" s="29"/>
       <c r="E722" s="29" t="s">
@@ -26718,7 +26720,7 @@
         <v>1130</v>
       </c>
       <c r="C723" s="31" t="s">
-        <v>1839</v>
+        <v>1808</v>
       </c>
       <c r="D723" s="29"/>
       <c r="E723" s="29" t="s">
@@ -26743,7 +26745,7 @@
         <v>1130</v>
       </c>
       <c r="C724" s="31" t="s">
-        <v>1840</v>
+        <v>1809</v>
       </c>
       <c r="D724" s="29"/>
       <c r="E724" s="29" t="s">
@@ -26768,7 +26770,7 @@
         <v>1130</v>
       </c>
       <c r="C725" s="31" t="s">
-        <v>1841</v>
+        <v>1810</v>
       </c>
       <c r="D725" s="29"/>
       <c r="E725" s="29" t="s">
@@ -26793,7 +26795,7 @@
         <v>1130</v>
       </c>
       <c r="C726" s="31" t="s">
-        <v>1842</v>
+        <v>1811</v>
       </c>
       <c r="D726" s="29"/>
       <c r="E726" s="29" t="s">
@@ -26809,7 +26811,7 @@
         <v>17</v>
       </c>
       <c r="I726" s="31" t="s">
-        <v>2204</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="727" spans="1:9" ht="30">
@@ -26820,7 +26822,7 @@
         <v>1130</v>
       </c>
       <c r="C727" s="31" t="s">
-        <v>1843</v>
+        <v>1812</v>
       </c>
       <c r="D727" s="29"/>
       <c r="E727" s="29" t="s">
@@ -26845,7 +26847,7 @@
         <v>1130</v>
       </c>
       <c r="C728" s="31" t="s">
-        <v>1844</v>
+        <v>1813</v>
       </c>
       <c r="D728" s="29"/>
       <c r="E728" s="29" t="s">
@@ -26870,7 +26872,7 @@
         <v>1130</v>
       </c>
       <c r="C729" s="31" t="s">
-        <v>1845</v>
+        <v>1814</v>
       </c>
       <c r="D729" s="29"/>
       <c r="E729" s="29" t="s">
@@ -26895,7 +26897,7 @@
         <v>1130</v>
       </c>
       <c r="C730" s="31" t="s">
-        <v>1846</v>
+        <v>1815</v>
       </c>
       <c r="D730" s="29"/>
       <c r="E730" s="29" t="s">
@@ -26920,7 +26922,7 @@
         <v>1130</v>
       </c>
       <c r="C731" s="31" t="s">
-        <v>1847</v>
+        <v>1816</v>
       </c>
       <c r="D731" s="29"/>
       <c r="E731" s="29" t="s">
@@ -26945,7 +26947,7 @@
         <v>1130</v>
       </c>
       <c r="C732" s="31" t="s">
-        <v>1848</v>
+        <v>1817</v>
       </c>
       <c r="D732" s="29"/>
       <c r="E732" s="29" t="s">
@@ -26970,7 +26972,7 @@
         <v>1130</v>
       </c>
       <c r="C733" s="31" t="s">
-        <v>1849</v>
+        <v>1818</v>
       </c>
       <c r="D733" s="29"/>
       <c r="E733" s="29" t="s">
@@ -26986,7 +26988,7 @@
         <v>20</v>
       </c>
       <c r="I733" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="734" spans="1:9" ht="45">
@@ -26997,7 +26999,7 @@
         <v>1131</v>
       </c>
       <c r="C734" s="31" t="s">
-        <v>1850</v>
+        <v>1819</v>
       </c>
       <c r="D734" s="29"/>
       <c r="E734" s="29" t="s">
@@ -27022,7 +27024,7 @@
         <v>1131</v>
       </c>
       <c r="C735" s="31" t="s">
-        <v>1851</v>
+        <v>1820</v>
       </c>
       <c r="D735" s="29"/>
       <c r="E735" s="29" t="s">
@@ -27047,7 +27049,7 @@
         <v>1131</v>
       </c>
       <c r="C736" s="31" t="s">
-        <v>1852</v>
+        <v>1821</v>
       </c>
       <c r="D736" s="29"/>
       <c r="E736" s="29" t="s">
@@ -27072,7 +27074,7 @@
         <v>1131</v>
       </c>
       <c r="C737" s="31" t="s">
-        <v>1853</v>
+        <v>1822</v>
       </c>
       <c r="D737" s="29"/>
       <c r="E737" s="29" t="s">
@@ -27097,7 +27099,7 @@
         <v>1131</v>
       </c>
       <c r="C738" s="31" t="s">
-        <v>1854</v>
+        <v>1823</v>
       </c>
       <c r="D738" s="29"/>
       <c r="E738" s="29" t="s">
@@ -27122,7 +27124,7 @@
         <v>1131</v>
       </c>
       <c r="C739" s="31" t="s">
-        <v>1855</v>
+        <v>1824</v>
       </c>
       <c r="D739" s="29"/>
       <c r="E739" s="29" t="s">
@@ -27147,7 +27149,7 @@
         <v>1131</v>
       </c>
       <c r="C740" s="31" t="s">
-        <v>1856</v>
+        <v>1825</v>
       </c>
       <c r="D740" s="29"/>
       <c r="E740" s="29" t="s">
@@ -27172,7 +27174,7 @@
         <v>1131</v>
       </c>
       <c r="C741" s="31" t="s">
-        <v>1857</v>
+        <v>1826</v>
       </c>
       <c r="D741" s="29"/>
       <c r="E741" s="29" t="s">
@@ -27197,7 +27199,7 @@
         <v>1131</v>
       </c>
       <c r="C742" s="31" t="s">
-        <v>1858</v>
+        <v>1827</v>
       </c>
       <c r="D742" s="29"/>
       <c r="E742" s="29" t="s">
@@ -27213,7 +27215,7 @@
         <v>17</v>
       </c>
       <c r="I742" s="31" t="s">
-        <v>2205</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="743" spans="1:9" ht="30">
@@ -27224,10 +27226,10 @@
         <v>1131</v>
       </c>
       <c r="C743" s="31" t="s">
-        <v>1859</v>
+        <v>1828</v>
       </c>
       <c r="D743" s="29" t="s">
-        <v>2147</v>
+        <v>2106</v>
       </c>
       <c r="E743" s="29" t="s">
         <v>19</v>
@@ -27251,7 +27253,7 @@
         <v>1132</v>
       </c>
       <c r="C744" s="31" t="s">
-        <v>1860</v>
+        <v>1829</v>
       </c>
       <c r="D744" s="29"/>
       <c r="E744" s="29" t="s">
@@ -27276,7 +27278,7 @@
         <v>1132</v>
       </c>
       <c r="C745" s="31" t="s">
-        <v>1861</v>
+        <v>1830</v>
       </c>
       <c r="D745" s="29"/>
       <c r="E745" s="29" t="s">
@@ -27301,7 +27303,7 @@
         <v>1132</v>
       </c>
       <c r="C746" s="31" t="s">
-        <v>1862</v>
+        <v>1831</v>
       </c>
       <c r="D746" s="29"/>
       <c r="E746" s="29" t="s">
@@ -27326,7 +27328,7 @@
         <v>1132</v>
       </c>
       <c r="C747" s="31" t="s">
-        <v>1863</v>
+        <v>1832</v>
       </c>
       <c r="D747" s="29"/>
       <c r="E747" s="29" t="s">
@@ -27351,7 +27353,7 @@
         <v>1132</v>
       </c>
       <c r="C748" s="31" t="s">
-        <v>1864</v>
+        <v>1833</v>
       </c>
       <c r="D748" s="29"/>
       <c r="E748" s="29" t="s">
@@ -27376,7 +27378,7 @@
         <v>1132</v>
       </c>
       <c r="C749" s="31" t="s">
-        <v>1865</v>
+        <v>1834</v>
       </c>
       <c r="D749" s="29"/>
       <c r="E749" s="29" t="s">
@@ -27401,7 +27403,7 @@
         <v>1132</v>
       </c>
       <c r="C750" s="31" t="s">
-        <v>1866</v>
+        <v>1835</v>
       </c>
       <c r="D750" s="29"/>
       <c r="E750" s="29" t="s">
@@ -27417,7 +27419,7 @@
         <v>17</v>
       </c>
       <c r="I750" s="31" t="s">
-        <v>2206</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="751" spans="1:9" ht="45">
@@ -27428,7 +27430,7 @@
         <v>1132</v>
       </c>
       <c r="C751" s="31" t="s">
-        <v>1867</v>
+        <v>1836</v>
       </c>
       <c r="D751" s="29"/>
       <c r="E751" s="29" t="s">
@@ -27453,7 +27455,7 @@
         <v>1132</v>
       </c>
       <c r="C752" s="31" t="s">
-        <v>1868</v>
+        <v>1837</v>
       </c>
       <c r="D752" s="29"/>
       <c r="E752" s="29" t="s">
@@ -27469,7 +27471,7 @@
         <v>17</v>
       </c>
       <c r="I752" s="31" t="s">
-        <v>2207</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="753" spans="1:9" ht="60">
@@ -27480,7 +27482,7 @@
         <v>1132</v>
       </c>
       <c r="C753" s="31" t="s">
-        <v>1869</v>
+        <v>1838</v>
       </c>
       <c r="D753" s="29"/>
       <c r="E753" s="29" t="s">
@@ -27505,7 +27507,7 @@
         <v>1132</v>
       </c>
       <c r="C754" s="31" t="s">
-        <v>1870</v>
+        <v>1839</v>
       </c>
       <c r="D754" s="29"/>
       <c r="E754" s="29" t="s">
@@ -27530,7 +27532,7 @@
         <v>1132</v>
       </c>
       <c r="C755" s="31" t="s">
-        <v>1871</v>
+        <v>1840</v>
       </c>
       <c r="D755" s="29"/>
       <c r="E755" s="29" t="s">
@@ -27555,7 +27557,7 @@
         <v>1132</v>
       </c>
       <c r="C756" s="31" t="s">
-        <v>1872</v>
+        <v>1841</v>
       </c>
       <c r="D756" s="29"/>
       <c r="E756" s="29" t="s">
@@ -27571,7 +27573,7 @@
         <v>17</v>
       </c>
       <c r="I756" s="31" t="s">
-        <v>2208</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="757" spans="1:9" ht="30">
@@ -27582,7 +27584,7 @@
         <v>1132</v>
       </c>
       <c r="C757" s="31" t="s">
-        <v>1873</v>
+        <v>1842</v>
       </c>
       <c r="D757" s="29"/>
       <c r="E757" s="29" t="s">
@@ -27607,7 +27609,7 @@
         <v>1132</v>
       </c>
       <c r="C758" s="31" t="s">
-        <v>1874</v>
+        <v>1843</v>
       </c>
       <c r="D758" s="29"/>
       <c r="E758" s="29" t="s">
@@ -27632,7 +27634,7 @@
         <v>1132</v>
       </c>
       <c r="C759" s="31" t="s">
-        <v>1875</v>
+        <v>1844</v>
       </c>
       <c r="D759" s="29"/>
       <c r="E759" s="29" t="s">
@@ -27657,7 +27659,7 @@
         <v>1132</v>
       </c>
       <c r="C760" s="20" t="s">
-        <v>2303</v>
+        <v>2262</v>
       </c>
       <c r="D760" s="29"/>
       <c r="E760" s="29" t="s">
@@ -27682,7 +27684,7 @@
         <v>1133</v>
       </c>
       <c r="C761" s="31" t="s">
-        <v>1876</v>
+        <v>1845</v>
       </c>
       <c r="D761" s="29"/>
       <c r="E761" s="29" t="s">
@@ -27707,7 +27709,7 @@
         <v>1133</v>
       </c>
       <c r="C762" s="31" t="s">
-        <v>1877</v>
+        <v>1846</v>
       </c>
       <c r="D762" s="29"/>
       <c r="E762" s="29" t="s">
@@ -27732,7 +27734,7 @@
         <v>1133</v>
       </c>
       <c r="C763" s="31" t="s">
-        <v>1878</v>
+        <v>1847</v>
       </c>
       <c r="D763" s="29"/>
       <c r="E763" s="29" t="s">
@@ -27757,7 +27759,7 @@
         <v>1133</v>
       </c>
       <c r="C764" s="31" t="s">
-        <v>1879</v>
+        <v>1848</v>
       </c>
       <c r="D764" s="29"/>
       <c r="E764" s="29" t="s">
@@ -27782,7 +27784,7 @@
         <v>1133</v>
       </c>
       <c r="C765" s="31" t="s">
-        <v>1880</v>
+        <v>1849</v>
       </c>
       <c r="D765" s="29"/>
       <c r="E765" s="29" t="s">
@@ -27807,7 +27809,7 @@
         <v>1133</v>
       </c>
       <c r="C766" s="31" t="s">
-        <v>2252</v>
+        <v>2211</v>
       </c>
       <c r="D766" s="29"/>
       <c r="E766" s="29" t="s">
@@ -27823,7 +27825,7 @@
         <v>17</v>
       </c>
       <c r="I766" s="31" t="s">
-        <v>2209</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="767" spans="1:9" ht="30">
@@ -27834,7 +27836,7 @@
         <v>1133</v>
       </c>
       <c r="C767" s="31" t="s">
-        <v>1881</v>
+        <v>1850</v>
       </c>
       <c r="D767" s="29"/>
       <c r="E767" s="29" t="s">
@@ -27859,7 +27861,7 @@
         <v>1133</v>
       </c>
       <c r="C768" s="31" t="s">
-        <v>2253</v>
+        <v>2212</v>
       </c>
       <c r="D768" s="29"/>
       <c r="E768" s="29" t="s">
@@ -27875,7 +27877,7 @@
         <v>17</v>
       </c>
       <c r="I768" s="31" t="s">
-        <v>2210</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="769" spans="1:9" ht="45">
@@ -27886,7 +27888,7 @@
         <v>1133</v>
       </c>
       <c r="C769" s="31" t="s">
-        <v>1882</v>
+        <v>1851</v>
       </c>
       <c r="D769" s="29"/>
       <c r="E769" s="29" t="s">
@@ -27911,7 +27913,7 @@
         <v>1133</v>
       </c>
       <c r="C770" s="31" t="s">
-        <v>1883</v>
+        <v>1852</v>
       </c>
       <c r="D770" s="29"/>
       <c r="E770" s="29" t="s">
@@ -27936,7 +27938,7 @@
         <v>1133</v>
       </c>
       <c r="C771" s="31" t="s">
-        <v>1884</v>
+        <v>1853</v>
       </c>
       <c r="D771" s="29"/>
       <c r="E771" s="29" t="s">
@@ -27961,7 +27963,7 @@
         <v>1133</v>
       </c>
       <c r="C772" s="31" t="s">
-        <v>1885</v>
+        <v>1854</v>
       </c>
       <c r="D772" s="29"/>
       <c r="E772" s="29" t="s">
@@ -27977,7 +27979,7 @@
         <v>17</v>
       </c>
       <c r="I772" s="31" t="s">
-        <v>2211</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="773" spans="1:9" ht="60">
@@ -27988,7 +27990,7 @@
         <v>1133</v>
       </c>
       <c r="C773" s="31" t="s">
-        <v>2254</v>
+        <v>2213</v>
       </c>
       <c r="D773" s="29"/>
       <c r="E773" s="29" t="s">
@@ -28004,7 +28006,7 @@
         <v>17</v>
       </c>
       <c r="I773" s="31" t="s">
-        <v>2212</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="774" spans="1:9" ht="30">
@@ -28015,7 +28017,7 @@
         <v>1133</v>
       </c>
       <c r="C774" s="31" t="s">
-        <v>1886</v>
+        <v>1855</v>
       </c>
       <c r="D774" s="29"/>
       <c r="E774" s="29" t="s">
@@ -28040,7 +28042,7 @@
         <v>1133</v>
       </c>
       <c r="C775" s="31" t="s">
-        <v>1887</v>
+        <v>1856</v>
       </c>
       <c r="D775" s="29"/>
       <c r="E775" s="29" t="s">
@@ -28065,7 +28067,7 @@
         <v>1133</v>
       </c>
       <c r="C776" s="31" t="s">
-        <v>1888</v>
+        <v>1857</v>
       </c>
       <c r="D776" s="29"/>
       <c r="E776" s="29" t="s">
@@ -28090,7 +28092,7 @@
         <v>1133</v>
       </c>
       <c r="C777" s="20" t="s">
-        <v>2304</v>
+        <v>2263</v>
       </c>
       <c r="D777" s="29"/>
       <c r="E777" s="29" t="s">
@@ -28115,7 +28117,7 @@
         <v>1133</v>
       </c>
       <c r="C778" s="31" t="s">
-        <v>1889</v>
+        <v>1858</v>
       </c>
       <c r="D778" s="29"/>
       <c r="E778" s="29" t="s">
@@ -28131,7 +28133,7 @@
         <v>17</v>
       </c>
       <c r="I778" s="31" t="s">
-        <v>2213</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="779" spans="1:9" ht="30">
@@ -28142,7 +28144,7 @@
         <v>1133</v>
       </c>
       <c r="C779" s="31" t="s">
-        <v>1890</v>
+        <v>1859</v>
       </c>
       <c r="D779" s="29"/>
       <c r="E779" s="29" t="s">
@@ -28167,7 +28169,7 @@
         <v>1133</v>
       </c>
       <c r="C780" s="31" t="s">
-        <v>1891</v>
+        <v>1860</v>
       </c>
       <c r="D780" s="29"/>
       <c r="E780" s="29" t="s">
@@ -28183,7 +28185,7 @@
         <v>17</v>
       </c>
       <c r="I780" s="31" t="s">
-        <v>2214</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="781" spans="1:9" ht="45">
@@ -28194,7 +28196,7 @@
         <v>1133</v>
       </c>
       <c r="C781" s="31" t="s">
-        <v>1892</v>
+        <v>1861</v>
       </c>
       <c r="D781" s="29"/>
       <c r="E781" s="29" t="s">
@@ -28210,7 +28212,7 @@
         <v>17</v>
       </c>
       <c r="I781" s="31" t="s">
-        <v>2215</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="782" spans="1:9" ht="60">
@@ -28221,7 +28223,7 @@
         <v>1133</v>
       </c>
       <c r="C782" s="31" t="s">
-        <v>1893</v>
+        <v>1862</v>
       </c>
       <c r="D782" s="29"/>
       <c r="E782" s="29" t="s">
@@ -28237,7 +28239,7 @@
         <v>17</v>
       </c>
       <c r="I782" s="31" t="s">
-        <v>2216</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="783" spans="1:9" ht="45">
@@ -28248,7 +28250,7 @@
         <v>1134</v>
       </c>
       <c r="C783" s="31" t="s">
-        <v>1894</v>
+        <v>1863</v>
       </c>
       <c r="D783" s="29"/>
       <c r="E783" s="29" t="s">
@@ -28273,7 +28275,7 @@
         <v>1134</v>
       </c>
       <c r="C784" s="31" t="s">
-        <v>1895</v>
+        <v>1864</v>
       </c>
       <c r="D784" s="29"/>
       <c r="E784" s="29" t="s">
@@ -28298,7 +28300,7 @@
         <v>1134</v>
       </c>
       <c r="C785" s="31" t="s">
-        <v>1896</v>
+        <v>1865</v>
       </c>
       <c r="D785" s="29"/>
       <c r="E785" s="29" t="s">
@@ -28323,7 +28325,7 @@
         <v>1134</v>
       </c>
       <c r="C786" s="31" t="s">
-        <v>1897</v>
+        <v>1866</v>
       </c>
       <c r="D786" s="29"/>
       <c r="E786" s="29" t="s">
@@ -28348,7 +28350,7 @@
         <v>1134</v>
       </c>
       <c r="C787" s="31" t="s">
-        <v>1898</v>
+        <v>1867</v>
       </c>
       <c r="D787" s="29"/>
       <c r="E787" s="29" t="s">
@@ -28373,7 +28375,7 @@
         <v>1134</v>
       </c>
       <c r="C788" s="31" t="s">
-        <v>1899</v>
+        <v>1868</v>
       </c>
       <c r="D788" s="29"/>
       <c r="E788" s="29" t="s">
@@ -28398,7 +28400,7 @@
         <v>1134</v>
       </c>
       <c r="C789" s="31" t="s">
-        <v>1900</v>
+        <v>1869</v>
       </c>
       <c r="D789" s="29"/>
       <c r="E789" s="29" t="s">
@@ -28423,7 +28425,7 @@
         <v>1134</v>
       </c>
       <c r="C790" s="31" t="s">
-        <v>1901</v>
+        <v>1870</v>
       </c>
       <c r="D790" s="29"/>
       <c r="E790" s="29" t="s">
@@ -28448,7 +28450,7 @@
         <v>1134</v>
       </c>
       <c r="C791" s="31" t="s">
-        <v>1902</v>
+        <v>1871</v>
       </c>
       <c r="D791" s="29"/>
       <c r="E791" s="29" t="s">
@@ -28473,7 +28475,7 @@
         <v>1134</v>
       </c>
       <c r="C792" s="31" t="s">
-        <v>1903</v>
+        <v>1872</v>
       </c>
       <c r="D792" s="29"/>
       <c r="E792" s="29" t="s">
@@ -28498,7 +28500,7 @@
         <v>1135</v>
       </c>
       <c r="C793" s="31" t="s">
-        <v>1904</v>
+        <v>1873</v>
       </c>
       <c r="D793" s="29"/>
       <c r="E793" s="29" t="s">
@@ -28523,7 +28525,7 @@
         <v>1135</v>
       </c>
       <c r="C794" s="31" t="s">
-        <v>1905</v>
+        <v>1874</v>
       </c>
       <c r="D794" s="29"/>
       <c r="E794" s="29" t="s">
@@ -28548,7 +28550,7 @@
         <v>1135</v>
       </c>
       <c r="C795" s="31" t="s">
-        <v>1906</v>
+        <v>1875</v>
       </c>
       <c r="D795" s="29"/>
       <c r="E795" s="29" t="s">
@@ -28573,7 +28575,7 @@
         <v>1135</v>
       </c>
       <c r="C796" s="31" t="s">
-        <v>1907</v>
+        <v>1876</v>
       </c>
       <c r="D796" s="29"/>
       <c r="E796" s="29" t="s">
@@ -28598,7 +28600,7 @@
         <v>1135</v>
       </c>
       <c r="C797" s="31" t="s">
-        <v>1908</v>
+        <v>1877</v>
       </c>
       <c r="D797" s="29"/>
       <c r="E797" s="29" t="s">
@@ -28623,7 +28625,7 @@
         <v>1135</v>
       </c>
       <c r="C798" s="31" t="s">
-        <v>1909</v>
+        <v>1878</v>
       </c>
       <c r="D798" s="29"/>
       <c r="E798" s="29" t="s">
@@ -28648,7 +28650,7 @@
         <v>1135</v>
       </c>
       <c r="C799" s="31" t="s">
-        <v>1910</v>
+        <v>1879</v>
       </c>
       <c r="D799" s="29"/>
       <c r="E799" s="29" t="s">
@@ -28673,7 +28675,7 @@
         <v>1135</v>
       </c>
       <c r="C800" s="31" t="s">
-        <v>1911</v>
+        <v>1880</v>
       </c>
       <c r="D800" s="29"/>
       <c r="E800" s="29" t="s">
@@ -28698,7 +28700,7 @@
         <v>1135</v>
       </c>
       <c r="C801" s="31" t="s">
-        <v>1912</v>
+        <v>1881</v>
       </c>
       <c r="D801" s="29"/>
       <c r="E801" s="29" t="s">
@@ -28723,7 +28725,7 @@
         <v>1135</v>
       </c>
       <c r="C802" s="31" t="s">
-        <v>1913</v>
+        <v>1882</v>
       </c>
       <c r="D802" s="29"/>
       <c r="E802" s="29" t="s">
@@ -28748,7 +28750,7 @@
         <v>1135</v>
       </c>
       <c r="C803" s="31" t="s">
-        <v>1914</v>
+        <v>1883</v>
       </c>
       <c r="D803" s="29"/>
       <c r="E803" s="29" t="s">
@@ -28773,7 +28775,7 @@
         <v>1135</v>
       </c>
       <c r="C804" s="31" t="s">
-        <v>1915</v>
+        <v>1884</v>
       </c>
       <c r="D804" s="29"/>
       <c r="E804" s="29" t="s">
@@ -28798,7 +28800,7 @@
         <v>1135</v>
       </c>
       <c r="C805" s="31" t="s">
-        <v>1916</v>
+        <v>1885</v>
       </c>
       <c r="D805" s="29"/>
       <c r="E805" s="29" t="s">
@@ -28823,7 +28825,7 @@
         <v>1135</v>
       </c>
       <c r="C806" s="31" t="s">
-        <v>1917</v>
+        <v>1886</v>
       </c>
       <c r="D806" s="29"/>
       <c r="E806" s="29" t="s">
@@ -28848,7 +28850,7 @@
         <v>1135</v>
       </c>
       <c r="C807" s="31" t="s">
-        <v>1918</v>
+        <v>1887</v>
       </c>
       <c r="D807" s="29"/>
       <c r="E807" s="29" t="s">
@@ -28873,7 +28875,7 @@
         <v>1136</v>
       </c>
       <c r="C808" s="31" t="s">
-        <v>1919</v>
+        <v>1888</v>
       </c>
       <c r="D808" s="29"/>
       <c r="E808" s="29" t="s">
@@ -28898,7 +28900,7 @@
         <v>1136</v>
       </c>
       <c r="C809" s="31" t="s">
-        <v>1920</v>
+        <v>1889</v>
       </c>
       <c r="D809" s="29"/>
       <c r="E809" s="29" t="s">
@@ -28923,7 +28925,7 @@
         <v>1136</v>
       </c>
       <c r="C810" s="31" t="s">
-        <v>1921</v>
+        <v>1890</v>
       </c>
       <c r="D810" s="29"/>
       <c r="E810" s="29" t="s">
@@ -28948,7 +28950,7 @@
         <v>1136</v>
       </c>
       <c r="C811" s="31" t="s">
-        <v>1922</v>
+        <v>1891</v>
       </c>
       <c r="D811" s="29"/>
       <c r="E811" s="29" t="s">
@@ -28973,7 +28975,7 @@
         <v>1136</v>
       </c>
       <c r="C812" s="31" t="s">
-        <v>1923</v>
+        <v>1892</v>
       </c>
       <c r="D812" s="29"/>
       <c r="E812" s="29" t="s">
@@ -28998,7 +29000,7 @@
         <v>1136</v>
       </c>
       <c r="C813" s="31" t="s">
-        <v>2255</v>
+        <v>2214</v>
       </c>
       <c r="D813" s="29"/>
       <c r="E813" s="29" t="s">
@@ -29014,7 +29016,7 @@
         <v>17</v>
       </c>
       <c r="I813" s="31" t="s">
-        <v>2217</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="814" spans="1:9" ht="45">
@@ -29025,7 +29027,7 @@
         <v>1136</v>
       </c>
       <c r="C814" s="31" t="s">
-        <v>1924</v>
+        <v>1893</v>
       </c>
       <c r="D814" s="29"/>
       <c r="E814" s="29" t="s">
@@ -29050,7 +29052,7 @@
         <v>1136</v>
       </c>
       <c r="C815" s="31" t="s">
-        <v>1925</v>
+        <v>1894</v>
       </c>
       <c r="D815" s="29"/>
       <c r="E815" s="29" t="s">
@@ -29075,7 +29077,7 @@
         <v>1136</v>
       </c>
       <c r="C816" s="31" t="s">
-        <v>1926</v>
+        <v>1895</v>
       </c>
       <c r="D816" s="29"/>
       <c r="E816" s="29" t="s">
@@ -29100,7 +29102,7 @@
         <v>1136</v>
       </c>
       <c r="C817" s="31" t="s">
-        <v>1927</v>
+        <v>1896</v>
       </c>
       <c r="D817" s="29"/>
       <c r="E817" s="29" t="s">
@@ -29125,7 +29127,7 @@
         <v>1136</v>
       </c>
       <c r="C818" s="31" t="s">
-        <v>1928</v>
+        <v>1897</v>
       </c>
       <c r="D818" s="29"/>
       <c r="E818" s="29" t="s">
@@ -29150,7 +29152,7 @@
         <v>1136</v>
       </c>
       <c r="C819" s="31" t="s">
-        <v>1929</v>
+        <v>1898</v>
       </c>
       <c r="D819" s="29"/>
       <c r="E819" s="29" t="s">
@@ -29175,7 +29177,7 @@
         <v>1136</v>
       </c>
       <c r="C820" s="31" t="s">
-        <v>1930</v>
+        <v>1899</v>
       </c>
       <c r="D820" s="29"/>
       <c r="E820" s="29" t="s">
@@ -29191,7 +29193,7 @@
         <v>17</v>
       </c>
       <c r="I820" s="31" t="s">
-        <v>2218</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="821" spans="1:9" ht="30">
@@ -29202,7 +29204,7 @@
         <v>1137</v>
       </c>
       <c r="C821" s="31" t="s">
-        <v>1931</v>
+        <v>1900</v>
       </c>
       <c r="D821" s="29"/>
       <c r="E821" s="29" t="s">
@@ -29227,7 +29229,7 @@
         <v>1137</v>
       </c>
       <c r="C822" s="31" t="s">
-        <v>1932</v>
+        <v>1901</v>
       </c>
       <c r="D822" s="29"/>
       <c r="E822" s="29" t="s">
@@ -29252,7 +29254,7 @@
         <v>1137</v>
       </c>
       <c r="C823" s="31" t="s">
-        <v>1933</v>
+        <v>1902</v>
       </c>
       <c r="D823" s="29"/>
       <c r="E823" s="29" t="s">
@@ -29277,7 +29279,7 @@
         <v>1137</v>
       </c>
       <c r="C824" s="31" t="s">
-        <v>1934</v>
+        <v>1903</v>
       </c>
       <c r="D824" s="29"/>
       <c r="E824" s="29" t="s">
@@ -29302,7 +29304,7 @@
         <v>1137</v>
       </c>
       <c r="C825" s="31" t="s">
-        <v>1935</v>
+        <v>1904</v>
       </c>
       <c r="D825" s="29"/>
       <c r="E825" s="29" t="s">
@@ -29327,7 +29329,7 @@
         <v>1137</v>
       </c>
       <c r="C826" s="31" t="s">
-        <v>1936</v>
+        <v>1905</v>
       </c>
       <c r="D826" s="29"/>
       <c r="E826" s="29" t="s">
@@ -29352,7 +29354,7 @@
         <v>1137</v>
       </c>
       <c r="C827" s="31" t="s">
-        <v>1937</v>
+        <v>1906</v>
       </c>
       <c r="D827" s="29"/>
       <c r="E827" s="29" t="s">
@@ -29377,7 +29379,7 @@
         <v>1137</v>
       </c>
       <c r="C828" s="31" t="s">
-        <v>1938</v>
+        <v>1907</v>
       </c>
       <c r="D828" s="29"/>
       <c r="E828" s="29" t="s">
@@ -29402,7 +29404,7 @@
         <v>1137</v>
       </c>
       <c r="C829" s="31" t="s">
-        <v>1939</v>
+        <v>1908</v>
       </c>
       <c r="D829" s="29"/>
       <c r="E829" s="29" t="s">
@@ -29427,7 +29429,7 @@
         <v>1137</v>
       </c>
       <c r="C830" s="31" t="s">
-        <v>1940</v>
+        <v>1909</v>
       </c>
       <c r="D830" s="29"/>
       <c r="E830" s="29" t="s">
@@ -29443,7 +29445,7 @@
         <v>17</v>
       </c>
       <c r="I830" s="31" t="s">
-        <v>2219</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="831" spans="1:9" ht="30">
@@ -29454,7 +29456,7 @@
         <v>1138</v>
       </c>
       <c r="C831" s="31" t="s">
-        <v>1941</v>
+        <v>1910</v>
       </c>
       <c r="D831" s="29"/>
       <c r="E831" s="29" t="s">
@@ -29479,7 +29481,7 @@
         <v>1138</v>
       </c>
       <c r="C832" s="31" t="s">
-        <v>1942</v>
+        <v>1911</v>
       </c>
       <c r="D832" s="29"/>
       <c r="E832" s="29" t="s">
@@ -29504,7 +29506,7 @@
         <v>1138</v>
       </c>
       <c r="C833" s="31" t="s">
-        <v>1943</v>
+        <v>1912</v>
       </c>
       <c r="D833" s="29"/>
       <c r="E833" s="29" t="s">
@@ -29529,7 +29531,7 @@
         <v>1138</v>
       </c>
       <c r="C834" s="31" t="s">
-        <v>1944</v>
+        <v>1913</v>
       </c>
       <c r="D834" s="29"/>
       <c r="E834" s="29" t="s">
@@ -29554,7 +29556,7 @@
         <v>1138</v>
       </c>
       <c r="C835" s="31" t="s">
-        <v>2256</v>
+        <v>2215</v>
       </c>
       <c r="D835" s="29"/>
       <c r="E835" s="29" t="s">
@@ -29570,7 +29572,7 @@
         <v>17</v>
       </c>
       <c r="I835" s="31" t="s">
-        <v>2220</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="836" spans="1:9" ht="30">
@@ -29581,7 +29583,7 @@
         <v>1138</v>
       </c>
       <c r="C836" s="31" t="s">
-        <v>1945</v>
+        <v>1914</v>
       </c>
       <c r="D836" s="29"/>
       <c r="E836" s="29" t="s">
@@ -29606,7 +29608,7 @@
         <v>1138</v>
       </c>
       <c r="C837" s="31" t="s">
-        <v>1946</v>
+        <v>1915</v>
       </c>
       <c r="D837" s="29"/>
       <c r="E837" s="29" t="s">
@@ -29631,7 +29633,7 @@
         <v>1138</v>
       </c>
       <c r="C838" s="31" t="s">
-        <v>1947</v>
+        <v>1916</v>
       </c>
       <c r="D838" s="29"/>
       <c r="E838" s="29" t="s">
@@ -29656,7 +29658,7 @@
         <v>1138</v>
       </c>
       <c r="C839" s="31" t="s">
-        <v>1948</v>
+        <v>1917</v>
       </c>
       <c r="D839" s="29"/>
       <c r="E839" s="29" t="s">
@@ -29672,7 +29674,7 @@
         <v>21</v>
       </c>
       <c r="I839" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="840" spans="1:9" ht="45">
@@ -29683,7 +29685,7 @@
         <v>1138</v>
       </c>
       <c r="C840" s="31" t="s">
-        <v>1949</v>
+        <v>1918</v>
       </c>
       <c r="D840" s="29"/>
       <c r="E840" s="29" t="s">
@@ -29708,7 +29710,7 @@
         <v>1138</v>
       </c>
       <c r="C841" s="31" t="s">
-        <v>1950</v>
+        <v>1919</v>
       </c>
       <c r="D841" s="29"/>
       <c r="E841" s="29" t="s">
@@ -29732,8 +29734,8 @@
       <c r="B842" s="30" t="s">
         <v>1138</v>
       </c>
-      <c r="C842" s="31" t="s">
-        <v>1951</v>
+      <c r="C842" s="20" t="s">
+        <v>2311</v>
       </c>
       <c r="D842" s="29"/>
       <c r="E842" s="29" t="s">
@@ -29758,7 +29760,7 @@
         <v>1138</v>
       </c>
       <c r="C843" s="31" t="s">
-        <v>1952</v>
+        <v>1920</v>
       </c>
       <c r="D843" s="29"/>
       <c r="E843" s="29" t="s">
@@ -29774,7 +29776,7 @@
         <v>17</v>
       </c>
       <c r="I843" s="31" t="s">
-        <v>2221</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="844" spans="1:9" ht="45">
@@ -29785,7 +29787,7 @@
         <v>1138</v>
       </c>
       <c r="C844" s="31" t="s">
-        <v>1953</v>
+        <v>1921</v>
       </c>
       <c r="D844" s="29"/>
       <c r="E844" s="29" t="s">
@@ -29801,18 +29803,18 @@
         <v>17</v>
       </c>
       <c r="I844" s="31" t="s">
-        <v>2222</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="845" spans="1:9" ht="60">
       <c r="A845" s="22" t="s">
-        <v>2305</v>
+        <v>2264</v>
       </c>
       <c r="B845" s="38" t="s">
         <v>1139</v>
       </c>
-      <c r="C845" s="39" t="s">
-        <v>2306</v>
+      <c r="C845" s="20" t="s">
+        <v>2312</v>
       </c>
       <c r="D845" s="37"/>
       <c r="E845" s="37" t="s">
@@ -29836,8 +29838,8 @@
       <c r="B846" s="24" t="s">
         <v>1140</v>
       </c>
-      <c r="C846" s="31" t="s">
-        <v>1954</v>
+      <c r="C846" s="20" t="s">
+        <v>2313</v>
       </c>
       <c r="D846" s="29"/>
       <c r="E846" s="29" t="s">
@@ -29862,7 +29864,7 @@
         <v>1140</v>
       </c>
       <c r="C847" s="31" t="s">
-        <v>1955</v>
+        <v>1922</v>
       </c>
       <c r="D847" s="29"/>
       <c r="E847" s="29" t="s">
@@ -29887,7 +29889,7 @@
         <v>1140</v>
       </c>
       <c r="C848" s="31" t="s">
-        <v>1956</v>
+        <v>1923</v>
       </c>
       <c r="D848" s="29"/>
       <c r="E848" s="29" t="s">
@@ -29912,7 +29914,7 @@
         <v>1140</v>
       </c>
       <c r="C849" s="31" t="s">
-        <v>1957</v>
+        <v>1924</v>
       </c>
       <c r="D849" s="29"/>
       <c r="E849" s="29" t="s">
@@ -29937,7 +29939,7 @@
         <v>1140</v>
       </c>
       <c r="C850" s="31" t="s">
-        <v>1958</v>
+        <v>1925</v>
       </c>
       <c r="D850" s="29"/>
       <c r="E850" s="29" t="s">
@@ -29961,8 +29963,8 @@
       <c r="B851" s="24" t="s">
         <v>1141</v>
       </c>
-      <c r="C851" s="31" t="s">
-        <v>1959</v>
+      <c r="C851" s="20" t="s">
+        <v>2314</v>
       </c>
       <c r="D851" s="29"/>
       <c r="E851" s="29" t="s">
@@ -29987,7 +29989,7 @@
         <v>1141</v>
       </c>
       <c r="C852" s="31" t="s">
-        <v>1960</v>
+        <v>1926</v>
       </c>
       <c r="D852" s="29"/>
       <c r="E852" s="29" t="s">
@@ -30012,7 +30014,7 @@
         <v>1141</v>
       </c>
       <c r="C853" s="31" t="s">
-        <v>1961</v>
+        <v>1927</v>
       </c>
       <c r="D853" s="29"/>
       <c r="E853" s="29" t="s">
@@ -30037,7 +30039,7 @@
         <v>1141</v>
       </c>
       <c r="C854" s="31" t="s">
-        <v>1962</v>
+        <v>1928</v>
       </c>
       <c r="D854" s="29"/>
       <c r="E854" s="29" t="s">
@@ -30062,7 +30064,7 @@
         <v>1141</v>
       </c>
       <c r="C855" s="31" t="s">
-        <v>1963</v>
+        <v>1929</v>
       </c>
       <c r="D855" s="29"/>
       <c r="E855" s="29" t="s">
@@ -30086,8 +30088,8 @@
       <c r="B856" s="24" t="s">
         <v>1142</v>
       </c>
-      <c r="C856" s="31" t="s">
-        <v>1964</v>
+      <c r="C856" s="20" t="s">
+        <v>2315</v>
       </c>
       <c r="D856" s="29"/>
       <c r="E856" s="29" t="s">
@@ -30112,7 +30114,7 @@
         <v>1142</v>
       </c>
       <c r="C857" s="31" t="s">
-        <v>1965</v>
+        <v>1930</v>
       </c>
       <c r="D857" s="29"/>
       <c r="E857" s="29" t="s">
@@ -30137,7 +30139,7 @@
         <v>1142</v>
       </c>
       <c r="C858" s="31" t="s">
-        <v>1966</v>
+        <v>1931</v>
       </c>
       <c r="D858" s="29"/>
       <c r="E858" s="29" t="s">
@@ -30162,7 +30164,7 @@
         <v>1142</v>
       </c>
       <c r="C859" s="31" t="s">
-        <v>1967</v>
+        <v>1932</v>
       </c>
       <c r="D859" s="29"/>
       <c r="E859" s="29" t="s">
@@ -30187,7 +30189,7 @@
         <v>1142</v>
       </c>
       <c r="C860" s="31" t="s">
-        <v>1968</v>
+        <v>1933</v>
       </c>
       <c r="D860" s="29"/>
       <c r="E860" s="29" t="s">
@@ -30212,7 +30214,7 @@
         <v>1142</v>
       </c>
       <c r="C861" s="31" t="s">
-        <v>1969</v>
+        <v>1934</v>
       </c>
       <c r="D861" s="29"/>
       <c r="E861" s="29" t="s">
@@ -30237,7 +30239,7 @@
         <v>1142</v>
       </c>
       <c r="C862" s="31" t="s">
-        <v>1970</v>
+        <v>1935</v>
       </c>
       <c r="D862" s="29"/>
       <c r="E862" s="29" t="s">
@@ -30261,8 +30263,8 @@
       <c r="B863" s="24" t="s">
         <v>1143</v>
       </c>
-      <c r="C863" s="31" t="s">
-        <v>1971</v>
+      <c r="C863" s="20" t="s">
+        <v>2316</v>
       </c>
       <c r="D863" s="29"/>
       <c r="E863" s="29" t="s">
@@ -30287,7 +30289,7 @@
         <v>1143</v>
       </c>
       <c r="C864" s="31" t="s">
-        <v>1972</v>
+        <v>1936</v>
       </c>
       <c r="D864" s="29"/>
       <c r="E864" s="29" t="s">
@@ -30312,7 +30314,7 @@
         <v>1143</v>
       </c>
       <c r="C865" s="31" t="s">
-        <v>1973</v>
+        <v>1937</v>
       </c>
       <c r="D865" s="29"/>
       <c r="E865" s="29" t="s">
@@ -30337,7 +30339,7 @@
         <v>1143</v>
       </c>
       <c r="C866" s="31" t="s">
-        <v>1974</v>
+        <v>1938</v>
       </c>
       <c r="D866" s="29"/>
       <c r="E866" s="29" t="s">
@@ -30362,7 +30364,7 @@
         <v>1143</v>
       </c>
       <c r="C867" s="31" t="s">
-        <v>1975</v>
+        <v>1939</v>
       </c>
       <c r="D867" s="29"/>
       <c r="E867" s="29" t="s">
@@ -30387,7 +30389,7 @@
         <v>1143</v>
       </c>
       <c r="C868" s="31" t="s">
-        <v>1976</v>
+        <v>1940</v>
       </c>
       <c r="D868" s="29"/>
       <c r="E868" s="29" t="s">
@@ -30412,7 +30414,7 @@
         <v>1143</v>
       </c>
       <c r="C869" s="31" t="s">
-        <v>1977</v>
+        <v>1941</v>
       </c>
       <c r="D869" s="29"/>
       <c r="E869" s="29" t="s">
@@ -30437,7 +30439,7 @@
         <v>1143</v>
       </c>
       <c r="C870" s="31" t="s">
-        <v>1978</v>
+        <v>1942</v>
       </c>
       <c r="D870" s="29"/>
       <c r="E870" s="29" t="s">
@@ -30453,7 +30455,7 @@
         <v>17</v>
       </c>
       <c r="I870" s="31" t="s">
-        <v>2223</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="871" spans="1:9" ht="45">
@@ -30464,7 +30466,7 @@
         <v>1143</v>
       </c>
       <c r="C871" s="31" t="s">
-        <v>1979</v>
+        <v>1943</v>
       </c>
       <c r="D871" s="29"/>
       <c r="E871" s="29" t="s">
@@ -30480,7 +30482,7 @@
         <v>17</v>
       </c>
       <c r="I871" s="31" t="s">
-        <v>2224</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="872" spans="1:9" ht="30">
@@ -30490,8 +30492,8 @@
       <c r="B872" s="24" t="s">
         <v>1144</v>
       </c>
-      <c r="C872" s="31" t="s">
-        <v>1980</v>
+      <c r="C872" s="20" t="s">
+        <v>2317</v>
       </c>
       <c r="D872" s="29"/>
       <c r="E872" s="29" t="s">
@@ -30516,7 +30518,7 @@
         <v>1144</v>
       </c>
       <c r="C873" s="31" t="s">
-        <v>1981</v>
+        <v>1944</v>
       </c>
       <c r="D873" s="29"/>
       <c r="E873" s="29" t="s">
@@ -30541,7 +30543,7 @@
         <v>1144</v>
       </c>
       <c r="C874" s="31" t="s">
-        <v>1982</v>
+        <v>1945</v>
       </c>
       <c r="D874" s="29"/>
       <c r="E874" s="29" t="s">
@@ -30566,7 +30568,7 @@
         <v>1144</v>
       </c>
       <c r="C875" s="31" t="s">
-        <v>1983</v>
+        <v>1946</v>
       </c>
       <c r="D875" s="29"/>
       <c r="E875" s="29" t="s">
@@ -30591,7 +30593,7 @@
         <v>1144</v>
       </c>
       <c r="C876" s="31" t="s">
-        <v>2257</v>
+        <v>2216</v>
       </c>
       <c r="D876" s="29"/>
       <c r="E876" s="29" t="s">
@@ -30607,7 +30609,7 @@
         <v>17</v>
       </c>
       <c r="I876" s="31" t="s">
-        <v>2225</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="877" spans="1:9" ht="30">
@@ -30618,7 +30620,7 @@
         <v>1144</v>
       </c>
       <c r="C877" s="31" t="s">
-        <v>1984</v>
+        <v>1947</v>
       </c>
       <c r="D877" s="29"/>
       <c r="E877" s="29" t="s">
@@ -30643,7 +30645,7 @@
         <v>1144</v>
       </c>
       <c r="C878" s="31" t="s">
-        <v>1985</v>
+        <v>1948</v>
       </c>
       <c r="D878" s="29"/>
       <c r="E878" s="29" t="s">
@@ -30668,7 +30670,7 @@
         <v>1144</v>
       </c>
       <c r="C879" s="31" t="s">
-        <v>1986</v>
+        <v>1949</v>
       </c>
       <c r="D879" s="29"/>
       <c r="E879" s="29" t="s">
@@ -30684,7 +30686,7 @@
         <v>17</v>
       </c>
       <c r="I879" s="31" t="s">
-        <v>2226</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="880" spans="1:9" ht="30">
@@ -30695,7 +30697,7 @@
         <v>1145</v>
       </c>
       <c r="C880" s="31" t="s">
-        <v>1987</v>
+        <v>1950</v>
       </c>
       <c r="D880" s="29"/>
       <c r="E880" s="29" t="s">
@@ -30720,7 +30722,7 @@
         <v>1145</v>
       </c>
       <c r="C881" s="31" t="s">
-        <v>1988</v>
+        <v>1951</v>
       </c>
       <c r="D881" s="29"/>
       <c r="E881" s="29" t="s">
@@ -30745,7 +30747,7 @@
         <v>1145</v>
       </c>
       <c r="C882" s="31" t="s">
-        <v>1989</v>
+        <v>1952</v>
       </c>
       <c r="D882" s="29"/>
       <c r="E882" s="29" t="s">
@@ -30770,7 +30772,7 @@
         <v>1145</v>
       </c>
       <c r="C883" s="31" t="s">
-        <v>1990</v>
+        <v>1953</v>
       </c>
       <c r="D883" s="29"/>
       <c r="E883" s="29" t="s">
@@ -30795,7 +30797,7 @@
         <v>1145</v>
       </c>
       <c r="C884" s="31" t="s">
-        <v>2258</v>
+        <v>2217</v>
       </c>
       <c r="D884" s="29"/>
       <c r="E884" s="29" t="s">
@@ -30820,7 +30822,7 @@
         <v>1145</v>
       </c>
       <c r="C885" s="31" t="s">
-        <v>1991</v>
+        <v>1954</v>
       </c>
       <c r="D885" s="29"/>
       <c r="E885" s="29" t="s">
@@ -30845,7 +30847,7 @@
         <v>1145</v>
       </c>
       <c r="C886" s="31" t="s">
-        <v>1992</v>
+        <v>1955</v>
       </c>
       <c r="D886" s="29"/>
       <c r="E886" s="29" t="s">
@@ -30870,7 +30872,7 @@
         <v>1145</v>
       </c>
       <c r="C887" s="31" t="s">
-        <v>1993</v>
+        <v>1956</v>
       </c>
       <c r="D887" s="29"/>
       <c r="E887" s="29" t="s">
@@ -30894,8 +30896,8 @@
       <c r="B888" s="24" t="s">
         <v>1146</v>
       </c>
-      <c r="C888" s="31" t="s">
-        <v>1994</v>
+      <c r="C888" s="20" t="s">
+        <v>2318</v>
       </c>
       <c r="D888" s="29"/>
       <c r="E888" s="29" t="s">
@@ -30920,7 +30922,7 @@
         <v>1146</v>
       </c>
       <c r="C889" s="31" t="s">
-        <v>1995</v>
+        <v>1957</v>
       </c>
       <c r="D889" s="29"/>
       <c r="E889" s="29" t="s">
@@ -30945,7 +30947,7 @@
         <v>1146</v>
       </c>
       <c r="C890" s="31" t="s">
-        <v>1996</v>
+        <v>1958</v>
       </c>
       <c r="D890" s="29"/>
       <c r="E890" s="29" t="s">
@@ -30970,7 +30972,7 @@
         <v>1146</v>
       </c>
       <c r="C891" s="31" t="s">
-        <v>1997</v>
+        <v>1959</v>
       </c>
       <c r="D891" s="29"/>
       <c r="E891" s="29" t="s">
@@ -30995,7 +30997,7 @@
         <v>1146</v>
       </c>
       <c r="C892" s="31" t="s">
-        <v>2259</v>
+        <v>2218</v>
       </c>
       <c r="D892" s="29"/>
       <c r="E892" s="29" t="s">
@@ -31011,7 +31013,7 @@
         <v>17</v>
       </c>
       <c r="I892" s="31" t="s">
-        <v>2227</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="893" spans="1:9" ht="30">
@@ -31022,7 +31024,7 @@
         <v>1146</v>
       </c>
       <c r="C893" s="31" t="s">
-        <v>1998</v>
+        <v>1960</v>
       </c>
       <c r="D893" s="29"/>
       <c r="E893" s="29" t="s">
@@ -31047,7 +31049,7 @@
         <v>1146</v>
       </c>
       <c r="C894" s="31" t="s">
-        <v>1999</v>
+        <v>1961</v>
       </c>
       <c r="D894" s="29"/>
       <c r="E894" s="29" t="s">
@@ -31072,7 +31074,7 @@
         <v>1146</v>
       </c>
       <c r="C895" s="31" t="s">
-        <v>2000</v>
+        <v>1962</v>
       </c>
       <c r="D895" s="29"/>
       <c r="E895" s="29" t="s">
@@ -31097,7 +31099,7 @@
         <v>1146</v>
       </c>
       <c r="C896" s="31" t="s">
-        <v>2001</v>
+        <v>1963</v>
       </c>
       <c r="D896" s="29"/>
       <c r="E896" s="29" t="s">
@@ -31122,7 +31124,7 @@
         <v>1146</v>
       </c>
       <c r="C897" s="31" t="s">
-        <v>2002</v>
+        <v>1964</v>
       </c>
       <c r="D897" s="29"/>
       <c r="E897" s="29" t="s">
@@ -31147,7 +31149,7 @@
         <v>1146</v>
       </c>
       <c r="C898" s="31" t="s">
-        <v>2003</v>
+        <v>1965</v>
       </c>
       <c r="D898" s="29"/>
       <c r="E898" s="29" t="s">
@@ -31172,7 +31174,7 @@
         <v>1146</v>
       </c>
       <c r="C899" s="31" t="s">
-        <v>2004</v>
+        <v>1966</v>
       </c>
       <c r="D899" s="29"/>
       <c r="E899" s="29" t="s">
@@ -31196,8 +31198,8 @@
       <c r="B900" s="24" t="s">
         <v>1147</v>
       </c>
-      <c r="C900" s="31" t="s">
-        <v>2005</v>
+      <c r="C900" s="20" t="s">
+        <v>2319</v>
       </c>
       <c r="D900" s="29"/>
       <c r="E900" s="29" t="s">
@@ -31222,7 +31224,7 @@
         <v>1147</v>
       </c>
       <c r="C901" s="31" t="s">
-        <v>2006</v>
+        <v>1967</v>
       </c>
       <c r="D901" s="29"/>
       <c r="E901" s="29" t="s">
@@ -31247,7 +31249,7 @@
         <v>1147</v>
       </c>
       <c r="C902" s="31" t="s">
-        <v>2007</v>
+        <v>1968</v>
       </c>
       <c r="D902" s="29"/>
       <c r="E902" s="29" t="s">
@@ -31272,7 +31274,7 @@
         <v>1147</v>
       </c>
       <c r="C903" s="31" t="s">
-        <v>2008</v>
+        <v>1969</v>
       </c>
       <c r="D903" s="29"/>
       <c r="E903" s="29" t="s">
@@ -31297,7 +31299,7 @@
         <v>1147</v>
       </c>
       <c r="C904" s="31" t="s">
-        <v>2260</v>
+        <v>2219</v>
       </c>
       <c r="D904" s="29"/>
       <c r="E904" s="29" t="s">
@@ -31313,7 +31315,7 @@
         <v>17</v>
       </c>
       <c r="I904" s="31" t="s">
-        <v>2228</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="905" spans="1:9" ht="45">
@@ -31324,7 +31326,7 @@
         <v>1147</v>
       </c>
       <c r="C905" s="31" t="s">
-        <v>2009</v>
+        <v>1970</v>
       </c>
       <c r="D905" s="29"/>
       <c r="E905" s="29" t="s">
@@ -31349,7 +31351,7 @@
         <v>1147</v>
       </c>
       <c r="C906" s="31" t="s">
-        <v>2010</v>
+        <v>1971</v>
       </c>
       <c r="D906" s="29"/>
       <c r="E906" s="29" t="s">
@@ -31373,8 +31375,8 @@
       <c r="B907" s="24" t="s">
         <v>1148</v>
       </c>
-      <c r="C907" s="31" t="s">
-        <v>2011</v>
+      <c r="C907" s="20" t="s">
+        <v>2320</v>
       </c>
       <c r="D907" s="29"/>
       <c r="E907" s="29" t="s">
@@ -31399,7 +31401,7 @@
         <v>1148</v>
       </c>
       <c r="C908" s="31" t="s">
-        <v>2012</v>
+        <v>1972</v>
       </c>
       <c r="D908" s="29"/>
       <c r="E908" s="29" t="s">
@@ -31424,7 +31426,7 @@
         <v>1148</v>
       </c>
       <c r="C909" s="31" t="s">
-        <v>2013</v>
+        <v>1973</v>
       </c>
       <c r="D909" s="29"/>
       <c r="E909" s="29" t="s">
@@ -31449,7 +31451,7 @@
         <v>1148</v>
       </c>
       <c r="C910" s="31" t="s">
-        <v>2014</v>
+        <v>1974</v>
       </c>
       <c r="D910" s="29"/>
       <c r="E910" s="29" t="s">
@@ -31474,7 +31476,7 @@
         <v>1148</v>
       </c>
       <c r="C911" s="31" t="s">
-        <v>2261</v>
+        <v>2220</v>
       </c>
       <c r="D911" s="29"/>
       <c r="E911" s="29" t="s">
@@ -31490,7 +31492,7 @@
         <v>17</v>
       </c>
       <c r="I911" s="31" t="s">
-        <v>2229</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="912" spans="1:9" ht="30">
@@ -31501,7 +31503,7 @@
         <v>1148</v>
       </c>
       <c r="C912" s="31" t="s">
-        <v>2015</v>
+        <v>1975</v>
       </c>
       <c r="D912" s="29"/>
       <c r="E912" s="29" t="s">
@@ -31526,7 +31528,7 @@
         <v>1148</v>
       </c>
       <c r="C913" s="20" t="s">
-        <v>2308</v>
+        <v>2266</v>
       </c>
       <c r="D913" s="29"/>
       <c r="E913" s="29" t="s">
@@ -31548,10 +31550,10 @@
         <v>923</v>
       </c>
       <c r="B914" s="24" t="s">
-        <v>2307</v>
-      </c>
-      <c r="C914" s="31" t="s">
-        <v>2016</v>
+        <v>2265</v>
+      </c>
+      <c r="C914" s="20" t="s">
+        <v>2321</v>
       </c>
       <c r="D914" s="29"/>
       <c r="E914" s="29" t="s">
@@ -31573,10 +31575,10 @@
         <v>924</v>
       </c>
       <c r="B915" s="24" t="s">
-        <v>2307</v>
+        <v>2265</v>
       </c>
       <c r="C915" s="31" t="s">
-        <v>2017</v>
+        <v>1976</v>
       </c>
       <c r="D915" s="29"/>
       <c r="E915" s="29" t="s">
@@ -31598,10 +31600,10 @@
         <v>925</v>
       </c>
       <c r="B916" s="24" t="s">
-        <v>2307</v>
+        <v>2265</v>
       </c>
       <c r="C916" s="31" t="s">
-        <v>2018</v>
+        <v>1977</v>
       </c>
       <c r="D916" s="29"/>
       <c r="E916" s="29" t="s">
@@ -31623,10 +31625,10 @@
         <v>926</v>
       </c>
       <c r="B917" s="24" t="s">
-        <v>2307</v>
+        <v>2265</v>
       </c>
       <c r="C917" s="31" t="s">
-        <v>2019</v>
+        <v>1978</v>
       </c>
       <c r="D917" s="29"/>
       <c r="E917" s="29" t="s">
@@ -31648,10 +31650,10 @@
         <v>927</v>
       </c>
       <c r="B918" s="24" t="s">
-        <v>2307</v>
+        <v>2265</v>
       </c>
       <c r="C918" s="31" t="s">
-        <v>2262</v>
+        <v>2221</v>
       </c>
       <c r="D918" s="29"/>
       <c r="E918" s="29" t="s">
@@ -31667,7 +31669,7 @@
         <v>17</v>
       </c>
       <c r="I918" s="31" t="s">
-        <v>2230</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="919" spans="1:9" ht="30">
@@ -31675,10 +31677,10 @@
         <v>928</v>
       </c>
       <c r="B919" s="24" t="s">
-        <v>2307</v>
+        <v>2265</v>
       </c>
       <c r="C919" s="31" t="s">
-        <v>2020</v>
+        <v>1979</v>
       </c>
       <c r="D919" s="29"/>
       <c r="E919" s="29" t="s">
@@ -31700,10 +31702,10 @@
         <v>929</v>
       </c>
       <c r="B920" s="24" t="s">
-        <v>2307</v>
+        <v>2265</v>
       </c>
       <c r="C920" s="31" t="s">
-        <v>2021</v>
+        <v>1980</v>
       </c>
       <c r="D920" s="29"/>
       <c r="E920" s="29" t="s">
@@ -31725,10 +31727,10 @@
         <v>930</v>
       </c>
       <c r="B921" s="24" t="s">
-        <v>2307</v>
+        <v>2265</v>
       </c>
       <c r="C921" s="31" t="s">
-        <v>2022</v>
+        <v>1981</v>
       </c>
       <c r="D921" s="29"/>
       <c r="E921" s="29" t="s">
@@ -31750,10 +31752,10 @@
         <v>931</v>
       </c>
       <c r="B922" s="24" t="s">
-        <v>2307</v>
+        <v>2265</v>
       </c>
       <c r="C922" s="31" t="s">
-        <v>2023</v>
+        <v>1982</v>
       </c>
       <c r="D922" s="29"/>
       <c r="E922" s="29" t="s">
@@ -31778,7 +31780,7 @@
         <v>1149</v>
       </c>
       <c r="C923" s="31" t="s">
-        <v>2024</v>
+        <v>1983</v>
       </c>
       <c r="D923" s="29"/>
       <c r="E923" s="29" t="s">
@@ -31803,7 +31805,7 @@
         <v>1149</v>
       </c>
       <c r="C924" s="31" t="s">
-        <v>2025</v>
+        <v>1984</v>
       </c>
       <c r="D924" s="29"/>
       <c r="E924" s="29" t="s">
@@ -31828,10 +31830,10 @@
         <v>1149</v>
       </c>
       <c r="C925" s="31" t="s">
-        <v>2026</v>
+        <v>1985</v>
       </c>
       <c r="D925" s="29" t="s">
-        <v>2148</v>
+        <v>2107</v>
       </c>
       <c r="E925" s="29" t="s">
         <v>22</v>
@@ -31855,10 +31857,10 @@
         <v>1149</v>
       </c>
       <c r="C926" s="31" t="s">
-        <v>2027</v>
+        <v>1986</v>
       </c>
       <c r="D926" s="29" t="s">
-        <v>2149</v>
+        <v>2108</v>
       </c>
       <c r="E926" s="29" t="s">
         <v>22</v>
@@ -31873,7 +31875,7 @@
         <v>21</v>
       </c>
       <c r="I926" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="927" spans="1:9" ht="45">
@@ -31884,10 +31886,10 @@
         <v>1149</v>
       </c>
       <c r="C927" s="31" t="s">
-        <v>2028</v>
+        <v>1987</v>
       </c>
       <c r="D927" s="29" t="s">
-        <v>2148</v>
+        <v>2107</v>
       </c>
       <c r="E927" s="29" t="s">
         <v>22</v>
@@ -31902,7 +31904,7 @@
         <v>21</v>
       </c>
       <c r="I927" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="928" spans="1:9" ht="45">
@@ -31913,10 +31915,10 @@
         <v>1149</v>
       </c>
       <c r="C928" s="31" t="s">
-        <v>2029</v>
+        <v>1988</v>
       </c>
       <c r="D928" s="29" t="s">
-        <v>2150</v>
+        <v>2109</v>
       </c>
       <c r="E928" s="29" t="s">
         <v>22</v>
@@ -31931,7 +31933,7 @@
         <v>20</v>
       </c>
       <c r="I928" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="929" spans="1:9" ht="45">
@@ -31942,10 +31944,10 @@
         <v>1149</v>
       </c>
       <c r="C929" s="31" t="s">
-        <v>2030</v>
+        <v>1989</v>
       </c>
       <c r="D929" s="29" t="s">
-        <v>2150</v>
+        <v>2109</v>
       </c>
       <c r="E929" s="29" t="s">
         <v>22</v>
@@ -31960,7 +31962,7 @@
         <v>20</v>
       </c>
       <c r="I929" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="930" spans="1:9" ht="45">
@@ -31971,10 +31973,10 @@
         <v>1149</v>
       </c>
       <c r="C930" s="31" t="s">
-        <v>2031</v>
+        <v>1990</v>
       </c>
       <c r="D930" s="29" t="s">
-        <v>2151</v>
+        <v>2110</v>
       </c>
       <c r="E930" s="29" t="s">
         <v>22</v>
@@ -31989,7 +31991,7 @@
         <v>20</v>
       </c>
       <c r="I930" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="931" spans="1:9" ht="45">
@@ -32000,10 +32002,10 @@
         <v>1149</v>
       </c>
       <c r="C931" s="31" t="s">
-        <v>2032</v>
+        <v>1991</v>
       </c>
       <c r="D931" s="29" t="s">
-        <v>2151</v>
+        <v>2110</v>
       </c>
       <c r="E931" s="29" t="s">
         <v>22</v>
@@ -32018,7 +32020,7 @@
         <v>20</v>
       </c>
       <c r="I931" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="932" spans="1:9" ht="90">
@@ -32029,10 +32031,10 @@
         <v>1149</v>
       </c>
       <c r="C932" s="31" t="s">
-        <v>2033</v>
+        <v>1992</v>
       </c>
       <c r="D932" s="29" t="s">
-        <v>2152</v>
+        <v>2111</v>
       </c>
       <c r="E932" s="29" t="s">
         <v>22</v>
@@ -32047,7 +32049,7 @@
         <v>20</v>
       </c>
       <c r="I932" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="933" spans="1:9" ht="30">
@@ -32058,7 +32060,7 @@
         <v>1149</v>
       </c>
       <c r="C933" s="31" t="s">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="D933" s="29"/>
       <c r="E933" s="29" t="s">
@@ -32083,10 +32085,10 @@
         <v>1149</v>
       </c>
       <c r="C934" s="31" t="s">
-        <v>2035</v>
+        <v>1994</v>
       </c>
       <c r="D934" s="29" t="s">
-        <v>2152</v>
+        <v>2111</v>
       </c>
       <c r="E934" s="29" t="s">
         <v>22</v>
@@ -32110,10 +32112,10 @@
         <v>1149</v>
       </c>
       <c r="C935" s="31" t="s">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="D935" s="29" t="s">
-        <v>2153</v>
+        <v>2112</v>
       </c>
       <c r="E935" s="29" t="s">
         <v>22</v>
@@ -32128,7 +32130,7 @@
         <v>20</v>
       </c>
       <c r="I935" s="32" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="936" spans="1:9" ht="45">
@@ -32139,10 +32141,10 @@
         <v>1149</v>
       </c>
       <c r="C936" s="31" t="s">
-        <v>2037</v>
+        <v>1996</v>
       </c>
       <c r="D936" s="29" t="s">
-        <v>2154</v>
+        <v>2113</v>
       </c>
       <c r="E936" s="29" t="s">
         <v>22</v>
@@ -32157,7 +32159,7 @@
         <v>20</v>
       </c>
       <c r="I936" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="937" spans="1:9" ht="60">
@@ -32168,10 +32170,10 @@
         <v>1149</v>
       </c>
       <c r="C937" s="31" t="s">
-        <v>2038</v>
+        <v>1997</v>
       </c>
       <c r="D937" s="29" t="s">
-        <v>2155</v>
+        <v>2114</v>
       </c>
       <c r="E937" s="29" t="s">
         <v>22</v>
@@ -32186,7 +32188,7 @@
         <v>21</v>
       </c>
       <c r="I937" s="32" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="938" spans="1:9" ht="45">
@@ -32197,10 +32199,10 @@
         <v>1149</v>
       </c>
       <c r="C938" s="31" t="s">
-        <v>2039</v>
+        <v>1998</v>
       </c>
       <c r="D938" s="29" t="s">
-        <v>2156</v>
+        <v>2115</v>
       </c>
       <c r="E938" s="29" t="s">
         <v>22</v>
@@ -32215,7 +32217,7 @@
         <v>21</v>
       </c>
       <c r="I938" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="939" spans="1:9" ht="45">
@@ -32226,10 +32228,10 @@
         <v>1149</v>
       </c>
       <c r="C939" s="31" t="s">
-        <v>2040</v>
+        <v>1999</v>
       </c>
       <c r="D939" s="29" t="s">
-        <v>2157</v>
+        <v>2116</v>
       </c>
       <c r="E939" s="29" t="s">
         <v>22</v>
@@ -32244,7 +32246,7 @@
         <v>20</v>
       </c>
       <c r="I939" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="940" spans="1:9" ht="45">
@@ -32255,10 +32257,10 @@
         <v>1149</v>
       </c>
       <c r="C940" s="31" t="s">
-        <v>2263</v>
+        <v>2222</v>
       </c>
       <c r="D940" s="29" t="s">
-        <v>2157</v>
+        <v>2116</v>
       </c>
       <c r="E940" s="29" t="s">
         <v>22</v>
@@ -32273,7 +32275,7 @@
         <v>20</v>
       </c>
       <c r="I940" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="941" spans="1:9" ht="45">
@@ -32284,10 +32286,10 @@
         <v>1149</v>
       </c>
       <c r="C941" s="31" t="s">
-        <v>2041</v>
+        <v>2000</v>
       </c>
       <c r="D941" s="29" t="s">
-        <v>2158</v>
+        <v>2117</v>
       </c>
       <c r="E941" s="29" t="s">
         <v>22</v>
@@ -32302,7 +32304,7 @@
         <v>20</v>
       </c>
       <c r="I941" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="942" spans="1:9" ht="45">
@@ -32313,10 +32315,10 @@
         <v>1149</v>
       </c>
       <c r="C942" s="31" t="s">
-        <v>2264</v>
+        <v>2223</v>
       </c>
       <c r="D942" s="29" t="s">
-        <v>2158</v>
+        <v>2117</v>
       </c>
       <c r="E942" s="29" t="s">
         <v>22</v>
@@ -32331,7 +32333,7 @@
         <v>20</v>
       </c>
       <c r="I942" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="943" spans="1:9" ht="45">
@@ -32342,10 +32344,10 @@
         <v>1149</v>
       </c>
       <c r="C943" s="31" t="s">
-        <v>2265</v>
+        <v>2224</v>
       </c>
       <c r="D943" s="29" t="s">
-        <v>2159</v>
+        <v>2118</v>
       </c>
       <c r="E943" s="29" t="s">
         <v>22</v>
@@ -32360,7 +32362,7 @@
         <v>20</v>
       </c>
       <c r="I943" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="944" spans="1:9" ht="45">
@@ -32371,10 +32373,10 @@
         <v>1149</v>
       </c>
       <c r="C944" s="31" t="s">
-        <v>2042</v>
+        <v>2001</v>
       </c>
       <c r="D944" s="29" t="s">
-        <v>2160</v>
+        <v>2119</v>
       </c>
       <c r="E944" s="29" t="s">
         <v>22</v>
@@ -32389,7 +32391,7 @@
         <v>21</v>
       </c>
       <c r="I944" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="945" spans="1:9" ht="60">
@@ -32400,10 +32402,10 @@
         <v>1149</v>
       </c>
       <c r="C945" s="31" t="s">
-        <v>2043</v>
+        <v>2002</v>
       </c>
       <c r="D945" s="29" t="s">
-        <v>2161</v>
+        <v>2120</v>
       </c>
       <c r="E945" s="29" t="s">
         <v>22</v>
@@ -32418,7 +32420,7 @@
         <v>21</v>
       </c>
       <c r="I945" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="946" spans="1:9" ht="45">
@@ -32429,10 +32431,10 @@
         <v>1149</v>
       </c>
       <c r="C946" s="31" t="s">
-        <v>2044</v>
+        <v>2003</v>
       </c>
       <c r="D946" s="29" t="s">
-        <v>2162</v>
+        <v>2121</v>
       </c>
       <c r="E946" s="29" t="s">
         <v>22</v>
@@ -32447,7 +32449,7 @@
         <v>21</v>
       </c>
       <c r="I946" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="947" spans="1:9" ht="45">
@@ -32458,10 +32460,10 @@
         <v>1149</v>
       </c>
       <c r="C947" s="31" t="s">
-        <v>2045</v>
+        <v>2004</v>
       </c>
       <c r="D947" s="29" t="s">
-        <v>2162</v>
+        <v>2121</v>
       </c>
       <c r="E947" s="29" t="s">
         <v>22</v>
@@ -32476,7 +32478,7 @@
         <v>21</v>
       </c>
       <c r="I947" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="948" spans="1:9" ht="45">
@@ -32487,10 +32489,10 @@
         <v>1149</v>
       </c>
       <c r="C948" s="31" t="s">
-        <v>2046</v>
+        <v>2005</v>
       </c>
       <c r="D948" s="29" t="s">
-        <v>2163</v>
+        <v>2122</v>
       </c>
       <c r="E948" s="29" t="s">
         <v>22</v>
@@ -32505,7 +32507,7 @@
         <v>21</v>
       </c>
       <c r="I948" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="949" spans="1:9" ht="75">
@@ -32516,10 +32518,10 @@
         <v>1149</v>
       </c>
       <c r="C949" s="31" t="s">
-        <v>2047</v>
+        <v>2006</v>
       </c>
       <c r="D949" s="29" t="s">
-        <v>2164</v>
+        <v>2123</v>
       </c>
       <c r="E949" s="29" t="s">
         <v>22</v>
@@ -32534,7 +32536,7 @@
         <v>21</v>
       </c>
       <c r="I949" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="950" spans="1:9" ht="45">
@@ -32545,10 +32547,10 @@
         <v>1149</v>
       </c>
       <c r="C950" s="31" t="s">
-        <v>2048</v>
+        <v>2007</v>
       </c>
       <c r="D950" s="29" t="s">
-        <v>2165</v>
+        <v>2124</v>
       </c>
       <c r="E950" s="29" t="s">
         <v>22</v>
@@ -32563,7 +32565,7 @@
         <v>20</v>
       </c>
       <c r="I950" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="951" spans="1:9" ht="45">
@@ -32574,10 +32576,10 @@
         <v>1149</v>
       </c>
       <c r="C951" s="31" t="s">
-        <v>2266</v>
+        <v>2225</v>
       </c>
       <c r="D951" s="29" t="s">
-        <v>2165</v>
+        <v>2124</v>
       </c>
       <c r="E951" s="29" t="s">
         <v>22</v>
@@ -32592,7 +32594,7 @@
         <v>20</v>
       </c>
       <c r="I951" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="952" spans="1:9" ht="60">
@@ -32603,10 +32605,10 @@
         <v>1149</v>
       </c>
       <c r="C952" s="31" t="s">
-        <v>2049</v>
+        <v>2008</v>
       </c>
       <c r="D952" s="29" t="s">
-        <v>2166</v>
+        <v>2125</v>
       </c>
       <c r="E952" s="29" t="s">
         <v>22</v>
@@ -32621,7 +32623,7 @@
         <v>21</v>
       </c>
       <c r="I952" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="953" spans="1:9" ht="45">
@@ -32632,10 +32634,10 @@
         <v>1149</v>
       </c>
       <c r="C953" s="31" t="s">
-        <v>2050</v>
+        <v>2009</v>
       </c>
       <c r="D953" s="29" t="s">
-        <v>2167</v>
+        <v>2126</v>
       </c>
       <c r="E953" s="29" t="s">
         <v>22</v>
@@ -32650,7 +32652,7 @@
         <v>20</v>
       </c>
       <c r="I953" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="954" spans="1:9" ht="45">
@@ -32661,10 +32663,10 @@
         <v>1149</v>
       </c>
       <c r="C954" s="31" t="s">
-        <v>2051</v>
+        <v>2010</v>
       </c>
       <c r="D954" s="29" t="s">
-        <v>2168</v>
+        <v>2127</v>
       </c>
       <c r="E954" s="29" t="s">
         <v>22</v>
@@ -32679,7 +32681,7 @@
         <v>21</v>
       </c>
       <c r="I954" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="955" spans="1:9" ht="45">
@@ -32690,10 +32692,10 @@
         <v>1149</v>
       </c>
       <c r="C955" s="31" t="s">
-        <v>2052</v>
+        <v>2011</v>
       </c>
       <c r="D955" s="29" t="s">
-        <v>2169</v>
+        <v>2128</v>
       </c>
       <c r="E955" s="29" t="s">
         <v>22</v>
@@ -32708,7 +32710,7 @@
         <v>21</v>
       </c>
       <c r="I955" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="956" spans="1:9" ht="45">
@@ -32719,10 +32721,10 @@
         <v>1149</v>
       </c>
       <c r="C956" s="31" t="s">
-        <v>2053</v>
+        <v>2012</v>
       </c>
       <c r="D956" s="29" t="s">
-        <v>2170</v>
+        <v>2129</v>
       </c>
       <c r="E956" s="29" t="s">
         <v>22</v>
@@ -32737,7 +32739,7 @@
         <v>20</v>
       </c>
       <c r="I956" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="957" spans="1:9" ht="45">
@@ -32748,10 +32750,10 @@
         <v>1149</v>
       </c>
       <c r="C957" s="31" t="s">
-        <v>2267</v>
+        <v>2226</v>
       </c>
       <c r="D957" s="29" t="s">
-        <v>2171</v>
+        <v>2130</v>
       </c>
       <c r="E957" s="29" t="s">
         <v>22</v>
@@ -32775,10 +32777,10 @@
         <v>1149</v>
       </c>
       <c r="C958" s="31" t="s">
-        <v>2268</v>
+        <v>2227</v>
       </c>
       <c r="D958" s="29" t="s">
-        <v>2171</v>
+        <v>2130</v>
       </c>
       <c r="E958" s="29" t="s">
         <v>22</v>
@@ -32793,7 +32795,7 @@
         <v>21</v>
       </c>
       <c r="I958" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="959" spans="1:9" ht="60">
@@ -32804,10 +32806,10 @@
         <v>1149</v>
       </c>
       <c r="C959" s="20" t="s">
-        <v>2318</v>
+        <v>2275</v>
       </c>
       <c r="D959" s="29" t="s">
-        <v>2171</v>
+        <v>2130</v>
       </c>
       <c r="E959" s="29" t="s">
         <v>22</v>
@@ -32822,7 +32824,7 @@
         <v>21</v>
       </c>
       <c r="I959" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="960" spans="1:9" ht="45">
@@ -32833,10 +32835,10 @@
         <v>1149</v>
       </c>
       <c r="C960" s="31" t="s">
-        <v>2269</v>
+        <v>2228</v>
       </c>
       <c r="D960" s="29" t="s">
-        <v>2172</v>
+        <v>2131</v>
       </c>
       <c r="E960" s="29" t="s">
         <v>22</v>
@@ -32860,10 +32862,10 @@
         <v>1149</v>
       </c>
       <c r="C961" s="31" t="s">
-        <v>2270</v>
+        <v>2229</v>
       </c>
       <c r="D961" s="29" t="s">
-        <v>2172</v>
+        <v>2131</v>
       </c>
       <c r="E961" s="29" t="s">
         <v>22</v>
@@ -32887,10 +32889,10 @@
         <v>1149</v>
       </c>
       <c r="C962" s="20" t="s">
-        <v>2317</v>
+        <v>2274</v>
       </c>
       <c r="D962" s="29" t="s">
-        <v>2172</v>
+        <v>2131</v>
       </c>
       <c r="E962" s="29" t="s">
         <v>22</v>
@@ -32914,10 +32916,10 @@
         <v>1149</v>
       </c>
       <c r="C963" s="31" t="s">
-        <v>2271</v>
+        <v>2230</v>
       </c>
       <c r="D963" s="29" t="s">
-        <v>2170</v>
+        <v>2129</v>
       </c>
       <c r="E963" s="29" t="s">
         <v>22</v>
@@ -32932,7 +32934,7 @@
         <v>20</v>
       </c>
       <c r="I963" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="964" spans="1:9" ht="45">
@@ -32943,10 +32945,10 @@
         <v>1149</v>
       </c>
       <c r="C964" s="20" t="s">
-        <v>2310</v>
+        <v>2267</v>
       </c>
       <c r="D964" s="29" t="s">
-        <v>2173</v>
+        <v>2132</v>
       </c>
       <c r="E964" s="29" t="s">
         <v>22</v>
@@ -32970,10 +32972,10 @@
         <v>1149</v>
       </c>
       <c r="C965" s="20" t="s">
-        <v>2311</v>
+        <v>2268</v>
       </c>
       <c r="D965" s="29" t="s">
-        <v>2173</v>
+        <v>2132</v>
       </c>
       <c r="E965" s="29" t="s">
         <v>22</v>
@@ -32988,7 +32990,7 @@
         <v>20</v>
       </c>
       <c r="I965" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="966" spans="1:9" ht="45">
@@ -32999,7 +33001,7 @@
         <v>1149</v>
       </c>
       <c r="C966" s="20" t="s">
-        <v>2312</v>
+        <v>2269</v>
       </c>
       <c r="D966" s="29"/>
       <c r="E966" s="29" t="s">
@@ -33024,10 +33026,10 @@
         <v>1149</v>
       </c>
       <c r="C967" s="31" t="s">
-        <v>2054</v>
+        <v>2013</v>
       </c>
       <c r="D967" s="29" t="s">
-        <v>2174</v>
+        <v>2133</v>
       </c>
       <c r="E967" s="29" t="s">
         <v>22</v>
@@ -33042,7 +33044,7 @@
         <v>21</v>
       </c>
       <c r="I967" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="968" spans="1:9" ht="45">
@@ -33053,10 +33055,10 @@
         <v>1149</v>
       </c>
       <c r="C968" s="31" t="s">
-        <v>2055</v>
+        <v>2014</v>
       </c>
       <c r="D968" s="29" t="s">
-        <v>2175</v>
+        <v>2134</v>
       </c>
       <c r="E968" s="29" t="s">
         <v>22</v>
@@ -33071,7 +33073,7 @@
         <v>21</v>
       </c>
       <c r="I968" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="969" spans="1:9" ht="45">
@@ -33082,10 +33084,10 @@
         <v>1149</v>
       </c>
       <c r="C969" s="31" t="s">
-        <v>2056</v>
+        <v>2015</v>
       </c>
       <c r="D969" s="29" t="s">
-        <v>2176</v>
+        <v>2135</v>
       </c>
       <c r="E969" s="29" t="s">
         <v>22</v>
@@ -33100,7 +33102,7 @@
         <v>21</v>
       </c>
       <c r="I969" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="970" spans="1:9" ht="45">
@@ -33111,10 +33113,10 @@
         <v>1149</v>
       </c>
       <c r="C970" s="31" t="s">
-        <v>2057</v>
+        <v>2016</v>
       </c>
       <c r="D970" s="29" t="s">
-        <v>2177</v>
+        <v>2136</v>
       </c>
       <c r="E970" s="29" t="s">
         <v>22</v>
@@ -33138,10 +33140,10 @@
         <v>1149</v>
       </c>
       <c r="C971" s="31" t="s">
-        <v>2058</v>
+        <v>2017</v>
       </c>
       <c r="D971" s="29" t="s">
-        <v>2178</v>
+        <v>2137</v>
       </c>
       <c r="E971" s="29" t="s">
         <v>22</v>
@@ -33165,10 +33167,10 @@
         <v>1149</v>
       </c>
       <c r="C972" s="20" t="s">
-        <v>2313</v>
+        <v>2270</v>
       </c>
       <c r="D972" s="29" t="s">
-        <v>2178</v>
+        <v>2137</v>
       </c>
       <c r="E972" s="29" t="s">
         <v>22</v>
@@ -33183,7 +33185,7 @@
         <v>21</v>
       </c>
       <c r="I972" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="973" spans="1:9" ht="30">
@@ -33194,10 +33196,10 @@
         <v>1149</v>
       </c>
       <c r="C973" s="31" t="s">
-        <v>2059</v>
+        <v>2018</v>
       </c>
       <c r="D973" s="29" t="s">
-        <v>2179</v>
+        <v>2138</v>
       </c>
       <c r="E973" s="29" t="s">
         <v>22</v>
@@ -33221,10 +33223,10 @@
         <v>1149</v>
       </c>
       <c r="C974" s="20" t="s">
-        <v>2314</v>
+        <v>2271</v>
       </c>
       <c r="D974" s="29" t="s">
-        <v>2179</v>
+        <v>2138</v>
       </c>
       <c r="E974" s="29" t="s">
         <v>22</v>
@@ -33239,7 +33241,7 @@
         <v>21</v>
       </c>
       <c r="I974" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="975" spans="1:9" ht="30">
@@ -33250,10 +33252,10 @@
         <v>1149</v>
       </c>
       <c r="C975" s="31" t="s">
-        <v>2060</v>
+        <v>2019</v>
       </c>
       <c r="D975" s="29" t="s">
-        <v>2180</v>
+        <v>2139</v>
       </c>
       <c r="E975" s="29" t="s">
         <v>22</v>
@@ -33277,10 +33279,10 @@
         <v>1149</v>
       </c>
       <c r="C976" s="20" t="s">
-        <v>2315</v>
+        <v>2272</v>
       </c>
       <c r="D976" s="29" t="s">
-        <v>2180</v>
+        <v>2139</v>
       </c>
       <c r="E976" s="29" t="s">
         <v>22</v>
@@ -33295,7 +33297,7 @@
         <v>21</v>
       </c>
       <c r="I976" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="977" spans="1:10" ht="30">
@@ -33306,10 +33308,10 @@
         <v>1149</v>
       </c>
       <c r="C977" s="31" t="s">
-        <v>2061</v>
+        <v>2020</v>
       </c>
       <c r="D977" s="29" t="s">
-        <v>2181</v>
+        <v>2140</v>
       </c>
       <c r="E977" s="29" t="s">
         <v>22</v>
@@ -33333,10 +33335,10 @@
         <v>1149</v>
       </c>
       <c r="C978" s="20" t="s">
-        <v>2316</v>
+        <v>2273</v>
       </c>
       <c r="D978" s="29" t="s">
-        <v>2181</v>
+        <v>2140</v>
       </c>
       <c r="E978" s="29" t="s">
         <v>22</v>
@@ -33351,18 +33353,18 @@
         <v>21</v>
       </c>
       <c r="I978" s="31" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="979" spans="1:10" ht="45">
       <c r="A979" s="30" t="s">
-        <v>2246</v>
+        <v>2205</v>
       </c>
       <c r="B979" s="33">
         <v>6</v>
       </c>
       <c r="C979" s="31" t="s">
-        <v>2272</v>
+        <v>2231</v>
       </c>
       <c r="D979" s="29"/>
       <c r="E979" s="29" t="s">
@@ -33378,7 +33380,7 @@
         <v>21</v>
       </c>
       <c r="I979" s="35" t="s">
-        <v>2231</v>
+        <v>2190</v>
       </c>
       <c r="J979" s="31"/>
     </row>
@@ -33390,7 +33392,7 @@
         <v>1150</v>
       </c>
       <c r="C980" s="31" t="s">
-        <v>2062</v>
+        <v>2021</v>
       </c>
       <c r="D980" s="29"/>
       <c r="E980" s="29" t="s">
@@ -33415,7 +33417,7 @@
         <v>1150</v>
       </c>
       <c r="C981" s="31" t="s">
-        <v>2063</v>
+        <v>2022</v>
       </c>
       <c r="D981" s="29"/>
       <c r="E981" s="29" t="s">
@@ -33440,7 +33442,7 @@
         <v>1151</v>
       </c>
       <c r="C982" s="31" t="s">
-        <v>2064</v>
+        <v>2023</v>
       </c>
       <c r="D982" s="29"/>
       <c r="E982" s="29" t="s">
@@ -33465,7 +33467,7 @@
         <v>1151</v>
       </c>
       <c r="C983" s="31" t="s">
-        <v>2065</v>
+        <v>2024</v>
       </c>
       <c r="D983" s="29"/>
       <c r="E983" s="29" t="s">
@@ -33490,7 +33492,7 @@
         <v>1152</v>
       </c>
       <c r="C984" s="31" t="s">
-        <v>2066</v>
+        <v>2025</v>
       </c>
       <c r="D984" s="29"/>
       <c r="E984" s="29" t="s">
@@ -33515,7 +33517,7 @@
         <v>1152</v>
       </c>
       <c r="C985" s="31" t="s">
-        <v>2067</v>
+        <v>2026</v>
       </c>
       <c r="D985" s="29"/>
       <c r="E985" s="29" t="s">
@@ -33540,7 +33542,7 @@
         <v>1152</v>
       </c>
       <c r="C986" s="31" t="s">
-        <v>2068</v>
+        <v>2027</v>
       </c>
       <c r="D986" s="29"/>
       <c r="E986" s="29" t="s">
@@ -33565,7 +33567,7 @@
         <v>1152</v>
       </c>
       <c r="C987" s="31" t="s">
-        <v>2069</v>
+        <v>2028</v>
       </c>
       <c r="D987" s="29"/>
       <c r="E987" s="29" t="s">
@@ -33590,7 +33592,7 @@
         <v>1152</v>
       </c>
       <c r="C988" s="31" t="s">
-        <v>2070</v>
+        <v>2029</v>
       </c>
       <c r="D988" s="29"/>
       <c r="E988" s="29" t="s">
@@ -33615,7 +33617,7 @@
         <v>1152</v>
       </c>
       <c r="C989" s="31" t="s">
-        <v>2071</v>
+        <v>2030</v>
       </c>
       <c r="D989" s="29"/>
       <c r="E989" s="29" t="s">
@@ -33640,7 +33642,7 @@
         <v>1153</v>
       </c>
       <c r="C990" s="31" t="s">
-        <v>2072</v>
+        <v>2031</v>
       </c>
       <c r="D990" s="29"/>
       <c r="E990" s="29" t="s">
@@ -33665,7 +33667,7 @@
         <v>1153</v>
       </c>
       <c r="C991" s="31" t="s">
-        <v>2073</v>
+        <v>2032</v>
       </c>
       <c r="D991" s="29"/>
       <c r="E991" s="29" t="s">
@@ -33690,7 +33692,7 @@
         <v>1153</v>
       </c>
       <c r="C992" s="31" t="s">
-        <v>2074</v>
+        <v>2033</v>
       </c>
       <c r="D992" s="29"/>
       <c r="E992" s="29" t="s">
@@ -33715,7 +33717,7 @@
         <v>1153</v>
       </c>
       <c r="C993" s="31" t="s">
-        <v>2075</v>
+        <v>2034</v>
       </c>
       <c r="D993" s="29"/>
       <c r="E993" s="29" t="s">
@@ -33740,7 +33742,7 @@
         <v>1154</v>
       </c>
       <c r="C994" s="31" t="s">
-        <v>2076</v>
+        <v>2035</v>
       </c>
       <c r="D994" s="29"/>
       <c r="E994" s="29" t="s">
@@ -33765,7 +33767,7 @@
         <v>1155</v>
       </c>
       <c r="C995" s="31" t="s">
-        <v>2077</v>
+        <v>2036</v>
       </c>
       <c r="D995" s="29"/>
       <c r="E995" s="29" t="s">
@@ -33790,7 +33792,7 @@
         <v>1155</v>
       </c>
       <c r="C996" s="31" t="s">
-        <v>2078</v>
+        <v>2037</v>
       </c>
       <c r="D996" s="29"/>
       <c r="E996" s="29" t="s">
@@ -33815,7 +33817,7 @@
         <v>1156</v>
       </c>
       <c r="C997" s="31" t="s">
-        <v>2079</v>
+        <v>2038</v>
       </c>
       <c r="D997" s="29"/>
       <c r="E997" s="29" t="s">
@@ -33840,7 +33842,7 @@
         <v>1156</v>
       </c>
       <c r="C998" s="31" t="s">
-        <v>2080</v>
+        <v>2039</v>
       </c>
       <c r="D998" s="29"/>
       <c r="E998" s="29" t="s">
@@ -33865,7 +33867,7 @@
         <v>1156</v>
       </c>
       <c r="C999" s="31" t="s">
-        <v>2081</v>
+        <v>2040</v>
       </c>
       <c r="D999" s="29"/>
       <c r="E999" s="29" t="s">
@@ -33890,7 +33892,7 @@
         <v>1156</v>
       </c>
       <c r="C1000" s="31" t="s">
-        <v>2082</v>
+        <v>2041</v>
       </c>
       <c r="D1000" s="29"/>
       <c r="E1000" s="29" t="s">
@@ -33915,7 +33917,7 @@
         <v>1156</v>
       </c>
       <c r="C1001" s="31" t="s">
-        <v>2083</v>
+        <v>2042</v>
       </c>
       <c r="D1001" s="29"/>
       <c r="E1001" s="29" t="s">
@@ -33940,7 +33942,7 @@
         <v>1156</v>
       </c>
       <c r="C1002" s="31" t="s">
-        <v>2084</v>
+        <v>2043</v>
       </c>
       <c r="D1002" s="29"/>
       <c r="E1002" s="29" t="s">
@@ -33965,7 +33967,7 @@
         <v>1156</v>
       </c>
       <c r="C1003" s="31" t="s">
-        <v>2085</v>
+        <v>2044</v>
       </c>
       <c r="D1003" s="29"/>
       <c r="E1003" s="29" t="s">
@@ -33990,7 +33992,7 @@
         <v>1157</v>
       </c>
       <c r="C1004" s="31" t="s">
-        <v>2086</v>
+        <v>2045</v>
       </c>
       <c r="D1004" s="29"/>
       <c r="E1004" s="29" t="s">
@@ -34015,7 +34017,7 @@
         <v>1158</v>
       </c>
       <c r="C1005" s="31" t="s">
-        <v>2087</v>
+        <v>2046</v>
       </c>
       <c r="D1005" s="29"/>
       <c r="E1005" s="29" t="s">
@@ -34040,7 +34042,7 @@
         <v>1158</v>
       </c>
       <c r="C1006" s="31" t="s">
-        <v>2088</v>
+        <v>2047</v>
       </c>
       <c r="D1006" s="29"/>
       <c r="E1006" s="29" t="s">
@@ -34065,7 +34067,7 @@
         <v>1159</v>
       </c>
       <c r="C1007" s="31" t="s">
-        <v>2089</v>
+        <v>2048</v>
       </c>
       <c r="D1007" s="29"/>
       <c r="E1007" s="29" t="s">
@@ -34090,7 +34092,7 @@
         <v>1159</v>
       </c>
       <c r="C1008" s="31" t="s">
-        <v>2090</v>
+        <v>2049</v>
       </c>
       <c r="D1008" s="29"/>
       <c r="E1008" s="29" t="s">
@@ -34115,7 +34117,7 @@
         <v>1160</v>
       </c>
       <c r="C1009" s="31" t="s">
-        <v>2091</v>
+        <v>2050</v>
       </c>
       <c r="D1009" s="29"/>
       <c r="E1009" s="29" t="s">
@@ -34140,7 +34142,7 @@
         <v>1160</v>
       </c>
       <c r="C1010" s="31" t="s">
-        <v>2092</v>
+        <v>2051</v>
       </c>
       <c r="D1010" s="29"/>
       <c r="E1010" s="29" t="s">
@@ -34165,7 +34167,7 @@
         <v>1161</v>
       </c>
       <c r="C1011" s="31" t="s">
-        <v>2093</v>
+        <v>2052</v>
       </c>
       <c r="D1011" s="29"/>
       <c r="E1011" s="29" t="s">
@@ -34190,7 +34192,7 @@
         <v>1161</v>
       </c>
       <c r="C1012" s="31" t="s">
-        <v>2094</v>
+        <v>2053</v>
       </c>
       <c r="D1012" s="29"/>
       <c r="E1012" s="29" t="s">
@@ -34215,7 +34217,7 @@
         <v>1162</v>
       </c>
       <c r="C1013" s="31" t="s">
-        <v>2095</v>
+        <v>2054</v>
       </c>
       <c r="D1013" s="29"/>
       <c r="E1013" s="29" t="s">
@@ -34240,7 +34242,7 @@
         <v>1162</v>
       </c>
       <c r="C1014" s="31" t="s">
-        <v>2096</v>
+        <v>2055</v>
       </c>
       <c r="D1014" s="29"/>
       <c r="E1014" s="29" t="s">
@@ -34265,7 +34267,7 @@
         <v>1163</v>
       </c>
       <c r="C1015" s="31" t="s">
-        <v>2097</v>
+        <v>2056</v>
       </c>
       <c r="D1015" s="29"/>
       <c r="E1015" s="29" t="s">
@@ -34290,7 +34292,7 @@
         <v>1163</v>
       </c>
       <c r="C1016" s="31" t="s">
-        <v>2098</v>
+        <v>2057</v>
       </c>
       <c r="D1016" s="29"/>
       <c r="E1016" s="29" t="s">
@@ -34315,7 +34317,7 @@
         <v>1164</v>
       </c>
       <c r="C1017" s="31" t="s">
-        <v>2099</v>
+        <v>2058</v>
       </c>
       <c r="D1017" s="29"/>
       <c r="E1017" s="29" t="s">
@@ -34340,7 +34342,7 @@
         <v>1164</v>
       </c>
       <c r="C1018" s="31" t="s">
-        <v>2100</v>
+        <v>2059</v>
       </c>
       <c r="D1018" s="29"/>
       <c r="E1018" s="29" t="s">
@@ -34365,7 +34367,7 @@
         <v>1165</v>
       </c>
       <c r="C1019" s="31" t="s">
-        <v>2101</v>
+        <v>2060</v>
       </c>
       <c r="D1019" s="29"/>
       <c r="E1019" s="29" t="s">
@@ -34390,7 +34392,7 @@
         <v>1165</v>
       </c>
       <c r="C1020" s="31" t="s">
-        <v>2102</v>
+        <v>2061</v>
       </c>
       <c r="D1020" s="29"/>
       <c r="E1020" s="29" t="s">
@@ -34415,7 +34417,7 @@
         <v>1166</v>
       </c>
       <c r="C1021" s="31" t="s">
-        <v>2103</v>
+        <v>2062</v>
       </c>
       <c r="D1021" s="29"/>
       <c r="E1021" s="29" t="s">
@@ -34440,7 +34442,7 @@
         <v>1166</v>
       </c>
       <c r="C1022" s="31" t="s">
-        <v>2104</v>
+        <v>2063</v>
       </c>
       <c r="D1022" s="29"/>
       <c r="E1022" s="29" t="s">
@@ -34467,11 +34469,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -34479,6 +34476,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E34:I397 E936:I936 A980:I1022 E938:I978 E399:I934 A20:H978">
@@ -34664,7 +34666,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B922:B1024 B19:B921 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B922:B1024 B19:B921" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -34674,12 +34676,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -34728,6 +34724,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -34738,20 +34740,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34766,6 +34754,20 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
@@ -7102,15 +7102,6 @@
     <t>[In Appendix A: Product Behavior] Implementation does implement the RopLockRegionStream ROP. (&lt;15&gt; Section 3.2.5.21: Exchange 2003 and Exchange 2007 implement the RopLockRegionStream ROP.)</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation does implement the RopUnlockRegionStream ROP. (&lt;16&gt; Section 3.2.5.22: Exchange 2003 and Exchange 2007 implement the RopUnlockRegionStream ROP ([MS-OXCROPS] section 2.2.9.10).)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does implement the RopWriteAndCommitStream ROP. (&lt;17&gt; Section 3.2.5.23: Exchange 2003 and Exchange 2007 implement the RopWriteAndCommitStream ROP ([MS-OXCROPS] section 2.2.9.11.))</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does implement the RopCloneStream ROP. (&lt;18&gt; Section 3.2.5.24: Exchange 2003 and Exchange 2007 implement the RopCloneStream ROP ([MS-OXCROPS] section 2.2.9.12).)</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does return a NotSupported error (0x80040102) if the client attempts to open a stream on a public folder in any mode other than ReadOnly. (&lt;11&gt; Section 3.2.5.11: Exchange 2013 and above follow this behavior.)</t>
   </si>
   <si>
@@ -7253,6 +7244,15 @@
   </si>
   <si>
     <t>[In Processing RopCloneStream]When the server receives a RopCloneStream ROP request buffer ([MS-OXCROPS] section 2.2.9.13) from the client, the server parses the buffer.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does implement the RopUnlockRegionStream ROP. (&lt;16&gt; Section 3.2.5.22: Exchange 2003 and Exchange 2007 implement the RopUnlockRegionStream ROP ([MS-OXCROPS] section 2.2.9.11).)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does implement the RopWriteAndCommitStream ROP. (&lt;17&gt; Section 3.2.5.23: Exchange 2003 and Exchange 2007 implement the RopWriteAndCommitStream ROP ([MS-OXCROPS] section 2.2.9.12.))</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does implement the RopCloneStream ROP. (&lt;18&gt; Section 3.2.5.24: Exchange 2003 and Exchange 2007 implement the RopCloneStream ROP ([MS-OXCROPS] section 2.2.9.13).)</t>
   </si>
 </sst>
 </file>
@@ -7556,21 +7556,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7588,6 +7573,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8654,9 +8654,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -8698,7 +8696,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -8709,127 +8707,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8842,12 +8840,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8860,12 +8858,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8878,12 +8876,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -8896,60 +8894,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="101.25" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>2236</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -19968,7 +19966,7 @@
         <v>1088</v>
       </c>
       <c r="C455" s="39" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="D455" s="37"/>
       <c r="E455" s="29" t="s">
@@ -20199,7 +20197,7 @@
         <v>1090</v>
       </c>
       <c r="C464" s="39" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="D464" s="37"/>
       <c r="E464" s="29" t="s">
@@ -20224,7 +20222,7 @@
         <v>1090</v>
       </c>
       <c r="C465" s="39" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="D465" s="37"/>
       <c r="E465" s="29" t="s">
@@ -20249,7 +20247,7 @@
         <v>1091</v>
       </c>
       <c r="C466" s="20" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="D466" s="29"/>
       <c r="E466" s="29" t="s">
@@ -20378,7 +20376,7 @@
         <v>1092</v>
       </c>
       <c r="C471" s="20" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="D471" s="29"/>
       <c r="E471" s="29" t="s">
@@ -20403,7 +20401,7 @@
         <v>1093</v>
       </c>
       <c r="C472" s="20" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="D472" s="29"/>
       <c r="E472" s="29" t="s">
@@ -20428,7 +20426,7 @@
         <v>1094</v>
       </c>
       <c r="C473" s="20" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="D473" s="29"/>
       <c r="E473" s="29" t="s">
@@ -20557,7 +20555,7 @@
         <v>1095</v>
       </c>
       <c r="C478" s="20" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="D478" s="29"/>
       <c r="E478" s="29" t="s">
@@ -20582,7 +20580,7 @@
         <v>1096</v>
       </c>
       <c r="C479" s="20" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="D479" s="29"/>
       <c r="E479" s="29" t="s">
@@ -20682,7 +20680,7 @@
         <v>1097</v>
       </c>
       <c r="C483" s="20" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="D483" s="29"/>
       <c r="E483" s="29" t="s">
@@ -20836,7 +20834,7 @@
         <v>1098</v>
       </c>
       <c r="C489" s="20" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="D489" s="29"/>
       <c r="E489" s="29" t="s">
@@ -20936,7 +20934,7 @@
         <v>1099</v>
       </c>
       <c r="C493" s="20" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="D493" s="29"/>
       <c r="E493" s="29" t="s">
@@ -21140,7 +21138,7 @@
         <v>1101</v>
       </c>
       <c r="C501" s="20" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="D501" s="29"/>
       <c r="E501" s="29" t="s">
@@ -21415,7 +21413,7 @@
         <v>1102</v>
       </c>
       <c r="C512" s="20" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="D512" s="29"/>
       <c r="E512" s="29" t="s">
@@ -21490,7 +21488,7 @@
         <v>1103</v>
       </c>
       <c r="C515" s="20" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="D515" s="29"/>
       <c r="E515" s="29" t="s">
@@ -21619,7 +21617,7 @@
         <v>1104</v>
       </c>
       <c r="C520" s="20" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="D520" s="29"/>
       <c r="E520" s="29" t="s">
@@ -21694,7 +21692,7 @@
         <v>1105</v>
       </c>
       <c r="C523" s="20" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="D523" s="29"/>
       <c r="E523" s="29" t="s">
@@ -22344,7 +22342,7 @@
         <v>1109</v>
       </c>
       <c r="C549" s="20" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="D549" s="29"/>
       <c r="E549" s="29" t="s">
@@ -22473,7 +22471,7 @@
         <v>1110</v>
       </c>
       <c r="C554" s="20" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="D554" s="29"/>
       <c r="E554" s="29" t="s">
@@ -22723,7 +22721,7 @@
         <v>1111</v>
       </c>
       <c r="C564" s="20" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="D564" s="29"/>
       <c r="E564" s="29" t="s">
@@ -22748,7 +22746,7 @@
         <v>1112</v>
       </c>
       <c r="C565" s="20" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="D565" s="29"/>
       <c r="E565" s="29" t="s">
@@ -22877,7 +22875,7 @@
         <v>1113</v>
       </c>
       <c r="C570" s="20" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="D570" s="29"/>
       <c r="E570" s="29" t="s">
@@ -23077,7 +23075,7 @@
         <v>1113</v>
       </c>
       <c r="C578" s="20" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="D578" s="29"/>
       <c r="E578" s="29" t="s">
@@ -23102,7 +23100,7 @@
         <v>1114</v>
       </c>
       <c r="C579" s="20" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="D579" s="29"/>
       <c r="E579" s="29" t="s">
@@ -23127,7 +23125,7 @@
         <v>1115</v>
       </c>
       <c r="C580" s="20" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
       <c r="D580" s="29"/>
       <c r="E580" s="29" t="s">
@@ -23281,7 +23279,7 @@
         <v>1116</v>
       </c>
       <c r="C586" s="20" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="D586" s="29"/>
       <c r="E586" s="29" t="s">
@@ -23381,7 +23379,7 @@
         <v>1117</v>
       </c>
       <c r="C590" s="20" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="D590" s="29"/>
       <c r="E590" s="29" t="s">
@@ -23456,7 +23454,7 @@
         <v>2258</v>
       </c>
       <c r="C593" s="20" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="D593" s="29"/>
       <c r="E593" s="29" t="s">
@@ -23610,7 +23608,7 @@
         <v>2259</v>
       </c>
       <c r="C599" s="20" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="D599" s="29"/>
       <c r="E599" s="29" t="s">
@@ -23635,7 +23633,7 @@
         <v>2260</v>
       </c>
       <c r="C600" s="20" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="D600" s="29"/>
       <c r="E600" s="29" t="s">
@@ -23835,7 +23833,7 @@
         <v>1118</v>
       </c>
       <c r="C608" s="20" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="D608" s="29"/>
       <c r="E608" s="29" t="s">
@@ -24535,7 +24533,7 @@
         <v>1122</v>
       </c>
       <c r="C636" s="20" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="D636" s="29"/>
       <c r="E636" s="29" t="s">
@@ -24760,7 +24758,7 @@
         <v>1123</v>
       </c>
       <c r="C645" s="20" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="D645" s="29"/>
       <c r="E645" s="29" t="s">
@@ -24810,7 +24808,7 @@
         <v>1123</v>
       </c>
       <c r="C647" s="20" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="D647" s="29"/>
       <c r="E647" s="29" t="s">
@@ -29735,7 +29733,7 @@
         <v>1138</v>
       </c>
       <c r="C842" s="20" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="D842" s="29"/>
       <c r="E842" s="29" t="s">
@@ -29814,7 +29812,7 @@
         <v>1139</v>
       </c>
       <c r="C845" s="20" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="D845" s="37"/>
       <c r="E845" s="37" t="s">
@@ -29839,7 +29837,7 @@
         <v>1140</v>
       </c>
       <c r="C846" s="20" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="D846" s="29"/>
       <c r="E846" s="29" t="s">
@@ -29964,7 +29962,7 @@
         <v>1141</v>
       </c>
       <c r="C851" s="20" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="D851" s="29"/>
       <c r="E851" s="29" t="s">
@@ -30089,7 +30087,7 @@
         <v>1142</v>
       </c>
       <c r="C856" s="20" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="D856" s="29"/>
       <c r="E856" s="29" t="s">
@@ -30264,7 +30262,7 @@
         <v>1143</v>
       </c>
       <c r="C863" s="20" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="D863" s="29"/>
       <c r="E863" s="29" t="s">
@@ -30493,7 +30491,7 @@
         <v>1144</v>
       </c>
       <c r="C872" s="20" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="D872" s="29"/>
       <c r="E872" s="29" t="s">
@@ -30897,7 +30895,7 @@
         <v>1146</v>
       </c>
       <c r="C888" s="20" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="D888" s="29"/>
       <c r="E888" s="29" t="s">
@@ -31199,7 +31197,7 @@
         <v>1147</v>
       </c>
       <c r="C900" s="20" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="D900" s="29"/>
       <c r="E900" s="29" t="s">
@@ -31376,7 +31374,7 @@
         <v>1148</v>
       </c>
       <c r="C907" s="20" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="D907" s="29"/>
       <c r="E907" s="29" t="s">
@@ -31553,7 +31551,7 @@
         <v>2265</v>
       </c>
       <c r="C914" s="20" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="D914" s="29"/>
       <c r="E914" s="29" t="s">
@@ -32806,7 +32804,7 @@
         <v>1149</v>
       </c>
       <c r="C959" s="20" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="D959" s="29" t="s">
         <v>2130</v>
@@ -32889,7 +32887,7 @@
         <v>1149</v>
       </c>
       <c r="C962" s="20" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="D962" s="29" t="s">
         <v>2131</v>
@@ -33223,7 +33221,7 @@
         <v>1149</v>
       </c>
       <c r="C974" s="20" t="s">
-        <v>2271</v>
+        <v>2319</v>
       </c>
       <c r="D974" s="29" t="s">
         <v>2138</v>
@@ -33279,7 +33277,7 @@
         <v>1149</v>
       </c>
       <c r="C976" s="20" t="s">
-        <v>2272</v>
+        <v>2320</v>
       </c>
       <c r="D976" s="29" t="s">
         <v>2139</v>
@@ -33335,7 +33333,7 @@
         <v>1149</v>
       </c>
       <c r="C978" s="20" t="s">
-        <v>2273</v>
+        <v>2321</v>
       </c>
       <c r="D978" s="29" t="s">
         <v>2140</v>
@@ -34469,6 +34467,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -34476,11 +34479,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E34:I397 E936:I936 A980:I1022 E938:I978 E399:I934 A20:H978">
@@ -34676,6 +34674,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -34724,12 +34728,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -34740,6 +34738,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34754,20 +34766,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75845891-9A43-4835-AD49-17671294A201}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="180" windowWidth="15405" windowHeight="6780" tabRatio="570"/>
+    <workbookView xWindow="-15" yWindow="180" windowWidth="15405" windowHeight="6780" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -20,8 +21,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmpEC13" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmpEC13" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-yuliu\AppData\Local\Temp\tmpEC13.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -7258,7 +7259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -8283,34 +8284,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1022" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I1022"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1022" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I1022" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -8319,12 +8320,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8406,6 +8407,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8441,6 +8459,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8616,13 +8651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -34606,23 +34639,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1022">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1022" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1022">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1022" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1022">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1022" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H980:H1022 H20:H978">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H980:H1022 H20:H978" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H979">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H979" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -34632,7 +34665,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B922:B1024 B19:B921" numberStoredAsText="1"/>
+    <ignoredError sqref="B922:B1024 B19:B921 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75845891-9A43-4835-AD49-17671294A201}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2E1720-7C5C-4B65-93E9-2E29F62023DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="180" windowWidth="15405" windowHeight="6780" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -7253,7 +7253,8 @@
     <t>[In PidTagSearchKey Property] The PidTagSearchKey property ([MS-OXPROPS] section 2.991) contains a unique binary-comparable key that identifies an object for a search.</t>
   </si>
   <si>
-    <t>14.0</t>
+    <t>15.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7261,14 +7262,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7475,13 +7476,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7514,7 +7515,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7557,21 +7558,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7590,9 +7576,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="61">
     <dxf>
@@ -8332,7 +8333,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8659,15 +8660,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -8703,132 +8704,132 @@
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>43305</v>
+        <v>43374</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8841,12 +8842,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8859,12 +8860,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8877,12 +8878,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -8895,60 +8896,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="101.25" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>2230</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -9107,7 +9108,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="25" spans="1:12" s="23" customFormat="1">
       <c r="A25" s="22" t="s">
         <v>48</v>
       </c>
@@ -9157,7 +9158,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="27" spans="1:12" s="23" customFormat="1">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
@@ -9182,7 +9183,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="30">
+    <row r="28" spans="1:12" s="23" customFormat="1">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
@@ -9257,7 +9258,7 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="120">
+    <row r="31" spans="1:12" s="23" customFormat="1" ht="90">
       <c r="A31" s="22" t="s">
         <v>54</v>
       </c>
@@ -9334,7 +9335,7 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" ht="45">
+    <row r="34" spans="1:9" ht="30">
       <c r="A34" s="29" t="s">
         <v>57</v>
       </c>
@@ -9459,7 +9460,7 @@
       </c>
       <c r="I38" s="31"/>
     </row>
-    <row r="39" spans="1:9" ht="30">
+    <row r="39" spans="1:9">
       <c r="A39" s="29" t="s">
         <v>62</v>
       </c>
@@ -9484,7 +9485,7 @@
       </c>
       <c r="I39" s="31"/>
     </row>
-    <row r="40" spans="1:9" ht="30">
+    <row r="40" spans="1:9">
       <c r="A40" s="29" t="s">
         <v>63</v>
       </c>
@@ -9684,7 +9685,7 @@
       </c>
       <c r="I47" s="31"/>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:9">
       <c r="A48" s="29" t="s">
         <v>71</v>
       </c>
@@ -9709,7 +9710,7 @@
       </c>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9">
       <c r="A49" s="29" t="s">
         <v>72</v>
       </c>
@@ -10184,7 +10185,7 @@
       </c>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="45">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" s="29" t="s">
         <v>91</v>
       </c>
@@ -10234,7 +10235,7 @@
       </c>
       <c r="I69" s="31"/>
     </row>
-    <row r="70" spans="1:9" ht="30">
+    <row r="70" spans="1:9">
       <c r="A70" s="29" t="s">
         <v>93</v>
       </c>
@@ -10259,7 +10260,7 @@
       </c>
       <c r="I70" s="31"/>
     </row>
-    <row r="71" spans="1:9" ht="30">
+    <row r="71" spans="1:9">
       <c r="A71" s="29" t="s">
         <v>94</v>
       </c>
@@ -10284,7 +10285,7 @@
       </c>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9">
       <c r="A72" s="29" t="s">
         <v>95</v>
       </c>
@@ -10309,7 +10310,7 @@
       </c>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="1:9" ht="30">
+    <row r="73" spans="1:9">
       <c r="A73" s="29" t="s">
         <v>96</v>
       </c>
@@ -10334,7 +10335,7 @@
       </c>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="1:9" ht="30">
+    <row r="74" spans="1:9">
       <c r="A74" s="29" t="s">
         <v>97</v>
       </c>
@@ -10359,7 +10360,7 @@
       </c>
       <c r="I74" s="31"/>
     </row>
-    <row r="75" spans="1:9" ht="30">
+    <row r="75" spans="1:9">
       <c r="A75" s="29" t="s">
         <v>98</v>
       </c>
@@ -10384,7 +10385,7 @@
       </c>
       <c r="I75" s="31"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
+    <row r="76" spans="1:9">
       <c r="A76" s="29" t="s">
         <v>99</v>
       </c>
@@ -10709,7 +10710,7 @@
       </c>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="1:9" ht="45">
+    <row r="89" spans="1:9" ht="30">
       <c r="A89" s="29" t="s">
         <v>112</v>
       </c>
@@ -10934,7 +10935,7 @@
       </c>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="1:9" ht="45">
+    <row r="98" spans="1:9" ht="30">
       <c r="A98" s="29" t="s">
         <v>121</v>
       </c>
@@ -11036,7 +11037,7 @@
       </c>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="1:9" ht="60">
+    <row r="102" spans="1:9" ht="45">
       <c r="A102" s="29" t="s">
         <v>125</v>
       </c>
@@ -11186,7 +11187,7 @@
       </c>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="1:9" ht="45">
+    <row r="108" spans="1:9" ht="30">
       <c r="A108" s="29" t="s">
         <v>131</v>
       </c>
@@ -11211,7 +11212,7 @@
       </c>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="1:9" ht="45">
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="29" t="s">
         <v>132</v>
       </c>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:9" ht="30">
+    <row r="112" spans="1:9">
       <c r="A112" s="29" t="s">
         <v>135</v>
       </c>
@@ -11311,7 +11312,7 @@
       </c>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="1:9" ht="30">
+    <row r="113" spans="1:9">
       <c r="A113" s="29" t="s">
         <v>136</v>
       </c>
@@ -11336,7 +11337,7 @@
       </c>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="1:9" ht="30">
+    <row r="114" spans="1:9">
       <c r="A114" s="29" t="s">
         <v>137</v>
       </c>
@@ -11361,7 +11362,7 @@
       </c>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="1:9" ht="30">
+    <row r="115" spans="1:9">
       <c r="A115" s="29" t="s">
         <v>138</v>
       </c>
@@ -11486,7 +11487,7 @@
       </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:9" ht="45">
+    <row r="120" spans="1:9" ht="30">
       <c r="A120" s="29" t="s">
         <v>143</v>
       </c>
@@ -11513,7 +11514,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="45">
+    <row r="121" spans="1:9" ht="30">
       <c r="A121" s="29" t="s">
         <v>144</v>
       </c>
@@ -11538,7 +11539,7 @@
       </c>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="1:9" ht="45">
+    <row r="122" spans="1:9" ht="30">
       <c r="A122" s="29" t="s">
         <v>145</v>
       </c>
@@ -11613,7 +11614,7 @@
       </c>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="1:9" ht="45">
+    <row r="125" spans="1:9" ht="30">
       <c r="A125" s="29" t="s">
         <v>148</v>
       </c>
@@ -11763,7 +11764,7 @@
       </c>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="1:9" ht="60">
+    <row r="131" spans="1:9" ht="45">
       <c r="A131" s="29" t="s">
         <v>154</v>
       </c>
@@ -11788,7 +11789,7 @@
       </c>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="1:9" ht="45">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="29" t="s">
         <v>155</v>
       </c>
@@ -11813,7 +11814,7 @@
       </c>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="1:9" ht="30">
+    <row r="133" spans="1:9">
       <c r="A133" s="29" t="s">
         <v>156</v>
       </c>
@@ -11838,7 +11839,7 @@
       </c>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9">
       <c r="A134" s="29" t="s">
         <v>157</v>
       </c>
@@ -11863,7 +11864,7 @@
       </c>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="1:9" ht="30">
+    <row r="135" spans="1:9">
       <c r="A135" s="29" t="s">
         <v>158</v>
       </c>
@@ -11888,7 +11889,7 @@
       </c>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="1:9" ht="30">
+    <row r="136" spans="1:9">
       <c r="A136" s="29" t="s">
         <v>159</v>
       </c>
@@ -12138,7 +12139,7 @@
       </c>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="1:9" ht="30">
+    <row r="146" spans="1:9">
       <c r="A146" s="29" t="s">
         <v>169</v>
       </c>
@@ -12188,7 +12189,7 @@
       </c>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9">
       <c r="A148" s="29" t="s">
         <v>171</v>
       </c>
@@ -12338,7 +12339,7 @@
       </c>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="1:9" ht="45">
+    <row r="154" spans="1:9" ht="30">
       <c r="A154" s="29" t="s">
         <v>177</v>
       </c>
@@ -12613,7 +12614,7 @@
       </c>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="1:9" ht="75">
+    <row r="165" spans="1:9" ht="60">
       <c r="A165" s="29" t="s">
         <v>188</v>
       </c>
@@ -12663,7 +12664,7 @@
       </c>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="1:9" ht="45">
+    <row r="167" spans="1:9" ht="30">
       <c r="A167" s="29" t="s">
         <v>190</v>
       </c>
@@ -12688,7 +12689,7 @@
       </c>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="1:9" ht="30">
+    <row r="168" spans="1:9">
       <c r="A168" s="29" t="s">
         <v>191</v>
       </c>
@@ -12769,7 +12770,7 @@
       </c>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="1:9" ht="45">
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="29" t="s">
         <v>194</v>
       </c>
@@ -12823,7 +12824,7 @@
       </c>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="1:9" ht="60">
+    <row r="173" spans="1:9" ht="45">
       <c r="A173" s="29" t="s">
         <v>196</v>
       </c>
@@ -13035,7 +13036,7 @@
       </c>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="1:9" ht="45">
+    <row r="181" spans="1:9" ht="30">
       <c r="A181" s="29" t="s">
         <v>204</v>
       </c>
@@ -13085,7 +13086,7 @@
       </c>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="1:9" ht="45">
+    <row r="183" spans="1:9" ht="30">
       <c r="A183" s="29" t="s">
         <v>206</v>
       </c>
@@ -13135,7 +13136,7 @@
       </c>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="1:9" ht="30">
+    <row r="185" spans="1:9">
       <c r="A185" s="29" t="s">
         <v>208</v>
       </c>
@@ -13214,7 +13215,7 @@
       </c>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="1:9" ht="30">
+    <row r="188" spans="1:9">
       <c r="A188" s="29" t="s">
         <v>211</v>
       </c>
@@ -13239,7 +13240,7 @@
       </c>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="1:9" ht="30">
+    <row r="189" spans="1:9">
       <c r="A189" s="29" t="s">
         <v>212</v>
       </c>
@@ -13264,7 +13265,7 @@
       </c>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="1:9" ht="30">
+    <row r="190" spans="1:9">
       <c r="A190" s="29" t="s">
         <v>213</v>
       </c>
@@ -13289,7 +13290,7 @@
       </c>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="1:9" ht="30">
+    <row r="191" spans="1:9">
       <c r="A191" s="29" t="s">
         <v>214</v>
       </c>
@@ -13639,7 +13640,7 @@
       </c>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="1:9" ht="75">
+    <row r="205" spans="1:9" ht="60">
       <c r="A205" s="29" t="s">
         <v>228</v>
       </c>
@@ -13689,7 +13690,7 @@
       </c>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="1:9" ht="45">
+    <row r="207" spans="1:9" ht="30">
       <c r="A207" s="29" t="s">
         <v>230</v>
       </c>
@@ -13741,7 +13742,7 @@
       </c>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9">
       <c r="A209" s="29" t="s">
         <v>232</v>
       </c>
@@ -13849,7 +13850,7 @@
       </c>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="1:9" ht="45">
+    <row r="213" spans="1:9" ht="30">
       <c r="A213" s="29" t="s">
         <v>236</v>
       </c>
@@ -13903,7 +13904,7 @@
       </c>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="1:9" ht="60">
+    <row r="215" spans="1:9" ht="45">
       <c r="A215" s="29" t="s">
         <v>238</v>
       </c>
@@ -14117,7 +14118,7 @@
       </c>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="1:9" ht="45">
+    <row r="223" spans="1:9" ht="30">
       <c r="A223" s="29" t="s">
         <v>246</v>
       </c>
@@ -14142,7 +14143,7 @@
       </c>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="1:9" ht="45">
+    <row r="224" spans="1:9" ht="30">
       <c r="A224" s="29" t="s">
         <v>247</v>
       </c>
@@ -14167,7 +14168,7 @@
       </c>
       <c r="I224" s="31"/>
     </row>
-    <row r="225" spans="1:9" ht="45">
+    <row r="225" spans="1:9" ht="30">
       <c r="A225" s="29" t="s">
         <v>248</v>
       </c>
@@ -14217,7 +14218,7 @@
       </c>
       <c r="I226" s="31"/>
     </row>
-    <row r="227" spans="1:9" ht="30">
+    <row r="227" spans="1:9">
       <c r="A227" s="29" t="s">
         <v>250</v>
       </c>
@@ -14323,7 +14324,7 @@
       </c>
       <c r="I230" s="31"/>
     </row>
-    <row r="231" spans="1:9" ht="45">
+    <row r="231" spans="1:9" ht="30">
       <c r="A231" s="29" t="s">
         <v>254</v>
       </c>
@@ -14475,7 +14476,7 @@
       </c>
       <c r="I236" s="31"/>
     </row>
-    <row r="237" spans="1:9" ht="45">
+    <row r="237" spans="1:9" ht="30">
       <c r="A237" s="29" t="s">
         <v>260</v>
       </c>
@@ -14550,7 +14551,7 @@
       </c>
       <c r="I239" s="31"/>
     </row>
-    <row r="240" spans="1:9" ht="30">
+    <row r="240" spans="1:9">
       <c r="A240" s="29" t="s">
         <v>263</v>
       </c>
@@ -14800,7 +14801,7 @@
       </c>
       <c r="I249" s="31"/>
     </row>
-    <row r="250" spans="1:9" ht="45">
+    <row r="250" spans="1:9" ht="30">
       <c r="A250" s="29" t="s">
         <v>273</v>
       </c>
@@ -15000,7 +15001,7 @@
       </c>
       <c r="I257" s="31"/>
     </row>
-    <row r="258" spans="1:9" ht="45">
+    <row r="258" spans="1:9" ht="30">
       <c r="A258" s="29" t="s">
         <v>281</v>
       </c>
@@ -15050,7 +15051,7 @@
       </c>
       <c r="I259" s="31"/>
     </row>
-    <row r="260" spans="1:9" ht="45">
+    <row r="260" spans="1:9" ht="30">
       <c r="A260" s="29" t="s">
         <v>283</v>
       </c>
@@ -15075,7 +15076,7 @@
       </c>
       <c r="I260" s="31"/>
     </row>
-    <row r="261" spans="1:9" ht="30">
+    <row r="261" spans="1:9">
       <c r="A261" s="29" t="s">
         <v>284</v>
       </c>
@@ -15100,7 +15101,7 @@
       </c>
       <c r="I261" s="31"/>
     </row>
-    <row r="262" spans="1:9" ht="30">
+    <row r="262" spans="1:9">
       <c r="A262" s="29" t="s">
         <v>285</v>
       </c>
@@ -15125,7 +15126,7 @@
       </c>
       <c r="I262" s="31"/>
     </row>
-    <row r="263" spans="1:9" ht="30">
+    <row r="263" spans="1:9">
       <c r="A263" s="29" t="s">
         <v>286</v>
       </c>
@@ -15150,7 +15151,7 @@
       </c>
       <c r="I263" s="31"/>
     </row>
-    <row r="264" spans="1:9" ht="30">
+    <row r="264" spans="1:9">
       <c r="A264" s="29" t="s">
         <v>287</v>
       </c>
@@ -15400,7 +15401,7 @@
       </c>
       <c r="I273" s="31"/>
     </row>
-    <row r="274" spans="1:9" ht="60">
+    <row r="274" spans="1:9" ht="45">
       <c r="A274" s="29" t="s">
         <v>297</v>
       </c>
@@ -15452,7 +15453,7 @@
       </c>
       <c r="I275" s="31"/>
     </row>
-    <row r="276" spans="1:9" ht="30">
+    <row r="276" spans="1:9">
       <c r="A276" s="29" t="s">
         <v>299</v>
       </c>
@@ -15552,7 +15553,7 @@
       </c>
       <c r="I279" s="31"/>
     </row>
-    <row r="280" spans="1:9" ht="45">
+    <row r="280" spans="1:9" ht="30">
       <c r="A280" s="29" t="s">
         <v>303</v>
       </c>
@@ -15802,7 +15803,7 @@
       </c>
       <c r="I289" s="31"/>
     </row>
-    <row r="290" spans="1:9" ht="45">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="29" t="s">
         <v>313</v>
       </c>
@@ -15877,7 +15878,7 @@
       </c>
       <c r="I292" s="31"/>
     </row>
-    <row r="293" spans="1:9" ht="45">
+    <row r="293" spans="1:9" ht="30">
       <c r="A293" s="29" t="s">
         <v>316</v>
       </c>
@@ -15927,7 +15928,7 @@
       </c>
       <c r="I294" s="31"/>
     </row>
-    <row r="295" spans="1:9" ht="45">
+    <row r="295" spans="1:9" ht="30">
       <c r="A295" s="29" t="s">
         <v>318</v>
       </c>
@@ -16227,7 +16228,7 @@
       </c>
       <c r="I306" s="31"/>
     </row>
-    <row r="307" spans="1:9" ht="30">
+    <row r="307" spans="1:9">
       <c r="A307" s="29" t="s">
         <v>330</v>
       </c>
@@ -16352,7 +16353,7 @@
       </c>
       <c r="I311" s="31"/>
     </row>
-    <row r="312" spans="1:9" ht="30">
+    <row r="312" spans="1:9">
       <c r="A312" s="29" t="s">
         <v>335</v>
       </c>
@@ -16377,7 +16378,7 @@
       </c>
       <c r="I312" s="31"/>
     </row>
-    <row r="313" spans="1:9" ht="60">
+    <row r="313" spans="1:9" ht="45">
       <c r="A313" s="29" t="s">
         <v>336</v>
       </c>
@@ -16856,7 +16857,7 @@
       </c>
       <c r="I331" s="31"/>
     </row>
-    <row r="332" spans="1:9" ht="45">
+    <row r="332" spans="1:9" ht="30">
       <c r="A332" s="29" t="s">
         <v>355</v>
       </c>
@@ -16906,7 +16907,7 @@
       </c>
       <c r="I333" s="31"/>
     </row>
-    <row r="334" spans="1:9" ht="45">
+    <row r="334" spans="1:9" ht="30">
       <c r="A334" s="29" t="s">
         <v>357</v>
       </c>
@@ -17131,7 +17132,7 @@
       </c>
       <c r="I342" s="31"/>
     </row>
-    <row r="343" spans="1:9" ht="45">
+    <row r="343" spans="1:9" ht="30">
       <c r="A343" s="29" t="s">
         <v>366</v>
       </c>
@@ -17208,7 +17209,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="45">
+    <row r="346" spans="1:9" ht="30">
       <c r="A346" s="29" t="s">
         <v>369</v>
       </c>
@@ -17233,7 +17234,7 @@
       </c>
       <c r="I346" s="31"/>
     </row>
-    <row r="347" spans="1:9" ht="45">
+    <row r="347" spans="1:9" ht="30">
       <c r="A347" s="29" t="s">
         <v>370</v>
       </c>
@@ -17258,7 +17259,7 @@
       </c>
       <c r="I347" s="31"/>
     </row>
-    <row r="348" spans="1:9" ht="30">
+    <row r="348" spans="1:9">
       <c r="A348" s="29" t="s">
         <v>371</v>
       </c>
@@ -17283,7 +17284,7 @@
       </c>
       <c r="I348" s="31"/>
     </row>
-    <row r="349" spans="1:9" ht="45">
+    <row r="349" spans="1:9" ht="30">
       <c r="A349" s="29" t="s">
         <v>372</v>
       </c>
@@ -17383,7 +17384,7 @@
       </c>
       <c r="I352" s="31"/>
     </row>
-    <row r="353" spans="1:9" ht="45">
+    <row r="353" spans="1:9" ht="30">
       <c r="A353" s="29" t="s">
         <v>376</v>
       </c>
@@ -17483,7 +17484,7 @@
       </c>
       <c r="I356" s="31"/>
     </row>
-    <row r="357" spans="1:9" ht="45">
+    <row r="357" spans="1:9" ht="30">
       <c r="A357" s="29" t="s">
         <v>380</v>
       </c>
@@ -17508,7 +17509,7 @@
       </c>
       <c r="I357" s="31"/>
     </row>
-    <row r="358" spans="1:9" ht="30">
+    <row r="358" spans="1:9">
       <c r="A358" s="29" t="s">
         <v>381</v>
       </c>
@@ -17533,7 +17534,7 @@
       </c>
       <c r="I358" s="31"/>
     </row>
-    <row r="359" spans="1:9" ht="45">
+    <row r="359" spans="1:9" ht="30">
       <c r="A359" s="29" t="s">
         <v>382</v>
       </c>
@@ -17658,7 +17659,7 @@
       </c>
       <c r="I363" s="31"/>
     </row>
-    <row r="364" spans="1:9" ht="45">
+    <row r="364" spans="1:9" ht="30">
       <c r="A364" s="29" t="s">
         <v>387</v>
       </c>
@@ -17683,7 +17684,7 @@
       </c>
       <c r="I364" s="31"/>
     </row>
-    <row r="365" spans="1:9" ht="45">
+    <row r="365" spans="1:9" ht="30">
       <c r="A365" s="29" t="s">
         <v>388</v>
       </c>
@@ -17708,7 +17709,7 @@
       </c>
       <c r="I365" s="31"/>
     </row>
-    <row r="366" spans="1:9" ht="45">
+    <row r="366" spans="1:9" ht="30">
       <c r="A366" s="29" t="s">
         <v>389</v>
       </c>
@@ -17733,7 +17734,7 @@
       </c>
       <c r="I366" s="31"/>
     </row>
-    <row r="367" spans="1:9" ht="45">
+    <row r="367" spans="1:9" ht="30">
       <c r="A367" s="29" t="s">
         <v>390</v>
       </c>
@@ -17983,7 +17984,7 @@
       </c>
       <c r="I376" s="31"/>
     </row>
-    <row r="377" spans="1:9" ht="45">
+    <row r="377" spans="1:9" ht="30">
       <c r="A377" s="29" t="s">
         <v>400</v>
       </c>
@@ -18058,7 +18059,7 @@
       </c>
       <c r="I379" s="31"/>
     </row>
-    <row r="380" spans="1:9" ht="30">
+    <row r="380" spans="1:9">
       <c r="A380" s="29" t="s">
         <v>403</v>
       </c>
@@ -18158,7 +18159,7 @@
       </c>
       <c r="I383" s="31"/>
     </row>
-    <row r="384" spans="1:9" ht="45">
+    <row r="384" spans="1:9" ht="30">
       <c r="A384" s="29" t="s">
         <v>407</v>
       </c>
@@ -18183,7 +18184,7 @@
       </c>
       <c r="I384" s="31"/>
     </row>
-    <row r="385" spans="1:9" ht="30">
+    <row r="385" spans="1:9">
       <c r="A385" s="29" t="s">
         <v>408</v>
       </c>
@@ -18408,7 +18409,7 @@
       </c>
       <c r="I393" s="31"/>
     </row>
-    <row r="394" spans="1:9" ht="30">
+    <row r="394" spans="1:9">
       <c r="A394" s="29" t="s">
         <v>417</v>
       </c>
@@ -18514,7 +18515,7 @@
       </c>
       <c r="I397" s="31"/>
     </row>
-    <row r="398" spans="1:9" ht="45">
+    <row r="398" spans="1:9" ht="42">
       <c r="A398" s="29" t="s">
         <v>421</v>
       </c>
@@ -18976,7 +18977,7 @@
       </c>
       <c r="I415" s="31"/>
     </row>
-    <row r="416" spans="1:9" ht="30">
+    <row r="416" spans="1:9">
       <c r="A416" s="29" t="s">
         <v>439</v>
       </c>
@@ -19226,7 +19227,7 @@
       </c>
       <c r="I425" s="31"/>
     </row>
-    <row r="426" spans="1:9" ht="45">
+    <row r="426" spans="1:9" ht="30">
       <c r="A426" s="29" t="s">
         <v>449</v>
       </c>
@@ -19405,7 +19406,7 @@
       </c>
       <c r="I432" s="31"/>
     </row>
-    <row r="433" spans="1:9" ht="45">
+    <row r="433" spans="1:9" ht="30">
       <c r="A433" s="29" t="s">
         <v>456</v>
       </c>
@@ -19680,7 +19681,7 @@
       </c>
       <c r="I443" s="31"/>
     </row>
-    <row r="444" spans="1:9" ht="45">
+    <row r="444" spans="1:9" ht="30">
       <c r="A444" s="29" t="s">
         <v>467</v>
       </c>
@@ -20013,7 +20014,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="30">
+    <row r="457" spans="1:9">
       <c r="A457" s="22" t="s">
         <v>2241</v>
       </c>
@@ -20090,7 +20091,7 @@
       </c>
       <c r="I459" s="39"/>
     </row>
-    <row r="460" spans="1:9" ht="45">
+    <row r="460" spans="1:9" ht="30">
       <c r="A460" s="22" t="s">
         <v>2244</v>
       </c>
@@ -20165,7 +20166,7 @@
       </c>
       <c r="I462" s="39"/>
     </row>
-    <row r="463" spans="1:9" ht="45">
+    <row r="463" spans="1:9" ht="30">
       <c r="A463" s="22" t="s">
         <v>2247</v>
       </c>
@@ -20265,7 +20266,7 @@
       </c>
       <c r="I466" s="31"/>
     </row>
-    <row r="467" spans="1:9" ht="45">
+    <row r="467" spans="1:9" ht="30">
       <c r="A467" s="29" t="s">
         <v>479</v>
       </c>
@@ -20444,7 +20445,7 @@
       </c>
       <c r="I473" s="31"/>
     </row>
-    <row r="474" spans="1:9" ht="45">
+    <row r="474" spans="1:9" ht="30">
       <c r="A474" s="29" t="s">
         <v>486</v>
       </c>
@@ -20648,7 +20649,7 @@
       </c>
       <c r="I481" s="31"/>
     </row>
-    <row r="482" spans="1:9" ht="30">
+    <row r="482" spans="1:9">
       <c r="A482" s="29" t="s">
         <v>494</v>
       </c>
@@ -20698,7 +20699,7 @@
       </c>
       <c r="I483" s="31"/>
     </row>
-    <row r="484" spans="1:9" ht="45">
+    <row r="484" spans="1:9" ht="30">
       <c r="A484" s="29" t="s">
         <v>496</v>
       </c>
@@ -20902,7 +20903,7 @@
       </c>
       <c r="I491" s="31"/>
     </row>
-    <row r="492" spans="1:9" ht="30">
+    <row r="492" spans="1:9">
       <c r="A492" s="29" t="s">
         <v>504</v>
       </c>
@@ -21027,7 +21028,7 @@
       </c>
       <c r="I496" s="31"/>
     </row>
-    <row r="497" spans="1:9" ht="45">
+    <row r="497" spans="1:9" ht="30">
       <c r="A497" s="29" t="s">
         <v>509</v>
       </c>
@@ -21506,7 +21507,7 @@
       </c>
       <c r="I515" s="31"/>
     </row>
-    <row r="516" spans="1:9" ht="45">
+    <row r="516" spans="1:9" ht="30">
       <c r="A516" s="29" t="s">
         <v>528</v>
       </c>
@@ -21735,7 +21736,7 @@
       </c>
       <c r="I524" s="31"/>
     </row>
-    <row r="525" spans="1:9" ht="45">
+    <row r="525" spans="1:9" ht="30">
       <c r="A525" s="29" t="s">
         <v>537</v>
       </c>
@@ -21785,7 +21786,7 @@
       </c>
       <c r="I526" s="31"/>
     </row>
-    <row r="527" spans="1:9" ht="45">
+    <row r="527" spans="1:9" ht="30">
       <c r="A527" s="29" t="s">
         <v>539</v>
       </c>
@@ -21935,7 +21936,7 @@
       </c>
       <c r="I532" s="31"/>
     </row>
-    <row r="533" spans="1:9" ht="45">
+    <row r="533" spans="1:9" ht="30">
       <c r="A533" s="29" t="s">
         <v>545</v>
       </c>
@@ -22010,7 +22011,7 @@
       </c>
       <c r="I535" s="31"/>
     </row>
-    <row r="536" spans="1:9" ht="30">
+    <row r="536" spans="1:9">
       <c r="A536" s="29" t="s">
         <v>548</v>
       </c>
@@ -22360,7 +22361,7 @@
       </c>
       <c r="I549" s="31"/>
     </row>
-    <row r="550" spans="1:9" ht="45">
+    <row r="550" spans="1:9" ht="30">
       <c r="A550" s="29" t="s">
         <v>562</v>
       </c>
@@ -22489,7 +22490,7 @@
       </c>
       <c r="I554" s="31"/>
     </row>
-    <row r="555" spans="1:9" ht="30">
+    <row r="555" spans="1:9">
       <c r="A555" s="29" t="s">
         <v>567</v>
       </c>
@@ -22514,7 +22515,7 @@
       </c>
       <c r="I555" s="31"/>
     </row>
-    <row r="556" spans="1:9" ht="45">
+    <row r="556" spans="1:9" ht="30">
       <c r="A556" s="29" t="s">
         <v>568</v>
       </c>
@@ -22539,7 +22540,7 @@
       </c>
       <c r="I556" s="31"/>
     </row>
-    <row r="557" spans="1:9" ht="30">
+    <row r="557" spans="1:9">
       <c r="A557" s="29" t="s">
         <v>569</v>
       </c>
@@ -22664,7 +22665,7 @@
       </c>
       <c r="I561" s="31"/>
     </row>
-    <row r="562" spans="1:9" ht="60">
+    <row r="562" spans="1:9" ht="45">
       <c r="A562" s="29" t="s">
         <v>574</v>
       </c>
@@ -22689,7 +22690,7 @@
       </c>
       <c r="I562" s="31"/>
     </row>
-    <row r="563" spans="1:9" ht="60">
+    <row r="563" spans="1:9" ht="45">
       <c r="A563" s="29" t="s">
         <v>575</v>
       </c>
@@ -22714,7 +22715,7 @@
       </c>
       <c r="I563" s="31"/>
     </row>
-    <row r="564" spans="1:9" ht="45">
+    <row r="564" spans="1:9" ht="30">
       <c r="A564" s="29" t="s">
         <v>576</v>
       </c>
@@ -22764,7 +22765,7 @@
       </c>
       <c r="I565" s="31"/>
     </row>
-    <row r="566" spans="1:9" ht="45">
+    <row r="566" spans="1:9" ht="30">
       <c r="A566" s="29" t="s">
         <v>578</v>
       </c>
@@ -22868,7 +22869,7 @@
       </c>
       <c r="I569" s="31"/>
     </row>
-    <row r="570" spans="1:9" ht="45">
+    <row r="570" spans="1:9" ht="30">
       <c r="A570" s="29" t="s">
         <v>582</v>
       </c>
@@ -22893,7 +22894,7 @@
       </c>
       <c r="I570" s="31"/>
     </row>
-    <row r="571" spans="1:9" ht="30">
+    <row r="571" spans="1:9">
       <c r="A571" s="29" t="s">
         <v>583</v>
       </c>
@@ -22943,7 +22944,7 @@
       </c>
       <c r="I572" s="31"/>
     </row>
-    <row r="573" spans="1:9" ht="30">
+    <row r="573" spans="1:9">
       <c r="A573" s="29" t="s">
         <v>585</v>
       </c>
@@ -23093,7 +23094,7 @@
       </c>
       <c r="I578" s="31"/>
     </row>
-    <row r="579" spans="1:9" ht="45">
+    <row r="579" spans="1:9" ht="30">
       <c r="A579" s="29" t="s">
         <v>591</v>
       </c>
@@ -23143,7 +23144,7 @@
       </c>
       <c r="I580" s="31"/>
     </row>
-    <row r="581" spans="1:9" ht="45">
+    <row r="581" spans="1:9" ht="30">
       <c r="A581" s="29" t="s">
         <v>593</v>
       </c>
@@ -23272,7 +23273,7 @@
       </c>
       <c r="I585" s="31"/>
     </row>
-    <row r="586" spans="1:9" ht="45">
+    <row r="586" spans="1:9" ht="30">
       <c r="A586" s="29" t="s">
         <v>598</v>
       </c>
@@ -23372,7 +23373,7 @@
       </c>
       <c r="I589" s="31"/>
     </row>
-    <row r="590" spans="1:9" ht="45">
+    <row r="590" spans="1:9" ht="30">
       <c r="A590" s="29" t="s">
         <v>602</v>
       </c>
@@ -23497,7 +23498,7 @@
       </c>
       <c r="I594" s="31"/>
     </row>
-    <row r="595" spans="1:9" ht="45">
+    <row r="595" spans="1:9" ht="30">
       <c r="A595" s="29" t="s">
         <v>607</v>
       </c>
@@ -23751,7 +23752,7 @@
       </c>
       <c r="I604" s="31"/>
     </row>
-    <row r="605" spans="1:9" ht="60">
+    <row r="605" spans="1:9" ht="45">
       <c r="A605" s="29" t="s">
         <v>617</v>
       </c>
@@ -23851,7 +23852,7 @@
       </c>
       <c r="I608" s="31"/>
     </row>
-    <row r="609" spans="1:9" ht="45">
+    <row r="609" spans="1:9" ht="30">
       <c r="A609" s="29" t="s">
         <v>621</v>
       </c>
@@ -23951,7 +23952,7 @@
       </c>
       <c r="I612" s="31"/>
     </row>
-    <row r="613" spans="1:9" ht="30">
+    <row r="613" spans="1:9">
       <c r="A613" s="29" t="s">
         <v>625</v>
       </c>
@@ -24001,7 +24002,7 @@
       </c>
       <c r="I614" s="31"/>
     </row>
-    <row r="615" spans="1:9" ht="45">
+    <row r="615" spans="1:9" ht="30">
       <c r="A615" s="29" t="s">
         <v>627</v>
       </c>
@@ -24176,7 +24177,7 @@
       </c>
       <c r="I621" s="31"/>
     </row>
-    <row r="622" spans="1:9" ht="45">
+    <row r="622" spans="1:9" ht="30">
       <c r="A622" s="29" t="s">
         <v>634</v>
       </c>
@@ -24376,7 +24377,7 @@
       </c>
       <c r="I629" s="31"/>
     </row>
-    <row r="630" spans="1:9" ht="60">
+    <row r="630" spans="1:9" ht="45">
       <c r="A630" s="29" t="s">
         <v>642</v>
       </c>
@@ -24401,7 +24402,7 @@
       </c>
       <c r="I630" s="31"/>
     </row>
-    <row r="631" spans="1:9" ht="75">
+    <row r="631" spans="1:9" ht="60">
       <c r="A631" s="29" t="s">
         <v>643</v>
       </c>
@@ -24526,7 +24527,7 @@
       </c>
       <c r="I635" s="31"/>
     </row>
-    <row r="636" spans="1:9" ht="45">
+    <row r="636" spans="1:9" ht="30">
       <c r="A636" s="29" t="s">
         <v>648</v>
       </c>
@@ -24751,7 +24752,7 @@
       </c>
       <c r="I644" s="31"/>
     </row>
-    <row r="645" spans="1:9" ht="45">
+    <row r="645" spans="1:9" ht="30">
       <c r="A645" s="29" t="s">
         <v>657</v>
       </c>
@@ -24951,7 +24952,7 @@
       </c>
       <c r="I652" s="31"/>
     </row>
-    <row r="653" spans="1:9" ht="60">
+    <row r="653" spans="1:9" ht="45">
       <c r="A653" s="29" t="s">
         <v>665</v>
       </c>
@@ -24976,7 +24977,7 @@
       </c>
       <c r="I653" s="31"/>
     </row>
-    <row r="654" spans="1:9" ht="60">
+    <row r="654" spans="1:9" ht="45">
       <c r="A654" s="29" t="s">
         <v>666</v>
       </c>
@@ -25001,7 +25002,7 @@
       </c>
       <c r="I654" s="31"/>
     </row>
-    <row r="655" spans="1:9" ht="60">
+    <row r="655" spans="1:9" ht="45">
       <c r="A655" s="29" t="s">
         <v>667</v>
       </c>
@@ -25026,7 +25027,7 @@
       </c>
       <c r="I655" s="31"/>
     </row>
-    <row r="656" spans="1:9" ht="60">
+    <row r="656" spans="1:9" ht="45">
       <c r="A656" s="29" t="s">
         <v>668</v>
       </c>
@@ -25051,7 +25052,7 @@
       </c>
       <c r="I656" s="31"/>
     </row>
-    <row r="657" spans="1:9" ht="60">
+    <row r="657" spans="1:9" ht="45">
       <c r="A657" s="29" t="s">
         <v>669</v>
       </c>
@@ -25076,7 +25077,7 @@
       </c>
       <c r="I657" s="31"/>
     </row>
-    <row r="658" spans="1:9" ht="60">
+    <row r="658" spans="1:9" ht="45">
       <c r="A658" s="29" t="s">
         <v>670</v>
       </c>
@@ -25101,7 +25102,7 @@
       </c>
       <c r="I658" s="31"/>
     </row>
-    <row r="659" spans="1:9" ht="60">
+    <row r="659" spans="1:9" ht="45">
       <c r="A659" s="29" t="s">
         <v>671</v>
       </c>
@@ -25126,7 +25127,7 @@
       </c>
       <c r="I659" s="31"/>
     </row>
-    <row r="660" spans="1:9" ht="60">
+    <row r="660" spans="1:9" ht="45">
       <c r="A660" s="29" t="s">
         <v>672</v>
       </c>
@@ -25151,7 +25152,7 @@
       </c>
       <c r="I660" s="31"/>
     </row>
-    <row r="661" spans="1:9" ht="60">
+    <row r="661" spans="1:9" ht="45">
       <c r="A661" s="29" t="s">
         <v>673</v>
       </c>
@@ -25176,7 +25177,7 @@
       </c>
       <c r="I661" s="31"/>
     </row>
-    <row r="662" spans="1:9" ht="60">
+    <row r="662" spans="1:9" ht="45">
       <c r="A662" s="29" t="s">
         <v>674</v>
       </c>
@@ -25276,7 +25277,7 @@
       </c>
       <c r="I665" s="31"/>
     </row>
-    <row r="666" spans="1:9" ht="45">
+    <row r="666" spans="1:9" ht="30">
       <c r="A666" s="29" t="s">
         <v>678</v>
       </c>
@@ -25351,7 +25352,7 @@
       </c>
       <c r="I668" s="31"/>
     </row>
-    <row r="669" spans="1:9" ht="45">
+    <row r="669" spans="1:9" ht="30">
       <c r="A669" s="29" t="s">
         <v>681</v>
       </c>
@@ -25451,7 +25452,7 @@
       </c>
       <c r="I672" s="31"/>
     </row>
-    <row r="673" spans="1:9" ht="45">
+    <row r="673" spans="1:9" ht="30">
       <c r="A673" s="29" t="s">
         <v>685</v>
       </c>
@@ -25584,7 +25585,7 @@
       </c>
       <c r="I677" s="31"/>
     </row>
-    <row r="678" spans="1:9" ht="45">
+    <row r="678" spans="1:9" ht="30">
       <c r="A678" s="29" t="s">
         <v>690</v>
       </c>
@@ -25609,7 +25610,7 @@
       </c>
       <c r="I678" s="31"/>
     </row>
-    <row r="679" spans="1:9" ht="45">
+    <row r="679" spans="1:9" ht="30">
       <c r="A679" s="29" t="s">
         <v>691</v>
       </c>
@@ -25634,7 +25635,7 @@
       </c>
       <c r="I679" s="31"/>
     </row>
-    <row r="680" spans="1:9" ht="45">
+    <row r="680" spans="1:9" ht="30">
       <c r="A680" s="29" t="s">
         <v>692</v>
       </c>
@@ -25684,7 +25685,7 @@
       </c>
       <c r="I681" s="31"/>
     </row>
-    <row r="682" spans="1:9" ht="45">
+    <row r="682" spans="1:9" ht="30">
       <c r="A682" s="29" t="s">
         <v>694</v>
       </c>
@@ -25809,7 +25810,7 @@
       </c>
       <c r="I686" s="31"/>
     </row>
-    <row r="687" spans="1:9" ht="45">
+    <row r="687" spans="1:9" ht="30">
       <c r="A687" s="29" t="s">
         <v>699</v>
       </c>
@@ -25861,7 +25862,7 @@
       </c>
       <c r="I688" s="31"/>
     </row>
-    <row r="689" spans="1:9" ht="30">
+    <row r="689" spans="1:9">
       <c r="A689" s="29" t="s">
         <v>701</v>
       </c>
@@ -25986,7 +25987,7 @@
       </c>
       <c r="I693" s="31"/>
     </row>
-    <row r="694" spans="1:9" ht="45">
+    <row r="694" spans="1:9" ht="30">
       <c r="A694" s="29" t="s">
         <v>704</v>
       </c>
@@ -26061,7 +26062,7 @@
       </c>
       <c r="I696" s="31"/>
     </row>
-    <row r="697" spans="1:9" ht="30">
+    <row r="697" spans="1:9">
       <c r="A697" s="29" t="s">
         <v>707</v>
       </c>
@@ -26186,7 +26187,7 @@
       </c>
       <c r="I701" s="31"/>
     </row>
-    <row r="702" spans="1:9" ht="30">
+    <row r="702" spans="1:9">
       <c r="A702" s="29" t="s">
         <v>712</v>
       </c>
@@ -26311,7 +26312,7 @@
       </c>
       <c r="I706" s="31"/>
     </row>
-    <row r="707" spans="1:9" ht="75">
+    <row r="707" spans="1:9" ht="60">
       <c r="A707" s="29" t="s">
         <v>717</v>
       </c>
@@ -26336,7 +26337,7 @@
       </c>
       <c r="I707" s="31"/>
     </row>
-    <row r="708" spans="1:9" ht="75">
+    <row r="708" spans="1:9" ht="60">
       <c r="A708" s="29" t="s">
         <v>718</v>
       </c>
@@ -26361,7 +26362,7 @@
       </c>
       <c r="I708" s="31"/>
     </row>
-    <row r="709" spans="1:9" ht="75">
+    <row r="709" spans="1:9" ht="60">
       <c r="A709" s="29" t="s">
         <v>719</v>
       </c>
@@ -26386,7 +26387,7 @@
       </c>
       <c r="I709" s="31"/>
     </row>
-    <row r="710" spans="1:9" ht="75">
+    <row r="710" spans="1:9" ht="60">
       <c r="A710" s="29" t="s">
         <v>720</v>
       </c>
@@ -26411,7 +26412,7 @@
       </c>
       <c r="I710" s="31"/>
     </row>
-    <row r="711" spans="1:9" ht="75">
+    <row r="711" spans="1:9" ht="60">
       <c r="A711" s="29" t="s">
         <v>721</v>
       </c>
@@ -26436,7 +26437,7 @@
       </c>
       <c r="I711" s="31"/>
     </row>
-    <row r="712" spans="1:9" ht="45">
+    <row r="712" spans="1:9" ht="30">
       <c r="A712" s="29" t="s">
         <v>722</v>
       </c>
@@ -26511,7 +26512,7 @@
       </c>
       <c r="I714" s="31"/>
     </row>
-    <row r="715" spans="1:9" ht="45">
+    <row r="715" spans="1:9" ht="30">
       <c r="A715" s="29" t="s">
         <v>725</v>
       </c>
@@ -26636,7 +26637,7 @@
       </c>
       <c r="I719" s="31"/>
     </row>
-    <row r="720" spans="1:9" ht="30">
+    <row r="720" spans="1:9">
       <c r="A720" s="29" t="s">
         <v>730</v>
       </c>
@@ -26786,7 +26787,7 @@
       </c>
       <c r="I725" s="31"/>
     </row>
-    <row r="726" spans="1:9" ht="45">
+    <row r="726" spans="1:9" ht="30">
       <c r="A726" s="29" t="s">
         <v>736</v>
       </c>
@@ -26838,7 +26839,7 @@
       </c>
       <c r="I727" s="31"/>
     </row>
-    <row r="728" spans="1:9" ht="60">
+    <row r="728" spans="1:9" ht="45">
       <c r="A728" s="29" t="s">
         <v>738</v>
       </c>
@@ -26913,7 +26914,7 @@
       </c>
       <c r="I730" s="31"/>
     </row>
-    <row r="731" spans="1:9" ht="60">
+    <row r="731" spans="1:9" ht="45">
       <c r="A731" s="29" t="s">
         <v>741</v>
       </c>
@@ -26990,7 +26991,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="734" spans="1:9" ht="45">
+    <row r="734" spans="1:9" ht="30">
       <c r="A734" s="29" t="s">
         <v>744</v>
       </c>
@@ -27115,7 +27116,7 @@
       </c>
       <c r="I738" s="31"/>
     </row>
-    <row r="739" spans="1:9" ht="60">
+    <row r="739" spans="1:9" ht="45">
       <c r="A739" s="29" t="s">
         <v>749</v>
       </c>
@@ -27140,7 +27141,7 @@
       </c>
       <c r="I739" s="31"/>
     </row>
-    <row r="740" spans="1:9" ht="45">
+    <row r="740" spans="1:9" ht="30">
       <c r="A740" s="29" t="s">
         <v>750</v>
       </c>
@@ -27165,7 +27166,7 @@
       </c>
       <c r="I740" s="31"/>
     </row>
-    <row r="741" spans="1:9" ht="60">
+    <row r="741" spans="1:9" ht="45">
       <c r="A741" s="29" t="s">
         <v>751</v>
       </c>
@@ -27190,7 +27191,7 @@
       </c>
       <c r="I741" s="31"/>
     </row>
-    <row r="742" spans="1:9" ht="45">
+    <row r="742" spans="1:9" ht="30">
       <c r="A742" s="29" t="s">
         <v>752</v>
       </c>
@@ -27269,7 +27270,7 @@
       </c>
       <c r="I744" s="31"/>
     </row>
-    <row r="745" spans="1:9" ht="30">
+    <row r="745" spans="1:9">
       <c r="A745" s="29" t="s">
         <v>755</v>
       </c>
@@ -27369,7 +27370,7 @@
       </c>
       <c r="I748" s="31"/>
     </row>
-    <row r="749" spans="1:9" ht="60">
+    <row r="749" spans="1:9" ht="45">
       <c r="A749" s="29" t="s">
         <v>759</v>
       </c>
@@ -27394,7 +27395,7 @@
       </c>
       <c r="I749" s="31"/>
     </row>
-    <row r="750" spans="1:9" ht="60">
+    <row r="750" spans="1:9" ht="45">
       <c r="A750" s="29" t="s">
         <v>760</v>
       </c>
@@ -27421,7 +27422,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="751" spans="1:9" ht="45">
+    <row r="751" spans="1:9" ht="30">
       <c r="A751" s="29" t="s">
         <v>761</v>
       </c>
@@ -27446,7 +27447,7 @@
       </c>
       <c r="I751" s="31"/>
     </row>
-    <row r="752" spans="1:9" ht="60">
+    <row r="752" spans="1:9" ht="45">
       <c r="A752" s="29" t="s">
         <v>762</v>
       </c>
@@ -27473,7 +27474,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="753" spans="1:9" ht="60">
+    <row r="753" spans="1:9" ht="45">
       <c r="A753" s="29" t="s">
         <v>763</v>
       </c>
@@ -27548,7 +27549,7 @@
       </c>
       <c r="I755" s="31"/>
     </row>
-    <row r="756" spans="1:9" ht="45">
+    <row r="756" spans="1:9" ht="30">
       <c r="A756" s="29" t="s">
         <v>766</v>
       </c>
@@ -27600,7 +27601,7 @@
       </c>
       <c r="I757" s="31"/>
     </row>
-    <row r="758" spans="1:9" ht="60">
+    <row r="758" spans="1:9" ht="45">
       <c r="A758" s="29" t="s">
         <v>768</v>
       </c>
@@ -27625,7 +27626,7 @@
       </c>
       <c r="I758" s="31"/>
     </row>
-    <row r="759" spans="1:9" ht="45">
+    <row r="759" spans="1:9" ht="30">
       <c r="A759" s="29" t="s">
         <v>769</v>
       </c>
@@ -27800,7 +27801,7 @@
       </c>
       <c r="I765" s="31"/>
     </row>
-    <row r="766" spans="1:9" ht="45">
+    <row r="766" spans="1:9" ht="30">
       <c r="A766" s="29" t="s">
         <v>776</v>
       </c>
@@ -27852,7 +27853,7 @@
       </c>
       <c r="I767" s="31"/>
     </row>
-    <row r="768" spans="1:9" ht="60">
+    <row r="768" spans="1:9" ht="45">
       <c r="A768" s="29" t="s">
         <v>778</v>
       </c>
@@ -27904,7 +27905,7 @@
       </c>
       <c r="I769" s="31"/>
     </row>
-    <row r="770" spans="1:9" ht="60">
+    <row r="770" spans="1:9" ht="45">
       <c r="A770" s="29" t="s">
         <v>780</v>
       </c>
@@ -27954,7 +27955,7 @@
       </c>
       <c r="I771" s="31"/>
     </row>
-    <row r="772" spans="1:9" ht="45">
+    <row r="772" spans="1:9" ht="30">
       <c r="A772" s="29" t="s">
         <v>782</v>
       </c>
@@ -27981,7 +27982,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="773" spans="1:9" ht="60">
+    <row r="773" spans="1:9" ht="45">
       <c r="A773" s="29" t="s">
         <v>783</v>
       </c>
@@ -28033,7 +28034,7 @@
       </c>
       <c r="I774" s="31"/>
     </row>
-    <row r="775" spans="1:9" ht="60">
+    <row r="775" spans="1:9" ht="45">
       <c r="A775" s="29" t="s">
         <v>785</v>
       </c>
@@ -28058,7 +28059,7 @@
       </c>
       <c r="I775" s="31"/>
     </row>
-    <row r="776" spans="1:9" ht="45">
+    <row r="776" spans="1:9" ht="30">
       <c r="A776" s="29" t="s">
         <v>786</v>
       </c>
@@ -28108,7 +28109,7 @@
       </c>
       <c r="I777" s="31"/>
     </row>
-    <row r="778" spans="1:9" ht="45">
+    <row r="778" spans="1:9" ht="30">
       <c r="A778" s="29" t="s">
         <v>788</v>
       </c>
@@ -28160,7 +28161,7 @@
       </c>
       <c r="I779" s="31"/>
     </row>
-    <row r="780" spans="1:9" ht="60">
+    <row r="780" spans="1:9" ht="45">
       <c r="A780" s="29" t="s">
         <v>790</v>
       </c>
@@ -28187,7 +28188,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="781" spans="1:9" ht="45">
+    <row r="781" spans="1:9" ht="30">
       <c r="A781" s="29" t="s">
         <v>791</v>
       </c>
@@ -28241,7 +28242,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="783" spans="1:9" ht="45">
+    <row r="783" spans="1:9" ht="30">
       <c r="A783" s="29" t="s">
         <v>793</v>
       </c>
@@ -28341,7 +28342,7 @@
       </c>
       <c r="I786" s="31"/>
     </row>
-    <row r="787" spans="1:9" ht="90">
+    <row r="787" spans="1:9" ht="75">
       <c r="A787" s="29" t="s">
         <v>797</v>
       </c>
@@ -28366,7 +28367,7 @@
       </c>
       <c r="I787" s="31"/>
     </row>
-    <row r="788" spans="1:9" ht="75">
+    <row r="788" spans="1:9" ht="60">
       <c r="A788" s="29" t="s">
         <v>798</v>
       </c>
@@ -28391,7 +28392,7 @@
       </c>
       <c r="I788" s="31"/>
     </row>
-    <row r="789" spans="1:9" ht="75">
+    <row r="789" spans="1:9" ht="60">
       <c r="A789" s="29" t="s">
         <v>799</v>
       </c>
@@ -28491,7 +28492,7 @@
       </c>
       <c r="I792" s="31"/>
     </row>
-    <row r="793" spans="1:9" ht="45">
+    <row r="793" spans="1:9" ht="30">
       <c r="A793" s="29" t="s">
         <v>803</v>
       </c>
@@ -28591,7 +28592,7 @@
       </c>
       <c r="I796" s="31"/>
     </row>
-    <row r="797" spans="1:9" ht="60">
+    <row r="797" spans="1:9" ht="45">
       <c r="A797" s="29" t="s">
         <v>807</v>
       </c>
@@ -28616,7 +28617,7 @@
       </c>
       <c r="I797" s="31"/>
     </row>
-    <row r="798" spans="1:9" ht="105">
+    <row r="798" spans="1:9" ht="90">
       <c r="A798" s="29" t="s">
         <v>808</v>
       </c>
@@ -28641,7 +28642,7 @@
       </c>
       <c r="I798" s="31"/>
     </row>
-    <row r="799" spans="1:9" ht="105">
+    <row r="799" spans="1:9" ht="90">
       <c r="A799" s="29" t="s">
         <v>809</v>
       </c>
@@ -28666,7 +28667,7 @@
       </c>
       <c r="I799" s="31"/>
     </row>
-    <row r="800" spans="1:9" ht="120">
+    <row r="800" spans="1:9" ht="105">
       <c r="A800" s="29" t="s">
         <v>810</v>
       </c>
@@ -28691,7 +28692,7 @@
       </c>
       <c r="I800" s="31"/>
     </row>
-    <row r="801" spans="1:9" ht="105">
+    <row r="801" spans="1:9" ht="90">
       <c r="A801" s="29" t="s">
         <v>811</v>
       </c>
@@ -28716,7 +28717,7 @@
       </c>
       <c r="I801" s="31"/>
     </row>
-    <row r="802" spans="1:9" ht="150">
+    <row r="802" spans="1:9" ht="120">
       <c r="A802" s="29" t="s">
         <v>812</v>
       </c>
@@ -28741,7 +28742,7 @@
       </c>
       <c r="I802" s="31"/>
     </row>
-    <row r="803" spans="1:9" ht="105">
+    <row r="803" spans="1:9" ht="90">
       <c r="A803" s="29" t="s">
         <v>813</v>
       </c>
@@ -28816,7 +28817,7 @@
       </c>
       <c r="I805" s="31"/>
     </row>
-    <row r="806" spans="1:9" ht="45">
+    <row r="806" spans="1:9" ht="30">
       <c r="A806" s="29" t="s">
         <v>816</v>
       </c>
@@ -28891,7 +28892,7 @@
       </c>
       <c r="I808" s="31"/>
     </row>
-    <row r="809" spans="1:9" ht="30">
+    <row r="809" spans="1:9">
       <c r="A809" s="29" t="s">
         <v>819</v>
       </c>
@@ -28991,7 +28992,7 @@
       </c>
       <c r="I812" s="31"/>
     </row>
-    <row r="813" spans="1:9" ht="60">
+    <row r="813" spans="1:9" ht="45">
       <c r="A813" s="29" t="s">
         <v>823</v>
       </c>
@@ -29093,7 +29094,7 @@
       </c>
       <c r="I816" s="31"/>
     </row>
-    <row r="817" spans="1:9" ht="30">
+    <row r="817" spans="1:9">
       <c r="A817" s="29" t="s">
         <v>827</v>
       </c>
@@ -29220,7 +29221,7 @@
       </c>
       <c r="I821" s="31"/>
     </row>
-    <row r="822" spans="1:9" ht="30">
+    <row r="822" spans="1:9">
       <c r="A822" s="29" t="s">
         <v>832</v>
       </c>
@@ -29295,7 +29296,7 @@
       </c>
       <c r="I824" s="31"/>
     </row>
-    <row r="825" spans="1:9" ht="30">
+    <row r="825" spans="1:9">
       <c r="A825" s="29" t="s">
         <v>835</v>
       </c>
@@ -29345,7 +29346,7 @@
       </c>
       <c r="I826" s="31"/>
     </row>
-    <row r="827" spans="1:9" ht="45">
+    <row r="827" spans="1:9" ht="30">
       <c r="A827" s="29" t="s">
         <v>837</v>
       </c>
@@ -29420,7 +29421,7 @@
       </c>
       <c r="I829" s="31"/>
     </row>
-    <row r="830" spans="1:9" ht="45">
+    <row r="830" spans="1:9" ht="30">
       <c r="A830" s="29" t="s">
         <v>840</v>
       </c>
@@ -29472,7 +29473,7 @@
       </c>
       <c r="I831" s="31"/>
     </row>
-    <row r="832" spans="1:9" ht="30">
+    <row r="832" spans="1:9">
       <c r="A832" s="29" t="s">
         <v>842</v>
       </c>
@@ -29547,7 +29548,7 @@
       </c>
       <c r="I834" s="31"/>
     </row>
-    <row r="835" spans="1:9" ht="60">
+    <row r="835" spans="1:9" ht="45">
       <c r="A835" s="29" t="s">
         <v>845</v>
       </c>
@@ -29624,7 +29625,7 @@
       </c>
       <c r="I837" s="31"/>
     </row>
-    <row r="838" spans="1:9" ht="45">
+    <row r="838" spans="1:9" ht="30">
       <c r="A838" s="29" t="s">
         <v>848</v>
       </c>
@@ -29676,7 +29677,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="840" spans="1:9" ht="45">
+    <row r="840" spans="1:9" ht="30">
       <c r="A840" s="29" t="s">
         <v>850</v>
       </c>
@@ -29751,7 +29752,7 @@
       </c>
       <c r="I842" s="31"/>
     </row>
-    <row r="843" spans="1:9" ht="45">
+    <row r="843" spans="1:9" ht="30">
       <c r="A843" s="29" t="s">
         <v>853</v>
       </c>
@@ -29778,7 +29779,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="844" spans="1:9" ht="45">
+    <row r="844" spans="1:9" ht="30">
       <c r="A844" s="29" t="s">
         <v>854</v>
       </c>
@@ -29805,7 +29806,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="845" spans="1:9" ht="60">
+    <row r="845" spans="1:9" ht="45">
       <c r="A845" s="22" t="s">
         <v>2258</v>
       </c>
@@ -29855,7 +29856,7 @@
       </c>
       <c r="I846" s="31"/>
     </row>
-    <row r="847" spans="1:9" ht="30">
+    <row r="847" spans="1:9">
       <c r="A847" s="29" t="s">
         <v>856</v>
       </c>
@@ -29930,7 +29931,7 @@
       </c>
       <c r="I849" s="31"/>
     </row>
-    <row r="850" spans="1:9" ht="45">
+    <row r="850" spans="1:9" ht="30">
       <c r="A850" s="29" t="s">
         <v>859</v>
       </c>
@@ -29980,7 +29981,7 @@
       </c>
       <c r="I851" s="31"/>
     </row>
-    <row r="852" spans="1:9" ht="30">
+    <row r="852" spans="1:9">
       <c r="A852" s="29" t="s">
         <v>861</v>
       </c>
@@ -30055,7 +30056,7 @@
       </c>
       <c r="I854" s="31"/>
     </row>
-    <row r="855" spans="1:9" ht="30">
+    <row r="855" spans="1:9">
       <c r="A855" s="29" t="s">
         <v>864</v>
       </c>
@@ -30105,7 +30106,7 @@
       </c>
       <c r="I856" s="31"/>
     </row>
-    <row r="857" spans="1:9" ht="30">
+    <row r="857" spans="1:9">
       <c r="A857" s="29" t="s">
         <v>866</v>
       </c>
@@ -30280,7 +30281,7 @@
       </c>
       <c r="I863" s="31"/>
     </row>
-    <row r="864" spans="1:9" ht="30">
+    <row r="864" spans="1:9">
       <c r="A864" s="29" t="s">
         <v>873</v>
       </c>
@@ -30380,7 +30381,7 @@
       </c>
       <c r="I867" s="31"/>
     </row>
-    <row r="868" spans="1:9" ht="45">
+    <row r="868" spans="1:9" ht="30">
       <c r="A868" s="29" t="s">
         <v>877</v>
       </c>
@@ -30430,7 +30431,7 @@
       </c>
       <c r="I869" s="31"/>
     </row>
-    <row r="870" spans="1:9" ht="45">
+    <row r="870" spans="1:9" ht="30">
       <c r="A870" s="29" t="s">
         <v>879</v>
       </c>
@@ -30457,7 +30458,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="871" spans="1:9" ht="45">
+    <row r="871" spans="1:9" ht="30">
       <c r="A871" s="29" t="s">
         <v>880</v>
       </c>
@@ -30509,7 +30510,7 @@
       </c>
       <c r="I872" s="31"/>
     </row>
-    <row r="873" spans="1:9" ht="30">
+    <row r="873" spans="1:9">
       <c r="A873" s="29" t="s">
         <v>882</v>
       </c>
@@ -30584,7 +30585,7 @@
       </c>
       <c r="I875" s="31"/>
     </row>
-    <row r="876" spans="1:9" ht="45">
+    <row r="876" spans="1:9" ht="30">
       <c r="A876" s="29" t="s">
         <v>885</v>
       </c>
@@ -30661,7 +30662,7 @@
       </c>
       <c r="I878" s="31"/>
     </row>
-    <row r="879" spans="1:9" ht="45">
+    <row r="879" spans="1:9" ht="30">
       <c r="A879" s="29" t="s">
         <v>888</v>
       </c>
@@ -30888,7 +30889,7 @@
       </c>
       <c r="I887" s="31"/>
     </row>
-    <row r="888" spans="1:9" ht="45">
+    <row r="888" spans="1:9" ht="30">
       <c r="A888" s="29" t="s">
         <v>897</v>
       </c>
@@ -30988,7 +30989,7 @@
       </c>
       <c r="I891" s="31"/>
     </row>
-    <row r="892" spans="1:9" ht="45">
+    <row r="892" spans="1:9" ht="30">
       <c r="A892" s="29" t="s">
         <v>901</v>
       </c>
@@ -31040,7 +31041,7 @@
       </c>
       <c r="I893" s="31"/>
     </row>
-    <row r="894" spans="1:9" ht="45">
+    <row r="894" spans="1:9" ht="30">
       <c r="A894" s="29" t="s">
         <v>903</v>
       </c>
@@ -31065,7 +31066,7 @@
       </c>
       <c r="I894" s="31"/>
     </row>
-    <row r="895" spans="1:9" ht="60">
+    <row r="895" spans="1:9" ht="45">
       <c r="A895" s="29" t="s">
         <v>904</v>
       </c>
@@ -31090,7 +31091,7 @@
       </c>
       <c r="I895" s="31"/>
     </row>
-    <row r="896" spans="1:9" ht="45">
+    <row r="896" spans="1:9" ht="30">
       <c r="A896" s="29" t="s">
         <v>905</v>
       </c>
@@ -31140,7 +31141,7 @@
       </c>
       <c r="I897" s="31"/>
     </row>
-    <row r="898" spans="1:9" ht="60">
+    <row r="898" spans="1:9" ht="45">
       <c r="A898" s="29" t="s">
         <v>907</v>
       </c>
@@ -31165,7 +31166,7 @@
       </c>
       <c r="I898" s="31"/>
     </row>
-    <row r="899" spans="1:9" ht="45">
+    <row r="899" spans="1:9" ht="30">
       <c r="A899" s="29" t="s">
         <v>908</v>
       </c>
@@ -31190,7 +31191,7 @@
       </c>
       <c r="I899" s="31"/>
     </row>
-    <row r="900" spans="1:9" ht="45">
+    <row r="900" spans="1:9" ht="30">
       <c r="A900" s="29" t="s">
         <v>909</v>
       </c>
@@ -31290,7 +31291,7 @@
       </c>
       <c r="I903" s="31"/>
     </row>
-    <row r="904" spans="1:9" ht="45">
+    <row r="904" spans="1:9" ht="30">
       <c r="A904" s="29" t="s">
         <v>913</v>
       </c>
@@ -31342,7 +31343,7 @@
       </c>
       <c r="I905" s="31"/>
     </row>
-    <row r="906" spans="1:9" ht="45">
+    <row r="906" spans="1:9" ht="30">
       <c r="A906" s="29" t="s">
         <v>915</v>
       </c>
@@ -31367,7 +31368,7 @@
       </c>
       <c r="I906" s="31"/>
     </row>
-    <row r="907" spans="1:9" ht="45">
+    <row r="907" spans="1:9" ht="30">
       <c r="A907" s="29" t="s">
         <v>916</v>
       </c>
@@ -31467,7 +31468,7 @@
       </c>
       <c r="I910" s="31"/>
     </row>
-    <row r="911" spans="1:9" ht="45">
+    <row r="911" spans="1:9" ht="30">
       <c r="A911" s="29" t="s">
         <v>920</v>
       </c>
@@ -31569,7 +31570,7 @@
       </c>
       <c r="I914" s="31"/>
     </row>
-    <row r="915" spans="1:9" ht="30">
+    <row r="915" spans="1:9">
       <c r="A915" s="29" t="s">
         <v>924</v>
       </c>
@@ -31644,7 +31645,7 @@
       </c>
       <c r="I917" s="31"/>
     </row>
-    <row r="918" spans="1:9" ht="45">
+    <row r="918" spans="1:9" ht="30">
       <c r="A918" s="29" t="s">
         <v>927</v>
       </c>
@@ -31746,7 +31747,7 @@
       </c>
       <c r="I921" s="31"/>
     </row>
-    <row r="922" spans="1:9" ht="30">
+    <row r="922" spans="1:9">
       <c r="A922" s="29" t="s">
         <v>931</v>
       </c>
@@ -31821,7 +31822,7 @@
       </c>
       <c r="I924" s="31"/>
     </row>
-    <row r="925" spans="1:9" ht="45">
+    <row r="925" spans="1:9" ht="30">
       <c r="A925" s="29" t="s">
         <v>934</v>
       </c>
@@ -32076,7 +32077,7 @@
       </c>
       <c r="I933" s="31"/>
     </row>
-    <row r="934" spans="1:9" ht="45">
+    <row r="934" spans="1:9" ht="30">
       <c r="A934" s="29" t="s">
         <v>943</v>
       </c>
@@ -32161,7 +32162,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="937" spans="1:9" ht="60">
+    <row r="937" spans="1:9" ht="45">
       <c r="A937" s="29" t="s">
         <v>946</v>
       </c>
@@ -32393,7 +32394,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="945" spans="1:9" ht="60">
+    <row r="945" spans="1:9" ht="45">
       <c r="A945" s="29" t="s">
         <v>954</v>
       </c>
@@ -32596,7 +32597,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="952" spans="1:9" ht="60">
+    <row r="952" spans="1:9" ht="45">
       <c r="A952" s="29" t="s">
         <v>961</v>
       </c>
@@ -32768,7 +32769,7 @@
       </c>
       <c r="I957" s="31"/>
     </row>
-    <row r="958" spans="1:9" ht="60">
+    <row r="958" spans="1:9" ht="45">
       <c r="A958" s="29" t="s">
         <v>967</v>
       </c>
@@ -32797,7 +32798,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="959" spans="1:9" ht="60">
+    <row r="959" spans="1:9" ht="45">
       <c r="A959" s="29" t="s">
         <v>968</v>
       </c>
@@ -32853,7 +32854,7 @@
       </c>
       <c r="I960" s="31"/>
     </row>
-    <row r="961" spans="1:9" ht="60">
+    <row r="961" spans="1:9" ht="45">
       <c r="A961" s="29" t="s">
         <v>970</v>
       </c>
@@ -32992,7 +32993,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="966" spans="1:9" ht="45">
+    <row r="966" spans="1:9" ht="30">
       <c r="A966" s="29" t="s">
         <v>975</v>
       </c>
@@ -33383,7 +33384,7 @@
       </c>
       <c r="J979" s="31"/>
     </row>
-    <row r="980" spans="1:10" ht="30">
+    <row r="980" spans="1:10">
       <c r="A980" s="29" t="s">
         <v>988</v>
       </c>
@@ -33408,7 +33409,7 @@
       </c>
       <c r="I980" s="31"/>
     </row>
-    <row r="981" spans="1:10" ht="30">
+    <row r="981" spans="1:10">
       <c r="A981" s="29" t="s">
         <v>989</v>
       </c>
@@ -33433,7 +33434,7 @@
       </c>
       <c r="I981" s="31"/>
     </row>
-    <row r="982" spans="1:10" ht="30">
+    <row r="982" spans="1:10">
       <c r="A982" s="29" t="s">
         <v>990</v>
       </c>
@@ -33458,7 +33459,7 @@
       </c>
       <c r="I982" s="31"/>
     </row>
-    <row r="983" spans="1:10" ht="60">
+    <row r="983" spans="1:10" ht="45">
       <c r="A983" s="29" t="s">
         <v>991</v>
       </c>
@@ -33583,7 +33584,7 @@
       </c>
       <c r="I987" s="31"/>
     </row>
-    <row r="988" spans="1:10" ht="30">
+    <row r="988" spans="1:10">
       <c r="A988" s="29" t="s">
         <v>996</v>
       </c>
@@ -33608,7 +33609,7 @@
       </c>
       <c r="I988" s="31"/>
     </row>
-    <row r="989" spans="1:10" ht="45">
+    <row r="989" spans="1:10" ht="30">
       <c r="A989" s="29" t="s">
         <v>997</v>
       </c>
@@ -33658,7 +33659,7 @@
       </c>
       <c r="I990" s="31"/>
     </row>
-    <row r="991" spans="1:10" ht="30">
+    <row r="991" spans="1:10">
       <c r="A991" s="29" t="s">
         <v>999</v>
       </c>
@@ -33708,7 +33709,7 @@
       </c>
       <c r="I992" s="31"/>
     </row>
-    <row r="993" spans="1:9" ht="120">
+    <row r="993" spans="1:9" ht="105">
       <c r="A993" s="29" t="s">
         <v>1001</v>
       </c>
@@ -33783,7 +33784,7 @@
       </c>
       <c r="I995" s="31"/>
     </row>
-    <row r="996" spans="1:9" ht="30">
+    <row r="996" spans="1:9">
       <c r="A996" s="29" t="s">
         <v>1004</v>
       </c>
@@ -33883,7 +33884,7 @@
       </c>
       <c r="I999" s="31"/>
     </row>
-    <row r="1000" spans="1:9" ht="60">
+    <row r="1000" spans="1:9" ht="45">
       <c r="A1000" s="29" t="s">
         <v>1008</v>
       </c>
@@ -33983,7 +33984,7 @@
       </c>
       <c r="I1003" s="31"/>
     </row>
-    <row r="1004" spans="1:9" ht="45">
+    <row r="1004" spans="1:9" ht="30">
       <c r="A1004" s="29" t="s">
         <v>1012</v>
       </c>
@@ -34468,6 +34469,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -34475,11 +34481,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E34:I397 E936:I936 A980:I1022 E938:I978 E399:I934 A20:H978">
@@ -34665,7 +34666,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B922:B1024 B19:B921 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B922:B1024 B19:B921" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -34675,15 +34676,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -34732,6 +34724,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -34739,14 +34740,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34757,6 +34750,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2E1720-7C5C-4B65-93E9-2E29F62023DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978A1AEF-0A99-44DC-817B-2839002C9411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -7235,26 +7235,26 @@
     <t>[In Appendix A: Product Behavior] Implementation does implement the RopCloneStream ROP. (&lt;18&gt; Section 3.2.5.24: Exchange 2003 and Exchange 2007 implement the RopCloneStream ROP ([MS-OXCROPS] section 2.2.9.13).)</t>
   </si>
   <si>
-    <t>[In PidTagAccess Property] The PidTagAccess property ([MS-OXPROPS] section 2.499) indicates the operations available to the client for the object.</t>
-  </si>
-  <si>
-    <t>[In PidTagAccessLevel Property] The PidTagAccessLevel property ([MS-OXPROPS] section 2.501) indicates the client's access level to the object.</t>
-  </si>
-  <si>
-    <t>[In PidTagLastModifierName Property] The PidTagLastModifierName property ([MS-OXPROPS] section 2.760) contains the name of the last mail user to modify the object.</t>
-  </si>
-  <si>
-    <t>[In PidTagObjectType Property] The PidTagObjectType property ([MS-OXPROPS] section 2.807) indicates the type of Server object.</t>
-  </si>
-  <si>
-    <t>[In PidTagRecordKey Property] The PidTagRecordKey property ([MS-OXPROPS] section 2.904) contains a unique binary-comparable identifier for a specific object</t>
-  </si>
-  <si>
-    <t>[In PidTagSearchKey Property] The PidTagSearchKey property ([MS-OXPROPS] section 2.991) contains a unique binary-comparable key that identifies an object for a search.</t>
-  </si>
-  <si>
     <t>15.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In PidTagAccess Property] The PidTagAccess property ([MS-OXPROPS] section 2.505) indicates the operations available to the client for the object.</t>
+  </si>
+  <si>
+    <t>[In PidTagAccessLevel Property] The PidTagAccessLevel property ([MS-OXPROPS] section 2.507) indicates the client's access level to the object.</t>
+  </si>
+  <si>
+    <t>[In PidTagLastModifierName Property] The PidTagLastModifierName property ([MS-OXPROPS] section 2.766) contains the name of the last mail user to modify the object.</t>
+  </si>
+  <si>
+    <t>[In PidTagObjectType Property] The PidTagObjectType property ([MS-OXPROPS] section 2.813) indicates the type of Server object.</t>
+  </si>
+  <si>
+    <t>[In PidTagRecordKey Property] The PidTagRecordKey property ([MS-OXPROPS] section 2.910) contains a unique binary-comparable identifier for a specific object</t>
+  </si>
+  <si>
+    <t>[In PidTagSearchKey Property] The PidTagSearchKey property ([MS-OXPROPS] section 2.997) contains a unique binary-comparable key that identifies an object for a search.</t>
   </si>
 </sst>
 </file>
@@ -7262,14 +7262,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7476,13 +7476,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7515,7 +7515,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7558,6 +7558,21 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7576,24 +7591,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="61">
     <dxf>
@@ -8333,7 +8333,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8656,19 +8656,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -8698,7 +8700,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>2321</v>
+        <v>2315</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -8709,127 +8711,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8842,12 +8844,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8860,12 +8862,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8878,12 +8880,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -8896,60 +8898,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="101.25" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="45" t="s">
         <v>2230</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -9108,7 +9110,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1">
+    <row r="25" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A25" s="22" t="s">
         <v>48</v>
       </c>
@@ -9158,7 +9160,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
@@ -9183,7 +9185,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
@@ -9258,7 +9260,7 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="90">
+    <row r="31" spans="1:12" s="23" customFormat="1" ht="120">
       <c r="A31" s="22" t="s">
         <v>54</v>
       </c>
@@ -9318,7 +9320,7 @@
         <v>1035</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -9335,7 +9337,7 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" ht="30">
+    <row r="34" spans="1:9" ht="45">
       <c r="A34" s="29" t="s">
         <v>57</v>
       </c>
@@ -9460,7 +9462,7 @@
       </c>
       <c r="I38" s="31"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" ht="30">
       <c r="A39" s="29" t="s">
         <v>62</v>
       </c>
@@ -9485,7 +9487,7 @@
       </c>
       <c r="I39" s="31"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" ht="30">
       <c r="A40" s="29" t="s">
         <v>63</v>
       </c>
@@ -9568,7 +9570,7 @@
         <v>1036</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29" t="s">
@@ -9685,7 +9687,7 @@
       </c>
       <c r="I47" s="31"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" ht="30">
       <c r="A48" s="29" t="s">
         <v>71</v>
       </c>
@@ -9710,7 +9712,7 @@
       </c>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" ht="30">
       <c r="A49" s="29" t="s">
         <v>72</v>
       </c>
@@ -9918,7 +9920,7 @@
         <v>1039</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="29" t="s">
@@ -10118,7 +10120,7 @@
         <v>1041</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="29" t="s">
@@ -10185,7 +10187,7 @@
       </c>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="45">
       <c r="A68" s="29" t="s">
         <v>91</v>
       </c>
@@ -10235,7 +10237,7 @@
       </c>
       <c r="I69" s="31"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" ht="30">
       <c r="A70" s="29" t="s">
         <v>93</v>
       </c>
@@ -10260,7 +10262,7 @@
       </c>
       <c r="I70" s="31"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" ht="30">
       <c r="A71" s="29" t="s">
         <v>94</v>
       </c>
@@ -10285,7 +10287,7 @@
       </c>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="29" t="s">
         <v>95</v>
       </c>
@@ -10310,7 +10312,7 @@
       </c>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" ht="30">
       <c r="A73" s="29" t="s">
         <v>96</v>
       </c>
@@ -10335,7 +10337,7 @@
       </c>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" ht="30">
       <c r="A74" s="29" t="s">
         <v>97</v>
       </c>
@@ -10360,7 +10362,7 @@
       </c>
       <c r="I74" s="31"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" ht="30">
       <c r="A75" s="29" t="s">
         <v>98</v>
       </c>
@@ -10385,7 +10387,7 @@
       </c>
       <c r="I75" s="31"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" ht="30">
       <c r="A76" s="29" t="s">
         <v>99</v>
       </c>
@@ -10443,7 +10445,7 @@
         <v>1042</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29" t="s">
@@ -10593,7 +10595,7 @@
         <v>1043</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29" t="s">
@@ -10710,7 +10712,7 @@
       </c>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="1:9" ht="30">
+    <row r="89" spans="1:9" ht="45">
       <c r="A89" s="29" t="s">
         <v>112</v>
       </c>
@@ -10935,7 +10937,7 @@
       </c>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="1:9" ht="30">
+    <row r="98" spans="1:9" ht="45">
       <c r="A98" s="29" t="s">
         <v>121</v>
       </c>
@@ -11037,7 +11039,7 @@
       </c>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="1:9" ht="45">
+    <row r="102" spans="1:9" ht="60">
       <c r="A102" s="29" t="s">
         <v>125</v>
       </c>
@@ -11187,7 +11189,7 @@
       </c>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="1:9" ht="30">
+    <row r="108" spans="1:9" ht="45">
       <c r="A108" s="29" t="s">
         <v>131</v>
       </c>
@@ -11212,7 +11214,7 @@
       </c>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="1:9" ht="30">
+    <row r="109" spans="1:9" ht="45">
       <c r="A109" s="29" t="s">
         <v>132</v>
       </c>
@@ -11287,7 +11289,7 @@
       </c>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" ht="30">
       <c r="A112" s="29" t="s">
         <v>135</v>
       </c>
@@ -11312,7 +11314,7 @@
       </c>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" ht="30">
       <c r="A113" s="29" t="s">
         <v>136</v>
       </c>
@@ -11337,7 +11339,7 @@
       </c>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" ht="30">
       <c r="A114" s="29" t="s">
         <v>137</v>
       </c>
@@ -11362,7 +11364,7 @@
       </c>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" ht="30">
       <c r="A115" s="29" t="s">
         <v>138</v>
       </c>
@@ -11487,7 +11489,7 @@
       </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:9" ht="30">
+    <row r="120" spans="1:9" ht="45">
       <c r="A120" s="29" t="s">
         <v>143</v>
       </c>
@@ -11514,7 +11516,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="30">
+    <row r="121" spans="1:9" ht="45">
       <c r="A121" s="29" t="s">
         <v>144</v>
       </c>
@@ -11539,7 +11541,7 @@
       </c>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="1:9" ht="30">
+    <row r="122" spans="1:9" ht="45">
       <c r="A122" s="29" t="s">
         <v>145</v>
       </c>
@@ -11614,7 +11616,7 @@
       </c>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="1:9" ht="30">
+    <row r="125" spans="1:9" ht="45">
       <c r="A125" s="29" t="s">
         <v>148</v>
       </c>
@@ -11764,7 +11766,7 @@
       </c>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="1:9" ht="45">
+    <row r="131" spans="1:9" ht="60">
       <c r="A131" s="29" t="s">
         <v>154</v>
       </c>
@@ -11789,7 +11791,7 @@
       </c>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="1:9" ht="30">
+    <row r="132" spans="1:9" ht="45">
       <c r="A132" s="29" t="s">
         <v>155</v>
       </c>
@@ -11814,7 +11816,7 @@
       </c>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="29" t="s">
         <v>156</v>
       </c>
@@ -11839,7 +11841,7 @@
       </c>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" ht="30">
       <c r="A134" s="29" t="s">
         <v>157</v>
       </c>
@@ -11864,7 +11866,7 @@
       </c>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" ht="30">
       <c r="A135" s="29" t="s">
         <v>158</v>
       </c>
@@ -11889,7 +11891,7 @@
       </c>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" ht="30">
       <c r="A136" s="29" t="s">
         <v>159</v>
       </c>
@@ -12139,7 +12141,7 @@
       </c>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" ht="30">
       <c r="A146" s="29" t="s">
         <v>169</v>
       </c>
@@ -12189,7 +12191,7 @@
       </c>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" ht="30">
       <c r="A148" s="29" t="s">
         <v>171</v>
       </c>
@@ -12339,7 +12341,7 @@
       </c>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="1:9" ht="30">
+    <row r="154" spans="1:9" ht="45">
       <c r="A154" s="29" t="s">
         <v>177</v>
       </c>
@@ -12614,7 +12616,7 @@
       </c>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="1:9" ht="60">
+    <row r="165" spans="1:9" ht="75">
       <c r="A165" s="29" t="s">
         <v>188</v>
       </c>
@@ -12664,7 +12666,7 @@
       </c>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="1:9" ht="30">
+    <row r="167" spans="1:9" ht="45">
       <c r="A167" s="29" t="s">
         <v>190</v>
       </c>
@@ -12689,7 +12691,7 @@
       </c>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" ht="30">
       <c r="A168" s="29" t="s">
         <v>191</v>
       </c>
@@ -12770,7 +12772,7 @@
       </c>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:9" ht="45">
       <c r="A171" s="29" t="s">
         <v>194</v>
       </c>
@@ -12824,7 +12826,7 @@
       </c>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="1:9" ht="45">
+    <row r="173" spans="1:9" ht="60">
       <c r="A173" s="29" t="s">
         <v>196</v>
       </c>
@@ -13036,7 +13038,7 @@
       </c>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="1:9" ht="30">
+    <row r="181" spans="1:9" ht="45">
       <c r="A181" s="29" t="s">
         <v>204</v>
       </c>
@@ -13086,7 +13088,7 @@
       </c>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="1:9" ht="30">
+    <row r="183" spans="1:9" ht="45">
       <c r="A183" s="29" t="s">
         <v>206</v>
       </c>
@@ -13136,7 +13138,7 @@
       </c>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" s="29" t="s">
         <v>208</v>
       </c>
@@ -13215,7 +13217,7 @@
       </c>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" ht="30">
       <c r="A188" s="29" t="s">
         <v>211</v>
       </c>
@@ -13240,7 +13242,7 @@
       </c>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" ht="30">
       <c r="A189" s="29" t="s">
         <v>212</v>
       </c>
@@ -13265,7 +13267,7 @@
       </c>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" ht="30">
       <c r="A190" s="29" t="s">
         <v>213</v>
       </c>
@@ -13290,7 +13292,7 @@
       </c>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" ht="30">
       <c r="A191" s="29" t="s">
         <v>214</v>
       </c>
@@ -13640,7 +13642,7 @@
       </c>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="1:9" ht="60">
+    <row r="205" spans="1:9" ht="75">
       <c r="A205" s="29" t="s">
         <v>228</v>
       </c>
@@ -13690,7 +13692,7 @@
       </c>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="1:9" ht="30">
+    <row r="207" spans="1:9" ht="45">
       <c r="A207" s="29" t="s">
         <v>230</v>
       </c>
@@ -13742,7 +13744,7 @@
       </c>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" ht="30">
       <c r="A209" s="29" t="s">
         <v>232</v>
       </c>
@@ -13850,7 +13852,7 @@
       </c>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="1:9" ht="30">
+    <row r="213" spans="1:9" ht="45">
       <c r="A213" s="29" t="s">
         <v>236</v>
       </c>
@@ -13904,7 +13906,7 @@
       </c>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="1:9" ht="45">
+    <row r="215" spans="1:9" ht="60">
       <c r="A215" s="29" t="s">
         <v>238</v>
       </c>
@@ -14118,7 +14120,7 @@
       </c>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="1:9" ht="30">
+    <row r="223" spans="1:9" ht="45">
       <c r="A223" s="29" t="s">
         <v>246</v>
       </c>
@@ -14143,7 +14145,7 @@
       </c>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="1:9" ht="30">
+    <row r="224" spans="1:9" ht="45">
       <c r="A224" s="29" t="s">
         <v>247</v>
       </c>
@@ -14168,7 +14170,7 @@
       </c>
       <c r="I224" s="31"/>
     </row>
-    <row r="225" spans="1:9" ht="30">
+    <row r="225" spans="1:9" ht="45">
       <c r="A225" s="29" t="s">
         <v>248</v>
       </c>
@@ -14218,7 +14220,7 @@
       </c>
       <c r="I226" s="31"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" ht="30">
       <c r="A227" s="29" t="s">
         <v>250</v>
       </c>
@@ -14324,7 +14326,7 @@
       </c>
       <c r="I230" s="31"/>
     </row>
-    <row r="231" spans="1:9" ht="30">
+    <row r="231" spans="1:9" ht="45">
       <c r="A231" s="29" t="s">
         <v>254</v>
       </c>
@@ -14476,7 +14478,7 @@
       </c>
       <c r="I236" s="31"/>
     </row>
-    <row r="237" spans="1:9" ht="30">
+    <row r="237" spans="1:9" ht="45">
       <c r="A237" s="29" t="s">
         <v>260</v>
       </c>
@@ -14551,7 +14553,7 @@
       </c>
       <c r="I239" s="31"/>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" ht="30">
       <c r="A240" s="29" t="s">
         <v>263</v>
       </c>
@@ -14801,7 +14803,7 @@
       </c>
       <c r="I249" s="31"/>
     </row>
-    <row r="250" spans="1:9" ht="30">
+    <row r="250" spans="1:9" ht="45">
       <c r="A250" s="29" t="s">
         <v>273</v>
       </c>
@@ -15001,7 +15003,7 @@
       </c>
       <c r="I257" s="31"/>
     </row>
-    <row r="258" spans="1:9" ht="30">
+    <row r="258" spans="1:9" ht="45">
       <c r="A258" s="29" t="s">
         <v>281</v>
       </c>
@@ -15051,7 +15053,7 @@
       </c>
       <c r="I259" s="31"/>
     </row>
-    <row r="260" spans="1:9" ht="30">
+    <row r="260" spans="1:9" ht="45">
       <c r="A260" s="29" t="s">
         <v>283</v>
       </c>
@@ -15076,7 +15078,7 @@
       </c>
       <c r="I260" s="31"/>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" ht="30">
       <c r="A261" s="29" t="s">
         <v>284</v>
       </c>
@@ -15101,7 +15103,7 @@
       </c>
       <c r="I261" s="31"/>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" ht="30">
       <c r="A262" s="29" t="s">
         <v>285</v>
       </c>
@@ -15126,7 +15128,7 @@
       </c>
       <c r="I262" s="31"/>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" ht="30">
       <c r="A263" s="29" t="s">
         <v>286</v>
       </c>
@@ -15151,7 +15153,7 @@
       </c>
       <c r="I263" s="31"/>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" ht="30">
       <c r="A264" s="29" t="s">
         <v>287</v>
       </c>
@@ -15401,7 +15403,7 @@
       </c>
       <c r="I273" s="31"/>
     </row>
-    <row r="274" spans="1:9" ht="45">
+    <row r="274" spans="1:9" ht="60">
       <c r="A274" s="29" t="s">
         <v>297</v>
       </c>
@@ -15453,7 +15455,7 @@
       </c>
       <c r="I275" s="31"/>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" ht="30">
       <c r="A276" s="29" t="s">
         <v>299</v>
       </c>
@@ -15553,7 +15555,7 @@
       </c>
       <c r="I279" s="31"/>
     </row>
-    <row r="280" spans="1:9" ht="30">
+    <row r="280" spans="1:9" ht="45">
       <c r="A280" s="29" t="s">
         <v>303</v>
       </c>
@@ -15803,7 +15805,7 @@
       </c>
       <c r="I289" s="31"/>
     </row>
-    <row r="290" spans="1:9" ht="30">
+    <row r="290" spans="1:9" ht="45">
       <c r="A290" s="29" t="s">
         <v>313</v>
       </c>
@@ -15878,7 +15880,7 @@
       </c>
       <c r="I292" s="31"/>
     </row>
-    <row r="293" spans="1:9" ht="30">
+    <row r="293" spans="1:9" ht="45">
       <c r="A293" s="29" t="s">
         <v>316</v>
       </c>
@@ -15928,7 +15930,7 @@
       </c>
       <c r="I294" s="31"/>
     </row>
-    <row r="295" spans="1:9" ht="30">
+    <row r="295" spans="1:9" ht="45">
       <c r="A295" s="29" t="s">
         <v>318</v>
       </c>
@@ -16228,7 +16230,7 @@
       </c>
       <c r="I306" s="31"/>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" ht="30">
       <c r="A307" s="29" t="s">
         <v>330</v>
       </c>
@@ -16353,7 +16355,7 @@
       </c>
       <c r="I311" s="31"/>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" ht="30">
       <c r="A312" s="29" t="s">
         <v>335</v>
       </c>
@@ -16378,7 +16380,7 @@
       </c>
       <c r="I312" s="31"/>
     </row>
-    <row r="313" spans="1:9" ht="45">
+    <row r="313" spans="1:9" ht="60">
       <c r="A313" s="29" t="s">
         <v>336</v>
       </c>
@@ -16857,7 +16859,7 @@
       </c>
       <c r="I331" s="31"/>
     </row>
-    <row r="332" spans="1:9" ht="30">
+    <row r="332" spans="1:9" ht="45">
       <c r="A332" s="29" t="s">
         <v>355</v>
       </c>
@@ -16907,7 +16909,7 @@
       </c>
       <c r="I333" s="31"/>
     </row>
-    <row r="334" spans="1:9" ht="30">
+    <row r="334" spans="1:9" ht="45">
       <c r="A334" s="29" t="s">
         <v>357</v>
       </c>
@@ -17132,7 +17134,7 @@
       </c>
       <c r="I342" s="31"/>
     </row>
-    <row r="343" spans="1:9" ht="30">
+    <row r="343" spans="1:9" ht="45">
       <c r="A343" s="29" t="s">
         <v>366</v>
       </c>
@@ -17209,7 +17211,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="30">
+    <row r="346" spans="1:9" ht="45">
       <c r="A346" s="29" t="s">
         <v>369</v>
       </c>
@@ -17234,7 +17236,7 @@
       </c>
       <c r="I346" s="31"/>
     </row>
-    <row r="347" spans="1:9" ht="30">
+    <row r="347" spans="1:9" ht="45">
       <c r="A347" s="29" t="s">
         <v>370</v>
       </c>
@@ -17259,7 +17261,7 @@
       </c>
       <c r="I347" s="31"/>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" ht="30">
       <c r="A348" s="29" t="s">
         <v>371</v>
       </c>
@@ -17284,7 +17286,7 @@
       </c>
       <c r="I348" s="31"/>
     </row>
-    <row r="349" spans="1:9" ht="30">
+    <row r="349" spans="1:9" ht="45">
       <c r="A349" s="29" t="s">
         <v>372</v>
       </c>
@@ -17384,7 +17386,7 @@
       </c>
       <c r="I352" s="31"/>
     </row>
-    <row r="353" spans="1:9" ht="30">
+    <row r="353" spans="1:9" ht="45">
       <c r="A353" s="29" t="s">
         <v>376</v>
       </c>
@@ -17484,7 +17486,7 @@
       </c>
       <c r="I356" s="31"/>
     </row>
-    <row r="357" spans="1:9" ht="30">
+    <row r="357" spans="1:9" ht="45">
       <c r="A357" s="29" t="s">
         <v>380</v>
       </c>
@@ -17509,7 +17511,7 @@
       </c>
       <c r="I357" s="31"/>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" ht="30">
       <c r="A358" s="29" t="s">
         <v>381</v>
       </c>
@@ -17534,7 +17536,7 @@
       </c>
       <c r="I358" s="31"/>
     </row>
-    <row r="359" spans="1:9" ht="30">
+    <row r="359" spans="1:9" ht="45">
       <c r="A359" s="29" t="s">
         <v>382</v>
       </c>
@@ -17659,7 +17661,7 @@
       </c>
       <c r="I363" s="31"/>
     </row>
-    <row r="364" spans="1:9" ht="30">
+    <row r="364" spans="1:9" ht="45">
       <c r="A364" s="29" t="s">
         <v>387</v>
       </c>
@@ -17684,7 +17686,7 @@
       </c>
       <c r="I364" s="31"/>
     </row>
-    <row r="365" spans="1:9" ht="30">
+    <row r="365" spans="1:9" ht="45">
       <c r="A365" s="29" t="s">
         <v>388</v>
       </c>
@@ -17709,7 +17711,7 @@
       </c>
       <c r="I365" s="31"/>
     </row>
-    <row r="366" spans="1:9" ht="30">
+    <row r="366" spans="1:9" ht="45">
       <c r="A366" s="29" t="s">
         <v>389</v>
       </c>
@@ -17734,7 +17736,7 @@
       </c>
       <c r="I366" s="31"/>
     </row>
-    <row r="367" spans="1:9" ht="30">
+    <row r="367" spans="1:9" ht="45">
       <c r="A367" s="29" t="s">
         <v>390</v>
       </c>
@@ -17984,7 +17986,7 @@
       </c>
       <c r="I376" s="31"/>
     </row>
-    <row r="377" spans="1:9" ht="30">
+    <row r="377" spans="1:9" ht="45">
       <c r="A377" s="29" t="s">
         <v>400</v>
       </c>
@@ -18059,7 +18061,7 @@
       </c>
       <c r="I379" s="31"/>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" ht="30">
       <c r="A380" s="29" t="s">
         <v>403</v>
       </c>
@@ -18159,7 +18161,7 @@
       </c>
       <c r="I383" s="31"/>
     </row>
-    <row r="384" spans="1:9" ht="30">
+    <row r="384" spans="1:9" ht="45">
       <c r="A384" s="29" t="s">
         <v>407</v>
       </c>
@@ -18184,7 +18186,7 @@
       </c>
       <c r="I384" s="31"/>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" ht="30">
       <c r="A385" s="29" t="s">
         <v>408</v>
       </c>
@@ -18409,7 +18411,7 @@
       </c>
       <c r="I393" s="31"/>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" ht="30">
       <c r="A394" s="29" t="s">
         <v>417</v>
       </c>
@@ -18515,7 +18517,7 @@
       </c>
       <c r="I397" s="31"/>
     </row>
-    <row r="398" spans="1:9" ht="42">
+    <row r="398" spans="1:9" ht="45">
       <c r="A398" s="29" t="s">
         <v>421</v>
       </c>
@@ -18977,7 +18979,7 @@
       </c>
       <c r="I415" s="31"/>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" ht="30">
       <c r="A416" s="29" t="s">
         <v>439</v>
       </c>
@@ -19227,7 +19229,7 @@
       </c>
       <c r="I425" s="31"/>
     </row>
-    <row r="426" spans="1:9" ht="30">
+    <row r="426" spans="1:9" ht="45">
       <c r="A426" s="29" t="s">
         <v>449</v>
       </c>
@@ -19406,7 +19408,7 @@
       </c>
       <c r="I432" s="31"/>
     </row>
-    <row r="433" spans="1:9" ht="30">
+    <row r="433" spans="1:9" ht="45">
       <c r="A433" s="29" t="s">
         <v>456</v>
       </c>
@@ -19681,7 +19683,7 @@
       </c>
       <c r="I443" s="31"/>
     </row>
-    <row r="444" spans="1:9" ht="30">
+    <row r="444" spans="1:9" ht="45">
       <c r="A444" s="29" t="s">
         <v>467</v>
       </c>
@@ -20014,7 +20016,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" ht="30">
       <c r="A457" s="22" t="s">
         <v>2241</v>
       </c>
@@ -20091,7 +20093,7 @@
       </c>
       <c r="I459" s="39"/>
     </row>
-    <row r="460" spans="1:9" ht="30">
+    <row r="460" spans="1:9" ht="45">
       <c r="A460" s="22" t="s">
         <v>2244</v>
       </c>
@@ -20166,7 +20168,7 @@
       </c>
       <c r="I462" s="39"/>
     </row>
-    <row r="463" spans="1:9" ht="30">
+    <row r="463" spans="1:9" ht="45">
       <c r="A463" s="22" t="s">
         <v>2247</v>
       </c>
@@ -20266,7 +20268,7 @@
       </c>
       <c r="I466" s="31"/>
     </row>
-    <row r="467" spans="1:9" ht="30">
+    <row r="467" spans="1:9" ht="45">
       <c r="A467" s="29" t="s">
         <v>479</v>
       </c>
@@ -20445,7 +20447,7 @@
       </c>
       <c r="I473" s="31"/>
     </row>
-    <row r="474" spans="1:9" ht="30">
+    <row r="474" spans="1:9" ht="45">
       <c r="A474" s="29" t="s">
         <v>486</v>
       </c>
@@ -20649,7 +20651,7 @@
       </c>
       <c r="I481" s="31"/>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:9" ht="30">
       <c r="A482" s="29" t="s">
         <v>494</v>
       </c>
@@ -20699,7 +20701,7 @@
       </c>
       <c r="I483" s="31"/>
     </row>
-    <row r="484" spans="1:9" ht="30">
+    <row r="484" spans="1:9" ht="45">
       <c r="A484" s="29" t="s">
         <v>496</v>
       </c>
@@ -20903,7 +20905,7 @@
       </c>
       <c r="I491" s="31"/>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:9" ht="30">
       <c r="A492" s="29" t="s">
         <v>504</v>
       </c>
@@ -21028,7 +21030,7 @@
       </c>
       <c r="I496" s="31"/>
     </row>
-    <row r="497" spans="1:9" ht="30">
+    <row r="497" spans="1:9" ht="45">
       <c r="A497" s="29" t="s">
         <v>509</v>
       </c>
@@ -21507,7 +21509,7 @@
       </c>
       <c r="I515" s="31"/>
     </row>
-    <row r="516" spans="1:9" ht="30">
+    <row r="516" spans="1:9" ht="45">
       <c r="A516" s="29" t="s">
         <v>528</v>
       </c>
@@ -21736,7 +21738,7 @@
       </c>
       <c r="I524" s="31"/>
     </row>
-    <row r="525" spans="1:9" ht="30">
+    <row r="525" spans="1:9" ht="45">
       <c r="A525" s="29" t="s">
         <v>537</v>
       </c>
@@ -21786,7 +21788,7 @@
       </c>
       <c r="I526" s="31"/>
     </row>
-    <row r="527" spans="1:9" ht="30">
+    <row r="527" spans="1:9" ht="45">
       <c r="A527" s="29" t="s">
         <v>539</v>
       </c>
@@ -21936,7 +21938,7 @@
       </c>
       <c r="I532" s="31"/>
     </row>
-    <row r="533" spans="1:9" ht="30">
+    <row r="533" spans="1:9" ht="45">
       <c r="A533" s="29" t="s">
         <v>545</v>
       </c>
@@ -22011,7 +22013,7 @@
       </c>
       <c r="I535" s="31"/>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" ht="30">
       <c r="A536" s="29" t="s">
         <v>548</v>
       </c>
@@ -22361,7 +22363,7 @@
       </c>
       <c r="I549" s="31"/>
     </row>
-    <row r="550" spans="1:9" ht="30">
+    <row r="550" spans="1:9" ht="45">
       <c r="A550" s="29" t="s">
         <v>562</v>
       </c>
@@ -22490,7 +22492,7 @@
       </c>
       <c r="I554" s="31"/>
     </row>
-    <row r="555" spans="1:9">
+    <row r="555" spans="1:9" ht="30">
       <c r="A555" s="29" t="s">
         <v>567</v>
       </c>
@@ -22515,7 +22517,7 @@
       </c>
       <c r="I555" s="31"/>
     </row>
-    <row r="556" spans="1:9" ht="30">
+    <row r="556" spans="1:9" ht="45">
       <c r="A556" s="29" t="s">
         <v>568</v>
       </c>
@@ -22540,7 +22542,7 @@
       </c>
       <c r="I556" s="31"/>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:9" ht="30">
       <c r="A557" s="29" t="s">
         <v>569</v>
       </c>
@@ -22665,7 +22667,7 @@
       </c>
       <c r="I561" s="31"/>
     </row>
-    <row r="562" spans="1:9" ht="45">
+    <row r="562" spans="1:9" ht="60">
       <c r="A562" s="29" t="s">
         <v>574</v>
       </c>
@@ -22690,7 +22692,7 @@
       </c>
       <c r="I562" s="31"/>
     </row>
-    <row r="563" spans="1:9" ht="45">
+    <row r="563" spans="1:9" ht="60">
       <c r="A563" s="29" t="s">
         <v>575</v>
       </c>
@@ -22715,7 +22717,7 @@
       </c>
       <c r="I563" s="31"/>
     </row>
-    <row r="564" spans="1:9" ht="30">
+    <row r="564" spans="1:9" ht="45">
       <c r="A564" s="29" t="s">
         <v>576</v>
       </c>
@@ -22765,7 +22767,7 @@
       </c>
       <c r="I565" s="31"/>
     </row>
-    <row r="566" spans="1:9" ht="30">
+    <row r="566" spans="1:9" ht="45">
       <c r="A566" s="29" t="s">
         <v>578</v>
       </c>
@@ -22869,7 +22871,7 @@
       </c>
       <c r="I569" s="31"/>
     </row>
-    <row r="570" spans="1:9" ht="30">
+    <row r="570" spans="1:9" ht="45">
       <c r="A570" s="29" t="s">
         <v>582</v>
       </c>
@@ -22894,7 +22896,7 @@
       </c>
       <c r="I570" s="31"/>
     </row>
-    <row r="571" spans="1:9">
+    <row r="571" spans="1:9" ht="30">
       <c r="A571" s="29" t="s">
         <v>583</v>
       </c>
@@ -22944,7 +22946,7 @@
       </c>
       <c r="I572" s="31"/>
     </row>
-    <row r="573" spans="1:9">
+    <row r="573" spans="1:9" ht="30">
       <c r="A573" s="29" t="s">
         <v>585</v>
       </c>
@@ -23094,7 +23096,7 @@
       </c>
       <c r="I578" s="31"/>
     </row>
-    <row r="579" spans="1:9" ht="30">
+    <row r="579" spans="1:9" ht="45">
       <c r="A579" s="29" t="s">
         <v>591</v>
       </c>
@@ -23144,7 +23146,7 @@
       </c>
       <c r="I580" s="31"/>
     </row>
-    <row r="581" spans="1:9" ht="30">
+    <row r="581" spans="1:9" ht="45">
       <c r="A581" s="29" t="s">
         <v>593</v>
       </c>
@@ -23273,7 +23275,7 @@
       </c>
       <c r="I585" s="31"/>
     </row>
-    <row r="586" spans="1:9" ht="30">
+    <row r="586" spans="1:9" ht="45">
       <c r="A586" s="29" t="s">
         <v>598</v>
       </c>
@@ -23373,7 +23375,7 @@
       </c>
       <c r="I589" s="31"/>
     </row>
-    <row r="590" spans="1:9" ht="30">
+    <row r="590" spans="1:9" ht="45">
       <c r="A590" s="29" t="s">
         <v>602</v>
       </c>
@@ -23498,7 +23500,7 @@
       </c>
       <c r="I594" s="31"/>
     </row>
-    <row r="595" spans="1:9" ht="30">
+    <row r="595" spans="1:9" ht="45">
       <c r="A595" s="29" t="s">
         <v>607</v>
       </c>
@@ -23752,7 +23754,7 @@
       </c>
       <c r="I604" s="31"/>
     </row>
-    <row r="605" spans="1:9" ht="45">
+    <row r="605" spans="1:9" ht="60">
       <c r="A605" s="29" t="s">
         <v>617</v>
       </c>
@@ -23852,7 +23854,7 @@
       </c>
       <c r="I608" s="31"/>
     </row>
-    <row r="609" spans="1:9" ht="30">
+    <row r="609" spans="1:9" ht="45">
       <c r="A609" s="29" t="s">
         <v>621</v>
       </c>
@@ -23952,7 +23954,7 @@
       </c>
       <c r="I612" s="31"/>
     </row>
-    <row r="613" spans="1:9">
+    <row r="613" spans="1:9" ht="30">
       <c r="A613" s="29" t="s">
         <v>625</v>
       </c>
@@ -24002,7 +24004,7 @@
       </c>
       <c r="I614" s="31"/>
     </row>
-    <row r="615" spans="1:9" ht="30">
+    <row r="615" spans="1:9" ht="45">
       <c r="A615" s="29" t="s">
         <v>627</v>
       </c>
@@ -24177,7 +24179,7 @@
       </c>
       <c r="I621" s="31"/>
     </row>
-    <row r="622" spans="1:9" ht="30">
+    <row r="622" spans="1:9" ht="45">
       <c r="A622" s="29" t="s">
         <v>634</v>
       </c>
@@ -24377,7 +24379,7 @@
       </c>
       <c r="I629" s="31"/>
     </row>
-    <row r="630" spans="1:9" ht="45">
+    <row r="630" spans="1:9" ht="60">
       <c r="A630" s="29" t="s">
         <v>642</v>
       </c>
@@ -24402,7 +24404,7 @@
       </c>
       <c r="I630" s="31"/>
     </row>
-    <row r="631" spans="1:9" ht="60">
+    <row r="631" spans="1:9" ht="75">
       <c r="A631" s="29" t="s">
         <v>643</v>
       </c>
@@ -24527,7 +24529,7 @@
       </c>
       <c r="I635" s="31"/>
     </row>
-    <row r="636" spans="1:9" ht="30">
+    <row r="636" spans="1:9" ht="45">
       <c r="A636" s="29" t="s">
         <v>648</v>
       </c>
@@ -24752,7 +24754,7 @@
       </c>
       <c r="I644" s="31"/>
     </row>
-    <row r="645" spans="1:9" ht="30">
+    <row r="645" spans="1:9" ht="45">
       <c r="A645" s="29" t="s">
         <v>657</v>
       </c>
@@ -24952,7 +24954,7 @@
       </c>
       <c r="I652" s="31"/>
     </row>
-    <row r="653" spans="1:9" ht="45">
+    <row r="653" spans="1:9" ht="60">
       <c r="A653" s="29" t="s">
         <v>665</v>
       </c>
@@ -24977,7 +24979,7 @@
       </c>
       <c r="I653" s="31"/>
     </row>
-    <row r="654" spans="1:9" ht="45">
+    <row r="654" spans="1:9" ht="60">
       <c r="A654" s="29" t="s">
         <v>666</v>
       </c>
@@ -25002,7 +25004,7 @@
       </c>
       <c r="I654" s="31"/>
     </row>
-    <row r="655" spans="1:9" ht="45">
+    <row r="655" spans="1:9" ht="60">
       <c r="A655" s="29" t="s">
         <v>667</v>
       </c>
@@ -25027,7 +25029,7 @@
       </c>
       <c r="I655" s="31"/>
     </row>
-    <row r="656" spans="1:9" ht="45">
+    <row r="656" spans="1:9" ht="60">
       <c r="A656" s="29" t="s">
         <v>668</v>
       </c>
@@ -25052,7 +25054,7 @@
       </c>
       <c r="I656" s="31"/>
     </row>
-    <row r="657" spans="1:9" ht="45">
+    <row r="657" spans="1:9" ht="60">
       <c r="A657" s="29" t="s">
         <v>669</v>
       </c>
@@ -25077,7 +25079,7 @@
       </c>
       <c r="I657" s="31"/>
     </row>
-    <row r="658" spans="1:9" ht="45">
+    <row r="658" spans="1:9" ht="60">
       <c r="A658" s="29" t="s">
         <v>670</v>
       </c>
@@ -25102,7 +25104,7 @@
       </c>
       <c r="I658" s="31"/>
     </row>
-    <row r="659" spans="1:9" ht="45">
+    <row r="659" spans="1:9" ht="60">
       <c r="A659" s="29" t="s">
         <v>671</v>
       </c>
@@ -25127,7 +25129,7 @@
       </c>
       <c r="I659" s="31"/>
     </row>
-    <row r="660" spans="1:9" ht="45">
+    <row r="660" spans="1:9" ht="60">
       <c r="A660" s="29" t="s">
         <v>672</v>
       </c>
@@ -25152,7 +25154,7 @@
       </c>
       <c r="I660" s="31"/>
     </row>
-    <row r="661" spans="1:9" ht="45">
+    <row r="661" spans="1:9" ht="60">
       <c r="A661" s="29" t="s">
         <v>673</v>
       </c>
@@ -25177,7 +25179,7 @@
       </c>
       <c r="I661" s="31"/>
     </row>
-    <row r="662" spans="1:9" ht="45">
+    <row r="662" spans="1:9" ht="60">
       <c r="A662" s="29" t="s">
         <v>674</v>
       </c>
@@ -25277,7 +25279,7 @@
       </c>
       <c r="I665" s="31"/>
     </row>
-    <row r="666" spans="1:9" ht="30">
+    <row r="666" spans="1:9" ht="45">
       <c r="A666" s="29" t="s">
         <v>678</v>
       </c>
@@ -25352,7 +25354,7 @@
       </c>
       <c r="I668" s="31"/>
     </row>
-    <row r="669" spans="1:9" ht="30">
+    <row r="669" spans="1:9" ht="45">
       <c r="A669" s="29" t="s">
         <v>681</v>
       </c>
@@ -25452,7 +25454,7 @@
       </c>
       <c r="I672" s="31"/>
     </row>
-    <row r="673" spans="1:9" ht="30">
+    <row r="673" spans="1:9" ht="45">
       <c r="A673" s="29" t="s">
         <v>685</v>
       </c>
@@ -25585,7 +25587,7 @@
       </c>
       <c r="I677" s="31"/>
     </row>
-    <row r="678" spans="1:9" ht="30">
+    <row r="678" spans="1:9" ht="45">
       <c r="A678" s="29" t="s">
         <v>690</v>
       </c>
@@ -25610,7 +25612,7 @@
       </c>
       <c r="I678" s="31"/>
     </row>
-    <row r="679" spans="1:9" ht="30">
+    <row r="679" spans="1:9" ht="45">
       <c r="A679" s="29" t="s">
         <v>691</v>
       </c>
@@ -25635,7 +25637,7 @@
       </c>
       <c r="I679" s="31"/>
     </row>
-    <row r="680" spans="1:9" ht="30">
+    <row r="680" spans="1:9" ht="45">
       <c r="A680" s="29" t="s">
         <v>692</v>
       </c>
@@ -25685,7 +25687,7 @@
       </c>
       <c r="I681" s="31"/>
     </row>
-    <row r="682" spans="1:9" ht="30">
+    <row r="682" spans="1:9" ht="45">
       <c r="A682" s="29" t="s">
         <v>694</v>
       </c>
@@ -25810,7 +25812,7 @@
       </c>
       <c r="I686" s="31"/>
     </row>
-    <row r="687" spans="1:9" ht="30">
+    <row r="687" spans="1:9" ht="45">
       <c r="A687" s="29" t="s">
         <v>699</v>
       </c>
@@ -25862,7 +25864,7 @@
       </c>
       <c r="I688" s="31"/>
     </row>
-    <row r="689" spans="1:9">
+    <row r="689" spans="1:9" ht="30">
       <c r="A689" s="29" t="s">
         <v>701</v>
       </c>
@@ -25987,7 +25989,7 @@
       </c>
       <c r="I693" s="31"/>
     </row>
-    <row r="694" spans="1:9" ht="30">
+    <row r="694" spans="1:9" ht="45">
       <c r="A694" s="29" t="s">
         <v>704</v>
       </c>
@@ -26062,7 +26064,7 @@
       </c>
       <c r="I696" s="31"/>
     </row>
-    <row r="697" spans="1:9">
+    <row r="697" spans="1:9" ht="30">
       <c r="A697" s="29" t="s">
         <v>707</v>
       </c>
@@ -26187,7 +26189,7 @@
       </c>
       <c r="I701" s="31"/>
     </row>
-    <row r="702" spans="1:9">
+    <row r="702" spans="1:9" ht="30">
       <c r="A702" s="29" t="s">
         <v>712</v>
       </c>
@@ -26312,7 +26314,7 @@
       </c>
       <c r="I706" s="31"/>
     </row>
-    <row r="707" spans="1:9" ht="60">
+    <row r="707" spans="1:9" ht="75">
       <c r="A707" s="29" t="s">
         <v>717</v>
       </c>
@@ -26337,7 +26339,7 @@
       </c>
       <c r="I707" s="31"/>
     </row>
-    <row r="708" spans="1:9" ht="60">
+    <row r="708" spans="1:9" ht="75">
       <c r="A708" s="29" t="s">
         <v>718</v>
       </c>
@@ -26362,7 +26364,7 @@
       </c>
       <c r="I708" s="31"/>
     </row>
-    <row r="709" spans="1:9" ht="60">
+    <row r="709" spans="1:9" ht="75">
       <c r="A709" s="29" t="s">
         <v>719</v>
       </c>
@@ -26387,7 +26389,7 @@
       </c>
       <c r="I709" s="31"/>
     </row>
-    <row r="710" spans="1:9" ht="60">
+    <row r="710" spans="1:9" ht="75">
       <c r="A710" s="29" t="s">
         <v>720</v>
       </c>
@@ -26412,7 +26414,7 @@
       </c>
       <c r="I710" s="31"/>
     </row>
-    <row r="711" spans="1:9" ht="60">
+    <row r="711" spans="1:9" ht="75">
       <c r="A711" s="29" t="s">
         <v>721</v>
       </c>
@@ -26437,7 +26439,7 @@
       </c>
       <c r="I711" s="31"/>
     </row>
-    <row r="712" spans="1:9" ht="30">
+    <row r="712" spans="1:9" ht="45">
       <c r="A712" s="29" t="s">
         <v>722</v>
       </c>
@@ -26512,7 +26514,7 @@
       </c>
       <c r="I714" s="31"/>
     </row>
-    <row r="715" spans="1:9" ht="30">
+    <row r="715" spans="1:9" ht="45">
       <c r="A715" s="29" t="s">
         <v>725</v>
       </c>
@@ -26637,7 +26639,7 @@
       </c>
       <c r="I719" s="31"/>
     </row>
-    <row r="720" spans="1:9">
+    <row r="720" spans="1:9" ht="30">
       <c r="A720" s="29" t="s">
         <v>730</v>
       </c>
@@ -26787,7 +26789,7 @@
       </c>
       <c r="I725" s="31"/>
     </row>
-    <row r="726" spans="1:9" ht="30">
+    <row r="726" spans="1:9" ht="45">
       <c r="A726" s="29" t="s">
         <v>736</v>
       </c>
@@ -26839,7 +26841,7 @@
       </c>
       <c r="I727" s="31"/>
     </row>
-    <row r="728" spans="1:9" ht="45">
+    <row r="728" spans="1:9" ht="60">
       <c r="A728" s="29" t="s">
         <v>738</v>
       </c>
@@ -26914,7 +26916,7 @@
       </c>
       <c r="I730" s="31"/>
     </row>
-    <row r="731" spans="1:9" ht="45">
+    <row r="731" spans="1:9" ht="60">
       <c r="A731" s="29" t="s">
         <v>741</v>
       </c>
@@ -26991,7 +26993,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="734" spans="1:9" ht="30">
+    <row r="734" spans="1:9" ht="45">
       <c r="A734" s="29" t="s">
         <v>744</v>
       </c>
@@ -27116,7 +27118,7 @@
       </c>
       <c r="I738" s="31"/>
     </row>
-    <row r="739" spans="1:9" ht="45">
+    <row r="739" spans="1:9" ht="60">
       <c r="A739" s="29" t="s">
         <v>749</v>
       </c>
@@ -27141,7 +27143,7 @@
       </c>
       <c r="I739" s="31"/>
     </row>
-    <row r="740" spans="1:9" ht="30">
+    <row r="740" spans="1:9" ht="45">
       <c r="A740" s="29" t="s">
         <v>750</v>
       </c>
@@ -27166,7 +27168,7 @@
       </c>
       <c r="I740" s="31"/>
     </row>
-    <row r="741" spans="1:9" ht="45">
+    <row r="741" spans="1:9" ht="60">
       <c r="A741" s="29" t="s">
         <v>751</v>
       </c>
@@ -27191,7 +27193,7 @@
       </c>
       <c r="I741" s="31"/>
     </row>
-    <row r="742" spans="1:9" ht="30">
+    <row r="742" spans="1:9" ht="45">
       <c r="A742" s="29" t="s">
         <v>752</v>
       </c>
@@ -27270,7 +27272,7 @@
       </c>
       <c r="I744" s="31"/>
     </row>
-    <row r="745" spans="1:9">
+    <row r="745" spans="1:9" ht="30">
       <c r="A745" s="29" t="s">
         <v>755</v>
       </c>
@@ -27370,7 +27372,7 @@
       </c>
       <c r="I748" s="31"/>
     </row>
-    <row r="749" spans="1:9" ht="45">
+    <row r="749" spans="1:9" ht="60">
       <c r="A749" s="29" t="s">
         <v>759</v>
       </c>
@@ -27395,7 +27397,7 @@
       </c>
       <c r="I749" s="31"/>
     </row>
-    <row r="750" spans="1:9" ht="45">
+    <row r="750" spans="1:9" ht="60">
       <c r="A750" s="29" t="s">
         <v>760</v>
       </c>
@@ -27422,7 +27424,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="751" spans="1:9" ht="30">
+    <row r="751" spans="1:9" ht="45">
       <c r="A751" s="29" t="s">
         <v>761</v>
       </c>
@@ -27447,7 +27449,7 @@
       </c>
       <c r="I751" s="31"/>
     </row>
-    <row r="752" spans="1:9" ht="45">
+    <row r="752" spans="1:9" ht="60">
       <c r="A752" s="29" t="s">
         <v>762</v>
       </c>
@@ -27474,7 +27476,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="753" spans="1:9" ht="45">
+    <row r="753" spans="1:9" ht="60">
       <c r="A753" s="29" t="s">
         <v>763</v>
       </c>
@@ -27549,7 +27551,7 @@
       </c>
       <c r="I755" s="31"/>
     </row>
-    <row r="756" spans="1:9" ht="30">
+    <row r="756" spans="1:9" ht="45">
       <c r="A756" s="29" t="s">
         <v>766</v>
       </c>
@@ -27601,7 +27603,7 @@
       </c>
       <c r="I757" s="31"/>
     </row>
-    <row r="758" spans="1:9" ht="45">
+    <row r="758" spans="1:9" ht="60">
       <c r="A758" s="29" t="s">
         <v>768</v>
       </c>
@@ -27626,7 +27628,7 @@
       </c>
       <c r="I758" s="31"/>
     </row>
-    <row r="759" spans="1:9" ht="30">
+    <row r="759" spans="1:9" ht="45">
       <c r="A759" s="29" t="s">
         <v>769</v>
       </c>
@@ -27801,7 +27803,7 @@
       </c>
       <c r="I765" s="31"/>
     </row>
-    <row r="766" spans="1:9" ht="30">
+    <row r="766" spans="1:9" ht="45">
       <c r="A766" s="29" t="s">
         <v>776</v>
       </c>
@@ -27853,7 +27855,7 @@
       </c>
       <c r="I767" s="31"/>
     </row>
-    <row r="768" spans="1:9" ht="45">
+    <row r="768" spans="1:9" ht="60">
       <c r="A768" s="29" t="s">
         <v>778</v>
       </c>
@@ -27905,7 +27907,7 @@
       </c>
       <c r="I769" s="31"/>
     </row>
-    <row r="770" spans="1:9" ht="45">
+    <row r="770" spans="1:9" ht="60">
       <c r="A770" s="29" t="s">
         <v>780</v>
       </c>
@@ -27955,7 +27957,7 @@
       </c>
       <c r="I771" s="31"/>
     </row>
-    <row r="772" spans="1:9" ht="30">
+    <row r="772" spans="1:9" ht="45">
       <c r="A772" s="29" t="s">
         <v>782</v>
       </c>
@@ -27982,7 +27984,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="773" spans="1:9" ht="45">
+    <row r="773" spans="1:9" ht="60">
       <c r="A773" s="29" t="s">
         <v>783</v>
       </c>
@@ -28034,7 +28036,7 @@
       </c>
       <c r="I774" s="31"/>
     </row>
-    <row r="775" spans="1:9" ht="45">
+    <row r="775" spans="1:9" ht="60">
       <c r="A775" s="29" t="s">
         <v>785</v>
       </c>
@@ -28059,7 +28061,7 @@
       </c>
       <c r="I775" s="31"/>
     </row>
-    <row r="776" spans="1:9" ht="30">
+    <row r="776" spans="1:9" ht="45">
       <c r="A776" s="29" t="s">
         <v>786</v>
       </c>
@@ -28109,7 +28111,7 @@
       </c>
       <c r="I777" s="31"/>
     </row>
-    <row r="778" spans="1:9" ht="30">
+    <row r="778" spans="1:9" ht="45">
       <c r="A778" s="29" t="s">
         <v>788</v>
       </c>
@@ -28161,7 +28163,7 @@
       </c>
       <c r="I779" s="31"/>
     </row>
-    <row r="780" spans="1:9" ht="45">
+    <row r="780" spans="1:9" ht="60">
       <c r="A780" s="29" t="s">
         <v>790</v>
       </c>
@@ -28188,7 +28190,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="781" spans="1:9" ht="30">
+    <row r="781" spans="1:9" ht="45">
       <c r="A781" s="29" t="s">
         <v>791</v>
       </c>
@@ -28242,7 +28244,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="783" spans="1:9" ht="30">
+    <row r="783" spans="1:9" ht="45">
       <c r="A783" s="29" t="s">
         <v>793</v>
       </c>
@@ -28342,7 +28344,7 @@
       </c>
       <c r="I786" s="31"/>
     </row>
-    <row r="787" spans="1:9" ht="75">
+    <row r="787" spans="1:9" ht="90">
       <c r="A787" s="29" t="s">
         <v>797</v>
       </c>
@@ -28367,7 +28369,7 @@
       </c>
       <c r="I787" s="31"/>
     </row>
-    <row r="788" spans="1:9" ht="60">
+    <row r="788" spans="1:9" ht="75">
       <c r="A788" s="29" t="s">
         <v>798</v>
       </c>
@@ -28392,7 +28394,7 @@
       </c>
       <c r="I788" s="31"/>
     </row>
-    <row r="789" spans="1:9" ht="60">
+    <row r="789" spans="1:9" ht="75">
       <c r="A789" s="29" t="s">
         <v>799</v>
       </c>
@@ -28492,7 +28494,7 @@
       </c>
       <c r="I792" s="31"/>
     </row>
-    <row r="793" spans="1:9" ht="30">
+    <row r="793" spans="1:9" ht="45">
       <c r="A793" s="29" t="s">
         <v>803</v>
       </c>
@@ -28592,7 +28594,7 @@
       </c>
       <c r="I796" s="31"/>
     </row>
-    <row r="797" spans="1:9" ht="45">
+    <row r="797" spans="1:9" ht="60">
       <c r="A797" s="29" t="s">
         <v>807</v>
       </c>
@@ -28617,7 +28619,7 @@
       </c>
       <c r="I797" s="31"/>
     </row>
-    <row r="798" spans="1:9" ht="90">
+    <row r="798" spans="1:9" ht="105">
       <c r="A798" s="29" t="s">
         <v>808</v>
       </c>
@@ -28642,7 +28644,7 @@
       </c>
       <c r="I798" s="31"/>
     </row>
-    <row r="799" spans="1:9" ht="90">
+    <row r="799" spans="1:9" ht="105">
       <c r="A799" s="29" t="s">
         <v>809</v>
       </c>
@@ -28667,7 +28669,7 @@
       </c>
       <c r="I799" s="31"/>
     </row>
-    <row r="800" spans="1:9" ht="105">
+    <row r="800" spans="1:9" ht="120">
       <c r="A800" s="29" t="s">
         <v>810</v>
       </c>
@@ -28692,7 +28694,7 @@
       </c>
       <c r="I800" s="31"/>
     </row>
-    <row r="801" spans="1:9" ht="90">
+    <row r="801" spans="1:9" ht="105">
       <c r="A801" s="29" t="s">
         <v>811</v>
       </c>
@@ -28717,7 +28719,7 @@
       </c>
       <c r="I801" s="31"/>
     </row>
-    <row r="802" spans="1:9" ht="120">
+    <row r="802" spans="1:9" ht="150">
       <c r="A802" s="29" t="s">
         <v>812</v>
       </c>
@@ -28742,7 +28744,7 @@
       </c>
       <c r="I802" s="31"/>
     </row>
-    <row r="803" spans="1:9" ht="90">
+    <row r="803" spans="1:9" ht="105">
       <c r="A803" s="29" t="s">
         <v>813</v>
       </c>
@@ -28817,7 +28819,7 @@
       </c>
       <c r="I805" s="31"/>
     </row>
-    <row r="806" spans="1:9" ht="30">
+    <row r="806" spans="1:9" ht="45">
       <c r="A806" s="29" t="s">
         <v>816</v>
       </c>
@@ -28892,7 +28894,7 @@
       </c>
       <c r="I808" s="31"/>
     </row>
-    <row r="809" spans="1:9">
+    <row r="809" spans="1:9" ht="30">
       <c r="A809" s="29" t="s">
         <v>819</v>
       </c>
@@ -28992,7 +28994,7 @@
       </c>
       <c r="I812" s="31"/>
     </row>
-    <row r="813" spans="1:9" ht="45">
+    <row r="813" spans="1:9" ht="60">
       <c r="A813" s="29" t="s">
         <v>823</v>
       </c>
@@ -29094,7 +29096,7 @@
       </c>
       <c r="I816" s="31"/>
     </row>
-    <row r="817" spans="1:9">
+    <row r="817" spans="1:9" ht="30">
       <c r="A817" s="29" t="s">
         <v>827</v>
       </c>
@@ -29221,7 +29223,7 @@
       </c>
       <c r="I821" s="31"/>
     </row>
-    <row r="822" spans="1:9">
+    <row r="822" spans="1:9" ht="30">
       <c r="A822" s="29" t="s">
         <v>832</v>
       </c>
@@ -29296,7 +29298,7 @@
       </c>
       <c r="I824" s="31"/>
     </row>
-    <row r="825" spans="1:9">
+    <row r="825" spans="1:9" ht="30">
       <c r="A825" s="29" t="s">
         <v>835</v>
       </c>
@@ -29346,7 +29348,7 @@
       </c>
       <c r="I826" s="31"/>
     </row>
-    <row r="827" spans="1:9" ht="30">
+    <row r="827" spans="1:9" ht="45">
       <c r="A827" s="29" t="s">
         <v>837</v>
       </c>
@@ -29421,7 +29423,7 @@
       </c>
       <c r="I829" s="31"/>
     </row>
-    <row r="830" spans="1:9" ht="30">
+    <row r="830" spans="1:9" ht="45">
       <c r="A830" s="29" t="s">
         <v>840</v>
       </c>
@@ -29473,7 +29475,7 @@
       </c>
       <c r="I831" s="31"/>
     </row>
-    <row r="832" spans="1:9">
+    <row r="832" spans="1:9" ht="30">
       <c r="A832" s="29" t="s">
         <v>842</v>
       </c>
@@ -29548,7 +29550,7 @@
       </c>
       <c r="I834" s="31"/>
     </row>
-    <row r="835" spans="1:9" ht="45">
+    <row r="835" spans="1:9" ht="60">
       <c r="A835" s="29" t="s">
         <v>845</v>
       </c>
@@ -29625,7 +29627,7 @@
       </c>
       <c r="I837" s="31"/>
     </row>
-    <row r="838" spans="1:9" ht="30">
+    <row r="838" spans="1:9" ht="45">
       <c r="A838" s="29" t="s">
         <v>848</v>
       </c>
@@ -29677,7 +29679,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="840" spans="1:9" ht="30">
+    <row r="840" spans="1:9" ht="45">
       <c r="A840" s="29" t="s">
         <v>850</v>
       </c>
@@ -29752,7 +29754,7 @@
       </c>
       <c r="I842" s="31"/>
     </row>
-    <row r="843" spans="1:9" ht="30">
+    <row r="843" spans="1:9" ht="45">
       <c r="A843" s="29" t="s">
         <v>853</v>
       </c>
@@ -29779,7 +29781,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="844" spans="1:9" ht="30">
+    <row r="844" spans="1:9" ht="45">
       <c r="A844" s="29" t="s">
         <v>854</v>
       </c>
@@ -29806,7 +29808,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="845" spans="1:9" ht="45">
+    <row r="845" spans="1:9" ht="60">
       <c r="A845" s="22" t="s">
         <v>2258</v>
       </c>
@@ -29856,7 +29858,7 @@
       </c>
       <c r="I846" s="31"/>
     </row>
-    <row r="847" spans="1:9">
+    <row r="847" spans="1:9" ht="30">
       <c r="A847" s="29" t="s">
         <v>856</v>
       </c>
@@ -29931,7 +29933,7 @@
       </c>
       <c r="I849" s="31"/>
     </row>
-    <row r="850" spans="1:9" ht="30">
+    <row r="850" spans="1:9" ht="45">
       <c r="A850" s="29" t="s">
         <v>859</v>
       </c>
@@ -29981,7 +29983,7 @@
       </c>
       <c r="I851" s="31"/>
     </row>
-    <row r="852" spans="1:9">
+    <row r="852" spans="1:9" ht="30">
       <c r="A852" s="29" t="s">
         <v>861</v>
       </c>
@@ -30056,7 +30058,7 @@
       </c>
       <c r="I854" s="31"/>
     </row>
-    <row r="855" spans="1:9">
+    <row r="855" spans="1:9" ht="30">
       <c r="A855" s="29" t="s">
         <v>864</v>
       </c>
@@ -30106,7 +30108,7 @@
       </c>
       <c r="I856" s="31"/>
     </row>
-    <row r="857" spans="1:9">
+    <row r="857" spans="1:9" ht="30">
       <c r="A857" s="29" t="s">
         <v>866</v>
       </c>
@@ -30281,7 +30283,7 @@
       </c>
       <c r="I863" s="31"/>
     </row>
-    <row r="864" spans="1:9">
+    <row r="864" spans="1:9" ht="30">
       <c r="A864" s="29" t="s">
         <v>873</v>
       </c>
@@ -30381,7 +30383,7 @@
       </c>
       <c r="I867" s="31"/>
     </row>
-    <row r="868" spans="1:9" ht="30">
+    <row r="868" spans="1:9" ht="45">
       <c r="A868" s="29" t="s">
         <v>877</v>
       </c>
@@ -30431,7 +30433,7 @@
       </c>
       <c r="I869" s="31"/>
     </row>
-    <row r="870" spans="1:9" ht="30">
+    <row r="870" spans="1:9" ht="45">
       <c r="A870" s="29" t="s">
         <v>879</v>
       </c>
@@ -30458,7 +30460,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="871" spans="1:9" ht="30">
+    <row r="871" spans="1:9" ht="45">
       <c r="A871" s="29" t="s">
         <v>880</v>
       </c>
@@ -30510,7 +30512,7 @@
       </c>
       <c r="I872" s="31"/>
     </row>
-    <row r="873" spans="1:9">
+    <row r="873" spans="1:9" ht="30">
       <c r="A873" s="29" t="s">
         <v>882</v>
       </c>
@@ -30585,7 +30587,7 @@
       </c>
       <c r="I875" s="31"/>
     </row>
-    <row r="876" spans="1:9" ht="30">
+    <row r="876" spans="1:9" ht="45">
       <c r="A876" s="29" t="s">
         <v>885</v>
       </c>
@@ -30662,7 +30664,7 @@
       </c>
       <c r="I878" s="31"/>
     </row>
-    <row r="879" spans="1:9" ht="30">
+    <row r="879" spans="1:9" ht="45">
       <c r="A879" s="29" t="s">
         <v>888</v>
       </c>
@@ -30889,7 +30891,7 @@
       </c>
       <c r="I887" s="31"/>
     </row>
-    <row r="888" spans="1:9" ht="30">
+    <row r="888" spans="1:9" ht="45">
       <c r="A888" s="29" t="s">
         <v>897</v>
       </c>
@@ -30989,7 +30991,7 @@
       </c>
       <c r="I891" s="31"/>
     </row>
-    <row r="892" spans="1:9" ht="30">
+    <row r="892" spans="1:9" ht="45">
       <c r="A892" s="29" t="s">
         <v>901</v>
       </c>
@@ -31041,7 +31043,7 @@
       </c>
       <c r="I893" s="31"/>
     </row>
-    <row r="894" spans="1:9" ht="30">
+    <row r="894" spans="1:9" ht="45">
       <c r="A894" s="29" t="s">
         <v>903</v>
       </c>
@@ -31066,7 +31068,7 @@
       </c>
       <c r="I894" s="31"/>
     </row>
-    <row r="895" spans="1:9" ht="45">
+    <row r="895" spans="1:9" ht="60">
       <c r="A895" s="29" t="s">
         <v>904</v>
       </c>
@@ -31091,7 +31093,7 @@
       </c>
       <c r="I895" s="31"/>
     </row>
-    <row r="896" spans="1:9" ht="30">
+    <row r="896" spans="1:9" ht="45">
       <c r="A896" s="29" t="s">
         <v>905</v>
       </c>
@@ -31141,7 +31143,7 @@
       </c>
       <c r="I897" s="31"/>
     </row>
-    <row r="898" spans="1:9" ht="45">
+    <row r="898" spans="1:9" ht="60">
       <c r="A898" s="29" t="s">
         <v>907</v>
       </c>
@@ -31166,7 +31168,7 @@
       </c>
       <c r="I898" s="31"/>
     </row>
-    <row r="899" spans="1:9" ht="30">
+    <row r="899" spans="1:9" ht="45">
       <c r="A899" s="29" t="s">
         <v>908</v>
       </c>
@@ -31191,7 +31193,7 @@
       </c>
       <c r="I899" s="31"/>
     </row>
-    <row r="900" spans="1:9" ht="30">
+    <row r="900" spans="1:9" ht="45">
       <c r="A900" s="29" t="s">
         <v>909</v>
       </c>
@@ -31291,7 +31293,7 @@
       </c>
       <c r="I903" s="31"/>
     </row>
-    <row r="904" spans="1:9" ht="30">
+    <row r="904" spans="1:9" ht="45">
       <c r="A904" s="29" t="s">
         <v>913</v>
       </c>
@@ -31343,7 +31345,7 @@
       </c>
       <c r="I905" s="31"/>
     </row>
-    <row r="906" spans="1:9" ht="30">
+    <row r="906" spans="1:9" ht="45">
       <c r="A906" s="29" t="s">
         <v>915</v>
       </c>
@@ -31368,7 +31370,7 @@
       </c>
       <c r="I906" s="31"/>
     </row>
-    <row r="907" spans="1:9" ht="30">
+    <row r="907" spans="1:9" ht="45">
       <c r="A907" s="29" t="s">
         <v>916</v>
       </c>
@@ -31468,7 +31470,7 @@
       </c>
       <c r="I910" s="31"/>
     </row>
-    <row r="911" spans="1:9" ht="30">
+    <row r="911" spans="1:9" ht="45">
       <c r="A911" s="29" t="s">
         <v>920</v>
       </c>
@@ -31570,7 +31572,7 @@
       </c>
       <c r="I914" s="31"/>
     </row>
-    <row r="915" spans="1:9">
+    <row r="915" spans="1:9" ht="30">
       <c r="A915" s="29" t="s">
         <v>924</v>
       </c>
@@ -31645,7 +31647,7 @@
       </c>
       <c r="I917" s="31"/>
     </row>
-    <row r="918" spans="1:9" ht="30">
+    <row r="918" spans="1:9" ht="45">
       <c r="A918" s="29" t="s">
         <v>927</v>
       </c>
@@ -31747,7 +31749,7 @@
       </c>
       <c r="I921" s="31"/>
     </row>
-    <row r="922" spans="1:9">
+    <row r="922" spans="1:9" ht="30">
       <c r="A922" s="29" t="s">
         <v>931</v>
       </c>
@@ -31822,7 +31824,7 @@
       </c>
       <c r="I924" s="31"/>
     </row>
-    <row r="925" spans="1:9" ht="30">
+    <row r="925" spans="1:9" ht="45">
       <c r="A925" s="29" t="s">
         <v>934</v>
       </c>
@@ -32077,7 +32079,7 @@
       </c>
       <c r="I933" s="31"/>
     </row>
-    <row r="934" spans="1:9" ht="30">
+    <row r="934" spans="1:9" ht="45">
       <c r="A934" s="29" t="s">
         <v>943</v>
       </c>
@@ -32162,7 +32164,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="937" spans="1:9" ht="45">
+    <row r="937" spans="1:9" ht="60">
       <c r="A937" s="29" t="s">
         <v>946</v>
       </c>
@@ -32394,7 +32396,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="945" spans="1:9" ht="45">
+    <row r="945" spans="1:9" ht="60">
       <c r="A945" s="29" t="s">
         <v>954</v>
       </c>
@@ -32597,7 +32599,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="952" spans="1:9" ht="45">
+    <row r="952" spans="1:9" ht="60">
       <c r="A952" s="29" t="s">
         <v>961</v>
       </c>
@@ -32769,7 +32771,7 @@
       </c>
       <c r="I957" s="31"/>
     </row>
-    <row r="958" spans="1:9" ht="45">
+    <row r="958" spans="1:9" ht="60">
       <c r="A958" s="29" t="s">
         <v>967</v>
       </c>
@@ -32798,7 +32800,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="959" spans="1:9" ht="45">
+    <row r="959" spans="1:9" ht="60">
       <c r="A959" s="29" t="s">
         <v>968</v>
       </c>
@@ -32854,7 +32856,7 @@
       </c>
       <c r="I960" s="31"/>
     </row>
-    <row r="961" spans="1:9" ht="45">
+    <row r="961" spans="1:9" ht="60">
       <c r="A961" s="29" t="s">
         <v>970</v>
       </c>
@@ -32993,7 +32995,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="966" spans="1:9" ht="30">
+    <row r="966" spans="1:9" ht="45">
       <c r="A966" s="29" t="s">
         <v>975</v>
       </c>
@@ -33384,7 +33386,7 @@
       </c>
       <c r="J979" s="31"/>
     </row>
-    <row r="980" spans="1:10">
+    <row r="980" spans="1:10" ht="30">
       <c r="A980" s="29" t="s">
         <v>988</v>
       </c>
@@ -33409,7 +33411,7 @@
       </c>
       <c r="I980" s="31"/>
     </row>
-    <row r="981" spans="1:10">
+    <row r="981" spans="1:10" ht="30">
       <c r="A981" s="29" t="s">
         <v>989</v>
       </c>
@@ -33434,7 +33436,7 @@
       </c>
       <c r="I981" s="31"/>
     </row>
-    <row r="982" spans="1:10">
+    <row r="982" spans="1:10" ht="30">
       <c r="A982" s="29" t="s">
         <v>990</v>
       </c>
@@ -33459,7 +33461,7 @@
       </c>
       <c r="I982" s="31"/>
     </row>
-    <row r="983" spans="1:10" ht="45">
+    <row r="983" spans="1:10" ht="60">
       <c r="A983" s="29" t="s">
         <v>991</v>
       </c>
@@ -33584,7 +33586,7 @@
       </c>
       <c r="I987" s="31"/>
     </row>
-    <row r="988" spans="1:10">
+    <row r="988" spans="1:10" ht="30">
       <c r="A988" s="29" t="s">
         <v>996</v>
       </c>
@@ -33609,7 +33611,7 @@
       </c>
       <c r="I988" s="31"/>
     </row>
-    <row r="989" spans="1:10" ht="30">
+    <row r="989" spans="1:10" ht="45">
       <c r="A989" s="29" t="s">
         <v>997</v>
       </c>
@@ -33659,7 +33661,7 @@
       </c>
       <c r="I990" s="31"/>
     </row>
-    <row r="991" spans="1:10">
+    <row r="991" spans="1:10" ht="30">
       <c r="A991" s="29" t="s">
         <v>999</v>
       </c>
@@ -33709,7 +33711,7 @@
       </c>
       <c r="I992" s="31"/>
     </row>
-    <row r="993" spans="1:9" ht="105">
+    <row r="993" spans="1:9" ht="120">
       <c r="A993" s="29" t="s">
         <v>1001</v>
       </c>
@@ -33784,7 +33786,7 @@
       </c>
       <c r="I995" s="31"/>
     </row>
-    <row r="996" spans="1:9">
+    <row r="996" spans="1:9" ht="30">
       <c r="A996" s="29" t="s">
         <v>1004</v>
       </c>
@@ -33884,7 +33886,7 @@
       </c>
       <c r="I999" s="31"/>
     </row>
-    <row r="1000" spans="1:9" ht="45">
+    <row r="1000" spans="1:9" ht="60">
       <c r="A1000" s="29" t="s">
         <v>1008</v>
       </c>
@@ -33984,7 +33986,7 @@
       </c>
       <c r="I1003" s="31"/>
     </row>
-    <row r="1004" spans="1:9" ht="30">
+    <row r="1004" spans="1:9" ht="45">
       <c r="A1004" s="29" t="s">
         <v>1012</v>
       </c>
@@ -34469,11 +34471,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -34481,6 +34478,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E34:I397 E936:I936 A980:I1022 E938:I978 E399:I934 A20:H978">
@@ -34676,6 +34678,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -34724,32 +34741,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34763,15 +34764,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCPRPT/MS-OXCPRPT_RequirementSpecification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978A1AEF-0A99-44DC-817B-2839002C9411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135D6E27-9D3B-4524-9B0F-23B4EF587DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7235,10 +7235,6 @@
     <t>[In Appendix A: Product Behavior] Implementation does implement the RopCloneStream ROP. (&lt;18&gt; Section 3.2.5.24: Exchange 2003 and Exchange 2007 implement the RopCloneStream ROP ([MS-OXCROPS] section 2.2.9.13).)</t>
   </si>
   <si>
-    <t>15.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[In PidTagAccess Property] The PidTagAccess property ([MS-OXPROPS] section 2.505) indicates the operations available to the client for the object.</t>
   </si>
   <si>
@@ -7255,6 +7251,9 @@
   </si>
   <si>
     <t>[In PidTagSearchKey Property] The PidTagSearchKey property ([MS-OXPROPS] section 2.997) contains a unique binary-comparable key that identifies an object for a search.</t>
+  </si>
+  <si>
+    <t>16.0</t>
   </si>
 </sst>
 </file>
@@ -7558,21 +7557,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7590,6 +7574,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8656,8 +8655,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8700,138 +8699,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>2315</v>
+        <v>2321</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>43374</v>
+        <v>44308</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -8844,12 +8843,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -8862,12 +8861,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -8880,12 +8879,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -8898,60 +8897,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="101.25" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="40" t="s">
         <v>2230</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -9320,7 +9319,7 @@
         <v>1035</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
@@ -9570,7 +9569,7 @@
         <v>1036</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29" t="s">
@@ -9920,7 +9919,7 @@
         <v>1039</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="29" t="s">
@@ -10120,7 +10119,7 @@
         <v>1041</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="29" t="s">
@@ -10445,7 +10444,7 @@
         <v>1042</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29" t="s">
@@ -10595,7 +10594,7 @@
         <v>1043</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="29" t="s">
@@ -34471,6 +34470,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -34478,11 +34482,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E34:I397 E936:I936 A980:I1022 E938:I978 E399:I934 A20:H978">
@@ -34684,15 +34683,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -34741,6 +34731,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
@@ -34756,14 +34755,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34776,4 +34767,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>